--- a/AAII_Financials/Quarterly/OIBRQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OIBRQ_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>OIBRQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1167900</v>
+        <v>909200</v>
       </c>
       <c r="E8" s="3">
-        <v>1188900</v>
+        <v>925400</v>
       </c>
       <c r="F8" s="3">
-        <v>1198000</v>
+        <v>942000</v>
       </c>
       <c r="G8" s="3">
-        <v>1252900</v>
+        <v>949200</v>
       </c>
       <c r="H8" s="3">
-        <v>1280000</v>
+        <v>992700</v>
       </c>
       <c r="I8" s="3">
-        <v>2618600</v>
+        <v>1014200</v>
       </c>
       <c r="J8" s="3">
+        <v>2074900</v>
+      </c>
+      <c r="K8" s="3">
         <v>1323700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1494100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1528900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3076100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1528100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1568600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1586300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>894200</v>
+        <v>694300</v>
       </c>
       <c r="E9" s="3">
-        <v>901300</v>
+        <v>708600</v>
       </c>
       <c r="F9" s="3">
-        <v>904500</v>
+        <v>714100</v>
       </c>
       <c r="G9" s="3">
-        <v>896700</v>
+        <v>716700</v>
       </c>
       <c r="H9" s="3">
-        <v>920500</v>
+        <v>820500</v>
       </c>
       <c r="I9" s="3">
-        <v>1822100</v>
+        <v>729400</v>
       </c>
       <c r="J9" s="3">
+        <v>1443700</v>
+      </c>
+      <c r="K9" s="3">
         <v>873000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>799200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>963600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1928400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>942400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>806300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>991000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>273600</v>
+        <v>214900</v>
       </c>
       <c r="E10" s="3">
-        <v>287600</v>
+        <v>216800</v>
       </c>
       <c r="F10" s="3">
-        <v>293400</v>
+        <v>227900</v>
       </c>
       <c r="G10" s="3">
-        <v>356100</v>
+        <v>232500</v>
       </c>
       <c r="H10" s="3">
-        <v>359500</v>
+        <v>172200</v>
       </c>
       <c r="I10" s="3">
-        <v>796500</v>
+        <v>284900</v>
       </c>
       <c r="J10" s="3">
+        <v>631100</v>
+      </c>
+      <c r="K10" s="3">
         <v>450700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>694900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>565400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1147700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>585700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>762300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>595400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -984,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>13100</v>
+        <v>-100</v>
       </c>
       <c r="I14" s="3">
+        <v>10400</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-2055700</v>
+      </c>
+      <c r="K14" s="3">
         <v>-2594500</v>
-      </c>
-      <c r="J14" s="3">
-        <v>-2594500</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1914900</v>
+        <v>984100</v>
       </c>
       <c r="E17" s="3">
-        <v>1258600</v>
+        <v>1517300</v>
       </c>
       <c r="F17" s="3">
-        <v>982000</v>
+        <v>997200</v>
       </c>
       <c r="G17" s="3">
-        <v>2582300</v>
+        <v>778100</v>
       </c>
       <c r="H17" s="3">
-        <v>1294500</v>
+        <v>2046100</v>
       </c>
       <c r="I17" s="3">
-        <v>-76600</v>
+        <v>1025700</v>
       </c>
       <c r="J17" s="3">
+        <v>-60700</v>
+      </c>
+      <c r="K17" s="3">
         <v>-1341700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2243800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1472200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2922700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1445200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1932900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1562400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-747000</v>
+        <v>-75000</v>
       </c>
       <c r="E18" s="3">
-        <v>-69700</v>
+        <v>-591900</v>
       </c>
       <c r="F18" s="3">
-        <v>216000</v>
+        <v>-55200</v>
       </c>
       <c r="G18" s="3">
-        <v>-1329400</v>
+        <v>171100</v>
       </c>
       <c r="H18" s="3">
-        <v>-14500</v>
+        <v>-1053400</v>
       </c>
       <c r="I18" s="3">
-        <v>2695200</v>
+        <v>-11500</v>
       </c>
       <c r="J18" s="3">
+        <v>2135500</v>
+      </c>
+      <c r="K18" s="3">
         <v>2665300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-749700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>56800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>153400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>82900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-364300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1210,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-452800</v>
+        <v>-326700</v>
       </c>
       <c r="E20" s="3">
-        <v>-227000</v>
+        <v>-358800</v>
       </c>
       <c r="F20" s="3">
-        <v>43200</v>
+        <v>-179900</v>
       </c>
       <c r="G20" s="3">
-        <v>-131600</v>
+        <v>34300</v>
       </c>
       <c r="H20" s="3">
-        <v>-225600</v>
+        <v>-104300</v>
       </c>
       <c r="I20" s="3">
-        <v>4947600</v>
+        <v>-178800</v>
       </c>
       <c r="J20" s="3">
+        <v>3920200</v>
+      </c>
+      <c r="K20" s="3">
         <v>4453000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>730000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-847100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>170900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>30100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-192100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-790700</v>
+        <v>-86600</v>
       </c>
       <c r="E21" s="3">
-        <v>107100</v>
+        <v>-626500</v>
       </c>
       <c r="F21" s="3">
-        <v>653800</v>
+        <v>84900</v>
       </c>
       <c r="G21" s="3">
-        <v>-1113900</v>
+        <v>518000</v>
       </c>
       <c r="H21" s="3">
-        <v>103500</v>
+        <v>-882600</v>
       </c>
       <c r="I21" s="3">
-        <v>8309100</v>
+        <v>82000</v>
       </c>
       <c r="J21" s="3">
+        <v>6583700</v>
+      </c>
+      <c r="K21" s="3">
         <v>7414600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>317700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>478000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>58000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>581300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-156900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>215900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>102000</v>
+        <v>72700</v>
       </c>
       <c r="E22" s="3">
-        <v>93700</v>
+        <v>80800</v>
       </c>
       <c r="F22" s="3">
-        <v>90300</v>
+        <v>74300</v>
       </c>
       <c r="G22" s="3">
-        <v>82500</v>
+        <v>71600</v>
       </c>
       <c r="H22" s="3">
-        <v>101100</v>
+        <v>65400</v>
       </c>
       <c r="I22" s="3">
-        <v>774600</v>
-      </c>
-      <c r="J22" s="3" t="s">
+        <v>80100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>613800</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>254600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>195900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>471000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>203600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>205400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1301800</v>
+        <v>-474300</v>
       </c>
       <c r="E23" s="3">
-        <v>-390400</v>
+        <v>-1031500</v>
       </c>
       <c r="F23" s="3">
-        <v>168900</v>
+        <v>-309400</v>
       </c>
       <c r="G23" s="3">
-        <v>-1543500</v>
+        <v>133800</v>
       </c>
       <c r="H23" s="3">
-        <v>-341200</v>
+        <v>-1223000</v>
       </c>
       <c r="I23" s="3">
-        <v>6868200</v>
+        <v>-270400</v>
       </c>
       <c r="J23" s="3">
+        <v>5442000</v>
+      </c>
+      <c r="K23" s="3">
         <v>7118400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-274300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>61200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1164700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>50100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-539700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-398200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>48700</v>
+        <v>-52200</v>
       </c>
       <c r="E24" s="3">
-        <v>8700</v>
+        <v>38600</v>
       </c>
       <c r="F24" s="3">
-        <v>10400</v>
+        <v>6900</v>
       </c>
       <c r="G24" s="3">
-        <v>-762900</v>
+        <v>8200</v>
       </c>
       <c r="H24" s="3">
-        <v>-29500</v>
+        <v>-604500</v>
       </c>
       <c r="I24" s="3">
-        <v>27600</v>
+        <v>-23300</v>
       </c>
       <c r="J24" s="3">
+        <v>21900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-10200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>527400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>67600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-49200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>97000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>549500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-105800</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1350600</v>
+        <v>-422100</v>
       </c>
       <c r="E26" s="3">
-        <v>-399100</v>
+        <v>-1070100</v>
       </c>
       <c r="F26" s="3">
-        <v>158500</v>
+        <v>-316300</v>
       </c>
       <c r="G26" s="3">
-        <v>-780600</v>
+        <v>125600</v>
       </c>
       <c r="H26" s="3">
-        <v>-311700</v>
+        <v>-618500</v>
       </c>
       <c r="I26" s="3">
-        <v>6840600</v>
+        <v>-247000</v>
       </c>
       <c r="J26" s="3">
+        <v>5420100</v>
+      </c>
+      <c r="K26" s="3">
         <v>7128500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-801600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1115500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-46900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1089200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-292400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1342000</v>
+        <v>-418700</v>
       </c>
       <c r="E27" s="3">
-        <v>-364100</v>
+        <v>-1063300</v>
       </c>
       <c r="F27" s="3">
-        <v>132700</v>
+        <v>-288500</v>
       </c>
       <c r="G27" s="3">
-        <v>-784200</v>
+        <v>105200</v>
       </c>
       <c r="H27" s="3">
-        <v>-312100</v>
+        <v>-621400</v>
       </c>
       <c r="I27" s="3">
-        <v>6838800</v>
+        <v>-247300</v>
       </c>
       <c r="J27" s="3">
+        <v>5418700</v>
+      </c>
+      <c r="K27" s="3">
         <v>7132500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-743600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1107400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-46800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1070600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1600,8 +1660,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1612,14 +1672,17 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>452800</v>
+        <v>326700</v>
       </c>
       <c r="E32" s="3">
-        <v>227000</v>
+        <v>358800</v>
       </c>
       <c r="F32" s="3">
-        <v>-43200</v>
+        <v>179900</v>
       </c>
       <c r="G32" s="3">
-        <v>131600</v>
+        <v>-34300</v>
       </c>
       <c r="H32" s="3">
-        <v>225600</v>
+        <v>104300</v>
       </c>
       <c r="I32" s="3">
-        <v>-4947600</v>
+        <v>178800</v>
       </c>
       <c r="J32" s="3">
+        <v>-3920200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4453000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-730000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>847100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-170900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-30100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>192100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1342000</v>
+        <v>-418700</v>
       </c>
       <c r="E33" s="3">
-        <v>-364100</v>
+        <v>-1063300</v>
       </c>
       <c r="F33" s="3">
-        <v>132700</v>
+        <v>-288500</v>
       </c>
       <c r="G33" s="3">
-        <v>-784200</v>
+        <v>105200</v>
       </c>
       <c r="H33" s="3">
-        <v>-312100</v>
+        <v>-621400</v>
       </c>
       <c r="I33" s="3">
-        <v>6838800</v>
+        <v>-247300</v>
       </c>
       <c r="J33" s="3">
+        <v>5418700</v>
+      </c>
+      <c r="K33" s="3">
         <v>7132500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-743600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1107400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-46800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1070600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1342000</v>
+        <v>-418700</v>
       </c>
       <c r="E35" s="3">
-        <v>-364100</v>
+        <v>-1063300</v>
       </c>
       <c r="F35" s="3">
-        <v>132700</v>
+        <v>-288500</v>
       </c>
       <c r="G35" s="3">
-        <v>-784200</v>
+        <v>105200</v>
       </c>
       <c r="H35" s="3">
-        <v>-312100</v>
+        <v>-621400</v>
       </c>
       <c r="I35" s="3">
-        <v>6838800</v>
+        <v>-247300</v>
       </c>
       <c r="J35" s="3">
+        <v>5418700</v>
+      </c>
+      <c r="K35" s="3">
         <v>7132500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-743600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1107400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-46800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1070600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2052,432 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>695500</v>
+        <v>385200</v>
       </c>
       <c r="E41" s="3">
-        <v>948300</v>
+        <v>551100</v>
       </c>
       <c r="F41" s="3">
-        <v>1408100</v>
+        <v>751400</v>
       </c>
       <c r="G41" s="3">
-        <v>1024100</v>
+        <v>1115700</v>
       </c>
       <c r="H41" s="3">
-        <v>1183700</v>
+        <v>811400</v>
       </c>
       <c r="I41" s="3">
-        <v>1190000</v>
+        <v>937900</v>
       </c>
       <c r="J41" s="3">
+        <v>942900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1418200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1759500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1950600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1878900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1861600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1876300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1724800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>41700</v>
+        <v>34000</v>
       </c>
       <c r="E42" s="3">
-        <v>45900</v>
+        <v>33000</v>
       </c>
       <c r="F42" s="3">
-        <v>46600</v>
+        <v>36400</v>
       </c>
       <c r="G42" s="3">
-        <v>47200</v>
+        <v>36900</v>
       </c>
       <c r="H42" s="3">
-        <v>6900</v>
+        <v>37400</v>
       </c>
       <c r="I42" s="3">
-        <v>9800</v>
+        <v>5500</v>
       </c>
       <c r="J42" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K42" s="3">
         <v>8800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5600</v>
-      </c>
-      <c r="M42" s="3">
-        <v>4400</v>
       </c>
       <c r="N42" s="3">
         <v>4400</v>
       </c>
       <c r="O42" s="3">
+        <v>4400</v>
+      </c>
+      <c r="P42" s="3">
         <v>28900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>26700</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2005000</v>
+        <v>1474100</v>
       </c>
       <c r="E43" s="3">
-        <v>2114400</v>
+        <v>1588700</v>
       </c>
       <c r="F43" s="3">
-        <v>2092400</v>
+        <v>1675300</v>
       </c>
       <c r="G43" s="3">
-        <v>1854400</v>
+        <v>1657900</v>
       </c>
       <c r="H43" s="3">
-        <v>2044100</v>
+        <v>1469300</v>
       </c>
       <c r="I43" s="3">
-        <v>2082700</v>
+        <v>1619700</v>
       </c>
       <c r="J43" s="3">
+        <v>1650300</v>
+      </c>
+      <c r="K43" s="3">
         <v>2247600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2454200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2684900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2699500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2565800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2582900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2995800</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>74200</v>
+        <v>60500</v>
       </c>
       <c r="E44" s="3">
-        <v>74500</v>
+        <v>58800</v>
       </c>
       <c r="F44" s="3">
-        <v>70000</v>
+        <v>59000</v>
       </c>
       <c r="G44" s="3">
-        <v>74100</v>
+        <v>55400</v>
       </c>
       <c r="H44" s="3">
-        <v>61100</v>
+        <v>58700</v>
       </c>
       <c r="I44" s="3">
-        <v>60500</v>
+        <v>48400</v>
       </c>
       <c r="J44" s="3">
+        <v>48000</v>
+      </c>
+      <c r="K44" s="3">
         <v>61200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>65000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>138700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>129300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>115300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>88100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1889900</v>
+        <v>1375500</v>
       </c>
       <c r="E45" s="3">
-        <v>1939700</v>
+        <v>1497500</v>
       </c>
       <c r="F45" s="3">
-        <v>2001300</v>
+        <v>1536900</v>
       </c>
       <c r="G45" s="3">
-        <v>1977400</v>
+        <v>1585800</v>
       </c>
       <c r="H45" s="3">
-        <v>2036700</v>
+        <v>1566800</v>
       </c>
       <c r="I45" s="3">
-        <v>2087700</v>
+        <v>1613800</v>
       </c>
       <c r="J45" s="3">
+        <v>1654200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1917000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1804300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1856700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2049900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1864900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1926500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2113900</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4706500</v>
+        <v>3329300</v>
       </c>
       <c r="E46" s="3">
-        <v>5122800</v>
+        <v>3729200</v>
       </c>
       <c r="F46" s="3">
-        <v>5618300</v>
+        <v>4059000</v>
       </c>
       <c r="G46" s="3">
-        <v>4977100</v>
+        <v>4451700</v>
       </c>
       <c r="H46" s="3">
-        <v>5332500</v>
+        <v>3943600</v>
       </c>
       <c r="I46" s="3">
-        <v>5430800</v>
+        <v>4225200</v>
       </c>
       <c r="J46" s="3">
+        <v>4303100</v>
+      </c>
+      <c r="K46" s="3">
         <v>5652800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6088400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6636400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6762000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6412000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6502600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6955700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>732900</v>
+        <v>568600</v>
       </c>
       <c r="E47" s="3">
-        <v>464300</v>
+        <v>580700</v>
       </c>
       <c r="F47" s="3">
-        <v>477100</v>
+        <v>367900</v>
       </c>
       <c r="G47" s="3">
-        <v>184900</v>
+        <v>378000</v>
       </c>
       <c r="H47" s="3">
-        <v>180300</v>
+        <v>146500</v>
       </c>
       <c r="I47" s="3">
-        <v>187300</v>
+        <v>142900</v>
       </c>
       <c r="J47" s="3">
+        <v>148400</v>
+      </c>
+      <c r="K47" s="3">
         <v>177100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>195900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>216900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>228500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>209400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>216900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>226500</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8992000</v>
+        <v>7199700</v>
       </c>
       <c r="E48" s="3">
-        <v>8821100</v>
+        <v>7124900</v>
       </c>
       <c r="F48" s="3">
-        <v>8623600</v>
+        <v>6989400</v>
       </c>
       <c r="G48" s="3">
-        <v>6637900</v>
+        <v>6833000</v>
       </c>
       <c r="H48" s="3">
-        <v>6430600</v>
+        <v>5259600</v>
       </c>
       <c r="I48" s="3">
-        <v>6345100</v>
+        <v>5095300</v>
       </c>
       <c r="J48" s="3">
+        <v>5027500</v>
+      </c>
+      <c r="K48" s="3">
         <v>6289300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6919300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6805600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6753900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6512100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6426600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6291400</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>686900</v>
+        <v>739700</v>
       </c>
       <c r="E49" s="3">
-        <v>1520000</v>
+        <v>544300</v>
       </c>
       <c r="F49" s="3">
-        <v>1574300</v>
+        <v>1204400</v>
       </c>
       <c r="G49" s="3">
-        <v>1622600</v>
+        <v>1247400</v>
       </c>
       <c r="H49" s="3">
-        <v>1751500</v>
+        <v>1285700</v>
       </c>
       <c r="I49" s="3">
-        <v>1823400</v>
+        <v>1387800</v>
       </c>
       <c r="J49" s="3">
+        <v>1444800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1928400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2140900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2740300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2817800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2696100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1221800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>832100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1897500</v>
+        <v>1464900</v>
       </c>
       <c r="E52" s="3">
-        <v>1904900</v>
+        <v>1503500</v>
       </c>
       <c r="F52" s="3">
-        <v>1872200</v>
+        <v>1509400</v>
       </c>
       <c r="G52" s="3">
-        <v>1858500</v>
+        <v>1483400</v>
       </c>
       <c r="H52" s="3">
-        <v>2004700</v>
+        <v>1472600</v>
       </c>
       <c r="I52" s="3">
-        <v>1960100</v>
+        <v>1588400</v>
       </c>
       <c r="J52" s="3">
+        <v>1553100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1991300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2253000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4740800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4701300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4400600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2194100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5617900</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17015800</v>
+        <v>13302100</v>
       </c>
       <c r="E54" s="3">
-        <v>17833200</v>
+        <v>13482500</v>
       </c>
       <c r="F54" s="3">
-        <v>18165600</v>
+        <v>14130100</v>
       </c>
       <c r="G54" s="3">
-        <v>15281000</v>
+        <v>14393500</v>
       </c>
       <c r="H54" s="3">
-        <v>15699700</v>
+        <v>12108000</v>
       </c>
       <c r="I54" s="3">
-        <v>15746700</v>
+        <v>12439700</v>
       </c>
       <c r="J54" s="3">
+        <v>12476900</v>
+      </c>
+      <c r="K54" s="3">
         <v>16038900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17597700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>21140000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>21263500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>20230100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16366400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>19923600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,211 +2748,224 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1377900</v>
+        <v>1035000</v>
       </c>
       <c r="E57" s="3">
-        <v>1410000</v>
+        <v>1091800</v>
       </c>
       <c r="F57" s="3">
-        <v>1317200</v>
+        <v>1117200</v>
       </c>
       <c r="G57" s="3">
-        <v>1220300</v>
+        <v>1043700</v>
       </c>
       <c r="H57" s="3">
-        <v>1021600</v>
+        <v>966900</v>
       </c>
       <c r="I57" s="3">
-        <v>966600</v>
+        <v>809500</v>
       </c>
       <c r="J57" s="3">
+        <v>765900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1148900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1955500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1819400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1803900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1648700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1631900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1766800</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>384100</v>
+        <v>339800</v>
       </c>
       <c r="E58" s="3">
-        <v>417200</v>
+        <v>304300</v>
       </c>
       <c r="F58" s="3">
-        <v>362200</v>
+        <v>330500</v>
       </c>
       <c r="G58" s="3">
-        <v>157100</v>
+        <v>287000</v>
       </c>
       <c r="H58" s="3">
-        <v>116800</v>
+        <v>124500</v>
       </c>
       <c r="I58" s="3">
-        <v>69800</v>
+        <v>92600</v>
       </c>
       <c r="J58" s="3">
+        <v>55300</v>
+      </c>
+      <c r="K58" s="3">
         <v>22900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13976600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13260500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>13287000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11958200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>11929200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>11962600</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1022400</v>
+        <v>815100</v>
       </c>
       <c r="E59" s="3">
-        <v>977500</v>
+        <v>810100</v>
       </c>
       <c r="F59" s="3">
-        <v>1125700</v>
+        <v>774500</v>
       </c>
       <c r="G59" s="3">
-        <v>1118700</v>
+        <v>892000</v>
       </c>
       <c r="H59" s="3">
-        <v>1118600</v>
+        <v>886400</v>
       </c>
       <c r="I59" s="3">
-        <v>1059100</v>
+        <v>886300</v>
       </c>
       <c r="J59" s="3">
+        <v>839200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1301300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1474000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1595900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1629500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1459300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1642600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1427200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2784300</v>
+        <v>2190000</v>
       </c>
       <c r="E60" s="3">
-        <v>2804700</v>
+        <v>2206200</v>
       </c>
       <c r="F60" s="3">
-        <v>2805100</v>
+        <v>2222300</v>
       </c>
       <c r="G60" s="3">
-        <v>2496200</v>
+        <v>2222600</v>
       </c>
       <c r="H60" s="3">
-        <v>2257100</v>
+        <v>1977900</v>
       </c>
       <c r="I60" s="3">
-        <v>2095500</v>
+        <v>1788400</v>
       </c>
       <c r="J60" s="3">
+        <v>1660300</v>
+      </c>
+      <c r="K60" s="3">
         <v>2473100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17406100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16675800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16720400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15066200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15203800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15156600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5719300</v>
+        <v>4540700</v>
       </c>
       <c r="E61" s="3">
-        <v>5426100</v>
+        <v>4531700</v>
       </c>
       <c r="F61" s="3">
-        <v>5354700</v>
+        <v>4299400</v>
       </c>
       <c r="G61" s="3">
-        <v>3684200</v>
+        <v>4242800</v>
       </c>
       <c r="H61" s="3">
-        <v>3651400</v>
+        <v>2919200</v>
       </c>
       <c r="I61" s="3">
-        <v>3484500</v>
+        <v>2893200</v>
       </c>
       <c r="J61" s="3">
+        <v>2761000</v>
+      </c>
+      <c r="K61" s="3">
         <v>3137600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2839,52 +2981,58 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3822800</v>
+        <v>3278600</v>
       </c>
       <c r="E62" s="3">
-        <v>3563700</v>
+        <v>3029000</v>
       </c>
       <c r="F62" s="3">
-        <v>3600300</v>
+        <v>2823700</v>
       </c>
       <c r="G62" s="3">
-        <v>3754000</v>
+        <v>2852700</v>
       </c>
       <c r="H62" s="3">
-        <v>3658400</v>
+        <v>2974500</v>
       </c>
       <c r="I62" s="3">
-        <v>3715800</v>
+        <v>2898700</v>
       </c>
       <c r="J62" s="3">
+        <v>2944200</v>
+      </c>
+      <c r="K62" s="3">
         <v>3677600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3656000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2249900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2291100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2263300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2816300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2183300</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12364700</v>
+        <v>10036300</v>
       </c>
       <c r="E66" s="3">
-        <v>11845500</v>
+        <v>9797200</v>
       </c>
       <c r="F66" s="3">
-        <v>11812700</v>
+        <v>9385800</v>
       </c>
       <c r="G66" s="3">
-        <v>9991300</v>
+        <v>9359800</v>
       </c>
       <c r="H66" s="3">
-        <v>9631200</v>
+        <v>7916600</v>
       </c>
       <c r="I66" s="3">
-        <v>9360900</v>
+        <v>7631300</v>
       </c>
       <c r="J66" s="3">
+        <v>7417100</v>
+      </c>
+      <c r="K66" s="3">
         <v>9352500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21137300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19003400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19099400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17422600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18216300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17565100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2706400</v>
+        <v>-2563100</v>
       </c>
       <c r="E72" s="3">
-        <v>-1318200</v>
+        <v>-2144400</v>
       </c>
       <c r="F72" s="3">
-        <v>-379000</v>
+        <v>-1044500</v>
       </c>
       <c r="G72" s="3">
-        <v>-1408600</v>
+        <v>-300300</v>
       </c>
       <c r="H72" s="3">
-        <v>-664800</v>
+        <v>-1116100</v>
       </c>
       <c r="I72" s="3">
-        <v>103700</v>
+        <v>-526800</v>
       </c>
       <c r="J72" s="3">
+        <v>82200</v>
+      </c>
+      <c r="K72" s="3">
         <v>397400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7467000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1821000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1823000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-952300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5646300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1463600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4651100</v>
+        <v>3265800</v>
       </c>
       <c r="E76" s="3">
-        <v>5987600</v>
+        <v>3685300</v>
       </c>
       <c r="F76" s="3">
-        <v>6352800</v>
+        <v>4744300</v>
       </c>
       <c r="G76" s="3">
-        <v>5289800</v>
+        <v>5033700</v>
       </c>
       <c r="H76" s="3">
-        <v>6068500</v>
+        <v>4191400</v>
       </c>
       <c r="I76" s="3">
-        <v>6385700</v>
+        <v>4808300</v>
       </c>
       <c r="J76" s="3">
+        <v>5059700</v>
+      </c>
+      <c r="K76" s="3">
         <v>6686400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3539600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2136600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2164100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2807500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1849900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2358500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1342000</v>
+        <v>-418700</v>
       </c>
       <c r="E81" s="3">
-        <v>-364100</v>
+        <v>-1063300</v>
       </c>
       <c r="F81" s="3">
-        <v>132700</v>
+        <v>-288500</v>
       </c>
       <c r="G81" s="3">
-        <v>-784200</v>
+        <v>105200</v>
       </c>
       <c r="H81" s="3">
-        <v>-312100</v>
+        <v>-621400</v>
       </c>
       <c r="I81" s="3">
-        <v>6838800</v>
+        <v>-247300</v>
       </c>
       <c r="J81" s="3">
+        <v>5418700</v>
+      </c>
+      <c r="K81" s="3">
         <v>7132500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-743600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1107400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-46800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1070600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3825,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>409200</v>
+        <v>315100</v>
       </c>
       <c r="E83" s="3">
-        <v>403800</v>
+        <v>324200</v>
       </c>
       <c r="F83" s="3">
-        <v>394600</v>
+        <v>320000</v>
       </c>
       <c r="G83" s="3">
-        <v>347100</v>
+        <v>312600</v>
       </c>
       <c r="H83" s="3">
-        <v>343600</v>
+        <v>275000</v>
       </c>
       <c r="I83" s="3">
-        <v>666300</v>
+        <v>272300</v>
       </c>
       <c r="J83" s="3">
+        <v>528000</v>
+      </c>
+      <c r="K83" s="3">
         <v>296200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>186400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>371800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>751700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>376900</v>
-      </c>
-      <c r="O83" s="3">
-        <v>384100</v>
       </c>
       <c r="P83" s="3">
         <v>384100</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>384100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>280700</v>
+        <v>252100</v>
       </c>
       <c r="E89" s="3">
-        <v>57100</v>
+        <v>222400</v>
       </c>
       <c r="F89" s="3">
-        <v>-116200</v>
+        <v>45200</v>
       </c>
       <c r="G89" s="3">
-        <v>142600</v>
+        <v>-92100</v>
       </c>
       <c r="H89" s="3">
-        <v>258000</v>
+        <v>113000</v>
       </c>
       <c r="I89" s="3">
-        <v>267900</v>
+        <v>204400</v>
       </c>
       <c r="J89" s="3">
+        <v>212200</v>
+      </c>
+      <c r="K89" s="3">
         <v>190200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>135200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>380300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>613000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>227400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>401600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>594500</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-462800</v>
+        <v>-403400</v>
       </c>
       <c r="E91" s="3">
-        <v>-413800</v>
+        <v>-366700</v>
       </c>
       <c r="F91" s="3">
-        <v>-348400</v>
+        <v>-327900</v>
       </c>
       <c r="G91" s="3">
-        <v>-318000</v>
+        <v>-276000</v>
       </c>
       <c r="H91" s="3">
-        <v>-258500</v>
+        <v>-252000</v>
       </c>
       <c r="I91" s="3">
-        <v>-648600</v>
+        <v>-204800</v>
       </c>
       <c r="J91" s="3">
+        <v>-513900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-353700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-257900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-311700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-544300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-497100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-437700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-103100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-432300</v>
+        <v>-336100</v>
       </c>
       <c r="E94" s="3">
-        <v>-414400</v>
+        <v>-342500</v>
       </c>
       <c r="F94" s="3">
-        <v>-329000</v>
+        <v>-328400</v>
       </c>
       <c r="G94" s="3">
-        <v>-283500</v>
+        <v>-260600</v>
       </c>
       <c r="H94" s="3">
-        <v>-231600</v>
+        <v>-224600</v>
       </c>
       <c r="I94" s="3">
-        <v>-633200</v>
+        <v>-183500</v>
       </c>
       <c r="J94" s="3">
+        <v>-501700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-334300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-306200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-291300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-536100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-235400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-216200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-58500</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,13 +4380,14 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -4181,19 +4414,22 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-15200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-101200</v>
+        <v>-82000</v>
       </c>
       <c r="E100" s="3">
-        <v>-102400</v>
+        <v>-80200</v>
       </c>
       <c r="F100" s="3">
-        <v>829100</v>
+        <v>-81200</v>
       </c>
       <c r="G100" s="3">
-        <v>-14500</v>
+        <v>657000</v>
       </c>
       <c r="H100" s="3">
-        <v>-34100</v>
+        <v>-11500</v>
       </c>
       <c r="I100" s="3">
-        <v>-50500</v>
+        <v>-27000</v>
       </c>
       <c r="J100" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-41000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-21100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-17100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-139100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4383,77 +4631,83 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-4300</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>1300</v>
+        <v>-3400</v>
       </c>
       <c r="I101" s="3">
-        <v>3300</v>
+        <v>1100</v>
       </c>
       <c r="J101" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-35800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-61800</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-252700</v>
+        <v>-165900</v>
       </c>
       <c r="E102" s="3">
-        <v>-459800</v>
+        <v>-200300</v>
       </c>
       <c r="F102" s="3">
-        <v>384000</v>
+        <v>-364300</v>
       </c>
       <c r="G102" s="3">
-        <v>-159700</v>
+        <v>304300</v>
       </c>
       <c r="H102" s="3">
-        <v>-6300</v>
+        <v>-126500</v>
       </c>
       <c r="I102" s="3">
-        <v>-412500</v>
+        <v>-5000</v>
       </c>
       <c r="J102" s="3">
+        <v>-326900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-184300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-191200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>71700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-60200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-14700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>151500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>521000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OIBRQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OIBRQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>OIBRQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,244 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>909200</v>
+        <v>810600</v>
       </c>
       <c r="E8" s="3">
-        <v>925400</v>
+        <v>847100</v>
       </c>
       <c r="F8" s="3">
-        <v>942000</v>
+        <v>876600</v>
       </c>
       <c r="G8" s="3">
-        <v>949200</v>
+        <v>892200</v>
       </c>
       <c r="H8" s="3">
-        <v>992700</v>
+        <v>908300</v>
       </c>
       <c r="I8" s="3">
+        <v>915200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>957100</v>
+      </c>
+      <c r="K8" s="3">
         <v>1014200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2074900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1323700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1494100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1528900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3076100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1528100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1568600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1586300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>694300</v>
+        <v>646400</v>
       </c>
       <c r="E9" s="3">
-        <v>708600</v>
+        <v>653900</v>
       </c>
       <c r="F9" s="3">
-        <v>714100</v>
+        <v>669400</v>
       </c>
       <c r="G9" s="3">
-        <v>716700</v>
+        <v>683200</v>
       </c>
       <c r="H9" s="3">
-        <v>820500</v>
+        <v>688600</v>
       </c>
       <c r="I9" s="3">
+        <v>691000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>791100</v>
+      </c>
+      <c r="K9" s="3">
         <v>729400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1443700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>873000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>799200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>963600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1928400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>942400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>806300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>991000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>214900</v>
+        <v>164200</v>
       </c>
       <c r="E10" s="3">
-        <v>216800</v>
+        <v>193300</v>
       </c>
       <c r="F10" s="3">
-        <v>227900</v>
+        <v>207200</v>
       </c>
       <c r="G10" s="3">
-        <v>232500</v>
+        <v>209000</v>
       </c>
       <c r="H10" s="3">
-        <v>172200</v>
+        <v>219700</v>
       </c>
       <c r="I10" s="3">
+        <v>224200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>166000</v>
+      </c>
+      <c r="K10" s="3">
         <v>284900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>631100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>450700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>694900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>565400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1147700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>585700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>762300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>595400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,16 +1022,22 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1006,22 +1046,22 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>10400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-2055700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-2594500</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1035,8 +1075,14 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>984100</v>
+        <v>875900</v>
       </c>
       <c r="E17" s="3">
-        <v>1517300</v>
+        <v>813600</v>
       </c>
       <c r="F17" s="3">
-        <v>997200</v>
+        <v>948900</v>
       </c>
       <c r="G17" s="3">
-        <v>778100</v>
+        <v>1462900</v>
       </c>
       <c r="H17" s="3">
-        <v>2046100</v>
+        <v>961500</v>
       </c>
       <c r="I17" s="3">
+        <v>750200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1972800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1025700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>-60700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>-1341700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2243800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1472200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2922700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1445200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1932900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1562400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-75000</v>
+        <v>-65300</v>
       </c>
       <c r="E18" s="3">
-        <v>-591900</v>
+        <v>33600</v>
       </c>
       <c r="F18" s="3">
-        <v>-55200</v>
+        <v>-72300</v>
       </c>
       <c r="G18" s="3">
-        <v>171100</v>
+        <v>-570700</v>
       </c>
       <c r="H18" s="3">
-        <v>-1053400</v>
+        <v>-53200</v>
       </c>
       <c r="I18" s="3">
+        <v>165000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-1015600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-11500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2135500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2665300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-749700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>56800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>153400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>82900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-364300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1277,275 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-326700</v>
+        <v>-416800</v>
       </c>
       <c r="E20" s="3">
-        <v>-358800</v>
+        <v>-1015200</v>
       </c>
       <c r="F20" s="3">
-        <v>-179900</v>
+        <v>-315000</v>
       </c>
       <c r="G20" s="3">
-        <v>34300</v>
+        <v>-345900</v>
       </c>
       <c r="H20" s="3">
-        <v>-104300</v>
+        <v>-173500</v>
       </c>
       <c r="I20" s="3">
+        <v>75300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-100500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-178800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>3920200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>4453000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>730000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>200300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-847100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>170900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>30100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-192100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-86600</v>
+        <v>-174500</v>
       </c>
       <c r="E21" s="3">
-        <v>-626500</v>
+        <v>-676400</v>
       </c>
       <c r="F21" s="3">
-        <v>84900</v>
+        <v>-83500</v>
       </c>
       <c r="G21" s="3">
-        <v>518000</v>
+        <v>-604000</v>
       </c>
       <c r="H21" s="3">
-        <v>-882600</v>
+        <v>81900</v>
       </c>
       <c r="I21" s="3">
+        <v>541800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-851000</v>
+      </c>
+      <c r="K21" s="3">
         <v>82000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>6583700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>7414600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>317700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>478000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>58000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>581300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-156900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>215900</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>72700</v>
+        <v>141000</v>
       </c>
       <c r="E22" s="3">
-        <v>80800</v>
+        <v>140100</v>
       </c>
       <c r="F22" s="3">
-        <v>74300</v>
+        <v>70100</v>
       </c>
       <c r="G22" s="3">
+        <v>77900</v>
+      </c>
+      <c r="H22" s="3">
         <v>71600</v>
       </c>
-      <c r="H22" s="3">
-        <v>65400</v>
-      </c>
       <c r="I22" s="3">
+        <v>111300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>63000</v>
+      </c>
+      <c r="K22" s="3">
         <v>80100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>613800</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>254600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>195900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>471000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>203600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>205400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-474300</v>
+        <v>-623100</v>
       </c>
       <c r="E23" s="3">
-        <v>-1031500</v>
+        <v>-1121700</v>
       </c>
       <c r="F23" s="3">
-        <v>-309400</v>
+        <v>-457300</v>
       </c>
       <c r="G23" s="3">
-        <v>133800</v>
+        <v>-994600</v>
       </c>
       <c r="H23" s="3">
-        <v>-1223000</v>
+        <v>-298300</v>
       </c>
       <c r="I23" s="3">
+        <v>129000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-1179200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-270400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>5442000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>7118400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-274300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>61200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1164700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>50100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-539700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-398200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-52200</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>38600</v>
+        <v>-6100</v>
       </c>
       <c r="F24" s="3">
-        <v>6900</v>
+        <v>-50400</v>
       </c>
       <c r="G24" s="3">
-        <v>8200</v>
+        <v>37200</v>
       </c>
       <c r="H24" s="3">
-        <v>-604500</v>
+        <v>6700</v>
       </c>
       <c r="I24" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-582800</v>
+      </c>
+      <c r="K24" s="3">
         <v>-23300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>21900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-10200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>527400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>67600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-49200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>97000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>549500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-105800</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-422100</v>
+        <v>-623200</v>
       </c>
       <c r="E26" s="3">
-        <v>-1070100</v>
+        <v>-1115700</v>
       </c>
       <c r="F26" s="3">
-        <v>-316300</v>
+        <v>-407000</v>
       </c>
       <c r="G26" s="3">
-        <v>125600</v>
+        <v>-1031800</v>
       </c>
       <c r="H26" s="3">
-        <v>-618500</v>
+        <v>-304900</v>
       </c>
       <c r="I26" s="3">
+        <v>121100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-596300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-247000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>5420100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>7128500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-801600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-6400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1115500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-46900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1089200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-292400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-418700</v>
+        <v>-608200</v>
       </c>
       <c r="E27" s="3">
-        <v>-1063300</v>
+        <v>-1120400</v>
       </c>
       <c r="F27" s="3">
-        <v>-288500</v>
+        <v>-403700</v>
       </c>
       <c r="G27" s="3">
-        <v>105200</v>
+        <v>-1025200</v>
       </c>
       <c r="H27" s="3">
-        <v>-621400</v>
+        <v>-278100</v>
       </c>
       <c r="I27" s="3">
+        <v>101400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-599100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-247300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>5418700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>7132500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-743600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1107400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-46800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1070600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1663,11 +1785,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1675,14 +1797,20 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>326700</v>
+        <v>416800</v>
       </c>
       <c r="E32" s="3">
-        <v>358800</v>
+        <v>1015200</v>
       </c>
       <c r="F32" s="3">
-        <v>179900</v>
+        <v>315000</v>
       </c>
       <c r="G32" s="3">
-        <v>-34300</v>
+        <v>345900</v>
       </c>
       <c r="H32" s="3">
-        <v>104300</v>
+        <v>173500</v>
       </c>
       <c r="I32" s="3">
+        <v>-75300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>100500</v>
+      </c>
+      <c r="K32" s="3">
         <v>178800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-3920200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-4453000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-730000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-200300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>847100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-170900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-30100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>192100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-418700</v>
+        <v>-608200</v>
       </c>
       <c r="E33" s="3">
-        <v>-1063300</v>
+        <v>-1120400</v>
       </c>
       <c r="F33" s="3">
-        <v>-288500</v>
+        <v>-403700</v>
       </c>
       <c r="G33" s="3">
-        <v>105200</v>
+        <v>-1025200</v>
       </c>
       <c r="H33" s="3">
-        <v>-621400</v>
+        <v>-278100</v>
       </c>
       <c r="I33" s="3">
+        <v>101400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-599100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-247300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>5418700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>7132500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-743600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1107400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-46800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1070600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-418700</v>
+        <v>-608200</v>
       </c>
       <c r="E35" s="3">
-        <v>-1063300</v>
+        <v>-1120400</v>
       </c>
       <c r="F35" s="3">
-        <v>-288500</v>
+        <v>-403700</v>
       </c>
       <c r="G35" s="3">
-        <v>105200</v>
+        <v>-1025200</v>
       </c>
       <c r="H35" s="3">
-        <v>-621400</v>
+        <v>-278100</v>
       </c>
       <c r="I35" s="3">
+        <v>101400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-599100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-247300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>5418700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>7132500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-743600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1107400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-46800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1070600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,431 +2225,487 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>385200</v>
+        <v>1043800</v>
       </c>
       <c r="E41" s="3">
-        <v>551100</v>
+        <v>1086500</v>
       </c>
       <c r="F41" s="3">
-        <v>751400</v>
+        <v>371400</v>
       </c>
       <c r="G41" s="3">
-        <v>1115700</v>
+        <v>531400</v>
       </c>
       <c r="H41" s="3">
-        <v>811400</v>
+        <v>724500</v>
       </c>
       <c r="I41" s="3">
+        <v>1075700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>782300</v>
+      </c>
+      <c r="K41" s="3">
         <v>937900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>942900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1418200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1759500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1950600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1878900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1861600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1876300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1724800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>34000</v>
+        <v>33800</v>
       </c>
       <c r="E42" s="3">
-        <v>33000</v>
+        <v>33200</v>
       </c>
       <c r="F42" s="3">
-        <v>36400</v>
+        <v>32800</v>
       </c>
       <c r="G42" s="3">
-        <v>36900</v>
+        <v>31900</v>
       </c>
       <c r="H42" s="3">
-        <v>37400</v>
+        <v>35100</v>
       </c>
       <c r="I42" s="3">
+        <v>35600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>36000</v>
+      </c>
+      <c r="K42" s="3">
         <v>5500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>7700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>8800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>5500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>5600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>4400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>4400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>28900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>26700</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1474100</v>
+        <v>1526700</v>
       </c>
       <c r="E43" s="3">
-        <v>1588700</v>
+        <v>1404800</v>
       </c>
       <c r="F43" s="3">
-        <v>1675300</v>
+        <v>1421200</v>
       </c>
       <c r="G43" s="3">
-        <v>1657900</v>
+        <v>1531800</v>
       </c>
       <c r="H43" s="3">
-        <v>1469300</v>
+        <v>1615300</v>
       </c>
       <c r="I43" s="3">
+        <v>1598500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1416700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1619700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1650300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2247600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2454200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2684900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2699500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2565800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2582900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2995800</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>60500</v>
+        <v>55200</v>
       </c>
       <c r="E44" s="3">
-        <v>58800</v>
+        <v>60600</v>
       </c>
       <c r="F44" s="3">
-        <v>59000</v>
+        <v>58300</v>
       </c>
       <c r="G44" s="3">
-        <v>55400</v>
+        <v>56700</v>
       </c>
       <c r="H44" s="3">
-        <v>58700</v>
+        <v>56900</v>
       </c>
       <c r="I44" s="3">
+        <v>53400</v>
+      </c>
+      <c r="J44" s="3">
+        <v>56600</v>
+      </c>
+      <c r="K44" s="3">
         <v>48400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>48000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>61200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>65000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>138700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>129300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>115300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>88100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1375500</v>
+        <v>761600</v>
       </c>
       <c r="E45" s="3">
-        <v>1497500</v>
+        <v>868700</v>
       </c>
       <c r="F45" s="3">
-        <v>1536900</v>
+        <v>1326200</v>
       </c>
       <c r="G45" s="3">
-        <v>1585800</v>
+        <v>1443800</v>
       </c>
       <c r="H45" s="3">
-        <v>1566800</v>
+        <v>1481800</v>
       </c>
       <c r="I45" s="3">
+        <v>1528900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1510600</v>
+      </c>
+      <c r="K45" s="3">
         <v>1613800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1654200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1917000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1804300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1856700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2049900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1864900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1926500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>2113900</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3329300</v>
+        <v>3420900</v>
       </c>
       <c r="E46" s="3">
-        <v>3729200</v>
+        <v>3453700</v>
       </c>
       <c r="F46" s="3">
-        <v>4059000</v>
+        <v>3210000</v>
       </c>
       <c r="G46" s="3">
-        <v>4451700</v>
+        <v>3595600</v>
       </c>
       <c r="H46" s="3">
-        <v>3943600</v>
+        <v>3913600</v>
       </c>
       <c r="I46" s="3">
+        <v>4292200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3802300</v>
+      </c>
+      <c r="K46" s="3">
         <v>4225200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4303100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5652800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>6088400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>6636400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>6762000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>6412000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>6502600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>6955700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>568600</v>
+        <v>433200</v>
       </c>
       <c r="E47" s="3">
-        <v>580700</v>
+        <v>511000</v>
       </c>
       <c r="F47" s="3">
-        <v>367900</v>
+        <v>548200</v>
       </c>
       <c r="G47" s="3">
-        <v>378000</v>
+        <v>559900</v>
       </c>
       <c r="H47" s="3">
-        <v>146500</v>
+        <v>354700</v>
       </c>
       <c r="I47" s="3">
+        <v>364500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>141200</v>
+      </c>
+      <c r="K47" s="3">
         <v>142900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>148400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>177100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>195900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>216900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>228500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>209400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>216900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>226500</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7199700</v>
+        <v>7211600</v>
       </c>
       <c r="E48" s="3">
-        <v>7124900</v>
+        <v>7148400</v>
       </c>
       <c r="F48" s="3">
-        <v>6989400</v>
+        <v>6941700</v>
       </c>
       <c r="G48" s="3">
-        <v>6833000</v>
+        <v>6869600</v>
       </c>
       <c r="H48" s="3">
-        <v>5259600</v>
+        <v>6739000</v>
       </c>
       <c r="I48" s="3">
+        <v>6588100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5071100</v>
+      </c>
+      <c r="K48" s="3">
         <v>5095300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5027500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>6289300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>6919300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>6805600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>6753900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>6512100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>6426600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>6291400</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>739700</v>
+        <v>650100</v>
       </c>
       <c r="E49" s="3">
-        <v>544300</v>
+        <v>680800</v>
       </c>
       <c r="F49" s="3">
-        <v>1204400</v>
+        <v>713200</v>
       </c>
       <c r="G49" s="3">
-        <v>1247400</v>
+        <v>524800</v>
       </c>
       <c r="H49" s="3">
-        <v>1285700</v>
+        <v>1161200</v>
       </c>
       <c r="I49" s="3">
+        <v>1202700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1239600</v>
+      </c>
+      <c r="K49" s="3">
         <v>1387800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1444800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1928400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2140900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2740300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2817800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2696100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1221800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>832100</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2804,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1464900</v>
+        <v>1334400</v>
       </c>
       <c r="E52" s="3">
-        <v>1503500</v>
+        <v>1398100</v>
       </c>
       <c r="F52" s="3">
-        <v>1509400</v>
+        <v>1412400</v>
       </c>
       <c r="G52" s="3">
-        <v>1483400</v>
+        <v>1449600</v>
       </c>
       <c r="H52" s="3">
-        <v>1472600</v>
+        <v>1455300</v>
       </c>
       <c r="I52" s="3">
+        <v>1430300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1419800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1588400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1553100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1991300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2253000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>4740800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>4701300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>4400600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2194100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>5617900</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13302100</v>
+        <v>13050300</v>
       </c>
       <c r="E54" s="3">
-        <v>13482500</v>
+        <v>13192100</v>
       </c>
       <c r="F54" s="3">
-        <v>14130100</v>
+        <v>12825500</v>
       </c>
       <c r="G54" s="3">
-        <v>14393500</v>
+        <v>12999400</v>
       </c>
       <c r="H54" s="3">
-        <v>12108000</v>
+        <v>13623800</v>
       </c>
       <c r="I54" s="3">
+        <v>13877800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>11674100</v>
+      </c>
+      <c r="K54" s="3">
         <v>12439700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>12476900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>16038900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>17597700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>21140000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>21263500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>20230100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>16366400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>19923600</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,229 +3009,255 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1035000</v>
+        <v>774300</v>
       </c>
       <c r="E57" s="3">
-        <v>1091800</v>
+        <v>883400</v>
       </c>
       <c r="F57" s="3">
-        <v>1117200</v>
+        <v>998000</v>
       </c>
       <c r="G57" s="3">
-        <v>1043700</v>
+        <v>1052600</v>
       </c>
       <c r="H57" s="3">
-        <v>966900</v>
+        <v>1077200</v>
       </c>
       <c r="I57" s="3">
+        <v>1006300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>932300</v>
+      </c>
+      <c r="K57" s="3">
         <v>809500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>765900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1148900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1955500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1819400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1803900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1648700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1631900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1766800</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>339800</v>
+        <v>372200</v>
       </c>
       <c r="E58" s="3">
-        <v>304300</v>
+        <v>319600</v>
       </c>
       <c r="F58" s="3">
-        <v>330500</v>
+        <v>327600</v>
       </c>
       <c r="G58" s="3">
-        <v>287000</v>
+        <v>293400</v>
       </c>
       <c r="H58" s="3">
-        <v>124500</v>
+        <v>318700</v>
       </c>
       <c r="I58" s="3">
+        <v>276700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>120000</v>
+      </c>
+      <c r="K58" s="3">
         <v>92600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>55300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>22900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>13976600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>13260500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>13287000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>11958200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>11929200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>11962600</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>815100</v>
+        <v>979100</v>
       </c>
       <c r="E59" s="3">
-        <v>810100</v>
+        <v>852700</v>
       </c>
       <c r="F59" s="3">
-        <v>774500</v>
+        <v>785900</v>
       </c>
       <c r="G59" s="3">
-        <v>892000</v>
+        <v>781100</v>
       </c>
       <c r="H59" s="3">
-        <v>886400</v>
+        <v>746800</v>
       </c>
       <c r="I59" s="3">
+        <v>860000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>854700</v>
+      </c>
+      <c r="K59" s="3">
         <v>886300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>839200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1301300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1474000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1595900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1629500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1459300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1642600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1427200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2190000</v>
+        <v>2125600</v>
       </c>
       <c r="E60" s="3">
-        <v>2206200</v>
+        <v>2055700</v>
       </c>
       <c r="F60" s="3">
-        <v>2222300</v>
+        <v>2111500</v>
       </c>
       <c r="G60" s="3">
-        <v>2222600</v>
+        <v>2127100</v>
       </c>
       <c r="H60" s="3">
-        <v>1977900</v>
+        <v>2142700</v>
       </c>
       <c r="I60" s="3">
+        <v>2143000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1907000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1788400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1660300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2473100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>17406100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>16675800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>16720400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>15066200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>15203800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>15156600</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4540700</v>
+        <v>5846300</v>
       </c>
       <c r="E61" s="3">
-        <v>4531700</v>
+        <v>5610800</v>
       </c>
       <c r="F61" s="3">
-        <v>4299400</v>
+        <v>4378000</v>
       </c>
       <c r="G61" s="3">
-        <v>4242800</v>
+        <v>4369400</v>
       </c>
       <c r="H61" s="3">
-        <v>2919200</v>
+        <v>4145300</v>
       </c>
       <c r="I61" s="3">
+        <v>4090800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2814600</v>
+      </c>
+      <c r="K61" s="3">
         <v>2893200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2761000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3137600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2984,55 +3270,67 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3278600</v>
+        <v>3622000</v>
       </c>
       <c r="E62" s="3">
-        <v>3029000</v>
+        <v>3456600</v>
       </c>
       <c r="F62" s="3">
-        <v>2823700</v>
+        <v>3161100</v>
       </c>
       <c r="G62" s="3">
-        <v>2852700</v>
+        <v>2920500</v>
       </c>
       <c r="H62" s="3">
-        <v>2974500</v>
+        <v>2722500</v>
       </c>
       <c r="I62" s="3">
+        <v>2750500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2867900</v>
+      </c>
+      <c r="K62" s="3">
         <v>2898700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2944200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3677600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3656000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2249900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2291100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2263300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2816300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>2183300</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10036300</v>
+        <v>11609700</v>
       </c>
       <c r="E66" s="3">
-        <v>9797200</v>
+        <v>11153800</v>
       </c>
       <c r="F66" s="3">
-        <v>9385800</v>
+        <v>9676700</v>
       </c>
       <c r="G66" s="3">
-        <v>9359800</v>
+        <v>9446200</v>
       </c>
       <c r="H66" s="3">
-        <v>7916600</v>
+        <v>9049500</v>
       </c>
       <c r="I66" s="3">
+        <v>9024500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>7632900</v>
+      </c>
+      <c r="K66" s="3">
         <v>7631300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7417100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>9352500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>21137300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>19003400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>19099400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>17422600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>18216300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>17565100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2563100</v>
+        <v>-4198800</v>
       </c>
       <c r="E72" s="3">
-        <v>-2144400</v>
+        <v>-3591100</v>
       </c>
       <c r="F72" s="3">
-        <v>-1044500</v>
+        <v>-2471300</v>
       </c>
       <c r="G72" s="3">
-        <v>-300300</v>
+        <v>-2067600</v>
       </c>
       <c r="H72" s="3">
-        <v>-1116100</v>
+        <v>-1007000</v>
       </c>
       <c r="I72" s="3">
+        <v>-289500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-1076100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-526800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>82200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>397400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-7467000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1821000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1823000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-952300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-5646300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1463600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3265800</v>
+        <v>1440700</v>
       </c>
       <c r="E76" s="3">
-        <v>3685300</v>
+        <v>2038200</v>
       </c>
       <c r="F76" s="3">
-        <v>4744300</v>
+        <v>3148800</v>
       </c>
       <c r="G76" s="3">
-        <v>5033700</v>
+        <v>3553200</v>
       </c>
       <c r="H76" s="3">
-        <v>4191400</v>
+        <v>4574300</v>
       </c>
       <c r="I76" s="3">
+        <v>4853300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>4041200</v>
+      </c>
+      <c r="K76" s="3">
         <v>4808300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5059700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6686400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3539600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2136600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2164100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2807500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1849900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2358500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-418700</v>
+        <v>-608200</v>
       </c>
       <c r="E81" s="3">
-        <v>-1063300</v>
+        <v>-1120400</v>
       </c>
       <c r="F81" s="3">
-        <v>-288500</v>
+        <v>-403700</v>
       </c>
       <c r="G81" s="3">
-        <v>105200</v>
+        <v>-1025200</v>
       </c>
       <c r="H81" s="3">
-        <v>-621400</v>
+        <v>-278100</v>
       </c>
       <c r="I81" s="3">
+        <v>101400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-599100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-247300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>5418700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>7132500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-743600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1107400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-46800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1070600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4222,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>315100</v>
+        <v>307700</v>
       </c>
       <c r="E83" s="3">
-        <v>324200</v>
+        <v>305300</v>
       </c>
       <c r="F83" s="3">
-        <v>320000</v>
+        <v>303800</v>
       </c>
       <c r="G83" s="3">
         <v>312600</v>
       </c>
       <c r="H83" s="3">
-        <v>275000</v>
+        <v>308500</v>
       </c>
       <c r="I83" s="3">
+        <v>301400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>265200</v>
+      </c>
+      <c r="K83" s="3">
         <v>272300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>528000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>296200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>186400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>371800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>751700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>376900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>384100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>384100</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>252100</v>
+        <v>234700</v>
       </c>
       <c r="E89" s="3">
-        <v>222400</v>
+        <v>93700</v>
       </c>
       <c r="F89" s="3">
-        <v>45200</v>
+        <v>243100</v>
       </c>
       <c r="G89" s="3">
-        <v>-92100</v>
+        <v>214500</v>
       </c>
       <c r="H89" s="3">
-        <v>113000</v>
+        <v>43600</v>
       </c>
       <c r="I89" s="3">
+        <v>-88800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>108900</v>
+      </c>
+      <c r="K89" s="3">
         <v>204400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>212200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>190200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>135200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>380300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>613000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>227400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>401600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>594500</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4614,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-403400</v>
+        <v>-319600</v>
       </c>
       <c r="E91" s="3">
-        <v>-366700</v>
+        <v>-385000</v>
       </c>
       <c r="F91" s="3">
-        <v>-327900</v>
+        <v>-388900</v>
       </c>
       <c r="G91" s="3">
-        <v>-276000</v>
+        <v>-353500</v>
       </c>
       <c r="H91" s="3">
-        <v>-252000</v>
+        <v>-316100</v>
       </c>
       <c r="I91" s="3">
+        <v>-266200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-242900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-204800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-513900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-353700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-257900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-311700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-544300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-497100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-437700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-103100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-336100</v>
+        <v>-202300</v>
       </c>
       <c r="E94" s="3">
-        <v>-342500</v>
+        <v>252900</v>
       </c>
       <c r="F94" s="3">
-        <v>-328400</v>
+        <v>-324000</v>
       </c>
       <c r="G94" s="3">
-        <v>-260600</v>
+        <v>-330200</v>
       </c>
       <c r="H94" s="3">
-        <v>-224600</v>
+        <v>-316600</v>
       </c>
       <c r="I94" s="3">
+        <v>-251300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-216600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-183500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-501700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-334300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-306200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-291300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-536100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-235400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-216200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-58500</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,20 +4847,22 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-100</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -4417,19 +4885,25 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-15200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,63 +5055,75 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-82000</v>
+        <v>-81300</v>
       </c>
       <c r="E100" s="3">
-        <v>-80200</v>
+        <v>336400</v>
       </c>
       <c r="F100" s="3">
-        <v>-81200</v>
+        <v>-79000</v>
       </c>
       <c r="G100" s="3">
-        <v>657000</v>
+        <v>-77300</v>
       </c>
       <c r="H100" s="3">
-        <v>-11500</v>
+        <v>-78200</v>
       </c>
       <c r="I100" s="3">
+        <v>633400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-27000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-40000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-41000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-21100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-17100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-139100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-6600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>2000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>32000</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -4634,80 +5132,92 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>-3400</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K101" s="3">
         <v>1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>2600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-35800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-61800</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-165900</v>
+        <v>-42700</v>
       </c>
       <c r="E102" s="3">
-        <v>-200300</v>
+        <v>715000</v>
       </c>
       <c r="F102" s="3">
-        <v>-364300</v>
+        <v>-160000</v>
       </c>
       <c r="G102" s="3">
-        <v>304300</v>
+        <v>-193100</v>
       </c>
       <c r="H102" s="3">
-        <v>-126500</v>
+        <v>-351300</v>
       </c>
       <c r="I102" s="3">
+        <v>293400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-5000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-326900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-184300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-191200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>71700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-60200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-14700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>151500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>521000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OIBRQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OIBRQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>OIBRQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>810600</v>
+        <v>880600</v>
       </c>
       <c r="E8" s="3">
-        <v>847100</v>
+        <v>850300</v>
       </c>
       <c r="F8" s="3">
-        <v>876600</v>
+        <v>888600</v>
       </c>
       <c r="G8" s="3">
-        <v>892200</v>
+        <v>919500</v>
       </c>
       <c r="H8" s="3">
-        <v>908300</v>
+        <v>935900</v>
       </c>
       <c r="I8" s="3">
-        <v>915200</v>
+        <v>952700</v>
       </c>
       <c r="J8" s="3">
+        <v>960000</v>
+      </c>
+      <c r="K8" s="3">
         <v>957100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1014200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2074900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1323700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1494100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1528900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3076100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1528100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1568600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1586300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>646400</v>
+        <v>682000</v>
       </c>
       <c r="E9" s="3">
-        <v>653900</v>
+        <v>678000</v>
       </c>
       <c r="F9" s="3">
-        <v>669400</v>
+        <v>685900</v>
       </c>
       <c r="G9" s="3">
-        <v>683200</v>
+        <v>702200</v>
       </c>
       <c r="H9" s="3">
-        <v>688600</v>
+        <v>716600</v>
       </c>
       <c r="I9" s="3">
-        <v>691000</v>
+        <v>722200</v>
       </c>
       <c r="J9" s="3">
+        <v>724800</v>
+      </c>
+      <c r="K9" s="3">
         <v>791100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>729400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1443700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>873000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>799200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>963600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1928400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>942400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>806300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>991000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>164200</v>
+        <v>198700</v>
       </c>
       <c r="E10" s="3">
-        <v>193300</v>
+        <v>172300</v>
       </c>
       <c r="F10" s="3">
-        <v>207200</v>
+        <v>202700</v>
       </c>
       <c r="G10" s="3">
-        <v>209000</v>
+        <v>217300</v>
       </c>
       <c r="H10" s="3">
-        <v>219700</v>
+        <v>219300</v>
       </c>
       <c r="I10" s="3">
-        <v>224200</v>
+        <v>230500</v>
       </c>
       <c r="J10" s="3">
+        <v>235100</v>
+      </c>
+      <c r="K10" s="3">
         <v>166000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>284900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>631100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>450700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>694900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>565400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1147700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>585700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>762300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>595400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,8 +1059,8 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1052,19 +1072,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-2055700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-2594500</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>875900</v>
+        <v>928300</v>
       </c>
       <c r="E17" s="3">
-        <v>813600</v>
+        <v>918800</v>
       </c>
       <c r="F17" s="3">
-        <v>948900</v>
+        <v>853400</v>
       </c>
       <c r="G17" s="3">
-        <v>1462900</v>
+        <v>995300</v>
       </c>
       <c r="H17" s="3">
-        <v>961500</v>
+        <v>1534500</v>
       </c>
       <c r="I17" s="3">
-        <v>750200</v>
+        <v>1008600</v>
       </c>
       <c r="J17" s="3">
+        <v>786900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1972800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1025700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-60700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-1341700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2243800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1472200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2922700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1445200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1932900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1562400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-65300</v>
+        <v>-47700</v>
       </c>
       <c r="E18" s="3">
-        <v>33600</v>
+        <v>-68500</v>
       </c>
       <c r="F18" s="3">
-        <v>-72300</v>
+        <v>35200</v>
       </c>
       <c r="G18" s="3">
-        <v>-570700</v>
+        <v>-75800</v>
       </c>
       <c r="H18" s="3">
-        <v>-53200</v>
+        <v>-598600</v>
       </c>
       <c r="I18" s="3">
-        <v>165000</v>
+        <v>-55800</v>
       </c>
       <c r="J18" s="3">
+        <v>173100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1015600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2135500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2665300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-749700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>56800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>153400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>82900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-364300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-416800</v>
+        <v>-294600</v>
       </c>
       <c r="E20" s="3">
-        <v>-1015200</v>
+        <v>-437200</v>
       </c>
       <c r="F20" s="3">
-        <v>-315000</v>
+        <v>-1064900</v>
       </c>
       <c r="G20" s="3">
-        <v>-345900</v>
+        <v>-330400</v>
       </c>
       <c r="H20" s="3">
-        <v>-173500</v>
+        <v>-362900</v>
       </c>
       <c r="I20" s="3">
-        <v>75300</v>
+        <v>-181900</v>
       </c>
       <c r="J20" s="3">
+        <v>79000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-178800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3920200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4453000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>730000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-847100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>170900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>30100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-192100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-174500</v>
+        <v>-16700</v>
       </c>
       <c r="E21" s="3">
-        <v>-676400</v>
+        <v>-183000</v>
       </c>
       <c r="F21" s="3">
-        <v>-83500</v>
+        <v>-709500</v>
       </c>
       <c r="G21" s="3">
-        <v>-604000</v>
+        <v>-87600</v>
       </c>
       <c r="H21" s="3">
-        <v>81900</v>
+        <v>-633600</v>
       </c>
       <c r="I21" s="3">
-        <v>541800</v>
+        <v>85900</v>
       </c>
       <c r="J21" s="3">
+        <v>568300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-851000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>82000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6583700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7414600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>317700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>478000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>58000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>581300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-156900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>215900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>141000</v>
+        <v>140500</v>
       </c>
       <c r="E22" s="3">
-        <v>140100</v>
+        <v>147900</v>
       </c>
       <c r="F22" s="3">
-        <v>70100</v>
+        <v>146900</v>
       </c>
       <c r="G22" s="3">
-        <v>77900</v>
+        <v>73500</v>
       </c>
       <c r="H22" s="3">
-        <v>71600</v>
+        <v>81700</v>
       </c>
       <c r="I22" s="3">
-        <v>111300</v>
+        <v>75100</v>
       </c>
       <c r="J22" s="3">
+        <v>116800</v>
+      </c>
+      <c r="K22" s="3">
         <v>63000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>80100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>613800</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>254600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>195900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>471000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>203600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>205400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-623100</v>
+        <v>-482800</v>
       </c>
       <c r="E23" s="3">
-        <v>-1121700</v>
+        <v>-653600</v>
       </c>
       <c r="F23" s="3">
-        <v>-457300</v>
+        <v>-1176600</v>
       </c>
       <c r="G23" s="3">
-        <v>-994600</v>
+        <v>-479700</v>
       </c>
       <c r="H23" s="3">
-        <v>-298300</v>
+        <v>-1043200</v>
       </c>
       <c r="I23" s="3">
-        <v>129000</v>
+        <v>-312900</v>
       </c>
       <c r="J23" s="3">
+        <v>135300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1179200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-270400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5442000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7118400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-274300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>61200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1164700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>50100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-539700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-398200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>-6100</v>
-      </c>
       <c r="F24" s="3">
-        <v>-50400</v>
+        <v>-6400</v>
       </c>
       <c r="G24" s="3">
-        <v>37200</v>
+        <v>-52800</v>
       </c>
       <c r="H24" s="3">
-        <v>6700</v>
+        <v>39000</v>
       </c>
       <c r="I24" s="3">
-        <v>7900</v>
+        <v>7000</v>
       </c>
       <c r="J24" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-582800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-23300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-10200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>527400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>67600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-49200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>97000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>549500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-105800</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-623200</v>
+        <v>-482700</v>
       </c>
       <c r="E26" s="3">
-        <v>-1115700</v>
+        <v>-653700</v>
       </c>
       <c r="F26" s="3">
-        <v>-407000</v>
+        <v>-1170300</v>
       </c>
       <c r="G26" s="3">
-        <v>-1031800</v>
+        <v>-426900</v>
       </c>
       <c r="H26" s="3">
-        <v>-304900</v>
+        <v>-1082300</v>
       </c>
       <c r="I26" s="3">
-        <v>121100</v>
+        <v>-319900</v>
       </c>
       <c r="J26" s="3">
+        <v>127000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-596300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-247000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5420100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7128500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-801600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1115500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-46900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1089200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-292400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-608200</v>
+        <v>-493700</v>
       </c>
       <c r="E27" s="3">
-        <v>-1120400</v>
+        <v>-638000</v>
       </c>
       <c r="F27" s="3">
-        <v>-403700</v>
+        <v>-1175200</v>
       </c>
       <c r="G27" s="3">
-        <v>-1025200</v>
+        <v>-423500</v>
       </c>
       <c r="H27" s="3">
-        <v>-278100</v>
+        <v>-1075400</v>
       </c>
       <c r="I27" s="3">
-        <v>101400</v>
+        <v>-291700</v>
       </c>
       <c r="J27" s="3">
+        <v>106400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-599100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-247300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5418700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7132500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-743600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1107400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-46800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1070600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1791,8 +1852,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1803,14 +1864,17 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>416800</v>
+        <v>294600</v>
       </c>
       <c r="E32" s="3">
-        <v>1015200</v>
+        <v>437200</v>
       </c>
       <c r="F32" s="3">
-        <v>315000</v>
+        <v>1064900</v>
       </c>
       <c r="G32" s="3">
-        <v>345900</v>
+        <v>330400</v>
       </c>
       <c r="H32" s="3">
-        <v>173500</v>
+        <v>362900</v>
       </c>
       <c r="I32" s="3">
-        <v>-75300</v>
+        <v>181900</v>
       </c>
       <c r="J32" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="K32" s="3">
         <v>100500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>178800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3920200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4453000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-730000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>847100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-170900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-30100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>192100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-608200</v>
+        <v>-493700</v>
       </c>
       <c r="E33" s="3">
-        <v>-1120400</v>
+        <v>-638000</v>
       </c>
       <c r="F33" s="3">
-        <v>-403700</v>
+        <v>-1175200</v>
       </c>
       <c r="G33" s="3">
-        <v>-1025200</v>
+        <v>-423500</v>
       </c>
       <c r="H33" s="3">
-        <v>-278100</v>
+        <v>-1075400</v>
       </c>
       <c r="I33" s="3">
-        <v>101400</v>
+        <v>-291700</v>
       </c>
       <c r="J33" s="3">
+        <v>106400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-599100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-247300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5418700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7132500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-743600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1107400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-46800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1070600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-608200</v>
+        <v>-493700</v>
       </c>
       <c r="E35" s="3">
-        <v>-1120400</v>
+        <v>-638000</v>
       </c>
       <c r="F35" s="3">
-        <v>-403700</v>
+        <v>-1175200</v>
       </c>
       <c r="G35" s="3">
-        <v>-1025200</v>
+        <v>-423500</v>
       </c>
       <c r="H35" s="3">
-        <v>-278100</v>
+        <v>-1075400</v>
       </c>
       <c r="I35" s="3">
-        <v>101400</v>
+        <v>-291700</v>
       </c>
       <c r="J35" s="3">
+        <v>106400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-599100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-247300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5418700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7132500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-743600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1107400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-46800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1070600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,485 +2313,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1043800</v>
+        <v>1022300</v>
       </c>
       <c r="E41" s="3">
-        <v>1086500</v>
+        <v>1094800</v>
       </c>
       <c r="F41" s="3">
-        <v>371400</v>
+        <v>1139600</v>
       </c>
       <c r="G41" s="3">
-        <v>531400</v>
+        <v>389600</v>
       </c>
       <c r="H41" s="3">
-        <v>724500</v>
+        <v>557400</v>
       </c>
       <c r="I41" s="3">
-        <v>1075700</v>
+        <v>759900</v>
       </c>
       <c r="J41" s="3">
+        <v>1128300</v>
+      </c>
+      <c r="K41" s="3">
         <v>782300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>937900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>942900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1418200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1759500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1950600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1878900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1861600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1876300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1724800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>33800</v>
+        <v>35700</v>
       </c>
       <c r="E42" s="3">
-        <v>33200</v>
+        <v>35400</v>
       </c>
       <c r="F42" s="3">
-        <v>32800</v>
+        <v>34800</v>
       </c>
       <c r="G42" s="3">
-        <v>31900</v>
+        <v>34400</v>
       </c>
       <c r="H42" s="3">
-        <v>35100</v>
+        <v>33400</v>
       </c>
       <c r="I42" s="3">
-        <v>35600</v>
+        <v>36800</v>
       </c>
       <c r="J42" s="3">
+        <v>37300</v>
+      </c>
+      <c r="K42" s="3">
         <v>36000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5600</v>
-      </c>
-      <c r="P42" s="3">
-        <v>4400</v>
       </c>
       <c r="Q42" s="3">
         <v>4400</v>
       </c>
       <c r="R42" s="3">
+        <v>4400</v>
+      </c>
+      <c r="S42" s="3">
         <v>28900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>26700</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1526700</v>
+        <v>1629900</v>
       </c>
       <c r="E43" s="3">
-        <v>1404800</v>
+        <v>1601400</v>
       </c>
       <c r="F43" s="3">
-        <v>1421200</v>
+        <v>1473600</v>
       </c>
       <c r="G43" s="3">
-        <v>1531800</v>
+        <v>1490800</v>
       </c>
       <c r="H43" s="3">
-        <v>1615300</v>
+        <v>1606700</v>
       </c>
       <c r="I43" s="3">
-        <v>1598500</v>
+        <v>1694300</v>
       </c>
       <c r="J43" s="3">
+        <v>1676700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1416700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1619700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1650300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2247600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2454200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2684900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2699500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2565800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2582900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2995800</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>55200</v>
+        <v>57300</v>
       </c>
       <c r="E44" s="3">
-        <v>60600</v>
+        <v>57900</v>
       </c>
       <c r="F44" s="3">
-        <v>58300</v>
+        <v>63600</v>
       </c>
       <c r="G44" s="3">
-        <v>56700</v>
+        <v>61200</v>
       </c>
       <c r="H44" s="3">
-        <v>56900</v>
+        <v>59500</v>
       </c>
       <c r="I44" s="3">
-        <v>53400</v>
+        <v>59700</v>
       </c>
       <c r="J44" s="3">
+        <v>56100</v>
+      </c>
+      <c r="K44" s="3">
         <v>56600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>48400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>48000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>61200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>65000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>138700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>129300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>115300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>88100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>761600</v>
+        <v>656700</v>
       </c>
       <c r="E45" s="3">
-        <v>868700</v>
+        <v>798800</v>
       </c>
       <c r="F45" s="3">
-        <v>1326200</v>
+        <v>911200</v>
       </c>
       <c r="G45" s="3">
-        <v>1443800</v>
+        <v>1391100</v>
       </c>
       <c r="H45" s="3">
-        <v>1481800</v>
+        <v>1514500</v>
       </c>
       <c r="I45" s="3">
-        <v>1528900</v>
+        <v>1554300</v>
       </c>
       <c r="J45" s="3">
+        <v>1603800</v>
+      </c>
+      <c r="K45" s="3">
         <v>1510600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1613800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1654200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1917000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1804300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1856700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2049900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1864900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1926500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2113900</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3420900</v>
+        <v>3401900</v>
       </c>
       <c r="E46" s="3">
-        <v>3453700</v>
+        <v>3588300</v>
       </c>
       <c r="F46" s="3">
-        <v>3210000</v>
+        <v>3622700</v>
       </c>
       <c r="G46" s="3">
-        <v>3595600</v>
+        <v>3367100</v>
       </c>
       <c r="H46" s="3">
-        <v>3913600</v>
+        <v>3771500</v>
       </c>
       <c r="I46" s="3">
-        <v>4292200</v>
+        <v>4105100</v>
       </c>
       <c r="J46" s="3">
+        <v>4502200</v>
+      </c>
+      <c r="K46" s="3">
         <v>3802300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4225200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4303100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5652800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6088400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6636400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6762000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6412000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6502600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6955700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>433200</v>
+        <v>336500</v>
       </c>
       <c r="E47" s="3">
-        <v>511000</v>
+        <v>454400</v>
       </c>
       <c r="F47" s="3">
-        <v>548200</v>
+        <v>536000</v>
       </c>
       <c r="G47" s="3">
-        <v>559900</v>
+        <v>575000</v>
       </c>
       <c r="H47" s="3">
-        <v>354700</v>
+        <v>587300</v>
       </c>
       <c r="I47" s="3">
-        <v>364500</v>
+        <v>372100</v>
       </c>
       <c r="J47" s="3">
+        <v>382300</v>
+      </c>
+      <c r="K47" s="3">
         <v>141200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>142900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>148400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>177100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>195900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>216900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>228500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>209400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>216900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>226500</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7211600</v>
+        <v>7749500</v>
       </c>
       <c r="E48" s="3">
-        <v>7148400</v>
+        <v>7564500</v>
       </c>
       <c r="F48" s="3">
-        <v>6941700</v>
+        <v>7498300</v>
       </c>
       <c r="G48" s="3">
-        <v>6869600</v>
+        <v>7281400</v>
       </c>
       <c r="H48" s="3">
-        <v>6739000</v>
+        <v>7205700</v>
       </c>
       <c r="I48" s="3">
-        <v>6588100</v>
+        <v>7068800</v>
       </c>
       <c r="J48" s="3">
+        <v>6910500</v>
+      </c>
+      <c r="K48" s="3">
         <v>5071100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5095300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5027500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6289300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6919300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6805600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6753900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6512100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6426600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6291400</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>650100</v>
+        <v>656900</v>
       </c>
       <c r="E49" s="3">
-        <v>680800</v>
+        <v>681900</v>
       </c>
       <c r="F49" s="3">
-        <v>713200</v>
+        <v>714100</v>
       </c>
       <c r="G49" s="3">
-        <v>524800</v>
+        <v>748100</v>
       </c>
       <c r="H49" s="3">
-        <v>1161200</v>
+        <v>550400</v>
       </c>
       <c r="I49" s="3">
-        <v>1202700</v>
+        <v>1218100</v>
       </c>
       <c r="J49" s="3">
+        <v>1261600</v>
+      </c>
+      <c r="K49" s="3">
         <v>1239600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1387800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1444800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1928400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2140900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2740300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2817800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2696100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1221800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>832100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1334400</v>
+        <v>1452800</v>
       </c>
       <c r="E52" s="3">
-        <v>1398100</v>
+        <v>1399700</v>
       </c>
       <c r="F52" s="3">
-        <v>1412400</v>
+        <v>1466500</v>
       </c>
       <c r="G52" s="3">
-        <v>1449600</v>
+        <v>1481500</v>
       </c>
       <c r="H52" s="3">
-        <v>1455300</v>
+        <v>1520500</v>
       </c>
       <c r="I52" s="3">
-        <v>1430300</v>
+        <v>1526500</v>
       </c>
       <c r="J52" s="3">
+        <v>1500300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1419800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1588400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1553100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1991300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2253000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4740800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4701300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4400600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2194100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5617900</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13050300</v>
+        <v>13597700</v>
       </c>
       <c r="E54" s="3">
-        <v>13192100</v>
+        <v>13688900</v>
       </c>
       <c r="F54" s="3">
-        <v>12825500</v>
+        <v>13837600</v>
       </c>
       <c r="G54" s="3">
-        <v>12999400</v>
+        <v>13453100</v>
       </c>
       <c r="H54" s="3">
-        <v>13623800</v>
+        <v>13635500</v>
       </c>
       <c r="I54" s="3">
-        <v>13877800</v>
+        <v>14290500</v>
       </c>
       <c r="J54" s="3">
+        <v>14556900</v>
+      </c>
+      <c r="K54" s="3">
         <v>11674100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12439700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12476900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16038900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17597700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>21140000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>21263500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>20230100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>16366400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>19923600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,256 +3141,269 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>774300</v>
+        <v>876500</v>
       </c>
       <c r="E57" s="3">
-        <v>883400</v>
+        <v>812200</v>
       </c>
       <c r="F57" s="3">
-        <v>998000</v>
+        <v>926700</v>
       </c>
       <c r="G57" s="3">
-        <v>1052600</v>
+        <v>1046800</v>
       </c>
       <c r="H57" s="3">
-        <v>1077200</v>
+        <v>1104100</v>
       </c>
       <c r="I57" s="3">
-        <v>1006300</v>
+        <v>1129900</v>
       </c>
       <c r="J57" s="3">
+        <v>1055600</v>
+      </c>
+      <c r="K57" s="3">
         <v>932300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>809500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>765900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1148900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1955500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1819400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1803900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1648700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1631900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1766800</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>372200</v>
+        <v>349100</v>
       </c>
       <c r="E58" s="3">
-        <v>319600</v>
+        <v>390400</v>
       </c>
       <c r="F58" s="3">
-        <v>327600</v>
+        <v>335200</v>
       </c>
       <c r="G58" s="3">
-        <v>293400</v>
+        <v>343700</v>
       </c>
       <c r="H58" s="3">
-        <v>318700</v>
+        <v>307800</v>
       </c>
       <c r="I58" s="3">
-        <v>276700</v>
+        <v>334300</v>
       </c>
       <c r="J58" s="3">
+        <v>290200</v>
+      </c>
+      <c r="K58" s="3">
         <v>120000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>92600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>55300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>22900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>13976600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>13260500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>13287000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>11958200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>11929200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>11962600</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>979100</v>
+        <v>1045300</v>
       </c>
       <c r="E59" s="3">
-        <v>852700</v>
+        <v>1027000</v>
       </c>
       <c r="F59" s="3">
-        <v>785900</v>
+        <v>894500</v>
       </c>
       <c r="G59" s="3">
-        <v>781100</v>
+        <v>824400</v>
       </c>
       <c r="H59" s="3">
-        <v>746800</v>
+        <v>819300</v>
       </c>
       <c r="I59" s="3">
-        <v>860000</v>
+        <v>783300</v>
       </c>
       <c r="J59" s="3">
+        <v>902100</v>
+      </c>
+      <c r="K59" s="3">
         <v>854700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>886300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>839200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1301300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1474000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1595900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1629500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1459300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1642600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1427200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2125600</v>
+        <v>2270900</v>
       </c>
       <c r="E60" s="3">
-        <v>2055700</v>
+        <v>2229600</v>
       </c>
       <c r="F60" s="3">
-        <v>2111500</v>
+        <v>2156300</v>
       </c>
       <c r="G60" s="3">
-        <v>2127100</v>
+        <v>2214900</v>
       </c>
       <c r="H60" s="3">
-        <v>2142700</v>
+        <v>2231200</v>
       </c>
       <c r="I60" s="3">
-        <v>2143000</v>
+        <v>2247500</v>
       </c>
       <c r="J60" s="3">
+        <v>2247900</v>
+      </c>
+      <c r="K60" s="3">
         <v>1907000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1788400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1660300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2473100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17406100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16675800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16720400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15066200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15203800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15156600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5846300</v>
+        <v>6315800</v>
       </c>
       <c r="E61" s="3">
-        <v>5610800</v>
+        <v>6132400</v>
       </c>
       <c r="F61" s="3">
-        <v>4378000</v>
+        <v>5885300</v>
       </c>
       <c r="G61" s="3">
-        <v>4369400</v>
+        <v>4592200</v>
       </c>
       <c r="H61" s="3">
-        <v>4145300</v>
+        <v>4583200</v>
       </c>
       <c r="I61" s="3">
-        <v>4090800</v>
+        <v>4348200</v>
       </c>
       <c r="J61" s="3">
+        <v>4291000</v>
+      </c>
+      <c r="K61" s="3">
         <v>2814600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2893200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2761000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3137600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3276,61 +3419,67 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3622000</v>
+        <v>3887700</v>
       </c>
       <c r="E62" s="3">
-        <v>3456600</v>
+        <v>3799200</v>
       </c>
       <c r="F62" s="3">
-        <v>3161100</v>
+        <v>3625700</v>
       </c>
       <c r="G62" s="3">
-        <v>2920500</v>
+        <v>3315800</v>
       </c>
       <c r="H62" s="3">
-        <v>2722500</v>
+        <v>3063400</v>
       </c>
       <c r="I62" s="3">
-        <v>2750500</v>
+        <v>2855800</v>
       </c>
       <c r="J62" s="3">
+        <v>2885000</v>
+      </c>
+      <c r="K62" s="3">
         <v>2867900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2898700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2944200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3677600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3656000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2249900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2291100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2263300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2816300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2183300</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11609700</v>
+        <v>12478200</v>
       </c>
       <c r="E66" s="3">
-        <v>11153800</v>
+        <v>12177800</v>
       </c>
       <c r="F66" s="3">
-        <v>9676700</v>
+        <v>11699600</v>
       </c>
       <c r="G66" s="3">
-        <v>9446200</v>
+        <v>10150200</v>
       </c>
       <c r="H66" s="3">
-        <v>9049500</v>
+        <v>9908400</v>
       </c>
       <c r="I66" s="3">
-        <v>9024500</v>
+        <v>9492400</v>
       </c>
       <c r="J66" s="3">
+        <v>9466100</v>
+      </c>
+      <c r="K66" s="3">
         <v>7632900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7631300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7417100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9352500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21137300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19003400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19099400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17422600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>18216300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>17565100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4198800</v>
+        <v>-4897400</v>
       </c>
       <c r="E72" s="3">
-        <v>-3591100</v>
+        <v>-4404300</v>
       </c>
       <c r="F72" s="3">
-        <v>-2471300</v>
+        <v>-3766900</v>
       </c>
       <c r="G72" s="3">
-        <v>-2067600</v>
+        <v>-2592200</v>
       </c>
       <c r="H72" s="3">
-        <v>-1007000</v>
+        <v>-2168800</v>
       </c>
       <c r="I72" s="3">
-        <v>-289500</v>
+        <v>-1056300</v>
       </c>
       <c r="J72" s="3">
+        <v>-303700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1076100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-526800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>82200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>397400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7467000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1821000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1823000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-952300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5646300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1463600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1440700</v>
+        <v>1119500</v>
       </c>
       <c r="E76" s="3">
-        <v>2038200</v>
+        <v>1511200</v>
       </c>
       <c r="F76" s="3">
-        <v>3148800</v>
+        <v>2138000</v>
       </c>
       <c r="G76" s="3">
-        <v>3553200</v>
+        <v>3302900</v>
       </c>
       <c r="H76" s="3">
-        <v>4574300</v>
+        <v>3727100</v>
       </c>
       <c r="I76" s="3">
-        <v>4853300</v>
+        <v>4798200</v>
       </c>
       <c r="J76" s="3">
+        <v>5090800</v>
+      </c>
+      <c r="K76" s="3">
         <v>4041200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4808300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5059700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6686400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3539600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2136600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2164100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2807500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1849900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2358500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-608200</v>
+        <v>-493700</v>
       </c>
       <c r="E81" s="3">
-        <v>-1120400</v>
+        <v>-638000</v>
       </c>
       <c r="F81" s="3">
-        <v>-403700</v>
+        <v>-1175200</v>
       </c>
       <c r="G81" s="3">
-        <v>-1025200</v>
+        <v>-423500</v>
       </c>
       <c r="H81" s="3">
-        <v>-278100</v>
+        <v>-1075400</v>
       </c>
       <c r="I81" s="3">
-        <v>101400</v>
+        <v>-291700</v>
       </c>
       <c r="J81" s="3">
+        <v>106400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-599100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-247300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5418700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7132500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-743600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1107400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-46800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1070600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>307700</v>
+        <v>325600</v>
       </c>
       <c r="E83" s="3">
-        <v>305300</v>
+        <v>322700</v>
       </c>
       <c r="F83" s="3">
-        <v>303800</v>
+        <v>320200</v>
       </c>
       <c r="G83" s="3">
-        <v>312600</v>
+        <v>318600</v>
       </c>
       <c r="H83" s="3">
-        <v>308500</v>
+        <v>327900</v>
       </c>
       <c r="I83" s="3">
-        <v>301400</v>
+        <v>323600</v>
       </c>
       <c r="J83" s="3">
+        <v>316200</v>
+      </c>
+      <c r="K83" s="3">
         <v>265200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>272300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>528000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>296200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>186400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>371800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>751700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>376900</v>
-      </c>
-      <c r="R83" s="3">
-        <v>384100</v>
       </c>
       <c r="S83" s="3">
         <v>384100</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>384100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>234700</v>
+        <v>359200</v>
       </c>
       <c r="E89" s="3">
-        <v>93700</v>
+        <v>246100</v>
       </c>
       <c r="F89" s="3">
-        <v>243100</v>
+        <v>98300</v>
       </c>
       <c r="G89" s="3">
-        <v>214500</v>
+        <v>255000</v>
       </c>
       <c r="H89" s="3">
-        <v>43600</v>
+        <v>225000</v>
       </c>
       <c r="I89" s="3">
-        <v>-88800</v>
+        <v>45700</v>
       </c>
       <c r="J89" s="3">
+        <v>-93100</v>
+      </c>
+      <c r="K89" s="3">
         <v>108900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>204400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>212200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>190200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>135200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>380300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>613000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>227400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>401600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>594500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-319600</v>
+        <v>-365700</v>
       </c>
       <c r="E91" s="3">
-        <v>-385000</v>
+        <v>-335200</v>
       </c>
       <c r="F91" s="3">
-        <v>-388900</v>
+        <v>-403900</v>
       </c>
       <c r="G91" s="3">
-        <v>-353500</v>
+        <v>-407900</v>
       </c>
       <c r="H91" s="3">
-        <v>-316100</v>
+        <v>-370800</v>
       </c>
       <c r="I91" s="3">
-        <v>-266200</v>
+        <v>-331600</v>
       </c>
       <c r="J91" s="3">
+        <v>-279200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-242900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-204800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-513900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-353700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-257900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-311700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-544300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-497100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-437700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-103100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-202300</v>
+        <v>-342800</v>
       </c>
       <c r="E94" s="3">
-        <v>252900</v>
+        <v>-212100</v>
       </c>
       <c r="F94" s="3">
-        <v>-324000</v>
+        <v>265300</v>
       </c>
       <c r="G94" s="3">
-        <v>-330200</v>
+        <v>-339900</v>
       </c>
       <c r="H94" s="3">
-        <v>-316600</v>
+        <v>-346400</v>
       </c>
       <c r="I94" s="3">
-        <v>-251300</v>
+        <v>-332100</v>
       </c>
       <c r="J94" s="3">
+        <v>-263600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-216600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-183500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-501700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-334300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-306200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-291300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-536100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-235400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-216200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-58500</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4861,11 +5095,11 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-100</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -4891,19 +5125,22 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,72 +5304,78 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-81300</v>
+        <v>-87100</v>
       </c>
       <c r="E100" s="3">
-        <v>336400</v>
+        <v>-85300</v>
       </c>
       <c r="F100" s="3">
-        <v>-79000</v>
+        <v>352900</v>
       </c>
       <c r="G100" s="3">
-        <v>-77300</v>
+        <v>-82900</v>
       </c>
       <c r="H100" s="3">
-        <v>-78200</v>
+        <v>-81100</v>
       </c>
       <c r="I100" s="3">
-        <v>633400</v>
+        <v>-82100</v>
       </c>
       <c r="J100" s="3">
+        <v>664400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-11100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-27000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-40000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-41000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-21100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-17100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-139100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6200</v>
+        <v>-1800</v>
       </c>
       <c r="E101" s="3">
-        <v>32000</v>
+        <v>6500</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>33600</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -5138,86 +5387,92 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-35800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-61800</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-42700</v>
+        <v>-72500</v>
       </c>
       <c r="E102" s="3">
-        <v>715000</v>
+        <v>-44800</v>
       </c>
       <c r="F102" s="3">
-        <v>-160000</v>
+        <v>750000</v>
       </c>
       <c r="G102" s="3">
-        <v>-193100</v>
+        <v>-167800</v>
       </c>
       <c r="H102" s="3">
-        <v>-351300</v>
+        <v>-202500</v>
       </c>
       <c r="I102" s="3">
-        <v>293400</v>
+        <v>-368400</v>
       </c>
       <c r="J102" s="3">
+        <v>307700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-122000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-326900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-184300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-191200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>71700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-60200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-14700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>151500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>521000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OIBRQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OIBRQ_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>880600</v>
+        <v>833300</v>
       </c>
       <c r="E8" s="3">
-        <v>850300</v>
+        <v>804600</v>
       </c>
       <c r="F8" s="3">
-        <v>888600</v>
+        <v>840800</v>
       </c>
       <c r="G8" s="3">
-        <v>919500</v>
+        <v>870100</v>
       </c>
       <c r="H8" s="3">
-        <v>935900</v>
+        <v>885600</v>
       </c>
       <c r="I8" s="3">
-        <v>952700</v>
+        <v>901500</v>
       </c>
       <c r="J8" s="3">
-        <v>960000</v>
+        <v>908400</v>
       </c>
       <c r="K8" s="3">
         <v>957100</v>
@@ -808,25 +808,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>682000</v>
+        <v>645300</v>
       </c>
       <c r="E9" s="3">
-        <v>678000</v>
+        <v>641600</v>
       </c>
       <c r="F9" s="3">
+        <v>649000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>664400</v>
+      </c>
+      <c r="H9" s="3">
+        <v>678100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>683400</v>
+      </c>
+      <c r="J9" s="3">
         <v>685900</v>
-      </c>
-      <c r="G9" s="3">
-        <v>702200</v>
-      </c>
-      <c r="H9" s="3">
-        <v>716600</v>
-      </c>
-      <c r="I9" s="3">
-        <v>722200</v>
-      </c>
-      <c r="J9" s="3">
-        <v>724800</v>
       </c>
       <c r="K9" s="3">
         <v>791100</v>
@@ -864,25 +864,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>198700</v>
+        <v>188000</v>
       </c>
       <c r="E10" s="3">
-        <v>172300</v>
+        <v>163000</v>
       </c>
       <c r="F10" s="3">
-        <v>202700</v>
+        <v>191800</v>
       </c>
       <c r="G10" s="3">
-        <v>217300</v>
+        <v>205600</v>
       </c>
       <c r="H10" s="3">
-        <v>219300</v>
+        <v>207500</v>
       </c>
       <c r="I10" s="3">
-        <v>230500</v>
+        <v>218100</v>
       </c>
       <c r="J10" s="3">
-        <v>235100</v>
+        <v>222500</v>
       </c>
       <c r="K10" s="3">
         <v>166000</v>
@@ -1185,25 +1185,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>928300</v>
+        <v>878400</v>
       </c>
       <c r="E17" s="3">
-        <v>918800</v>
+        <v>869400</v>
       </c>
       <c r="F17" s="3">
-        <v>853400</v>
+        <v>807500</v>
       </c>
       <c r="G17" s="3">
-        <v>995300</v>
+        <v>941800</v>
       </c>
       <c r="H17" s="3">
-        <v>1534500</v>
+        <v>1452000</v>
       </c>
       <c r="I17" s="3">
-        <v>1008600</v>
+        <v>954300</v>
       </c>
       <c r="J17" s="3">
-        <v>786900</v>
+        <v>744600</v>
       </c>
       <c r="K17" s="3">
         <v>1972800</v>
@@ -1241,25 +1241,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-47700</v>
+        <v>-45100</v>
       </c>
       <c r="E18" s="3">
-        <v>-68500</v>
+        <v>-64800</v>
       </c>
       <c r="F18" s="3">
-        <v>35200</v>
+        <v>33300</v>
       </c>
       <c r="G18" s="3">
-        <v>-75800</v>
+        <v>-71700</v>
       </c>
       <c r="H18" s="3">
-        <v>-598600</v>
+        <v>-566400</v>
       </c>
       <c r="I18" s="3">
-        <v>-55800</v>
+        <v>-52800</v>
       </c>
       <c r="J18" s="3">
-        <v>173100</v>
+        <v>163800</v>
       </c>
       <c r="K18" s="3">
         <v>-1015600</v>
@@ -1319,25 +1319,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-294600</v>
+        <v>-278700</v>
       </c>
       <c r="E20" s="3">
-        <v>-437200</v>
+        <v>-413700</v>
       </c>
       <c r="F20" s="3">
-        <v>-1064900</v>
+        <v>-1007700</v>
       </c>
       <c r="G20" s="3">
-        <v>-330400</v>
+        <v>-312700</v>
       </c>
       <c r="H20" s="3">
-        <v>-362900</v>
+        <v>-343400</v>
       </c>
       <c r="I20" s="3">
-        <v>-181900</v>
+        <v>-172200</v>
       </c>
       <c r="J20" s="3">
-        <v>79000</v>
+        <v>74800</v>
       </c>
       <c r="K20" s="3">
         <v>-100500</v>
@@ -1375,25 +1375,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-16700</v>
+        <v>-15800</v>
       </c>
       <c r="E21" s="3">
-        <v>-183000</v>
+        <v>-173200</v>
       </c>
       <c r="F21" s="3">
-        <v>-709500</v>
+        <v>-671300</v>
       </c>
       <c r="G21" s="3">
-        <v>-87600</v>
+        <v>-82900</v>
       </c>
       <c r="H21" s="3">
-        <v>-633600</v>
+        <v>-599500</v>
       </c>
       <c r="I21" s="3">
-        <v>85900</v>
+        <v>81200</v>
       </c>
       <c r="J21" s="3">
-        <v>568300</v>
+        <v>537700</v>
       </c>
       <c r="K21" s="3">
         <v>-851000</v>
@@ -1431,25 +1431,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>140500</v>
+        <v>133000</v>
       </c>
       <c r="E22" s="3">
-        <v>147900</v>
+        <v>139900</v>
       </c>
       <c r="F22" s="3">
-        <v>146900</v>
+        <v>139000</v>
       </c>
       <c r="G22" s="3">
-        <v>73500</v>
+        <v>69500</v>
       </c>
       <c r="H22" s="3">
-        <v>81700</v>
+        <v>77400</v>
       </c>
       <c r="I22" s="3">
-        <v>75100</v>
+        <v>71100</v>
       </c>
       <c r="J22" s="3">
-        <v>116800</v>
+        <v>110500</v>
       </c>
       <c r="K22" s="3">
         <v>63000</v>
@@ -1487,25 +1487,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-482800</v>
+        <v>-456900</v>
       </c>
       <c r="E23" s="3">
-        <v>-653600</v>
+        <v>-618500</v>
       </c>
       <c r="F23" s="3">
-        <v>-1176600</v>
+        <v>-1113400</v>
       </c>
       <c r="G23" s="3">
-        <v>-479700</v>
+        <v>-453900</v>
       </c>
       <c r="H23" s="3">
-        <v>-1043200</v>
+        <v>-987100</v>
       </c>
       <c r="I23" s="3">
-        <v>-312900</v>
+        <v>-296100</v>
       </c>
       <c r="J23" s="3">
-        <v>135300</v>
+        <v>128100</v>
       </c>
       <c r="K23" s="3">
         <v>-1179200</v>
@@ -1549,19 +1549,19 @@
         <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>-6400</v>
+        <v>-6000</v>
       </c>
       <c r="G24" s="3">
-        <v>-52800</v>
+        <v>-50000</v>
       </c>
       <c r="H24" s="3">
-        <v>39000</v>
+        <v>36900</v>
       </c>
       <c r="I24" s="3">
-        <v>7000</v>
+        <v>6600</v>
       </c>
       <c r="J24" s="3">
-        <v>8300</v>
+        <v>7900</v>
       </c>
       <c r="K24" s="3">
         <v>-582800</v>
@@ -1655,25 +1655,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-482700</v>
+        <v>-456800</v>
       </c>
       <c r="E26" s="3">
-        <v>-653700</v>
+        <v>-618600</v>
       </c>
       <c r="F26" s="3">
-        <v>-1170300</v>
+        <v>-1107400</v>
       </c>
       <c r="G26" s="3">
-        <v>-426900</v>
+        <v>-403900</v>
       </c>
       <c r="H26" s="3">
-        <v>-1082300</v>
+        <v>-1024100</v>
       </c>
       <c r="I26" s="3">
-        <v>-319900</v>
+        <v>-302700</v>
       </c>
       <c r="J26" s="3">
-        <v>127000</v>
+        <v>120200</v>
       </c>
       <c r="K26" s="3">
         <v>-596300</v>
@@ -1711,25 +1711,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-493700</v>
+        <v>-467200</v>
       </c>
       <c r="E27" s="3">
-        <v>-638000</v>
+        <v>-603700</v>
       </c>
       <c r="F27" s="3">
-        <v>-1175200</v>
+        <v>-1112000</v>
       </c>
       <c r="G27" s="3">
-        <v>-423500</v>
+        <v>-400700</v>
       </c>
       <c r="H27" s="3">
-        <v>-1075400</v>
+        <v>-1017600</v>
       </c>
       <c r="I27" s="3">
-        <v>-291700</v>
+        <v>-276100</v>
       </c>
       <c r="J27" s="3">
-        <v>106400</v>
+        <v>100600</v>
       </c>
       <c r="K27" s="3">
         <v>-599100</v>
@@ -1991,25 +1991,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>294600</v>
+        <v>278700</v>
       </c>
       <c r="E32" s="3">
-        <v>437200</v>
+        <v>413700</v>
       </c>
       <c r="F32" s="3">
-        <v>1064900</v>
+        <v>1007700</v>
       </c>
       <c r="G32" s="3">
-        <v>330400</v>
+        <v>312700</v>
       </c>
       <c r="H32" s="3">
-        <v>362900</v>
+        <v>343400</v>
       </c>
       <c r="I32" s="3">
-        <v>181900</v>
+        <v>172200</v>
       </c>
       <c r="J32" s="3">
-        <v>-79000</v>
+        <v>-74800</v>
       </c>
       <c r="K32" s="3">
         <v>100500</v>
@@ -2047,25 +2047,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-493700</v>
+        <v>-467200</v>
       </c>
       <c r="E33" s="3">
-        <v>-638000</v>
+        <v>-603700</v>
       </c>
       <c r="F33" s="3">
-        <v>-1175200</v>
+        <v>-1112000</v>
       </c>
       <c r="G33" s="3">
-        <v>-423500</v>
+        <v>-400700</v>
       </c>
       <c r="H33" s="3">
-        <v>-1075400</v>
+        <v>-1017600</v>
       </c>
       <c r="I33" s="3">
-        <v>-291700</v>
+        <v>-276100</v>
       </c>
       <c r="J33" s="3">
-        <v>106400</v>
+        <v>100600</v>
       </c>
       <c r="K33" s="3">
         <v>-599100</v>
@@ -2159,25 +2159,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-493700</v>
+        <v>-467200</v>
       </c>
       <c r="E35" s="3">
-        <v>-638000</v>
+        <v>-603700</v>
       </c>
       <c r="F35" s="3">
-        <v>-1175200</v>
+        <v>-1112000</v>
       </c>
       <c r="G35" s="3">
-        <v>-423500</v>
+        <v>-400700</v>
       </c>
       <c r="H35" s="3">
-        <v>-1075400</v>
+        <v>-1017600</v>
       </c>
       <c r="I35" s="3">
-        <v>-291700</v>
+        <v>-276100</v>
       </c>
       <c r="J35" s="3">
-        <v>106400</v>
+        <v>100600</v>
       </c>
       <c r="K35" s="3">
         <v>-599100</v>
@@ -2320,25 +2320,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1022300</v>
+        <v>967400</v>
       </c>
       <c r="E41" s="3">
-        <v>1094800</v>
+        <v>1036000</v>
       </c>
       <c r="F41" s="3">
-        <v>1139600</v>
+        <v>1078400</v>
       </c>
       <c r="G41" s="3">
-        <v>389600</v>
+        <v>368700</v>
       </c>
       <c r="H41" s="3">
-        <v>557400</v>
+        <v>527400</v>
       </c>
       <c r="I41" s="3">
-        <v>759900</v>
+        <v>719100</v>
       </c>
       <c r="J41" s="3">
-        <v>1128300</v>
+        <v>1067700</v>
       </c>
       <c r="K41" s="3">
         <v>782300</v>
@@ -2376,25 +2376,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>35700</v>
+        <v>33800</v>
       </c>
       <c r="E42" s="3">
-        <v>35400</v>
+        <v>33500</v>
       </c>
       <c r="F42" s="3">
+        <v>32900</v>
+      </c>
+      <c r="G42" s="3">
+        <v>32600</v>
+      </c>
+      <c r="H42" s="3">
+        <v>31600</v>
+      </c>
+      <c r="I42" s="3">
         <v>34800</v>
       </c>
-      <c r="G42" s="3">
-        <v>34400</v>
-      </c>
-      <c r="H42" s="3">
-        <v>33400</v>
-      </c>
-      <c r="I42" s="3">
-        <v>36800</v>
-      </c>
       <c r="J42" s="3">
-        <v>37300</v>
+        <v>35300</v>
       </c>
       <c r="K42" s="3">
         <v>36000</v>
@@ -2432,25 +2432,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1629900</v>
+        <v>1542300</v>
       </c>
       <c r="E43" s="3">
-        <v>1601400</v>
+        <v>1515300</v>
       </c>
       <c r="F43" s="3">
-        <v>1473600</v>
+        <v>1394300</v>
       </c>
       <c r="G43" s="3">
-        <v>1490800</v>
+        <v>1410700</v>
       </c>
       <c r="H43" s="3">
-        <v>1606700</v>
+        <v>1520400</v>
       </c>
       <c r="I43" s="3">
-        <v>1694300</v>
+        <v>1603200</v>
       </c>
       <c r="J43" s="3">
-        <v>1676700</v>
+        <v>1586600</v>
       </c>
       <c r="K43" s="3">
         <v>1416700</v>
@@ -2488,25 +2488,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>57300</v>
+        <v>54200</v>
       </c>
       <c r="E44" s="3">
+        <v>54800</v>
+      </c>
+      <c r="F44" s="3">
+        <v>60100</v>
+      </c>
+      <c r="G44" s="3">
         <v>57900</v>
       </c>
-      <c r="F44" s="3">
-        <v>63600</v>
-      </c>
-      <c r="G44" s="3">
-        <v>61200</v>
-      </c>
       <c r="H44" s="3">
-        <v>59500</v>
+        <v>56300</v>
       </c>
       <c r="I44" s="3">
-        <v>59700</v>
+        <v>56500</v>
       </c>
       <c r="J44" s="3">
-        <v>56100</v>
+        <v>53000</v>
       </c>
       <c r="K44" s="3">
         <v>56600</v>
@@ -2544,25 +2544,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>656700</v>
+        <v>621400</v>
       </c>
       <c r="E45" s="3">
-        <v>798800</v>
+        <v>755900</v>
       </c>
       <c r="F45" s="3">
-        <v>911200</v>
+        <v>862200</v>
       </c>
       <c r="G45" s="3">
-        <v>1391100</v>
+        <v>1316300</v>
       </c>
       <c r="H45" s="3">
-        <v>1514500</v>
+        <v>1433100</v>
       </c>
       <c r="I45" s="3">
-        <v>1554300</v>
+        <v>1470800</v>
       </c>
       <c r="J45" s="3">
-        <v>1603800</v>
+        <v>1517500</v>
       </c>
       <c r="K45" s="3">
         <v>1510600</v>
@@ -2600,25 +2600,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3401900</v>
+        <v>3219000</v>
       </c>
       <c r="E46" s="3">
-        <v>3588300</v>
+        <v>3395400</v>
       </c>
       <c r="F46" s="3">
-        <v>3622700</v>
+        <v>3427900</v>
       </c>
       <c r="G46" s="3">
-        <v>3367100</v>
+        <v>3186100</v>
       </c>
       <c r="H46" s="3">
-        <v>3771500</v>
+        <v>3568800</v>
       </c>
       <c r="I46" s="3">
-        <v>4105100</v>
+        <v>3884400</v>
       </c>
       <c r="J46" s="3">
-        <v>4502200</v>
+        <v>4260200</v>
       </c>
       <c r="K46" s="3">
         <v>3802300</v>
@@ -2656,25 +2656,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>336500</v>
+        <v>318400</v>
       </c>
       <c r="E47" s="3">
-        <v>454400</v>
+        <v>430000</v>
       </c>
       <c r="F47" s="3">
-        <v>536000</v>
+        <v>507200</v>
       </c>
       <c r="G47" s="3">
-        <v>575000</v>
+        <v>544100</v>
       </c>
       <c r="H47" s="3">
-        <v>587300</v>
+        <v>555700</v>
       </c>
       <c r="I47" s="3">
-        <v>372100</v>
+        <v>352100</v>
       </c>
       <c r="J47" s="3">
-        <v>382300</v>
+        <v>361700</v>
       </c>
       <c r="K47" s="3">
         <v>141200</v>
@@ -2712,25 +2712,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7749500</v>
+        <v>7332900</v>
       </c>
       <c r="E48" s="3">
-        <v>7564500</v>
+        <v>7157900</v>
       </c>
       <c r="F48" s="3">
-        <v>7498300</v>
+        <v>7095200</v>
       </c>
       <c r="G48" s="3">
-        <v>7281400</v>
+        <v>6889900</v>
       </c>
       <c r="H48" s="3">
-        <v>7205700</v>
+        <v>6818300</v>
       </c>
       <c r="I48" s="3">
-        <v>7068800</v>
+        <v>6688800</v>
       </c>
       <c r="J48" s="3">
-        <v>6910500</v>
+        <v>6539000</v>
       </c>
       <c r="K48" s="3">
         <v>5071100</v>
@@ -2768,25 +2768,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>656900</v>
+        <v>621600</v>
       </c>
       <c r="E49" s="3">
-        <v>681900</v>
+        <v>645300</v>
       </c>
       <c r="F49" s="3">
-        <v>714100</v>
+        <v>675700</v>
       </c>
       <c r="G49" s="3">
-        <v>748100</v>
+        <v>707900</v>
       </c>
       <c r="H49" s="3">
-        <v>550400</v>
+        <v>520900</v>
       </c>
       <c r="I49" s="3">
-        <v>1218100</v>
+        <v>1152600</v>
       </c>
       <c r="J49" s="3">
-        <v>1261600</v>
+        <v>1193800</v>
       </c>
       <c r="K49" s="3">
         <v>1239600</v>
@@ -2936,25 +2936,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1452800</v>
+        <v>1374700</v>
       </c>
       <c r="E52" s="3">
-        <v>1399700</v>
+        <v>1324500</v>
       </c>
       <c r="F52" s="3">
-        <v>1466500</v>
+        <v>1387700</v>
       </c>
       <c r="G52" s="3">
-        <v>1481500</v>
+        <v>1401900</v>
       </c>
       <c r="H52" s="3">
-        <v>1520500</v>
+        <v>1438800</v>
       </c>
       <c r="I52" s="3">
-        <v>1526500</v>
+        <v>1444400</v>
       </c>
       <c r="J52" s="3">
-        <v>1500300</v>
+        <v>1419600</v>
       </c>
       <c r="K52" s="3">
         <v>1419800</v>
@@ -3048,25 +3048,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13597700</v>
+        <v>12866700</v>
       </c>
       <c r="E54" s="3">
-        <v>13688900</v>
+        <v>12953000</v>
       </c>
       <c r="F54" s="3">
-        <v>13837600</v>
+        <v>13093700</v>
       </c>
       <c r="G54" s="3">
-        <v>13453100</v>
+        <v>12729900</v>
       </c>
       <c r="H54" s="3">
-        <v>13635500</v>
+        <v>12902500</v>
       </c>
       <c r="I54" s="3">
-        <v>14290500</v>
+        <v>13522300</v>
       </c>
       <c r="J54" s="3">
-        <v>14556900</v>
+        <v>13774300</v>
       </c>
       <c r="K54" s="3">
         <v>11674100</v>
@@ -3148,25 +3148,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>876500</v>
+        <v>829400</v>
       </c>
       <c r="E57" s="3">
-        <v>812200</v>
+        <v>768500</v>
       </c>
       <c r="F57" s="3">
-        <v>926700</v>
+        <v>876800</v>
       </c>
       <c r="G57" s="3">
-        <v>1046800</v>
+        <v>990500</v>
       </c>
       <c r="H57" s="3">
-        <v>1104100</v>
+        <v>1044800</v>
       </c>
       <c r="I57" s="3">
-        <v>1129900</v>
+        <v>1069200</v>
       </c>
       <c r="J57" s="3">
-        <v>1055600</v>
+        <v>998800</v>
       </c>
       <c r="K57" s="3">
         <v>932300</v>
@@ -3204,25 +3204,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>349100</v>
+        <v>330300</v>
       </c>
       <c r="E58" s="3">
-        <v>390400</v>
+        <v>369400</v>
       </c>
       <c r="F58" s="3">
-        <v>335200</v>
+        <v>317200</v>
       </c>
       <c r="G58" s="3">
-        <v>343700</v>
+        <v>325200</v>
       </c>
       <c r="H58" s="3">
-        <v>307800</v>
+        <v>291300</v>
       </c>
       <c r="I58" s="3">
-        <v>334300</v>
+        <v>316300</v>
       </c>
       <c r="J58" s="3">
-        <v>290200</v>
+        <v>274600</v>
       </c>
       <c r="K58" s="3">
         <v>120000</v>
@@ -3260,25 +3260,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1045300</v>
+        <v>989100</v>
       </c>
       <c r="E59" s="3">
-        <v>1027000</v>
+        <v>971800</v>
       </c>
       <c r="F59" s="3">
-        <v>894500</v>
+        <v>846400</v>
       </c>
       <c r="G59" s="3">
-        <v>824400</v>
+        <v>780100</v>
       </c>
       <c r="H59" s="3">
-        <v>819300</v>
+        <v>775200</v>
       </c>
       <c r="I59" s="3">
-        <v>783300</v>
+        <v>741200</v>
       </c>
       <c r="J59" s="3">
-        <v>902100</v>
+        <v>853600</v>
       </c>
       <c r="K59" s="3">
         <v>854700</v>
@@ -3316,25 +3316,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2270900</v>
+        <v>2148900</v>
       </c>
       <c r="E60" s="3">
-        <v>2229600</v>
+        <v>2109700</v>
       </c>
       <c r="F60" s="3">
-        <v>2156300</v>
+        <v>2040400</v>
       </c>
       <c r="G60" s="3">
-        <v>2214900</v>
+        <v>2095800</v>
       </c>
       <c r="H60" s="3">
-        <v>2231200</v>
+        <v>2111300</v>
       </c>
       <c r="I60" s="3">
-        <v>2247500</v>
+        <v>2126700</v>
       </c>
       <c r="J60" s="3">
-        <v>2247900</v>
+        <v>2127000</v>
       </c>
       <c r="K60" s="3">
         <v>1907000</v>
@@ -3372,25 +3372,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6315800</v>
+        <v>5976200</v>
       </c>
       <c r="E61" s="3">
-        <v>6132400</v>
+        <v>5802800</v>
       </c>
       <c r="F61" s="3">
-        <v>5885300</v>
+        <v>5568900</v>
       </c>
       <c r="G61" s="3">
-        <v>4592200</v>
+        <v>4345300</v>
       </c>
       <c r="H61" s="3">
-        <v>4583200</v>
+        <v>4336800</v>
       </c>
       <c r="I61" s="3">
-        <v>4348200</v>
+        <v>4114400</v>
       </c>
       <c r="J61" s="3">
-        <v>4291000</v>
+        <v>4060300</v>
       </c>
       <c r="K61" s="3">
         <v>2814600</v>
@@ -3428,25 +3428,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3887700</v>
+        <v>3678700</v>
       </c>
       <c r="E62" s="3">
-        <v>3799200</v>
+        <v>3595000</v>
       </c>
       <c r="F62" s="3">
-        <v>3625700</v>
+        <v>3430800</v>
       </c>
       <c r="G62" s="3">
-        <v>3315800</v>
+        <v>3137500</v>
       </c>
       <c r="H62" s="3">
-        <v>3063400</v>
+        <v>2898700</v>
       </c>
       <c r="I62" s="3">
-        <v>2855800</v>
+        <v>2702200</v>
       </c>
       <c r="J62" s="3">
-        <v>2885000</v>
+        <v>2729900</v>
       </c>
       <c r="K62" s="3">
         <v>2867900</v>
@@ -3652,25 +3652,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12478200</v>
+        <v>11807400</v>
       </c>
       <c r="E66" s="3">
-        <v>12177800</v>
+        <v>11523100</v>
       </c>
       <c r="F66" s="3">
-        <v>11699600</v>
+        <v>11070700</v>
       </c>
       <c r="G66" s="3">
-        <v>10150200</v>
+        <v>9604500</v>
       </c>
       <c r="H66" s="3">
-        <v>9908400</v>
+        <v>9375700</v>
       </c>
       <c r="I66" s="3">
-        <v>9492400</v>
+        <v>8982000</v>
       </c>
       <c r="J66" s="3">
-        <v>9466100</v>
+        <v>8957200</v>
       </c>
       <c r="K66" s="3">
         <v>7632900</v>
@@ -3954,25 +3954,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4897400</v>
+        <v>-4634100</v>
       </c>
       <c r="E72" s="3">
-        <v>-4404300</v>
+        <v>-4167500</v>
       </c>
       <c r="F72" s="3">
-        <v>-3766900</v>
+        <v>-3564400</v>
       </c>
       <c r="G72" s="3">
-        <v>-2592200</v>
+        <v>-2452900</v>
       </c>
       <c r="H72" s="3">
-        <v>-2168800</v>
+        <v>-2052200</v>
       </c>
       <c r="I72" s="3">
-        <v>-1056300</v>
+        <v>-999500</v>
       </c>
       <c r="J72" s="3">
-        <v>-303700</v>
+        <v>-287400</v>
       </c>
       <c r="K72" s="3">
         <v>-1076100</v>
@@ -4178,25 +4178,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1119500</v>
+        <v>1059300</v>
       </c>
       <c r="E76" s="3">
-        <v>1511200</v>
+        <v>1429900</v>
       </c>
       <c r="F76" s="3">
-        <v>2138000</v>
+        <v>2023000</v>
       </c>
       <c r="G76" s="3">
-        <v>3302900</v>
+        <v>3125300</v>
       </c>
       <c r="H76" s="3">
-        <v>3727100</v>
+        <v>3526700</v>
       </c>
       <c r="I76" s="3">
-        <v>4798200</v>
+        <v>4540200</v>
       </c>
       <c r="J76" s="3">
-        <v>5090800</v>
+        <v>4817100</v>
       </c>
       <c r="K76" s="3">
         <v>4041200</v>
@@ -4351,25 +4351,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-493700</v>
+        <v>-467200</v>
       </c>
       <c r="E81" s="3">
-        <v>-638000</v>
+        <v>-603700</v>
       </c>
       <c r="F81" s="3">
-        <v>-1175200</v>
+        <v>-1112000</v>
       </c>
       <c r="G81" s="3">
-        <v>-423500</v>
+        <v>-400700</v>
       </c>
       <c r="H81" s="3">
-        <v>-1075400</v>
+        <v>-1017600</v>
       </c>
       <c r="I81" s="3">
-        <v>-291700</v>
+        <v>-276100</v>
       </c>
       <c r="J81" s="3">
-        <v>106400</v>
+        <v>100600</v>
       </c>
       <c r="K81" s="3">
         <v>-599100</v>
@@ -4429,25 +4429,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>325600</v>
+        <v>308100</v>
       </c>
       <c r="E83" s="3">
-        <v>322700</v>
+        <v>305400</v>
       </c>
       <c r="F83" s="3">
-        <v>320200</v>
+        <v>303000</v>
       </c>
       <c r="G83" s="3">
-        <v>318600</v>
+        <v>301500</v>
       </c>
       <c r="H83" s="3">
-        <v>327900</v>
+        <v>310200</v>
       </c>
       <c r="I83" s="3">
-        <v>323600</v>
+        <v>306200</v>
       </c>
       <c r="J83" s="3">
-        <v>316200</v>
+        <v>299200</v>
       </c>
       <c r="K83" s="3">
         <v>265200</v>
@@ -4765,25 +4765,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>359200</v>
+        <v>339900</v>
       </c>
       <c r="E89" s="3">
-        <v>246100</v>
+        <v>232900</v>
       </c>
       <c r="F89" s="3">
-        <v>98300</v>
+        <v>93000</v>
       </c>
       <c r="G89" s="3">
-        <v>255000</v>
+        <v>241300</v>
       </c>
       <c r="H89" s="3">
-        <v>225000</v>
+        <v>212900</v>
       </c>
       <c r="I89" s="3">
-        <v>45700</v>
+        <v>43300</v>
       </c>
       <c r="J89" s="3">
-        <v>-93100</v>
+        <v>-88100</v>
       </c>
       <c r="K89" s="3">
         <v>108900</v>
@@ -4843,25 +4843,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-365700</v>
+        <v>-346100</v>
       </c>
       <c r="E91" s="3">
-        <v>-335200</v>
+        <v>-317200</v>
       </c>
       <c r="F91" s="3">
-        <v>-403900</v>
+        <v>-382200</v>
       </c>
       <c r="G91" s="3">
-        <v>-407900</v>
+        <v>-386000</v>
       </c>
       <c r="H91" s="3">
-        <v>-370800</v>
+        <v>-350900</v>
       </c>
       <c r="I91" s="3">
-        <v>-331600</v>
+        <v>-313800</v>
       </c>
       <c r="J91" s="3">
-        <v>-279200</v>
+        <v>-264200</v>
       </c>
       <c r="K91" s="3">
         <v>-242900</v>
@@ -5011,25 +5011,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-342800</v>
+        <v>-324400</v>
       </c>
       <c r="E94" s="3">
-        <v>-212100</v>
+        <v>-200700</v>
       </c>
       <c r="F94" s="3">
-        <v>265300</v>
+        <v>251000</v>
       </c>
       <c r="G94" s="3">
-        <v>-339900</v>
+        <v>-321600</v>
       </c>
       <c r="H94" s="3">
-        <v>-346400</v>
+        <v>-327800</v>
       </c>
       <c r="I94" s="3">
-        <v>-332100</v>
+        <v>-314200</v>
       </c>
       <c r="J94" s="3">
-        <v>-263600</v>
+        <v>-249400</v>
       </c>
       <c r="K94" s="3">
         <v>-216600</v>
@@ -5313,25 +5313,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-87100</v>
+        <v>-82400</v>
       </c>
       <c r="E100" s="3">
-        <v>-85300</v>
+        <v>-80700</v>
       </c>
       <c r="F100" s="3">
-        <v>352900</v>
+        <v>333900</v>
       </c>
       <c r="G100" s="3">
-        <v>-82900</v>
+        <v>-78400</v>
       </c>
       <c r="H100" s="3">
-        <v>-81100</v>
+        <v>-76700</v>
       </c>
       <c r="I100" s="3">
-        <v>-82100</v>
+        <v>-77700</v>
       </c>
       <c r="J100" s="3">
-        <v>664400</v>
+        <v>628700</v>
       </c>
       <c r="K100" s="3">
         <v>-11100</v>
@@ -5369,13 +5369,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="E101" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="F101" s="3">
-        <v>33600</v>
+        <v>31800</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -5425,25 +5425,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-72500</v>
+        <v>-68600</v>
       </c>
       <c r="E102" s="3">
-        <v>-44800</v>
+        <v>-42400</v>
       </c>
       <c r="F102" s="3">
-        <v>750000</v>
+        <v>709700</v>
       </c>
       <c r="G102" s="3">
-        <v>-167800</v>
+        <v>-158800</v>
       </c>
       <c r="H102" s="3">
-        <v>-202500</v>
+        <v>-191600</v>
       </c>
       <c r="I102" s="3">
-        <v>-368400</v>
+        <v>-348600</v>
       </c>
       <c r="J102" s="3">
-        <v>307700</v>
+        <v>291200</v>
       </c>
       <c r="K102" s="3">
         <v>-122000</v>

--- a/AAII_Financials/Quarterly/OIBRQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OIBRQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>OIBRQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,282 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>833300</v>
+        <v>419900</v>
       </c>
       <c r="E8" s="3">
-        <v>804600</v>
+        <v>1741500</v>
       </c>
       <c r="F8" s="3">
-        <v>840800</v>
+        <v>882800</v>
       </c>
       <c r="G8" s="3">
-        <v>870100</v>
+        <v>852300</v>
       </c>
       <c r="H8" s="3">
-        <v>885600</v>
+        <v>453100</v>
       </c>
       <c r="I8" s="3">
+        <v>1968100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>938100</v>
+      </c>
+      <c r="K8" s="3">
         <v>901500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>908400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>957100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1014200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2074900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1323700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1494100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1528900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>3076100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1528100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1568600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1586300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>645300</v>
+        <v>353800</v>
       </c>
       <c r="E9" s="3">
-        <v>641600</v>
+        <v>1364000</v>
       </c>
       <c r="F9" s="3">
-        <v>649000</v>
+        <v>683600</v>
       </c>
       <c r="G9" s="3">
-        <v>664400</v>
+        <v>679600</v>
       </c>
       <c r="H9" s="3">
-        <v>678100</v>
+        <v>347300</v>
       </c>
       <c r="I9" s="3">
+        <v>1497400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>718300</v>
+      </c>
+      <c r="K9" s="3">
         <v>683400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>685900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>791100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>729400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1443700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>873000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>799200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>963600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1928400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>942400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>806300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>991000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>188000</v>
+        <v>66000</v>
       </c>
       <c r="E10" s="3">
-        <v>163000</v>
+        <v>377600</v>
       </c>
       <c r="F10" s="3">
-        <v>191800</v>
+        <v>199200</v>
       </c>
       <c r="G10" s="3">
-        <v>205600</v>
+        <v>172700</v>
       </c>
       <c r="H10" s="3">
-        <v>207500</v>
+        <v>105800</v>
       </c>
       <c r="I10" s="3">
+        <v>470700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>219800</v>
+      </c>
+      <c r="K10" s="3">
         <v>218100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>222500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>166000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>284900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>631100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>450700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>694900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>565400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1147700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>585700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>762300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>595400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1062,11 +1101,11 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1075,22 +1114,22 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>10400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-2055700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-2594500</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>878400</v>
+        <v>393000</v>
       </c>
       <c r="E17" s="3">
-        <v>869400</v>
+        <v>2081300</v>
       </c>
       <c r="F17" s="3">
-        <v>807500</v>
+        <v>930600</v>
       </c>
       <c r="G17" s="3">
-        <v>941800</v>
+        <v>921000</v>
       </c>
       <c r="H17" s="3">
-        <v>1452000</v>
+        <v>486900</v>
       </c>
       <c r="I17" s="3">
+        <v>2830500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1538200</v>
+      </c>
+      <c r="K17" s="3">
         <v>954300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>744600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1972800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1025700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>-60700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>-1341700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2243800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1472200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2922700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1445200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1932900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1562400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-45100</v>
+        <v>26900</v>
       </c>
       <c r="E18" s="3">
-        <v>-64800</v>
+        <v>-339700</v>
       </c>
       <c r="F18" s="3">
-        <v>33300</v>
+        <v>-47800</v>
       </c>
       <c r="G18" s="3">
-        <v>-71700</v>
+        <v>-68700</v>
       </c>
       <c r="H18" s="3">
-        <v>-566400</v>
+        <v>-33800</v>
       </c>
       <c r="I18" s="3">
+        <v>-862400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-600100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-52800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>163800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1015600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-11500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2135500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2665300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-749700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>56800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>153400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>82900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-364300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1378,320 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-278700</v>
+        <v>-456800</v>
       </c>
       <c r="E20" s="3">
-        <v>-413700</v>
+        <v>-1673500</v>
       </c>
       <c r="F20" s="3">
-        <v>-1007700</v>
+        <v>-228300</v>
       </c>
       <c r="G20" s="3">
-        <v>-312700</v>
+        <v>-369900</v>
       </c>
       <c r="H20" s="3">
-        <v>-343400</v>
+        <v>-883700</v>
       </c>
       <c r="I20" s="3">
+        <v>-471600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-363700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-172200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>74800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-100500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-178800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>3920200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>4453000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>730000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>200300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-847100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>170900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>30100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-192100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-15800</v>
+        <v>-210100</v>
       </c>
       <c r="E21" s="3">
-        <v>-173200</v>
+        <v>-1198800</v>
       </c>
       <c r="F21" s="3">
-        <v>-671300</v>
+        <v>50200</v>
       </c>
       <c r="G21" s="3">
-        <v>-82900</v>
+        <v>1600</v>
       </c>
       <c r="H21" s="3">
-        <v>-599500</v>
+        <v>-713300</v>
       </c>
       <c r="I21" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-635100</v>
+      </c>
+      <c r="K21" s="3">
         <v>81200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>537700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-851000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>82000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>6583700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>7414600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>317700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>478000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>58000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>581300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-156900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>215900</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>133000</v>
+        <v>213300</v>
       </c>
       <c r="E22" s="3">
-        <v>139900</v>
+        <v>725200</v>
       </c>
       <c r="F22" s="3">
-        <v>139000</v>
+        <v>207900</v>
       </c>
       <c r="G22" s="3">
-        <v>69500</v>
+        <v>216600</v>
       </c>
       <c r="H22" s="3">
-        <v>77400</v>
+        <v>225000</v>
       </c>
       <c r="I22" s="3">
+        <v>536900</v>
+      </c>
+      <c r="J22" s="3">
+        <v>81900</v>
+      </c>
+      <c r="K22" s="3">
         <v>71100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>110500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>63000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>80100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>613800</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>254600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>195900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>471000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>203600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>205400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-456900</v>
+        <v>-643200</v>
       </c>
       <c r="E23" s="3">
-        <v>-618500</v>
+        <v>-2738400</v>
       </c>
       <c r="F23" s="3">
-        <v>-1113400</v>
+        <v>-484000</v>
       </c>
       <c r="G23" s="3">
-        <v>-453900</v>
+        <v>-655200</v>
       </c>
       <c r="H23" s="3">
-        <v>-987100</v>
+        <v>-1142600</v>
       </c>
       <c r="I23" s="3">
+        <v>-1871000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-1045700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-296100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>128100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1179200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-270400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>5442000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>7118400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-274300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>61200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1164700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>50100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-539700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-398200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-666100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-50000</v>
-      </c>
       <c r="H24" s="3">
-        <v>36900</v>
+        <v>-6400</v>
       </c>
       <c r="I24" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>39100</v>
+      </c>
+      <c r="K24" s="3">
         <v>6600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>7900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-582800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-23300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>21900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-10200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>527400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>67600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-49200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>97000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>549500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-105800</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-456800</v>
+        <v>-644800</v>
       </c>
       <c r="E26" s="3">
-        <v>-618600</v>
+        <v>-2072400</v>
       </c>
       <c r="F26" s="3">
-        <v>-1107400</v>
+        <v>-483900</v>
       </c>
       <c r="G26" s="3">
-        <v>-403900</v>
+        <v>-655300</v>
       </c>
       <c r="H26" s="3">
-        <v>-1024100</v>
+        <v>-1136200</v>
       </c>
       <c r="I26" s="3">
+        <v>-1868600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-1084900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-302700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>120200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-596300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-247000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>5420100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>7128500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-801600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1115500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-46900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1089200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-292400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-467200</v>
+        <v>-644100</v>
       </c>
       <c r="E27" s="3">
-        <v>-603700</v>
+        <v>-2072600</v>
       </c>
       <c r="F27" s="3">
-        <v>-1112000</v>
+        <v>-494900</v>
       </c>
       <c r="G27" s="3">
-        <v>-400700</v>
+        <v>-639500</v>
       </c>
       <c r="H27" s="3">
-        <v>-1017600</v>
+        <v>-1141100</v>
       </c>
       <c r="I27" s="3">
+        <v>-1850800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-1078000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-276100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>100600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-599100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-247300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>5418700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>7132500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-743600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>2200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1107400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-46800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1070600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,31 +1932,37 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-13200</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>97400</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-36900</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>162500</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1855,11 +1976,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1867,14 +1988,20 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2118,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>278700</v>
+        <v>456800</v>
       </c>
       <c r="E32" s="3">
-        <v>413700</v>
+        <v>1673500</v>
       </c>
       <c r="F32" s="3">
-        <v>1007700</v>
+        <v>228300</v>
       </c>
       <c r="G32" s="3">
-        <v>312700</v>
+        <v>369900</v>
       </c>
       <c r="H32" s="3">
-        <v>343400</v>
+        <v>883700</v>
       </c>
       <c r="I32" s="3">
+        <v>471600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>363700</v>
+      </c>
+      <c r="K32" s="3">
         <v>172200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-74800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>100500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>178800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-3920200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-4453000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-730000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-200300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>847100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-170900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-30100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>192100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-467200</v>
+        <v>-657300</v>
       </c>
       <c r="E33" s="3">
-        <v>-603700</v>
+        <v>-1975200</v>
       </c>
       <c r="F33" s="3">
-        <v>-1112000</v>
+        <v>-494900</v>
       </c>
       <c r="G33" s="3">
-        <v>-400700</v>
+        <v>-639500</v>
       </c>
       <c r="H33" s="3">
-        <v>-1017600</v>
+        <v>-1178000</v>
       </c>
       <c r="I33" s="3">
+        <v>-1688300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-1078000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-276100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>100600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-599100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-247300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>5418700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>7132500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-743600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>2200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1107400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-46800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1070600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-467200</v>
+        <v>-657300</v>
       </c>
       <c r="E35" s="3">
-        <v>-603700</v>
+        <v>-1975200</v>
       </c>
       <c r="F35" s="3">
-        <v>-1112000</v>
+        <v>-494900</v>
       </c>
       <c r="G35" s="3">
-        <v>-400700</v>
+        <v>-639500</v>
       </c>
       <c r="H35" s="3">
-        <v>-1017600</v>
+        <v>-1178000</v>
       </c>
       <c r="I35" s="3">
+        <v>-1688300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-1078000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-276100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>100600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-599100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-247300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>5418700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>7132500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-743600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>2200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1107400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-46800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1070600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,512 +2485,568 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>967400</v>
+        <v>515700</v>
       </c>
       <c r="E41" s="3">
-        <v>1036000</v>
+        <v>770600</v>
       </c>
       <c r="F41" s="3">
-        <v>1078400</v>
+        <v>1024800</v>
       </c>
       <c r="G41" s="3">
-        <v>368700</v>
+        <v>1097500</v>
       </c>
       <c r="H41" s="3">
-        <v>527400</v>
+        <v>1142400</v>
       </c>
       <c r="I41" s="3">
+        <v>390500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>558700</v>
+      </c>
+      <c r="K41" s="3">
         <v>719100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1067700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>782300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>937900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>942900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1418200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1759500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1950600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1878900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1861600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1876300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1724800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>33800</v>
+        <v>36400</v>
       </c>
       <c r="E42" s="3">
+        <v>36300</v>
+      </c>
+      <c r="F42" s="3">
+        <v>35800</v>
+      </c>
+      <c r="G42" s="3">
+        <v>35500</v>
+      </c>
+      <c r="H42" s="3">
+        <v>34900</v>
+      </c>
+      <c r="I42" s="3">
+        <v>34500</v>
+      </c>
+      <c r="J42" s="3">
         <v>33500</v>
       </c>
-      <c r="F42" s="3">
-        <v>32900</v>
-      </c>
-      <c r="G42" s="3">
-        <v>32600</v>
-      </c>
-      <c r="H42" s="3">
-        <v>31600</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>34800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>35300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>36000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>5500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>7700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>8800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>5500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>5600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>4400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>4400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>28900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>26700</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1542300</v>
+        <v>1058300</v>
       </c>
       <c r="E43" s="3">
-        <v>1515300</v>
+        <v>1154700</v>
       </c>
       <c r="F43" s="3">
-        <v>1394300</v>
+        <v>1633800</v>
       </c>
       <c r="G43" s="3">
-        <v>1410700</v>
+        <v>1605200</v>
       </c>
       <c r="H43" s="3">
-        <v>1520400</v>
+        <v>1477100</v>
       </c>
       <c r="I43" s="3">
+        <v>1494400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1610600</v>
+      </c>
+      <c r="K43" s="3">
         <v>1603200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1586600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1416700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1619700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1650300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2247600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2454200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2684900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2699500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>2565800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2582900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>2995800</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>54200</v>
+        <v>78500</v>
       </c>
       <c r="E44" s="3">
-        <v>54800</v>
+        <v>71000</v>
       </c>
       <c r="F44" s="3">
-        <v>60100</v>
+        <v>57400</v>
       </c>
       <c r="G44" s="3">
-        <v>57900</v>
+        <v>58000</v>
       </c>
       <c r="H44" s="3">
-        <v>56300</v>
+        <v>63700</v>
       </c>
       <c r="I44" s="3">
+        <v>61300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>59600</v>
+      </c>
+      <c r="K44" s="3">
         <v>56500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>53000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>56600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>48400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>48000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>61200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>65000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>138700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>129300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>115300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>88100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>621400</v>
+        <v>4720400</v>
       </c>
       <c r="E45" s="3">
-        <v>755900</v>
+        <v>4306800</v>
       </c>
       <c r="F45" s="3">
-        <v>862200</v>
+        <v>658300</v>
       </c>
       <c r="G45" s="3">
-        <v>1316300</v>
+        <v>800800</v>
       </c>
       <c r="H45" s="3">
-        <v>1433100</v>
+        <v>913400</v>
       </c>
       <c r="I45" s="3">
+        <v>1394500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1518100</v>
+      </c>
+      <c r="K45" s="3">
         <v>1470800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1517500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1510600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1613800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1654200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1917000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1804300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1856700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>2049900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1864900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1926500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>2113900</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3219000</v>
+        <v>6409200</v>
       </c>
       <c r="E46" s="3">
-        <v>3395400</v>
+        <v>6339400</v>
       </c>
       <c r="F46" s="3">
-        <v>3427900</v>
+        <v>3410000</v>
       </c>
       <c r="G46" s="3">
-        <v>3186100</v>
+        <v>3597000</v>
       </c>
       <c r="H46" s="3">
-        <v>3568800</v>
+        <v>3631400</v>
       </c>
       <c r="I46" s="3">
+        <v>3375200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3780600</v>
+      </c>
+      <c r="K46" s="3">
         <v>3884400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4260200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3802300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4225200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4303100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>5652800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>6088400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>6636400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>6762000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>6412000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>6502600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>6955700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>318400</v>
+        <v>291900</v>
       </c>
       <c r="E47" s="3">
-        <v>430000</v>
+        <v>285700</v>
       </c>
       <c r="F47" s="3">
-        <v>507200</v>
+        <v>337400</v>
       </c>
       <c r="G47" s="3">
-        <v>544100</v>
+        <v>455500</v>
       </c>
       <c r="H47" s="3">
-        <v>555700</v>
+        <v>537300</v>
       </c>
       <c r="I47" s="3">
+        <v>576400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>588700</v>
+      </c>
+      <c r="K47" s="3">
         <v>352100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>361700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>141200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>142900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>148400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>177100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>195900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>216900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>228500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>209400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>216900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>226500</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7332900</v>
+        <v>4420300</v>
       </c>
       <c r="E48" s="3">
-        <v>7157900</v>
+        <v>4527300</v>
       </c>
       <c r="F48" s="3">
-        <v>7095200</v>
+        <v>7768200</v>
       </c>
       <c r="G48" s="3">
-        <v>6889900</v>
+        <v>7582700</v>
       </c>
       <c r="H48" s="3">
-        <v>6818300</v>
+        <v>7516300</v>
       </c>
       <c r="I48" s="3">
+        <v>7298900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>7223000</v>
+      </c>
+      <c r="K48" s="3">
         <v>6688800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>6539000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5071100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>5095300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>5027500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>6289300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>6919300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>6805600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>6753900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>6512100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>6426600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>6291400</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>621600</v>
+        <v>662400</v>
       </c>
       <c r="E49" s="3">
-        <v>645300</v>
+        <v>693600</v>
       </c>
       <c r="F49" s="3">
-        <v>675700</v>
+        <v>658500</v>
       </c>
       <c r="G49" s="3">
-        <v>707900</v>
+        <v>683600</v>
       </c>
       <c r="H49" s="3">
-        <v>520900</v>
+        <v>715800</v>
       </c>
       <c r="I49" s="3">
+        <v>749900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>551800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1152600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1193800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1239600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1387800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1444800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1928400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2140900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2740300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2817800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>2696100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1221800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>832100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3163,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1374700</v>
+        <v>1767900</v>
       </c>
       <c r="E52" s="3">
-        <v>1324500</v>
+        <v>2004900</v>
       </c>
       <c r="F52" s="3">
-        <v>1387700</v>
+        <v>1456300</v>
       </c>
       <c r="G52" s="3">
-        <v>1401900</v>
+        <v>1403100</v>
       </c>
       <c r="H52" s="3">
-        <v>1438800</v>
+        <v>1470100</v>
       </c>
       <c r="I52" s="3">
+        <v>1485100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1524200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1444400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1419600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1419800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1588400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1553100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1991300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2253000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>4740800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>4701300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>4400600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>2194100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>5617900</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12866700</v>
+        <v>13551700</v>
       </c>
       <c r="E54" s="3">
-        <v>12953000</v>
+        <v>13850900</v>
       </c>
       <c r="F54" s="3">
-        <v>13093700</v>
+        <v>13630400</v>
       </c>
       <c r="G54" s="3">
-        <v>12729900</v>
+        <v>13721900</v>
       </c>
       <c r="H54" s="3">
-        <v>12902500</v>
+        <v>13870900</v>
       </c>
       <c r="I54" s="3">
+        <v>13485500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>13668300</v>
+      </c>
+      <c r="K54" s="3">
         <v>13522300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>13774300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>11674100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>12439700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>12476900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>16038900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>17597700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>21140000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>21263500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>20230100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>16366400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>19923600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,274 +3401,300 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>829400</v>
+        <v>733000</v>
       </c>
       <c r="E57" s="3">
-        <v>768500</v>
+        <v>614500</v>
       </c>
       <c r="F57" s="3">
-        <v>876800</v>
+        <v>878600</v>
       </c>
       <c r="G57" s="3">
-        <v>990500</v>
+        <v>814200</v>
       </c>
       <c r="H57" s="3">
-        <v>1044800</v>
+        <v>928900</v>
       </c>
       <c r="I57" s="3">
+        <v>1049300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1106800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1069200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>998800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>932300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>809500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>765900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1148900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1955500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1819400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1803900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1648700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1631900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1766800</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>330300</v>
+        <v>908500</v>
       </c>
       <c r="E58" s="3">
-        <v>369400</v>
+        <v>202500</v>
       </c>
       <c r="F58" s="3">
-        <v>317200</v>
+        <v>349900</v>
       </c>
       <c r="G58" s="3">
-        <v>325200</v>
+        <v>391400</v>
       </c>
       <c r="H58" s="3">
-        <v>291300</v>
+        <v>336000</v>
       </c>
       <c r="I58" s="3">
+        <v>344500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>308500</v>
+      </c>
+      <c r="K58" s="3">
         <v>316300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>274600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>120000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>92600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>55300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>22900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>13976600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>13260500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>13287000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>11958200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>11929200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>11962600</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>989100</v>
+        <v>2639500</v>
       </c>
       <c r="E59" s="3">
-        <v>971800</v>
+        <v>2561900</v>
       </c>
       <c r="F59" s="3">
-        <v>846400</v>
+        <v>1047800</v>
       </c>
       <c r="G59" s="3">
-        <v>780100</v>
+        <v>1029400</v>
       </c>
       <c r="H59" s="3">
-        <v>775200</v>
+        <v>896600</v>
       </c>
       <c r="I59" s="3">
+        <v>826400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>821200</v>
+      </c>
+      <c r="K59" s="3">
         <v>741200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>853600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>854700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>886300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>839200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1301300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1474000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1595900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1629500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1459300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1642600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1427200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2148900</v>
+        <v>4281000</v>
       </c>
       <c r="E60" s="3">
-        <v>2109700</v>
+        <v>3378900</v>
       </c>
       <c r="F60" s="3">
-        <v>2040400</v>
+        <v>2276400</v>
       </c>
       <c r="G60" s="3">
-        <v>2095800</v>
+        <v>2235000</v>
       </c>
       <c r="H60" s="3">
-        <v>2111300</v>
+        <v>2161500</v>
       </c>
       <c r="I60" s="3">
+        <v>2220200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2236600</v>
+      </c>
+      <c r="K60" s="3">
         <v>2126700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2127000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1907000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1788400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1660300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2473100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>17406100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>16675800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>16720400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>15066200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>15203800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>15156600</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5976200</v>
+        <v>4931400</v>
       </c>
       <c r="E61" s="3">
-        <v>5802800</v>
+        <v>5298300</v>
       </c>
       <c r="F61" s="3">
-        <v>5568900</v>
+        <v>6330900</v>
       </c>
       <c r="G61" s="3">
-        <v>4345300</v>
+        <v>6147200</v>
       </c>
       <c r="H61" s="3">
-        <v>4336800</v>
+        <v>5899500</v>
       </c>
       <c r="I61" s="3">
+        <v>4603300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>4594200</v>
+      </c>
+      <c r="K61" s="3">
         <v>4114400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4060300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2814600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2893200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2761000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>3137600</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3422,64 +3707,76 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3678700</v>
+        <v>3537000</v>
       </c>
       <c r="E62" s="3">
-        <v>3595000</v>
+        <v>3716100</v>
       </c>
       <c r="F62" s="3">
-        <v>3430800</v>
+        <v>3897000</v>
       </c>
       <c r="G62" s="3">
-        <v>3137500</v>
+        <v>3808400</v>
       </c>
       <c r="H62" s="3">
+        <v>3634500</v>
+      </c>
+      <c r="I62" s="3">
+        <v>3323800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>3070700</v>
+      </c>
+      <c r="K62" s="3">
+        <v>2702200</v>
+      </c>
+      <c r="L62" s="3">
+        <v>2729900</v>
+      </c>
+      <c r="M62" s="3">
+        <v>2867900</v>
+      </c>
+      <c r="N62" s="3">
         <v>2898700</v>
       </c>
-      <c r="I62" s="3">
-        <v>2702200</v>
-      </c>
-      <c r="J62" s="3">
-        <v>2729900</v>
-      </c>
-      <c r="K62" s="3">
-        <v>2867900</v>
-      </c>
-      <c r="L62" s="3">
-        <v>2898700</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2944200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>3677600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>3656000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2249900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>2291100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>2263300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>2816300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>2183300</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11807400</v>
+        <v>12752500</v>
       </c>
       <c r="E66" s="3">
-        <v>11523100</v>
+        <v>12396800</v>
       </c>
       <c r="F66" s="3">
-        <v>11070700</v>
+        <v>12508200</v>
       </c>
       <c r="G66" s="3">
-        <v>9604500</v>
+        <v>12207100</v>
       </c>
       <c r="H66" s="3">
-        <v>9375700</v>
+        <v>11727800</v>
       </c>
       <c r="I66" s="3">
+        <v>10174600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>9932200</v>
+      </c>
+      <c r="K66" s="3">
         <v>8982000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8957200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>7632900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>7631300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7417100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>9352500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>21137300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>19003400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>19099400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>17422600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>18216300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>17565100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4634100</v>
+        <v>-5229600</v>
       </c>
       <c r="E72" s="3">
-        <v>-4167500</v>
+        <v>-4573700</v>
       </c>
       <c r="F72" s="3">
-        <v>-3564400</v>
+        <v>-4909200</v>
       </c>
       <c r="G72" s="3">
-        <v>-2452900</v>
+        <v>-4414900</v>
       </c>
       <c r="H72" s="3">
-        <v>-2052200</v>
+        <v>-3775900</v>
       </c>
       <c r="I72" s="3">
+        <v>-2598400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-2174000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-999500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-287400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1076100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-526800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>82200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>397400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-7467000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1821000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1823000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-952300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-5646300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-1463600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1059300</v>
+        <v>799100</v>
       </c>
       <c r="E76" s="3">
-        <v>1429900</v>
+        <v>1454000</v>
       </c>
       <c r="F76" s="3">
-        <v>2023000</v>
+        <v>1122100</v>
       </c>
       <c r="G76" s="3">
-        <v>3125300</v>
+        <v>1514800</v>
       </c>
       <c r="H76" s="3">
-        <v>3526700</v>
+        <v>2143100</v>
       </c>
       <c r="I76" s="3">
+        <v>3310800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>3736100</v>
+      </c>
+      <c r="K76" s="3">
         <v>4540200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4817100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4041200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4808300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>5059700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6686400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-3539600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2136600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2164100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2807500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1849900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2358500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-467200</v>
+        <v>-657300</v>
       </c>
       <c r="E81" s="3">
-        <v>-603700</v>
+        <v>-1975200</v>
       </c>
       <c r="F81" s="3">
-        <v>-1112000</v>
+        <v>-494900</v>
       </c>
       <c r="G81" s="3">
-        <v>-400700</v>
+        <v>-639500</v>
       </c>
       <c r="H81" s="3">
-        <v>-1017600</v>
+        <v>-1178000</v>
       </c>
       <c r="I81" s="3">
+        <v>-1688300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-1078000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-276100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>100600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-599100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-247300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>5418700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>7132500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-743600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>2200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1107400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-46800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1070600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4818,72 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>308100</v>
+        <v>219800</v>
       </c>
       <c r="E83" s="3">
-        <v>305400</v>
+        <v>814400</v>
       </c>
       <c r="F83" s="3">
-        <v>303000</v>
+        <v>326400</v>
       </c>
       <c r="G83" s="3">
-        <v>301500</v>
+        <v>323500</v>
       </c>
       <c r="H83" s="3">
-        <v>310200</v>
+        <v>321000</v>
       </c>
       <c r="I83" s="3">
+        <v>1289400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>328700</v>
+      </c>
+      <c r="K83" s="3">
         <v>306200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>299200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>265200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>272300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>528000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>296200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>186400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>371800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>751700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>376900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>384100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>384100</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>339900</v>
+        <v>-84200</v>
       </c>
       <c r="E89" s="3">
-        <v>232900</v>
+        <v>826600</v>
       </c>
       <c r="F89" s="3">
-        <v>93000</v>
+        <v>360000</v>
       </c>
       <c r="G89" s="3">
-        <v>241300</v>
+        <v>246700</v>
       </c>
       <c r="H89" s="3">
-        <v>212900</v>
+        <v>98500</v>
       </c>
       <c r="I89" s="3">
+        <v>433600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>225500</v>
+      </c>
+      <c r="K89" s="3">
         <v>43300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-88100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>108900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>204400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>212200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>190200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>135200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>380300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>613000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>227400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>401600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>594500</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5276,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-346100</v>
+        <v>-124400</v>
       </c>
       <c r="E91" s="3">
-        <v>-317200</v>
+        <v>-648100</v>
       </c>
       <c r="F91" s="3">
-        <v>-382200</v>
+        <v>-366600</v>
       </c>
       <c r="G91" s="3">
-        <v>-386000</v>
+        <v>-520400</v>
       </c>
       <c r="H91" s="3">
-        <v>-350900</v>
+        <v>-220500</v>
       </c>
       <c r="I91" s="3">
+        <v>-1392900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-371700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-313800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-264200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-242900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-204800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-513900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-353700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-257900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-311700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-544300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-497100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-437700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-103100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5458,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-324400</v>
+        <v>-103500</v>
       </c>
       <c r="E94" s="3">
-        <v>-200700</v>
+        <v>-635000</v>
       </c>
       <c r="F94" s="3">
-        <v>251000</v>
+        <v>-343600</v>
       </c>
       <c r="G94" s="3">
-        <v>-321600</v>
+        <v>-212700</v>
       </c>
       <c r="H94" s="3">
-        <v>-327800</v>
+        <v>265900</v>
       </c>
       <c r="I94" s="3">
+        <v>-1285100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-347200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-314200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-249400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-216600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-183500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-501700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-334300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-306200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-291300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-536100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-235400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-216200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-58500</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5098,14 +5565,14 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-100</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -5128,19 +5595,25 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-15200</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,81 +5792,93 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-82400</v>
+        <v>-67900</v>
       </c>
       <c r="E100" s="3">
-        <v>-80700</v>
+        <v>150000</v>
       </c>
       <c r="F100" s="3">
-        <v>333900</v>
+        <v>-87300</v>
       </c>
       <c r="G100" s="3">
-        <v>-78400</v>
+        <v>-97200</v>
       </c>
       <c r="H100" s="3">
-        <v>-76700</v>
+        <v>365400</v>
       </c>
       <c r="I100" s="3">
+        <v>419400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-81300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-77700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>628700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-11100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-27000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-40000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-41000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-21100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-139100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-6600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>2000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1700</v>
+        <v>700</v>
       </c>
       <c r="E101" s="3">
-        <v>6200</v>
+        <v>38500</v>
       </c>
       <c r="F101" s="3">
-        <v>31800</v>
+        <v>-1800</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>33700</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -5390,89 +5887,101 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-3300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>2600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-35800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-61800</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-68600</v>
+        <v>-254900</v>
       </c>
       <c r="E102" s="3">
-        <v>-42400</v>
+        <v>380000</v>
       </c>
       <c r="F102" s="3">
-        <v>709700</v>
+        <v>-72700</v>
       </c>
       <c r="G102" s="3">
-        <v>-158800</v>
+        <v>-44900</v>
       </c>
       <c r="H102" s="3">
-        <v>-191600</v>
+        <v>751800</v>
       </c>
       <c r="I102" s="3">
+        <v>-432100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-203000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-348600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>291200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-122000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-5000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-326900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-184300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-191200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>71700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-60200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-14700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>151500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>521000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OIBRQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OIBRQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>OIBRQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>419900</v>
+        <v>412800</v>
       </c>
       <c r="E8" s="3">
-        <v>1741500</v>
+        <v>413400</v>
       </c>
       <c r="F8" s="3">
-        <v>882800</v>
+        <v>1714800</v>
       </c>
       <c r="G8" s="3">
-        <v>852300</v>
+        <v>869200</v>
       </c>
       <c r="H8" s="3">
-        <v>453100</v>
+        <v>425100</v>
       </c>
       <c r="I8" s="3">
-        <v>1968100</v>
+        <v>446100</v>
       </c>
       <c r="J8" s="3">
+        <v>1937900</v>
+      </c>
+      <c r="K8" s="3">
         <v>938100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>901500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>908400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>957100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1014200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2074900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1323700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1494100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1528900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3076100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1528100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1568600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1586300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>353800</v>
+        <v>263100</v>
       </c>
       <c r="E9" s="3">
-        <v>1364000</v>
+        <v>348400</v>
       </c>
       <c r="F9" s="3">
-        <v>683600</v>
+        <v>1343000</v>
       </c>
       <c r="G9" s="3">
-        <v>679600</v>
+        <v>673100</v>
       </c>
       <c r="H9" s="3">
-        <v>347300</v>
+        <v>264000</v>
       </c>
       <c r="I9" s="3">
-        <v>1497400</v>
+        <v>341900</v>
       </c>
       <c r="J9" s="3">
+        <v>1474400</v>
+      </c>
+      <c r="K9" s="3">
         <v>718300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>683400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>685900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>791100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>729400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1443700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>873000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>799200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>963600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1928400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>942400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>806300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>991000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>66000</v>
+        <v>149600</v>
       </c>
       <c r="E10" s="3">
-        <v>377600</v>
+        <v>65000</v>
       </c>
       <c r="F10" s="3">
-        <v>199200</v>
+        <v>371800</v>
       </c>
       <c r="G10" s="3">
-        <v>172700</v>
+        <v>196100</v>
       </c>
       <c r="H10" s="3">
-        <v>105800</v>
+        <v>161000</v>
       </c>
       <c r="I10" s="3">
-        <v>470700</v>
+        <v>104200</v>
       </c>
       <c r="J10" s="3">
+        <v>463500</v>
+      </c>
+      <c r="K10" s="3">
         <v>219800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>218100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>222500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>166000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>284900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>631100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>450700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>694900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>565400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1147700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>585700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>762300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>595400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1107,8 +1127,8 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1120,19 +1140,19 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>10400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-2055700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-2594500</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>393000</v>
+        <v>445500</v>
       </c>
       <c r="E17" s="3">
-        <v>2081300</v>
+        <v>387000</v>
       </c>
       <c r="F17" s="3">
-        <v>930600</v>
+        <v>2049300</v>
       </c>
       <c r="G17" s="3">
-        <v>921000</v>
+        <v>916300</v>
       </c>
       <c r="H17" s="3">
-        <v>486900</v>
+        <v>478100</v>
       </c>
       <c r="I17" s="3">
-        <v>2830500</v>
+        <v>479400</v>
       </c>
       <c r="J17" s="3">
+        <v>2787100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1538200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>954300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>744600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1972800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1025700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>-60700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>-1341700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2243800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1472200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2922700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1445200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1932900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1562400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>26900</v>
+        <v>-32800</v>
       </c>
       <c r="E18" s="3">
-        <v>-339700</v>
+        <v>26500</v>
       </c>
       <c r="F18" s="3">
-        <v>-47800</v>
+        <v>-334500</v>
       </c>
       <c r="G18" s="3">
-        <v>-68700</v>
+        <v>-47100</v>
       </c>
       <c r="H18" s="3">
-        <v>-33800</v>
+        <v>-53000</v>
       </c>
       <c r="I18" s="3">
-        <v>-862400</v>
+        <v>-33300</v>
       </c>
       <c r="J18" s="3">
+        <v>-849200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-600100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-52800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>163800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1015600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-11500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2135500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2665300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-749700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>56800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>153400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>82900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-364300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-456800</v>
+        <v>360500</v>
       </c>
       <c r="E20" s="3">
-        <v>-1673500</v>
+        <v>-449800</v>
       </c>
       <c r="F20" s="3">
-        <v>-228300</v>
+        <v>-1647800</v>
       </c>
       <c r="G20" s="3">
-        <v>-369900</v>
+        <v>-224800</v>
       </c>
       <c r="H20" s="3">
-        <v>-883700</v>
+        <v>-337600</v>
       </c>
       <c r="I20" s="3">
-        <v>-471600</v>
+        <v>-870200</v>
       </c>
       <c r="J20" s="3">
+        <v>-464400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-363700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-172200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>74800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-178800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3920200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4453000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>730000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-847100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>170900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>30100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-192100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-210100</v>
+        <v>460600</v>
       </c>
       <c r="E21" s="3">
-        <v>-1198800</v>
+        <v>-206800</v>
       </c>
       <c r="F21" s="3">
-        <v>50200</v>
+        <v>-1180400</v>
       </c>
       <c r="G21" s="3">
-        <v>1600</v>
+        <v>353000</v>
       </c>
       <c r="H21" s="3">
-        <v>-713300</v>
+        <v>-260700</v>
       </c>
       <c r="I21" s="3">
-        <v>-44700</v>
+        <v>-702300</v>
       </c>
       <c r="J21" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-635100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>81200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>537700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-851000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>82000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6583700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7414600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>317700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>478000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>58000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>581300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-156900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>215900</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>213300</v>
+        <v>111800</v>
       </c>
       <c r="E22" s="3">
-        <v>725200</v>
+        <v>210000</v>
       </c>
       <c r="F22" s="3">
-        <v>207900</v>
+        <v>714100</v>
       </c>
       <c r="G22" s="3">
-        <v>216600</v>
+        <v>204700</v>
       </c>
       <c r="H22" s="3">
-        <v>225000</v>
+        <v>189600</v>
       </c>
       <c r="I22" s="3">
-        <v>536900</v>
+        <v>221600</v>
       </c>
       <c r="J22" s="3">
+        <v>528700</v>
+      </c>
+      <c r="K22" s="3">
         <v>81900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>71100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>110500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>63000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>80100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>613800</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>254600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>195900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>471000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>203600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>205400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-643200</v>
+        <v>215900</v>
       </c>
       <c r="E23" s="3">
-        <v>-2738400</v>
+        <v>-633400</v>
       </c>
       <c r="F23" s="3">
-        <v>-484000</v>
+        <v>-2696400</v>
       </c>
       <c r="G23" s="3">
-        <v>-655200</v>
+        <v>-476600</v>
       </c>
       <c r="H23" s="3">
-        <v>-1142600</v>
+        <v>-580200</v>
       </c>
       <c r="I23" s="3">
-        <v>-1871000</v>
+        <v>-1125100</v>
       </c>
       <c r="J23" s="3">
+        <v>-1842300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1045700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-296100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>128100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1179200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-270400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5442000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7118400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-274300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>61200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1164700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>50100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-539700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-398200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>1600</v>
       </c>
-      <c r="E24" s="3">
-        <v>-666100</v>
-      </c>
       <c r="F24" s="3">
+        <v>-655900</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>-6400</v>
-      </c>
       <c r="I24" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="J24" s="3">
         <v>-2400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>39100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-582800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-23300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>21900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>527400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>67600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-49200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>97000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>549500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-105800</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-644800</v>
+        <v>215700</v>
       </c>
       <c r="E26" s="3">
-        <v>-2072400</v>
+        <v>-634900</v>
       </c>
       <c r="F26" s="3">
-        <v>-483900</v>
+        <v>-2040500</v>
       </c>
       <c r="G26" s="3">
-        <v>-655300</v>
+        <v>-476400</v>
       </c>
       <c r="H26" s="3">
-        <v>-1136200</v>
+        <v>-580300</v>
       </c>
       <c r="I26" s="3">
-        <v>-1868600</v>
+        <v>-1118700</v>
       </c>
       <c r="J26" s="3">
+        <v>-1839900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1084900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-302700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>120200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-596300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-247000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5420100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7128500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-801600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1115500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-46900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1089200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-292400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-644100</v>
+        <v>215700</v>
       </c>
       <c r="E27" s="3">
-        <v>-2072600</v>
+        <v>-634200</v>
       </c>
       <c r="F27" s="3">
-        <v>-494900</v>
+        <v>-2040800</v>
       </c>
       <c r="G27" s="3">
-        <v>-639500</v>
+        <v>-487300</v>
       </c>
       <c r="H27" s="3">
-        <v>-1141100</v>
+        <v>-564800</v>
       </c>
       <c r="I27" s="3">
-        <v>-1850800</v>
+        <v>-1123600</v>
       </c>
       <c r="J27" s="3">
+        <v>-1822400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1078000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-276100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-599100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-247300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5418700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7132500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-743600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1107400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-46800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1070600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,35 +1996,38 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-13200</v>
+        <v>-5300</v>
       </c>
       <c r="E29" s="3">
-        <v>97400</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+        <v>73200</v>
+      </c>
+      <c r="F29" s="3">
+        <v>95900</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>-36900</v>
+        <v>-64900</v>
       </c>
       <c r="I29" s="3">
-        <v>162500</v>
-      </c>
-      <c r="J29" s="3" t="s">
+        <v>-36300</v>
+      </c>
+      <c r="J29" s="3">
+        <v>160000</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -1982,8 +2043,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1994,14 +2055,17 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>456800</v>
+        <v>-360500</v>
       </c>
       <c r="E32" s="3">
-        <v>1673500</v>
+        <v>449800</v>
       </c>
       <c r="F32" s="3">
-        <v>228300</v>
+        <v>1647800</v>
       </c>
       <c r="G32" s="3">
-        <v>369900</v>
+        <v>224800</v>
       </c>
       <c r="H32" s="3">
-        <v>883700</v>
+        <v>337600</v>
       </c>
       <c r="I32" s="3">
-        <v>471600</v>
+        <v>870200</v>
       </c>
       <c r="J32" s="3">
+        <v>464400</v>
+      </c>
+      <c r="K32" s="3">
         <v>363700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>172200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-74800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>178800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3920200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4453000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-730000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>847100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-170900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-30100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>192100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-657300</v>
+        <v>210400</v>
       </c>
       <c r="E33" s="3">
-        <v>-1975200</v>
+        <v>-561000</v>
       </c>
       <c r="F33" s="3">
-        <v>-494900</v>
+        <v>-1944900</v>
       </c>
       <c r="G33" s="3">
-        <v>-639500</v>
+        <v>-487300</v>
       </c>
       <c r="H33" s="3">
-        <v>-1178000</v>
+        <v>-629700</v>
       </c>
       <c r="I33" s="3">
-        <v>-1688300</v>
+        <v>-1159900</v>
       </c>
       <c r="J33" s="3">
+        <v>-1662400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1078000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-276100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-599100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-247300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5418700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7132500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-743600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1107400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-46800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1070600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-657300</v>
+        <v>210400</v>
       </c>
       <c r="E35" s="3">
-        <v>-1975200</v>
+        <v>-561000</v>
       </c>
       <c r="F35" s="3">
-        <v>-494900</v>
+        <v>-1944900</v>
       </c>
       <c r="G35" s="3">
-        <v>-639500</v>
+        <v>-487300</v>
       </c>
       <c r="H35" s="3">
-        <v>-1178000</v>
+        <v>-629700</v>
       </c>
       <c r="I35" s="3">
-        <v>-1688300</v>
+        <v>-1159900</v>
       </c>
       <c r="J35" s="3">
+        <v>-1662400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1078000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-276100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-599100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-247300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5418700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7132500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-743600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1107400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-46800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1070600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,566 +2573,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>515700</v>
+        <v>264200</v>
       </c>
       <c r="E41" s="3">
-        <v>770600</v>
+        <v>507700</v>
       </c>
       <c r="F41" s="3">
-        <v>1024800</v>
+        <v>758700</v>
       </c>
       <c r="G41" s="3">
-        <v>1097500</v>
+        <v>1009000</v>
       </c>
       <c r="H41" s="3">
-        <v>1142400</v>
+        <v>1080600</v>
       </c>
       <c r="I41" s="3">
-        <v>390500</v>
+        <v>1124800</v>
       </c>
       <c r="J41" s="3">
+        <v>384500</v>
+      </c>
+      <c r="K41" s="3">
         <v>558700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>719100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1067700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>782300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>937900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>942900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1418200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1759500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1950600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1878900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1861600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1876300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1724800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>36400</v>
+        <v>36000</v>
       </c>
       <c r="E42" s="3">
-        <v>36300</v>
+        <v>35800</v>
       </c>
       <c r="F42" s="3">
         <v>35800</v>
       </c>
       <c r="G42" s="3">
-        <v>35500</v>
+        <v>35200</v>
       </c>
       <c r="H42" s="3">
-        <v>34900</v>
+        <v>35000</v>
       </c>
       <c r="I42" s="3">
-        <v>34500</v>
+        <v>34300</v>
       </c>
       <c r="J42" s="3">
+        <v>34000</v>
+      </c>
+      <c r="K42" s="3">
         <v>33500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>34800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>35300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>36000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>8800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>5500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>5600</v>
-      </c>
-      <c r="S42" s="3">
-        <v>4400</v>
       </c>
       <c r="T42" s="3">
         <v>4400</v>
       </c>
       <c r="U42" s="3">
+        <v>4400</v>
+      </c>
+      <c r="V42" s="3">
         <v>28900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>26700</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1058300</v>
+        <v>1002700</v>
       </c>
       <c r="E43" s="3">
-        <v>1154700</v>
+        <v>1042000</v>
       </c>
       <c r="F43" s="3">
-        <v>1633800</v>
+        <v>1137000</v>
       </c>
       <c r="G43" s="3">
-        <v>1605200</v>
+        <v>1608700</v>
       </c>
       <c r="H43" s="3">
-        <v>1477100</v>
+        <v>1580600</v>
       </c>
       <c r="I43" s="3">
-        <v>1494400</v>
+        <v>1454400</v>
       </c>
       <c r="J43" s="3">
+        <v>1471400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1610600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1603200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1586600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1416700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1619700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1650300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2247600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2454200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2684900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2699500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2565800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2582900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2995800</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>78500</v>
+        <v>79500</v>
       </c>
       <c r="E44" s="3">
-        <v>71000</v>
+        <v>77300</v>
       </c>
       <c r="F44" s="3">
-        <v>57400</v>
+        <v>69900</v>
       </c>
       <c r="G44" s="3">
-        <v>58000</v>
+        <v>56500</v>
       </c>
       <c r="H44" s="3">
-        <v>63700</v>
+        <v>57100</v>
       </c>
       <c r="I44" s="3">
-        <v>61300</v>
+        <v>62700</v>
       </c>
       <c r="J44" s="3">
+        <v>60400</v>
+      </c>
+      <c r="K44" s="3">
         <v>59600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>56500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>53000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>56600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>48400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>48000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>61200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>65000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>138700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>129300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>115300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>88100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4720400</v>
+        <v>6716600</v>
       </c>
       <c r="E45" s="3">
-        <v>4306800</v>
+        <v>4778500</v>
       </c>
       <c r="F45" s="3">
-        <v>658300</v>
+        <v>4240700</v>
       </c>
       <c r="G45" s="3">
-        <v>800800</v>
+        <v>648100</v>
       </c>
       <c r="H45" s="3">
-        <v>913400</v>
+        <v>788500</v>
       </c>
       <c r="I45" s="3">
-        <v>1394500</v>
+        <v>899400</v>
       </c>
       <c r="J45" s="3">
+        <v>1373000</v>
+      </c>
+      <c r="K45" s="3">
         <v>1518100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1470800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1517500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1510600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1613800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1654200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1917000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1804300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1856700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2049900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1864900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1926500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2113900</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6409200</v>
+        <v>8099000</v>
       </c>
       <c r="E46" s="3">
-        <v>6339400</v>
+        <v>6441300</v>
       </c>
       <c r="F46" s="3">
-        <v>3410000</v>
+        <v>6242100</v>
       </c>
       <c r="G46" s="3">
-        <v>3597000</v>
+        <v>3357700</v>
       </c>
       <c r="H46" s="3">
-        <v>3631400</v>
+        <v>3541700</v>
       </c>
       <c r="I46" s="3">
-        <v>3375200</v>
+        <v>3575700</v>
       </c>
       <c r="J46" s="3">
+        <v>3323400</v>
+      </c>
+      <c r="K46" s="3">
         <v>3780600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3884400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4260200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3802300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4225200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4303100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5652800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6088400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6636400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6762000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6412000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6502600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6955700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>291900</v>
+        <v>242300</v>
       </c>
       <c r="E47" s="3">
-        <v>285700</v>
+        <v>296400</v>
       </c>
       <c r="F47" s="3">
-        <v>337400</v>
+        <v>290100</v>
       </c>
       <c r="G47" s="3">
-        <v>455500</v>
+        <v>340900</v>
       </c>
       <c r="H47" s="3">
-        <v>537300</v>
+        <v>457200</v>
       </c>
       <c r="I47" s="3">
-        <v>576400</v>
+        <v>537800</v>
       </c>
       <c r="J47" s="3">
+        <v>578000</v>
+      </c>
+      <c r="K47" s="3">
         <v>588700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>352100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>361700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>141200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>142900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>148400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>177100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>195900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>216900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>228500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>209400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>216900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>226500</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4420300</v>
+        <v>3169600</v>
       </c>
       <c r="E48" s="3">
-        <v>4527300</v>
+        <v>4352400</v>
       </c>
       <c r="F48" s="3">
-        <v>7768200</v>
+        <v>4457700</v>
       </c>
       <c r="G48" s="3">
-        <v>7582700</v>
+        <v>7648900</v>
       </c>
       <c r="H48" s="3">
-        <v>7516300</v>
+        <v>7466300</v>
       </c>
       <c r="I48" s="3">
-        <v>7298900</v>
+        <v>7400900</v>
       </c>
       <c r="J48" s="3">
+        <v>7186800</v>
+      </c>
+      <c r="K48" s="3">
         <v>7223000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6688800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6539000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5071100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5095300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5027500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6289300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6919300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6805600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6753900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6512100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6426600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6291400</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>662400</v>
+        <v>621500</v>
       </c>
       <c r="E49" s="3">
-        <v>693600</v>
+        <v>652200</v>
       </c>
       <c r="F49" s="3">
-        <v>658500</v>
+        <v>683000</v>
       </c>
       <c r="G49" s="3">
-        <v>683600</v>
+        <v>648400</v>
       </c>
       <c r="H49" s="3">
-        <v>715800</v>
+        <v>673100</v>
       </c>
       <c r="I49" s="3">
-        <v>749900</v>
+        <v>704800</v>
       </c>
       <c r="J49" s="3">
+        <v>738400</v>
+      </c>
+      <c r="K49" s="3">
         <v>551800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1152600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1193800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1239600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1387800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1444800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1928400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2140900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2740300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2817800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2696100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1221800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>832100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1767900</v>
+        <v>1700500</v>
       </c>
       <c r="E52" s="3">
-        <v>2004900</v>
+        <v>1731800</v>
       </c>
       <c r="F52" s="3">
-        <v>1456300</v>
+        <v>1965300</v>
       </c>
       <c r="G52" s="3">
-        <v>1403100</v>
+        <v>1425200</v>
       </c>
       <c r="H52" s="3">
-        <v>1470100</v>
+        <v>1372900</v>
       </c>
       <c r="I52" s="3">
-        <v>1485100</v>
+        <v>1438800</v>
       </c>
       <c r="J52" s="3">
+        <v>1451800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1524200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1444400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1419600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1419800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1588400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1553100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1991300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2253000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4740800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4701300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4400600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2194100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5617900</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13551700</v>
+        <v>13832900</v>
       </c>
       <c r="E54" s="3">
-        <v>13850900</v>
+        <v>13474200</v>
       </c>
       <c r="F54" s="3">
-        <v>13630400</v>
+        <v>13638200</v>
       </c>
       <c r="G54" s="3">
-        <v>13721900</v>
+        <v>13421100</v>
       </c>
       <c r="H54" s="3">
-        <v>13870900</v>
+        <v>13511200</v>
       </c>
       <c r="I54" s="3">
-        <v>13485500</v>
+        <v>13657900</v>
       </c>
       <c r="J54" s="3">
+        <v>13278400</v>
+      </c>
+      <c r="K54" s="3">
         <v>13668300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13522300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13774300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11674100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12439700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12476900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16038900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17597700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>21140000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>21263500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>20230100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>16366400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>19923600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,301 +3533,314 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>733000</v>
+        <v>721600</v>
       </c>
       <c r="E57" s="3">
-        <v>614500</v>
+        <v>721800</v>
       </c>
       <c r="F57" s="3">
-        <v>878600</v>
+        <v>605100</v>
       </c>
       <c r="G57" s="3">
-        <v>814200</v>
+        <v>865200</v>
       </c>
       <c r="H57" s="3">
-        <v>928900</v>
+        <v>801700</v>
       </c>
       <c r="I57" s="3">
-        <v>1049300</v>
+        <v>914600</v>
       </c>
       <c r="J57" s="3">
+        <v>1033200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1106800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1069200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>998800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>932300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>809500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>765900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1148900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1955500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1819400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1803900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1648700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1631900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1766800</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>908500</v>
+        <v>841600</v>
       </c>
       <c r="E58" s="3">
-        <v>202500</v>
+        <v>894500</v>
       </c>
       <c r="F58" s="3">
-        <v>349900</v>
+        <v>199400</v>
       </c>
       <c r="G58" s="3">
-        <v>391400</v>
+        <v>344600</v>
       </c>
       <c r="H58" s="3">
-        <v>336000</v>
+        <v>385300</v>
       </c>
       <c r="I58" s="3">
-        <v>344500</v>
+        <v>330800</v>
       </c>
       <c r="J58" s="3">
+        <v>339200</v>
+      </c>
+      <c r="K58" s="3">
         <v>308500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>316300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>274600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>120000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>92600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>55300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>22900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>13976600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>13260500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>13287000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>11958200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>11929200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>11962600</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2639500</v>
+        <v>3298500</v>
       </c>
       <c r="E59" s="3">
-        <v>2561900</v>
+        <v>2643400</v>
       </c>
       <c r="F59" s="3">
-        <v>1047800</v>
+        <v>2522600</v>
       </c>
       <c r="G59" s="3">
-        <v>1029400</v>
+        <v>1031700</v>
       </c>
       <c r="H59" s="3">
-        <v>896600</v>
+        <v>1013600</v>
       </c>
       <c r="I59" s="3">
-        <v>826400</v>
+        <v>882800</v>
       </c>
       <c r="J59" s="3">
+        <v>813700</v>
+      </c>
+      <c r="K59" s="3">
         <v>821200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>741200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>853600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>854700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>886300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>839200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1301300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1474000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1595900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1629500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1459300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1642600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1427200</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4281000</v>
+        <v>4861700</v>
       </c>
       <c r="E60" s="3">
-        <v>3378900</v>
+        <v>4259700</v>
       </c>
       <c r="F60" s="3">
-        <v>2276400</v>
+        <v>3327000</v>
       </c>
       <c r="G60" s="3">
-        <v>2235000</v>
+        <v>2241500</v>
       </c>
       <c r="H60" s="3">
-        <v>2161500</v>
+        <v>2200600</v>
       </c>
       <c r="I60" s="3">
-        <v>2220200</v>
+        <v>2128300</v>
       </c>
       <c r="J60" s="3">
+        <v>2186100</v>
+      </c>
+      <c r="K60" s="3">
         <v>2236600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2126700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2127000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1907000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1788400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1660300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2473100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>17406100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>16675800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>16720400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>15066200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>15203800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>15156600</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4931400</v>
+        <v>4649200</v>
       </c>
       <c r="E61" s="3">
-        <v>5298300</v>
+        <v>4855700</v>
       </c>
       <c r="F61" s="3">
-        <v>6330900</v>
+        <v>5217000</v>
       </c>
       <c r="G61" s="3">
-        <v>6147200</v>
+        <v>6233700</v>
       </c>
       <c r="H61" s="3">
-        <v>5899500</v>
+        <v>6052800</v>
       </c>
       <c r="I61" s="3">
-        <v>4603300</v>
+        <v>5808900</v>
       </c>
       <c r="J61" s="3">
+        <v>4532600</v>
+      </c>
+      <c r="K61" s="3">
         <v>4594200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4114400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4060300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2814600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2893200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2761000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3137600</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3713,70 +3856,76 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3537000</v>
+        <v>3236900</v>
       </c>
       <c r="E62" s="3">
-        <v>3716100</v>
+        <v>3482700</v>
       </c>
       <c r="F62" s="3">
-        <v>3897000</v>
+        <v>3659100</v>
       </c>
       <c r="G62" s="3">
-        <v>3808400</v>
+        <v>3837200</v>
       </c>
       <c r="H62" s="3">
-        <v>3634500</v>
+        <v>3749900</v>
       </c>
       <c r="I62" s="3">
-        <v>3323800</v>
+        <v>3578700</v>
       </c>
       <c r="J62" s="3">
+        <v>3272700</v>
+      </c>
+      <c r="K62" s="3">
         <v>3070700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2702200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2729900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2867900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2898700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2944200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3677600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3656000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2249900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2291100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2263300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2816300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2183300</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12752500</v>
+        <v>12750400</v>
       </c>
       <c r="E66" s="3">
-        <v>12396800</v>
+        <v>12601100</v>
       </c>
       <c r="F66" s="3">
-        <v>12508200</v>
+        <v>12206500</v>
       </c>
       <c r="G66" s="3">
-        <v>12207100</v>
+        <v>12316200</v>
       </c>
       <c r="H66" s="3">
-        <v>11727800</v>
+        <v>12019600</v>
       </c>
       <c r="I66" s="3">
-        <v>10174600</v>
+        <v>11547700</v>
       </c>
       <c r="J66" s="3">
+        <v>10018400</v>
+      </c>
+      <c r="K66" s="3">
         <v>9932200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8982000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8957200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7632900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7631300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7417100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9352500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21137300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19003400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19099400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>17422600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>18216300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>17565100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-5229600</v>
+        <v>-4851600</v>
       </c>
       <c r="E72" s="3">
-        <v>-4573700</v>
+        <v>-5063100</v>
       </c>
       <c r="F72" s="3">
-        <v>-4909200</v>
+        <v>-4503400</v>
       </c>
       <c r="G72" s="3">
-        <v>-4414900</v>
+        <v>-4833800</v>
       </c>
       <c r="H72" s="3">
-        <v>-3775900</v>
+        <v>-4347100</v>
       </c>
       <c r="I72" s="3">
-        <v>-2598400</v>
+        <v>-3718000</v>
       </c>
       <c r="J72" s="3">
+        <v>-2558600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2174000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-999500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-287400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1076100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-526800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>82200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>397400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-7467000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1821000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1823000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-952300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5646300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1463600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>799100</v>
+        <v>1082500</v>
       </c>
       <c r="E76" s="3">
-        <v>1454000</v>
+        <v>873000</v>
       </c>
       <c r="F76" s="3">
-        <v>1122100</v>
+        <v>1431700</v>
       </c>
       <c r="G76" s="3">
-        <v>1514800</v>
+        <v>1104900</v>
       </c>
       <c r="H76" s="3">
-        <v>2143100</v>
+        <v>1491500</v>
       </c>
       <c r="I76" s="3">
-        <v>3310800</v>
+        <v>2110200</v>
       </c>
       <c r="J76" s="3">
+        <v>3260000</v>
+      </c>
+      <c r="K76" s="3">
         <v>3736100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4540200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4817100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4041200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4808300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5059700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6686400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3539600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2136600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2164100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2807500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1849900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2358500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-657300</v>
+        <v>210400</v>
       </c>
       <c r="E81" s="3">
-        <v>-1975200</v>
+        <v>-561000</v>
       </c>
       <c r="F81" s="3">
-        <v>-494900</v>
+        <v>-1944900</v>
       </c>
       <c r="G81" s="3">
-        <v>-639500</v>
+        <v>-487300</v>
       </c>
       <c r="H81" s="3">
-        <v>-1178000</v>
+        <v>-629700</v>
       </c>
       <c r="I81" s="3">
-        <v>-1688300</v>
+        <v>-1159900</v>
       </c>
       <c r="J81" s="3">
+        <v>-1662400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1078000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-276100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-599100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-247300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5418700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7132500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-743600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1107400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-46800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1070600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>219800</v>
+        <v>132900</v>
       </c>
       <c r="E83" s="3">
-        <v>814400</v>
+        <v>216500</v>
       </c>
       <c r="F83" s="3">
-        <v>326400</v>
+        <v>801900</v>
       </c>
       <c r="G83" s="3">
-        <v>323500</v>
+        <v>321300</v>
       </c>
       <c r="H83" s="3">
-        <v>321000</v>
+        <v>318600</v>
       </c>
       <c r="I83" s="3">
-        <v>1289400</v>
+        <v>316100</v>
       </c>
       <c r="J83" s="3">
+        <v>1269600</v>
+      </c>
+      <c r="K83" s="3">
         <v>328700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>306200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>299200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>265200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>272300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>528000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>296200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>186400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>371800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>751700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>376900</v>
-      </c>
-      <c r="U83" s="3">
-        <v>384100</v>
       </c>
       <c r="V83" s="3">
         <v>384100</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>384100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-84200</v>
+        <v>-365500</v>
       </c>
       <c r="E89" s="3">
-        <v>826600</v>
+        <v>-82900</v>
       </c>
       <c r="F89" s="3">
-        <v>360000</v>
+        <v>813900</v>
       </c>
       <c r="G89" s="3">
-        <v>246700</v>
+        <v>354500</v>
       </c>
       <c r="H89" s="3">
-        <v>98500</v>
+        <v>242900</v>
       </c>
       <c r="I89" s="3">
-        <v>433600</v>
+        <v>97000</v>
       </c>
       <c r="J89" s="3">
+        <v>427000</v>
+      </c>
+      <c r="K89" s="3">
         <v>225500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>43300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-88100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>108900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>204400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>212200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>190200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>135200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>380300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>613000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>227400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>401600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>594500</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-124400</v>
+        <v>-91900</v>
       </c>
       <c r="E91" s="3">
-        <v>-648100</v>
+        <v>-122500</v>
       </c>
       <c r="F91" s="3">
-        <v>-366600</v>
+        <v>-638200</v>
       </c>
       <c r="G91" s="3">
-        <v>-520400</v>
+        <v>-880400</v>
       </c>
       <c r="H91" s="3">
-        <v>-220500</v>
+        <v>7000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1392900</v>
+        <v>-217100</v>
       </c>
       <c r="J91" s="3">
+        <v>-1371500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-371700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-313800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-264200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-242900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-204800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-513900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-353700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-257900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-311700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-544300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-497100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-437700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-103100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-103500</v>
+        <v>-256000</v>
       </c>
       <c r="E94" s="3">
-        <v>-635000</v>
+        <v>-101900</v>
       </c>
       <c r="F94" s="3">
-        <v>-343600</v>
+        <v>-625300</v>
       </c>
       <c r="G94" s="3">
-        <v>-212700</v>
+        <v>-338400</v>
       </c>
       <c r="H94" s="3">
-        <v>265900</v>
+        <v>-209400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1285100</v>
+        <v>261800</v>
       </c>
       <c r="J94" s="3">
+        <v>-1265300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-347200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-314200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-249400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-216600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-183500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-501700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-334300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-306200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-291300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-536100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-235400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-216200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-58500</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5571,11 +5805,11 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-100</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -5601,19 +5835,22 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-15200</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,90 +6041,96 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-67900</v>
+        <v>379000</v>
       </c>
       <c r="E100" s="3">
-        <v>150000</v>
+        <v>-66900</v>
       </c>
       <c r="F100" s="3">
-        <v>-87300</v>
+        <v>147700</v>
       </c>
       <c r="G100" s="3">
-        <v>-97200</v>
+        <v>-111100</v>
       </c>
       <c r="H100" s="3">
-        <v>365400</v>
+        <v>-70600</v>
       </c>
       <c r="I100" s="3">
-        <v>419400</v>
+        <v>359800</v>
       </c>
       <c r="J100" s="3">
+        <v>412900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-81300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-77700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>628700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-11100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-27000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-40000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-41000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-21100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-17100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-139100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-6600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3">
-        <v>38500</v>
-      </c>
       <c r="F101" s="3">
+        <v>37900</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1800</v>
       </c>
-      <c r="G101" s="3">
-        <v>6600</v>
-      </c>
       <c r="H101" s="3">
-        <v>33700</v>
+        <v>6500</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>33200</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -5893,95 +6142,101 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-3300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-35800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-61800</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-254900</v>
+        <v>-243600</v>
       </c>
       <c r="E102" s="3">
-        <v>380000</v>
+        <v>-251000</v>
       </c>
       <c r="F102" s="3">
-        <v>-72700</v>
+        <v>374200</v>
       </c>
       <c r="G102" s="3">
-        <v>-44900</v>
+        <v>-71600</v>
       </c>
       <c r="H102" s="3">
-        <v>751800</v>
+        <v>-44200</v>
       </c>
       <c r="I102" s="3">
-        <v>-432100</v>
+        <v>740300</v>
       </c>
       <c r="J102" s="3">
+        <v>-425400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-203000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-348600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>291200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-122000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-326900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-184300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-191200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>71700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-60200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-14700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>151500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>521000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OIBRQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OIBRQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>OIBRQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>412800</v>
+        <v>400600</v>
       </c>
       <c r="E8" s="3">
-        <v>413400</v>
+        <v>399000</v>
       </c>
       <c r="F8" s="3">
-        <v>1714800</v>
+        <v>399600</v>
       </c>
       <c r="G8" s="3">
-        <v>869200</v>
+        <v>1657400</v>
       </c>
       <c r="H8" s="3">
-        <v>425100</v>
+        <v>412500</v>
       </c>
       <c r="I8" s="3">
-        <v>446100</v>
+        <v>410800</v>
       </c>
       <c r="J8" s="3">
+        <v>431200</v>
+      </c>
+      <c r="K8" s="3">
         <v>1937900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>938100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>901500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>908400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>957100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1014200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2074900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1323700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1494100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1528900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3076100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1528100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1568600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1586300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>263100</v>
+        <v>326500</v>
       </c>
       <c r="E9" s="3">
-        <v>348400</v>
+        <v>254300</v>
       </c>
       <c r="F9" s="3">
-        <v>1343000</v>
+        <v>336700</v>
       </c>
       <c r="G9" s="3">
-        <v>673100</v>
+        <v>1298100</v>
       </c>
       <c r="H9" s="3">
-        <v>264000</v>
+        <v>298900</v>
       </c>
       <c r="I9" s="3">
-        <v>341900</v>
+        <v>255200</v>
       </c>
       <c r="J9" s="3">
+        <v>330500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1474400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>718300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>683400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>685900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>791100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>729400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1443700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>873000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>799200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>963600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1928400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>942400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>806300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>991000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>149600</v>
+        <v>74000</v>
       </c>
       <c r="E10" s="3">
-        <v>65000</v>
+        <v>144600</v>
       </c>
       <c r="F10" s="3">
-        <v>371800</v>
+        <v>62800</v>
       </c>
       <c r="G10" s="3">
-        <v>196100</v>
+        <v>359400</v>
       </c>
       <c r="H10" s="3">
-        <v>161000</v>
+        <v>113600</v>
       </c>
       <c r="I10" s="3">
-        <v>104200</v>
+        <v>155700</v>
       </c>
       <c r="J10" s="3">
+        <v>100700</v>
+      </c>
+      <c r="K10" s="3">
         <v>463500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>219800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>218100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>222500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>166000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>284900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>631100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>450700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>694900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>565400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1147700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>585700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>762300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>595400</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1130,8 +1150,8 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1143,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>10400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-2055700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-2594500</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>445500</v>
+        <v>511400</v>
       </c>
       <c r="E17" s="3">
-        <v>387000</v>
+        <v>430600</v>
       </c>
       <c r="F17" s="3">
-        <v>2049300</v>
+        <v>374000</v>
       </c>
       <c r="G17" s="3">
-        <v>916300</v>
+        <v>1980800</v>
       </c>
       <c r="H17" s="3">
-        <v>478100</v>
+        <v>509600</v>
       </c>
       <c r="I17" s="3">
-        <v>479400</v>
+        <v>462100</v>
       </c>
       <c r="J17" s="3">
+        <v>463400</v>
+      </c>
+      <c r="K17" s="3">
         <v>2787100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1538200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>954300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>744600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1972800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1025700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>-60700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>-1341700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2243800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1472200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2922700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1445200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1932900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1562400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-32800</v>
+        <v>-110800</v>
       </c>
       <c r="E18" s="3">
-        <v>26500</v>
+        <v>-31700</v>
       </c>
       <c r="F18" s="3">
-        <v>-334500</v>
+        <v>25600</v>
       </c>
       <c r="G18" s="3">
-        <v>-47100</v>
+        <v>-323300</v>
       </c>
       <c r="H18" s="3">
-        <v>-53000</v>
+        <v>-97000</v>
       </c>
       <c r="I18" s="3">
-        <v>-33300</v>
+        <v>-51200</v>
       </c>
       <c r="J18" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-849200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-52800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>163800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1015600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-11500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2135500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2665300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-749700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>56800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>153400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>82900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-364300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,268 +1447,281 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>360500</v>
+        <v>-525200</v>
       </c>
       <c r="E20" s="3">
-        <v>-449800</v>
+        <v>348400</v>
       </c>
       <c r="F20" s="3">
-        <v>-1647800</v>
+        <v>-434700</v>
       </c>
       <c r="G20" s="3">
-        <v>-224800</v>
+        <v>-1592700</v>
       </c>
       <c r="H20" s="3">
-        <v>-337600</v>
+        <v>-198200</v>
       </c>
       <c r="I20" s="3">
-        <v>-870200</v>
+        <v>-326300</v>
       </c>
       <c r="J20" s="3">
+        <v>-841100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-464400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-363700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-172200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>74800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-178800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3920200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4453000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>730000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-847100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>170900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>30100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-192100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>460600</v>
+        <v>-441900</v>
       </c>
       <c r="E21" s="3">
-        <v>-206800</v>
+        <v>445200</v>
       </c>
       <c r="F21" s="3">
-        <v>-1180400</v>
+        <v>-199900</v>
       </c>
       <c r="G21" s="3">
-        <v>353000</v>
+        <v>-1140900</v>
       </c>
       <c r="H21" s="3">
-        <v>-260700</v>
+        <v>-133000</v>
       </c>
       <c r="I21" s="3">
-        <v>-702300</v>
+        <v>-252000</v>
       </c>
       <c r="J21" s="3">
+        <v>-678800</v>
+      </c>
+      <c r="K21" s="3">
         <v>-44000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-635100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>81200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>537700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-851000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>82000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6583700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7414600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>317700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>478000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>58000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>581300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-156900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>215900</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>111800</v>
+        <v>234500</v>
       </c>
       <c r="E22" s="3">
-        <v>210000</v>
+        <v>108100</v>
       </c>
       <c r="F22" s="3">
-        <v>714100</v>
+        <v>203000</v>
       </c>
       <c r="G22" s="3">
-        <v>204700</v>
+        <v>690200</v>
       </c>
       <c r="H22" s="3">
-        <v>189600</v>
+        <v>168900</v>
       </c>
       <c r="I22" s="3">
-        <v>221600</v>
+        <v>183200</v>
       </c>
       <c r="J22" s="3">
+        <v>214200</v>
+      </c>
+      <c r="K22" s="3">
         <v>528700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>81900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>71100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>110500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>63000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>80100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>613800</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>254600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>195900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>471000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>203600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>205400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>215900</v>
+        <v>-870500</v>
       </c>
       <c r="E23" s="3">
-        <v>-633400</v>
+        <v>208700</v>
       </c>
       <c r="F23" s="3">
-        <v>-2696400</v>
+        <v>-612200</v>
       </c>
       <c r="G23" s="3">
-        <v>-476600</v>
+        <v>-2606200</v>
       </c>
       <c r="H23" s="3">
-        <v>-580200</v>
+        <v>-464100</v>
       </c>
       <c r="I23" s="3">
-        <v>-1125100</v>
+        <v>-560800</v>
       </c>
       <c r="J23" s="3">
+        <v>-1087400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1842300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1045700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-296100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>128100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1179200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-270400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5442000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7118400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-274300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>61200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1164700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>50100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-539700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-398200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1683,64 +1729,67 @@
         <v>200</v>
       </c>
       <c r="E24" s="3">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="F24" s="3">
-        <v>-655900</v>
+        <v>1500</v>
       </c>
       <c r="G24" s="3">
-        <v>-100</v>
+        <v>-633900</v>
       </c>
       <c r="H24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>-6300</v>
-      </c>
       <c r="J24" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-2400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>39100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-582800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-23300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>21900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-10200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>527400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>67600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-49200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>97000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>549500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-105800</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>215700</v>
+        <v>-870700</v>
       </c>
       <c r="E26" s="3">
-        <v>-634900</v>
+        <v>208500</v>
       </c>
       <c r="F26" s="3">
-        <v>-2040500</v>
+        <v>-613700</v>
       </c>
       <c r="G26" s="3">
-        <v>-476400</v>
+        <v>-1972300</v>
       </c>
       <c r="H26" s="3">
-        <v>-580300</v>
+        <v>-463900</v>
       </c>
       <c r="I26" s="3">
-        <v>-1118700</v>
+        <v>-560900</v>
       </c>
       <c r="J26" s="3">
+        <v>-1081300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1839900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1084900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-302700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>120200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-596300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-247000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5420100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7128500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-801600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1115500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-46900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1089200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-292400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>215700</v>
+        <v>-870900</v>
       </c>
       <c r="E27" s="3">
-        <v>-634200</v>
+        <v>208500</v>
       </c>
       <c r="F27" s="3">
-        <v>-2040800</v>
+        <v>-613000</v>
       </c>
       <c r="G27" s="3">
-        <v>-487300</v>
+        <v>-1972500</v>
       </c>
       <c r="H27" s="3">
-        <v>-564800</v>
+        <v>-474500</v>
       </c>
       <c r="I27" s="3">
-        <v>-1123600</v>
+        <v>-545900</v>
       </c>
       <c r="J27" s="3">
+        <v>-1086000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1822400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1078000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-276100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-599100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-247300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5418700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7132500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-743600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1107400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-46800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1070600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,38 +2057,41 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-5300</v>
+        <v>11800</v>
       </c>
       <c r="E29" s="3">
-        <v>73200</v>
+        <v>-5100</v>
       </c>
       <c r="F29" s="3">
-        <v>95900</v>
-      </c>
-      <c r="G29" s="3" t="s">
+        <v>70700</v>
+      </c>
+      <c r="G29" s="3">
+        <v>92700</v>
+      </c>
+      <c r="H29" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-62800</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="K29" s="3">
+        <v>160000</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>-64900</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-36300</v>
-      </c>
-      <c r="J29" s="3">
-        <v>160000</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
@@ -2046,8 +2107,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2058,14 +2119,17 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-360500</v>
+        <v>525200</v>
       </c>
       <c r="E32" s="3">
-        <v>449800</v>
+        <v>-348400</v>
       </c>
       <c r="F32" s="3">
-        <v>1647800</v>
+        <v>434700</v>
       </c>
       <c r="G32" s="3">
-        <v>224800</v>
+        <v>1592700</v>
       </c>
       <c r="H32" s="3">
-        <v>337600</v>
+        <v>198200</v>
       </c>
       <c r="I32" s="3">
-        <v>870200</v>
+        <v>326300</v>
       </c>
       <c r="J32" s="3">
+        <v>841100</v>
+      </c>
+      <c r="K32" s="3">
         <v>464400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>363700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>172200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-74800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>178800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3920200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4453000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-730000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>847100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-170900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-30100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>192100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>210400</v>
+        <v>-859100</v>
       </c>
       <c r="E33" s="3">
-        <v>-561000</v>
+        <v>203300</v>
       </c>
       <c r="F33" s="3">
-        <v>-1944900</v>
+        <v>-542300</v>
       </c>
       <c r="G33" s="3">
-        <v>-487300</v>
+        <v>-1879800</v>
       </c>
       <c r="H33" s="3">
-        <v>-629700</v>
+        <v>-471000</v>
       </c>
       <c r="I33" s="3">
-        <v>-1159900</v>
+        <v>-608600</v>
       </c>
       <c r="J33" s="3">
+        <v>-1121100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1662400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1078000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-276100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-599100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-247300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5418700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7132500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-743600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1107400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-46800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1070600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>210400</v>
+        <v>-859100</v>
       </c>
       <c r="E35" s="3">
-        <v>-561000</v>
+        <v>203300</v>
       </c>
       <c r="F35" s="3">
-        <v>-1944900</v>
+        <v>-542300</v>
       </c>
       <c r="G35" s="3">
-        <v>-487300</v>
+        <v>-1879800</v>
       </c>
       <c r="H35" s="3">
-        <v>-629700</v>
+        <v>-471000</v>
       </c>
       <c r="I35" s="3">
-        <v>-1159900</v>
+        <v>-608600</v>
       </c>
       <c r="J35" s="3">
+        <v>-1121100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1662400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1078000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-276100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-599100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-247300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5418700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7132500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-743600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1107400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-46800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1070600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,593 +2660,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>264200</v>
+        <v>539200</v>
       </c>
       <c r="E41" s="3">
-        <v>507700</v>
+        <v>255300</v>
       </c>
       <c r="F41" s="3">
-        <v>758700</v>
+        <v>490800</v>
       </c>
       <c r="G41" s="3">
-        <v>1009000</v>
+        <v>733300</v>
       </c>
       <c r="H41" s="3">
-        <v>1080600</v>
+        <v>975300</v>
       </c>
       <c r="I41" s="3">
-        <v>1124800</v>
+        <v>1044500</v>
       </c>
       <c r="J41" s="3">
+        <v>1087200</v>
+      </c>
+      <c r="K41" s="3">
         <v>384500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>558700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>719100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1067700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>782300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>937900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>942900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1418200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1759500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1950600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1878900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1861600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1876300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1724800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>34800</v>
+      </c>
+      <c r="F42" s="3">
+        <v>34600</v>
+      </c>
+      <c r="G42" s="3">
+        <v>34600</v>
+      </c>
+      <c r="H42" s="3">
+        <v>34100</v>
+      </c>
+      <c r="I42" s="3">
+        <v>33800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>33200</v>
+      </c>
+      <c r="K42" s="3">
+        <v>34000</v>
+      </c>
+      <c r="L42" s="3">
+        <v>33500</v>
+      </c>
+      <c r="M42" s="3">
+        <v>34800</v>
+      </c>
+      <c r="N42" s="3">
+        <v>35300</v>
+      </c>
+      <c r="O42" s="3">
         <v>36000</v>
       </c>
-      <c r="E42" s="3">
-        <v>35800</v>
-      </c>
-      <c r="F42" s="3">
-        <v>35800</v>
-      </c>
-      <c r="G42" s="3">
-        <v>35200</v>
-      </c>
-      <c r="H42" s="3">
-        <v>35000</v>
-      </c>
-      <c r="I42" s="3">
-        <v>34300</v>
-      </c>
-      <c r="J42" s="3">
-        <v>34000</v>
-      </c>
-      <c r="K42" s="3">
-        <v>33500</v>
-      </c>
-      <c r="L42" s="3">
-        <v>34800</v>
-      </c>
-      <c r="M42" s="3">
-        <v>35300</v>
-      </c>
-      <c r="N42" s="3">
-        <v>36000</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>7700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>8800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>5500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>5600</v>
-      </c>
-      <c r="T42" s="3">
-        <v>4400</v>
       </c>
       <c r="U42" s="3">
         <v>4400</v>
       </c>
       <c r="V42" s="3">
+        <v>4400</v>
+      </c>
+      <c r="W42" s="3">
         <v>28900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>26700</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1002700</v>
+        <v>994900</v>
       </c>
       <c r="E43" s="3">
-        <v>1042000</v>
+        <v>969200</v>
       </c>
       <c r="F43" s="3">
-        <v>1137000</v>
+        <v>1007200</v>
       </c>
       <c r="G43" s="3">
-        <v>1608700</v>
+        <v>1098900</v>
       </c>
       <c r="H43" s="3">
-        <v>1580600</v>
+        <v>1554900</v>
       </c>
       <c r="I43" s="3">
-        <v>1454400</v>
+        <v>1527700</v>
       </c>
       <c r="J43" s="3">
+        <v>1405800</v>
+      </c>
+      <c r="K43" s="3">
         <v>1471400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1610600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1603200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1586600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1416700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1619700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1650300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2247600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2454200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2684900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2699500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2565800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2582900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2995800</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>79500</v>
+        <v>75300</v>
       </c>
       <c r="E44" s="3">
-        <v>77300</v>
+        <v>76800</v>
       </c>
       <c r="F44" s="3">
-        <v>69900</v>
+        <v>74700</v>
       </c>
       <c r="G44" s="3">
+        <v>67600</v>
+      </c>
+      <c r="H44" s="3">
+        <v>54600</v>
+      </c>
+      <c r="I44" s="3">
+        <v>55200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>60600</v>
+      </c>
+      <c r="K44" s="3">
+        <v>60400</v>
+      </c>
+      <c r="L44" s="3">
+        <v>59600</v>
+      </c>
+      <c r="M44" s="3">
         <v>56500</v>
       </c>
-      <c r="H44" s="3">
-        <v>57100</v>
-      </c>
-      <c r="I44" s="3">
-        <v>62700</v>
-      </c>
-      <c r="J44" s="3">
-        <v>60400</v>
-      </c>
-      <c r="K44" s="3">
-        <v>59600</v>
-      </c>
-      <c r="L44" s="3">
-        <v>56500</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>53000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>56600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>48400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>48000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>61200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>65000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>138700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>129300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>115300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>88100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6716600</v>
+        <v>6620200</v>
       </c>
       <c r="E45" s="3">
-        <v>4778500</v>
+        <v>6491900</v>
       </c>
       <c r="F45" s="3">
-        <v>4240700</v>
+        <v>4618600</v>
       </c>
       <c r="G45" s="3">
-        <v>648100</v>
+        <v>4098800</v>
       </c>
       <c r="H45" s="3">
-        <v>788500</v>
+        <v>626500</v>
       </c>
       <c r="I45" s="3">
-        <v>899400</v>
+        <v>762100</v>
       </c>
       <c r="J45" s="3">
+        <v>869300</v>
+      </c>
+      <c r="K45" s="3">
         <v>1373000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1518100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1470800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1517500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1510600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1613800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1654200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1917000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1804300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1856700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2049900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1864900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1926500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2113900</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8099000</v>
+        <v>8263900</v>
       </c>
       <c r="E46" s="3">
-        <v>6441300</v>
+        <v>7828000</v>
       </c>
       <c r="F46" s="3">
-        <v>6242100</v>
+        <v>6225800</v>
       </c>
       <c r="G46" s="3">
-        <v>3357700</v>
+        <v>6033200</v>
       </c>
       <c r="H46" s="3">
-        <v>3541700</v>
+        <v>3245300</v>
       </c>
       <c r="I46" s="3">
-        <v>3575700</v>
+        <v>3423200</v>
       </c>
       <c r="J46" s="3">
+        <v>3456000</v>
+      </c>
+      <c r="K46" s="3">
         <v>3323400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3780600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3884400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4260200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3802300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4225200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4303100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5652800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6088400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6636400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6762000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6412000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6502600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6955700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>242300</v>
+        <v>201700</v>
       </c>
       <c r="E47" s="3">
-        <v>296400</v>
+        <v>234200</v>
       </c>
       <c r="F47" s="3">
-        <v>290100</v>
+        <v>286400</v>
       </c>
       <c r="G47" s="3">
-        <v>340900</v>
+        <v>280400</v>
       </c>
       <c r="H47" s="3">
-        <v>457200</v>
+        <v>329500</v>
       </c>
       <c r="I47" s="3">
-        <v>537800</v>
+        <v>441900</v>
       </c>
       <c r="J47" s="3">
+        <v>519800</v>
+      </c>
+      <c r="K47" s="3">
         <v>578000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>588700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>352100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>361700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>141200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>142900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>148400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>177100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>195900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>216900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>228500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>209400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>216900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>226500</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3169600</v>
+        <v>2947100</v>
       </c>
       <c r="E48" s="3">
-        <v>4352400</v>
+        <v>3063600</v>
       </c>
       <c r="F48" s="3">
-        <v>4457700</v>
+        <v>4206800</v>
       </c>
       <c r="G48" s="3">
-        <v>7648900</v>
+        <v>4308600</v>
       </c>
       <c r="H48" s="3">
-        <v>7466300</v>
+        <v>7393000</v>
       </c>
       <c r="I48" s="3">
-        <v>7400900</v>
+        <v>7216500</v>
       </c>
       <c r="J48" s="3">
+        <v>7153300</v>
+      </c>
+      <c r="K48" s="3">
         <v>7186800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7223000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6688800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6539000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5071100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5095300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5027500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6289300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6919300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6805600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6753900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6512100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6426600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6291400</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>621500</v>
+        <v>566200</v>
       </c>
       <c r="E49" s="3">
-        <v>652200</v>
+        <v>600700</v>
       </c>
       <c r="F49" s="3">
-        <v>683000</v>
+        <v>630400</v>
       </c>
       <c r="G49" s="3">
-        <v>648400</v>
+        <v>660100</v>
       </c>
       <c r="H49" s="3">
-        <v>673100</v>
+        <v>626700</v>
       </c>
       <c r="I49" s="3">
-        <v>704800</v>
+        <v>650600</v>
       </c>
       <c r="J49" s="3">
+        <v>681200</v>
+      </c>
+      <c r="K49" s="3">
         <v>738400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>551800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1152600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1193800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1239600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1387800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1444800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1928400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2140900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2740300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2817800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2696100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1221800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>832100</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1700500</v>
+        <v>1504700</v>
       </c>
       <c r="E52" s="3">
-        <v>1731800</v>
+        <v>1643600</v>
       </c>
       <c r="F52" s="3">
-        <v>1965300</v>
+        <v>1673900</v>
       </c>
       <c r="G52" s="3">
-        <v>1425200</v>
+        <v>1899500</v>
       </c>
       <c r="H52" s="3">
-        <v>1372900</v>
+        <v>1377500</v>
       </c>
       <c r="I52" s="3">
-        <v>1438800</v>
+        <v>1326900</v>
       </c>
       <c r="J52" s="3">
+        <v>1390600</v>
+      </c>
+      <c r="K52" s="3">
         <v>1451800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1524200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1444400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1419600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1419800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1588400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1553100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1991300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2253000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4740800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4701300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4400600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2194100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5617900</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13832900</v>
+        <v>13483500</v>
       </c>
       <c r="E54" s="3">
-        <v>13474200</v>
+        <v>13370100</v>
       </c>
       <c r="F54" s="3">
-        <v>13638200</v>
+        <v>13023300</v>
       </c>
       <c r="G54" s="3">
-        <v>13421100</v>
+        <v>13181900</v>
       </c>
       <c r="H54" s="3">
-        <v>13511200</v>
+        <v>12972000</v>
       </c>
       <c r="I54" s="3">
-        <v>13657900</v>
+        <v>13059100</v>
       </c>
       <c r="J54" s="3">
+        <v>13200900</v>
+      </c>
+      <c r="K54" s="3">
         <v>13278400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13668300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13522300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13774300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11674100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12439700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12476900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>16038900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17597700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>21140000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>21263500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>20230100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>16366400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>19923600</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,316 +3664,329 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>721600</v>
+        <v>633100</v>
       </c>
       <c r="E57" s="3">
-        <v>721800</v>
+        <v>697400</v>
       </c>
       <c r="F57" s="3">
-        <v>605100</v>
+        <v>697600</v>
       </c>
       <c r="G57" s="3">
-        <v>865200</v>
+        <v>584800</v>
       </c>
       <c r="H57" s="3">
-        <v>801700</v>
+        <v>836200</v>
       </c>
       <c r="I57" s="3">
-        <v>914600</v>
+        <v>774800</v>
       </c>
       <c r="J57" s="3">
+        <v>884000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1033200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1106800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1069200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>998800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>932300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>809500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>765900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1148900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1955500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1819400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1803900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1648700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1631900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1766800</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>841600</v>
+        <v>172900</v>
       </c>
       <c r="E58" s="3">
-        <v>894500</v>
+        <v>813400</v>
       </c>
       <c r="F58" s="3">
-        <v>199400</v>
+        <v>864600</v>
       </c>
       <c r="G58" s="3">
-        <v>344600</v>
+        <v>192700</v>
       </c>
       <c r="H58" s="3">
-        <v>385300</v>
+        <v>333000</v>
       </c>
       <c r="I58" s="3">
-        <v>330800</v>
+        <v>372500</v>
       </c>
       <c r="J58" s="3">
+        <v>319800</v>
+      </c>
+      <c r="K58" s="3">
         <v>339200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>308500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>316300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>274600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>120000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>92600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>55300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>22900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>13976600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>13260500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>13287000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>11958200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>11929200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>11962600</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3298500</v>
+        <v>3383800</v>
       </c>
       <c r="E59" s="3">
-        <v>2643400</v>
+        <v>3188100</v>
       </c>
       <c r="F59" s="3">
-        <v>2522600</v>
+        <v>2554900</v>
       </c>
       <c r="G59" s="3">
-        <v>1031700</v>
+        <v>2438100</v>
       </c>
       <c r="H59" s="3">
-        <v>1013600</v>
+        <v>997200</v>
       </c>
       <c r="I59" s="3">
-        <v>882800</v>
+        <v>979700</v>
       </c>
       <c r="J59" s="3">
+        <v>853300</v>
+      </c>
+      <c r="K59" s="3">
         <v>813700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>821200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>741200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>853600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>854700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>886300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>839200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1301300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1474000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1595900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1629500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1459300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1642600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1427200</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4861700</v>
+        <v>4189900</v>
       </c>
       <c r="E60" s="3">
-        <v>4259700</v>
+        <v>4699000</v>
       </c>
       <c r="F60" s="3">
-        <v>3327000</v>
+        <v>4117200</v>
       </c>
       <c r="G60" s="3">
-        <v>2241500</v>
+        <v>3215700</v>
       </c>
       <c r="H60" s="3">
-        <v>2200600</v>
+        <v>2166500</v>
       </c>
       <c r="I60" s="3">
-        <v>2128300</v>
+        <v>2127000</v>
       </c>
       <c r="J60" s="3">
+        <v>2057100</v>
+      </c>
+      <c r="K60" s="3">
         <v>2186100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2236600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2126700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2127000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1907000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1788400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1660300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2473100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>17406100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>16675800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>16720400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>15066200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>15203800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>15156600</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4649200</v>
+        <v>5981900</v>
       </c>
       <c r="E61" s="3">
-        <v>4855700</v>
+        <v>4493600</v>
       </c>
       <c r="F61" s="3">
-        <v>5217000</v>
+        <v>4693200</v>
       </c>
       <c r="G61" s="3">
-        <v>6233700</v>
+        <v>5042400</v>
       </c>
       <c r="H61" s="3">
-        <v>6052800</v>
+        <v>6025200</v>
       </c>
       <c r="I61" s="3">
-        <v>5808900</v>
+        <v>5850300</v>
       </c>
       <c r="J61" s="3">
+        <v>5614500</v>
+      </c>
+      <c r="K61" s="3">
         <v>4532600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4594200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4114400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4060300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2814600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2893200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2761000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3137600</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3859,73 +4002,79 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3236900</v>
+        <v>3119100</v>
       </c>
       <c r="E62" s="3">
-        <v>3482700</v>
+        <v>3128600</v>
       </c>
       <c r="F62" s="3">
-        <v>3659100</v>
+        <v>3366200</v>
       </c>
       <c r="G62" s="3">
-        <v>3837200</v>
+        <v>3536700</v>
       </c>
       <c r="H62" s="3">
-        <v>3749900</v>
+        <v>3708800</v>
       </c>
       <c r="I62" s="3">
-        <v>3578700</v>
+        <v>3624400</v>
       </c>
       <c r="J62" s="3">
+        <v>3458900</v>
+      </c>
+      <c r="K62" s="3">
         <v>3272700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3070700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2702200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2729900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2867900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2898700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2944200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3677600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3656000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2249900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2291100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2263300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2816300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2183300</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12750400</v>
+        <v>13293900</v>
       </c>
       <c r="E66" s="3">
-        <v>12601100</v>
+        <v>12323800</v>
       </c>
       <c r="F66" s="3">
-        <v>12206500</v>
+        <v>12179500</v>
       </c>
       <c r="G66" s="3">
-        <v>12316200</v>
+        <v>11798100</v>
       </c>
       <c r="H66" s="3">
-        <v>12019600</v>
+        <v>11904100</v>
       </c>
       <c r="I66" s="3">
-        <v>11547700</v>
+        <v>11617500</v>
       </c>
       <c r="J66" s="3">
+        <v>11161300</v>
+      </c>
+      <c r="K66" s="3">
         <v>10018400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9932200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8982000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8957200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7632900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7631300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7417100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9352500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>21137300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19003400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19099400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>17422600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>18216300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>17565100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4851600</v>
+        <v>-5548000</v>
       </c>
       <c r="E72" s="3">
-        <v>-5063100</v>
+        <v>-4689300</v>
       </c>
       <c r="F72" s="3">
-        <v>-4503400</v>
+        <v>-4893700</v>
       </c>
       <c r="G72" s="3">
-        <v>-4833800</v>
+        <v>-4352800</v>
       </c>
       <c r="H72" s="3">
-        <v>-4347100</v>
+        <v>-4672100</v>
       </c>
       <c r="I72" s="3">
-        <v>-3718000</v>
+        <v>-4201600</v>
       </c>
       <c r="J72" s="3">
+        <v>-3593500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2558600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2174000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-999500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-287400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1076100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-526800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>82200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>397400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-7467000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1821000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1823000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-952300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-5646300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1463600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1082500</v>
+        <v>189600</v>
       </c>
       <c r="E76" s="3">
-        <v>873000</v>
+        <v>1046300</v>
       </c>
       <c r="F76" s="3">
-        <v>1431700</v>
+        <v>843800</v>
       </c>
       <c r="G76" s="3">
-        <v>1104900</v>
+        <v>1383800</v>
       </c>
       <c r="H76" s="3">
-        <v>1491500</v>
+        <v>1067900</v>
       </c>
       <c r="I76" s="3">
-        <v>2110200</v>
+        <v>1441600</v>
       </c>
       <c r="J76" s="3">
+        <v>2039600</v>
+      </c>
+      <c r="K76" s="3">
         <v>3260000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3736100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4540200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4817100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4041200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4808300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5059700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6686400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3539600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2136600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2164100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2807500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1849900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2358500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>210400</v>
+        <v>-859100</v>
       </c>
       <c r="E81" s="3">
-        <v>-561000</v>
+        <v>203300</v>
       </c>
       <c r="F81" s="3">
-        <v>-1944900</v>
+        <v>-542300</v>
       </c>
       <c r="G81" s="3">
-        <v>-487300</v>
+        <v>-1879800</v>
       </c>
       <c r="H81" s="3">
-        <v>-629700</v>
+        <v>-471000</v>
       </c>
       <c r="I81" s="3">
-        <v>-1159900</v>
+        <v>-608600</v>
       </c>
       <c r="J81" s="3">
+        <v>-1121100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1662400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1078000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-276100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-599100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-247300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5418700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7132500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-743600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1107400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-46800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1070600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>132900</v>
+        <v>194100</v>
       </c>
       <c r="E83" s="3">
-        <v>216500</v>
+        <v>128500</v>
       </c>
       <c r="F83" s="3">
-        <v>801900</v>
+        <v>209200</v>
       </c>
       <c r="G83" s="3">
-        <v>321300</v>
+        <v>775100</v>
       </c>
       <c r="H83" s="3">
-        <v>318600</v>
+        <v>310600</v>
       </c>
       <c r="I83" s="3">
-        <v>316100</v>
+        <v>307900</v>
       </c>
       <c r="J83" s="3">
+        <v>305500</v>
+      </c>
+      <c r="K83" s="3">
         <v>1269600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>328700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>306200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>299200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>265200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>272300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>528000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>296200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>186400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>371800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>751700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>376900</v>
-      </c>
-      <c r="V83" s="3">
-        <v>384100</v>
       </c>
       <c r="W83" s="3">
         <v>384100</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>384100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-365500</v>
+        <v>142200</v>
       </c>
       <c r="E89" s="3">
-        <v>-82900</v>
+        <v>-353300</v>
       </c>
       <c r="F89" s="3">
-        <v>813900</v>
+        <v>-80200</v>
       </c>
       <c r="G89" s="3">
-        <v>354500</v>
+        <v>786700</v>
       </c>
       <c r="H89" s="3">
-        <v>242900</v>
+        <v>342700</v>
       </c>
       <c r="I89" s="3">
-        <v>97000</v>
+        <v>234800</v>
       </c>
       <c r="J89" s="3">
+        <v>93800</v>
+      </c>
+      <c r="K89" s="3">
         <v>427000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>225500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>43300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-88100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>108900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>204400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>212200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>190200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>135200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>380300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>613000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>227400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>401600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>594500</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-91900</v>
+        <v>-203600</v>
       </c>
       <c r="E91" s="3">
-        <v>-122500</v>
+        <v>-88800</v>
       </c>
       <c r="F91" s="3">
-        <v>-638200</v>
+        <v>-118400</v>
       </c>
       <c r="G91" s="3">
-        <v>-880400</v>
+        <v>-616800</v>
       </c>
       <c r="H91" s="3">
-        <v>7000</v>
+        <v>-42600</v>
       </c>
       <c r="I91" s="3">
-        <v>-217100</v>
+        <v>6800</v>
       </c>
       <c r="J91" s="3">
+        <v>-209800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1371500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-371700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-313800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-264200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-242900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-204800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-513900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-353700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-257900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-311700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-544300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-497100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-437700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-103100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-256000</v>
+        <v>-292500</v>
       </c>
       <c r="E94" s="3">
-        <v>-101900</v>
+        <v>-247500</v>
       </c>
       <c r="F94" s="3">
-        <v>-625300</v>
+        <v>-98500</v>
       </c>
       <c r="G94" s="3">
-        <v>-338400</v>
+        <v>-604400</v>
       </c>
       <c r="H94" s="3">
-        <v>-209400</v>
+        <v>-327000</v>
       </c>
       <c r="I94" s="3">
-        <v>261800</v>
+        <v>-202400</v>
       </c>
       <c r="J94" s="3">
+        <v>253100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1265300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-347200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-314200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-249400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-216600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-183500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-501700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-334300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-306200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-291300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-536100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-235400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-216200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-58500</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5808,11 +6042,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -5838,19 +6072,22 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-15200</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,96 +6287,102 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>379000</v>
+        <v>441700</v>
       </c>
       <c r="E100" s="3">
-        <v>-66900</v>
+        <v>366300</v>
       </c>
       <c r="F100" s="3">
-        <v>147700</v>
+        <v>-64600</v>
       </c>
       <c r="G100" s="3">
-        <v>-111100</v>
+        <v>142700</v>
       </c>
       <c r="H100" s="3">
-        <v>-70600</v>
+        <v>-68100</v>
       </c>
       <c r="I100" s="3">
-        <v>359800</v>
+        <v>-68200</v>
       </c>
       <c r="J100" s="3">
+        <v>347800</v>
+      </c>
+      <c r="K100" s="3">
         <v>412900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-81300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-77700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>628700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-11100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-27000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-41000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-21100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-17100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-139100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-6600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
-        <v>37900</v>
-      </c>
       <c r="G101" s="3">
-        <v>-1800</v>
+        <v>36600</v>
       </c>
       <c r="H101" s="3">
-        <v>6500</v>
+        <v>-1700</v>
       </c>
       <c r="I101" s="3">
-        <v>33200</v>
+        <v>6200</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>32100</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -6145,98 +6394,104 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-3300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-35800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-61800</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-243600</v>
+        <v>283800</v>
       </c>
       <c r="E102" s="3">
-        <v>-251000</v>
+        <v>-235400</v>
       </c>
       <c r="F102" s="3">
-        <v>374200</v>
+        <v>-242600</v>
       </c>
       <c r="G102" s="3">
-        <v>-71600</v>
+        <v>361700</v>
       </c>
       <c r="H102" s="3">
-        <v>-44200</v>
+        <v>-69200</v>
       </c>
       <c r="I102" s="3">
-        <v>740300</v>
+        <v>-42700</v>
       </c>
       <c r="J102" s="3">
+        <v>715500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-425400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-203000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-348600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>291200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-122000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-326900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-184300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-191200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>71700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-60200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-14700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>151500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>521000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OIBRQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OIBRQ_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>400600</v>
+        <v>442200</v>
       </c>
       <c r="E8" s="3">
-        <v>399000</v>
+        <v>440400</v>
       </c>
       <c r="F8" s="3">
-        <v>399600</v>
+        <v>441100</v>
       </c>
       <c r="G8" s="3">
-        <v>1657400</v>
+        <v>1829600</v>
       </c>
       <c r="H8" s="3">
-        <v>412500</v>
+        <v>455400</v>
       </c>
       <c r="I8" s="3">
-        <v>410800</v>
+        <v>453500</v>
       </c>
       <c r="J8" s="3">
-        <v>431200</v>
+        <v>476000</v>
       </c>
       <c r="K8" s="3">
         <v>1937900</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>326500</v>
+        <v>360500</v>
       </c>
       <c r="E9" s="3">
-        <v>254300</v>
+        <v>280800</v>
       </c>
       <c r="F9" s="3">
-        <v>336700</v>
+        <v>371700</v>
       </c>
       <c r="G9" s="3">
-        <v>1298100</v>
+        <v>1432900</v>
       </c>
       <c r="H9" s="3">
-        <v>298900</v>
+        <v>330000</v>
       </c>
       <c r="I9" s="3">
-        <v>255200</v>
+        <v>281700</v>
       </c>
       <c r="J9" s="3">
-        <v>330500</v>
+        <v>364800</v>
       </c>
       <c r="K9" s="3">
         <v>1474400</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>74000</v>
+        <v>81700</v>
       </c>
       <c r="E10" s="3">
-        <v>144600</v>
+        <v>159600</v>
       </c>
       <c r="F10" s="3">
-        <v>62800</v>
+        <v>69400</v>
       </c>
       <c r="G10" s="3">
-        <v>359400</v>
+        <v>396700</v>
       </c>
       <c r="H10" s="3">
-        <v>113600</v>
+        <v>125400</v>
       </c>
       <c r="I10" s="3">
-        <v>155700</v>
+        <v>171800</v>
       </c>
       <c r="J10" s="3">
-        <v>100700</v>
+        <v>111100</v>
       </c>
       <c r="K10" s="3">
         <v>463500</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>511400</v>
+        <v>564500</v>
       </c>
       <c r="E17" s="3">
-        <v>430600</v>
+        <v>475300</v>
       </c>
       <c r="F17" s="3">
-        <v>374000</v>
+        <v>412900</v>
       </c>
       <c r="G17" s="3">
-        <v>1980800</v>
+        <v>2186500</v>
       </c>
       <c r="H17" s="3">
-        <v>509600</v>
+        <v>562500</v>
       </c>
       <c r="I17" s="3">
-        <v>462100</v>
+        <v>510100</v>
       </c>
       <c r="J17" s="3">
-        <v>463400</v>
+        <v>511500</v>
       </c>
       <c r="K17" s="3">
         <v>2787100</v>
@@ -1360,25 +1360,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-110800</v>
+        <v>-122300</v>
       </c>
       <c r="E18" s="3">
-        <v>-31700</v>
+        <v>-34900</v>
       </c>
       <c r="F18" s="3">
-        <v>25600</v>
+        <v>28200</v>
       </c>
       <c r="G18" s="3">
-        <v>-323300</v>
+        <v>-356900</v>
       </c>
       <c r="H18" s="3">
-        <v>-97000</v>
+        <v>-107100</v>
       </c>
       <c r="I18" s="3">
-        <v>-51200</v>
+        <v>-56600</v>
       </c>
       <c r="J18" s="3">
-        <v>-32200</v>
+        <v>-35500</v>
       </c>
       <c r="K18" s="3">
         <v>-849200</v>
@@ -1454,25 +1454,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-525200</v>
+        <v>-579700</v>
       </c>
       <c r="E20" s="3">
-        <v>348400</v>
+        <v>384600</v>
       </c>
       <c r="F20" s="3">
-        <v>-434700</v>
+        <v>-479900</v>
       </c>
       <c r="G20" s="3">
-        <v>-1592700</v>
+        <v>-1758100</v>
       </c>
       <c r="H20" s="3">
-        <v>-198200</v>
+        <v>-218800</v>
       </c>
       <c r="I20" s="3">
-        <v>-326300</v>
+        <v>-360200</v>
       </c>
       <c r="J20" s="3">
-        <v>-841100</v>
+        <v>-928400</v>
       </c>
       <c r="K20" s="3">
         <v>-464400</v>
@@ -1522,25 +1522,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-441900</v>
+        <v>-487800</v>
       </c>
       <c r="E21" s="3">
-        <v>445200</v>
+        <v>491500</v>
       </c>
       <c r="F21" s="3">
-        <v>-199900</v>
+        <v>-220700</v>
       </c>
       <c r="G21" s="3">
-        <v>-1140900</v>
+        <v>-1259400</v>
       </c>
       <c r="H21" s="3">
-        <v>-133000</v>
+        <v>-146800</v>
       </c>
       <c r="I21" s="3">
-        <v>-252000</v>
+        <v>-278200</v>
       </c>
       <c r="J21" s="3">
-        <v>-678800</v>
+        <v>-749300</v>
       </c>
       <c r="K21" s="3">
         <v>-44000</v>
@@ -1590,25 +1590,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>234500</v>
+        <v>258900</v>
       </c>
       <c r="E22" s="3">
-        <v>108100</v>
+        <v>119300</v>
       </c>
       <c r="F22" s="3">
-        <v>203000</v>
+        <v>224100</v>
       </c>
       <c r="G22" s="3">
-        <v>690200</v>
+        <v>761900</v>
       </c>
       <c r="H22" s="3">
-        <v>168900</v>
+        <v>186400</v>
       </c>
       <c r="I22" s="3">
-        <v>183200</v>
+        <v>202200</v>
       </c>
       <c r="J22" s="3">
-        <v>214200</v>
+        <v>236400</v>
       </c>
       <c r="K22" s="3">
         <v>528700</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-870500</v>
+        <v>-960900</v>
       </c>
       <c r="E23" s="3">
-        <v>208700</v>
+        <v>230300</v>
       </c>
       <c r="F23" s="3">
-        <v>-612200</v>
+        <v>-675700</v>
       </c>
       <c r="G23" s="3">
-        <v>-2606200</v>
+        <v>-2876800</v>
       </c>
       <c r="H23" s="3">
-        <v>-464100</v>
+        <v>-512300</v>
       </c>
       <c r="I23" s="3">
-        <v>-560800</v>
+        <v>-619000</v>
       </c>
       <c r="J23" s="3">
-        <v>-1087400</v>
+        <v>-1200400</v>
       </c>
       <c r="K23" s="3">
         <v>-1842300</v>
@@ -1732,10 +1732,10 @@
         <v>200</v>
       </c>
       <c r="F24" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="G24" s="3">
-        <v>-633900</v>
+        <v>-699700</v>
       </c>
       <c r="H24" s="3">
         <v>-200</v>
@@ -1744,7 +1744,7 @@
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>-6100</v>
+        <v>-6800</v>
       </c>
       <c r="K24" s="3">
         <v>-2400</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-870700</v>
+        <v>-961200</v>
       </c>
       <c r="E26" s="3">
-        <v>208500</v>
+        <v>230200</v>
       </c>
       <c r="F26" s="3">
-        <v>-613700</v>
+        <v>-677400</v>
       </c>
       <c r="G26" s="3">
-        <v>-1972300</v>
+        <v>-2177100</v>
       </c>
       <c r="H26" s="3">
-        <v>-463900</v>
+        <v>-512100</v>
       </c>
       <c r="I26" s="3">
-        <v>-560900</v>
+        <v>-619100</v>
       </c>
       <c r="J26" s="3">
-        <v>-1081300</v>
+        <v>-1193600</v>
       </c>
       <c r="K26" s="3">
         <v>-1839900</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-870900</v>
+        <v>-961400</v>
       </c>
       <c r="E27" s="3">
-        <v>208500</v>
+        <v>230100</v>
       </c>
       <c r="F27" s="3">
-        <v>-613000</v>
+        <v>-676600</v>
       </c>
       <c r="G27" s="3">
-        <v>-1972500</v>
+        <v>-2177400</v>
       </c>
       <c r="H27" s="3">
-        <v>-474500</v>
+        <v>-523700</v>
       </c>
       <c r="I27" s="3">
-        <v>-545900</v>
+        <v>-602600</v>
       </c>
       <c r="J27" s="3">
-        <v>-1086000</v>
+        <v>-1198800</v>
       </c>
       <c r="K27" s="3">
         <v>-1822400</v>
@@ -2066,25 +2066,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>11800</v>
+        <v>13000</v>
       </c>
       <c r="E29" s="3">
-        <v>-5100</v>
+        <v>-5700</v>
       </c>
       <c r="F29" s="3">
-        <v>70700</v>
+        <v>78100</v>
       </c>
       <c r="G29" s="3">
-        <v>92700</v>
+        <v>102300</v>
       </c>
       <c r="H29" s="3">
-        <v>3400</v>
+        <v>3800</v>
       </c>
       <c r="I29" s="3">
-        <v>-62800</v>
+        <v>-69300</v>
       </c>
       <c r="J29" s="3">
-        <v>-35100</v>
+        <v>-38800</v>
       </c>
       <c r="K29" s="3">
         <v>160000</v>
@@ -2270,25 +2270,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>525200</v>
+        <v>579700</v>
       </c>
       <c r="E32" s="3">
-        <v>-348400</v>
+        <v>-384600</v>
       </c>
       <c r="F32" s="3">
-        <v>434700</v>
+        <v>479900</v>
       </c>
       <c r="G32" s="3">
-        <v>1592700</v>
+        <v>1758100</v>
       </c>
       <c r="H32" s="3">
-        <v>198200</v>
+        <v>218800</v>
       </c>
       <c r="I32" s="3">
-        <v>326300</v>
+        <v>360200</v>
       </c>
       <c r="J32" s="3">
-        <v>841100</v>
+        <v>928400</v>
       </c>
       <c r="K32" s="3">
         <v>464400</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-859100</v>
+        <v>-948400</v>
       </c>
       <c r="E33" s="3">
-        <v>203300</v>
+        <v>224400</v>
       </c>
       <c r="F33" s="3">
-        <v>-542300</v>
+        <v>-598600</v>
       </c>
       <c r="G33" s="3">
-        <v>-1879800</v>
+        <v>-2075000</v>
       </c>
       <c r="H33" s="3">
-        <v>-471000</v>
+        <v>-519900</v>
       </c>
       <c r="I33" s="3">
-        <v>-608600</v>
+        <v>-671900</v>
       </c>
       <c r="J33" s="3">
-        <v>-1121100</v>
+        <v>-1237500</v>
       </c>
       <c r="K33" s="3">
         <v>-1662400</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-859100</v>
+        <v>-948400</v>
       </c>
       <c r="E35" s="3">
-        <v>203300</v>
+        <v>224400</v>
       </c>
       <c r="F35" s="3">
-        <v>-542300</v>
+        <v>-598600</v>
       </c>
       <c r="G35" s="3">
-        <v>-1879800</v>
+        <v>-2075000</v>
       </c>
       <c r="H35" s="3">
-        <v>-471000</v>
+        <v>-519900</v>
       </c>
       <c r="I35" s="3">
-        <v>-608600</v>
+        <v>-671900</v>
       </c>
       <c r="J35" s="3">
-        <v>-1121100</v>
+        <v>-1237500</v>
       </c>
       <c r="K35" s="3">
         <v>-1662400</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>539200</v>
+        <v>595200</v>
       </c>
       <c r="E41" s="3">
-        <v>255300</v>
+        <v>281800</v>
       </c>
       <c r="F41" s="3">
-        <v>490800</v>
+        <v>541700</v>
       </c>
       <c r="G41" s="3">
-        <v>733300</v>
+        <v>809500</v>
       </c>
       <c r="H41" s="3">
-        <v>975300</v>
+        <v>1076600</v>
       </c>
       <c r="I41" s="3">
-        <v>1044500</v>
+        <v>1152900</v>
       </c>
       <c r="J41" s="3">
-        <v>1087200</v>
+        <v>1200100</v>
       </c>
       <c r="K41" s="3">
         <v>384500</v>
@@ -2735,25 +2735,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>34300</v>
+        <v>37800</v>
       </c>
       <c r="E42" s="3">
-        <v>34800</v>
+        <v>38400</v>
       </c>
       <c r="F42" s="3">
-        <v>34600</v>
+        <v>38200</v>
       </c>
       <c r="G42" s="3">
-        <v>34600</v>
+        <v>38200</v>
       </c>
       <c r="H42" s="3">
-        <v>34100</v>
+        <v>37600</v>
       </c>
       <c r="I42" s="3">
-        <v>33800</v>
+        <v>37300</v>
       </c>
       <c r="J42" s="3">
-        <v>33200</v>
+        <v>36600</v>
       </c>
       <c r="K42" s="3">
         <v>34000</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>994900</v>
+        <v>1098200</v>
       </c>
       <c r="E43" s="3">
-        <v>969200</v>
+        <v>1069800</v>
       </c>
       <c r="F43" s="3">
-        <v>1007200</v>
+        <v>1111800</v>
       </c>
       <c r="G43" s="3">
-        <v>1098900</v>
+        <v>1213100</v>
       </c>
       <c r="H43" s="3">
-        <v>1554900</v>
+        <v>1716400</v>
       </c>
       <c r="I43" s="3">
-        <v>1527700</v>
+        <v>1686300</v>
       </c>
       <c r="J43" s="3">
-        <v>1405800</v>
+        <v>1551800</v>
       </c>
       <c r="K43" s="3">
         <v>1471400</v>
@@ -2871,25 +2871,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>75300</v>
+        <v>83200</v>
       </c>
       <c r="E44" s="3">
-        <v>76800</v>
+        <v>84800</v>
       </c>
       <c r="F44" s="3">
-        <v>74700</v>
+        <v>82400</v>
       </c>
       <c r="G44" s="3">
-        <v>67600</v>
+        <v>74600</v>
       </c>
       <c r="H44" s="3">
-        <v>54600</v>
+        <v>60300</v>
       </c>
       <c r="I44" s="3">
-        <v>55200</v>
+        <v>61000</v>
       </c>
       <c r="J44" s="3">
-        <v>60600</v>
+        <v>66900</v>
       </c>
       <c r="K44" s="3">
         <v>60400</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6620200</v>
+        <v>7307700</v>
       </c>
       <c r="E45" s="3">
-        <v>6491900</v>
+        <v>7166100</v>
       </c>
       <c r="F45" s="3">
-        <v>4618600</v>
+        <v>5098300</v>
       </c>
       <c r="G45" s="3">
-        <v>4098800</v>
+        <v>4524500</v>
       </c>
       <c r="H45" s="3">
-        <v>626500</v>
+        <v>691500</v>
       </c>
       <c r="I45" s="3">
-        <v>762100</v>
+        <v>841200</v>
       </c>
       <c r="J45" s="3">
-        <v>869300</v>
+        <v>959500</v>
       </c>
       <c r="K45" s="3">
         <v>1373000</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8263900</v>
+        <v>9122100</v>
       </c>
       <c r="E46" s="3">
-        <v>7828000</v>
+        <v>8641000</v>
       </c>
       <c r="F46" s="3">
-        <v>6225800</v>
+        <v>6872400</v>
       </c>
       <c r="G46" s="3">
-        <v>6033200</v>
+        <v>6659800</v>
       </c>
       <c r="H46" s="3">
-        <v>3245300</v>
+        <v>3582400</v>
       </c>
       <c r="I46" s="3">
-        <v>3423200</v>
+        <v>3778800</v>
       </c>
       <c r="J46" s="3">
-        <v>3456000</v>
+        <v>3814900</v>
       </c>
       <c r="K46" s="3">
         <v>3323400</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>201700</v>
+        <v>222700</v>
       </c>
       <c r="E47" s="3">
-        <v>234200</v>
+        <v>258500</v>
       </c>
       <c r="F47" s="3">
-        <v>286400</v>
+        <v>316200</v>
       </c>
       <c r="G47" s="3">
-        <v>280400</v>
+        <v>309500</v>
       </c>
       <c r="H47" s="3">
-        <v>329500</v>
+        <v>363700</v>
       </c>
       <c r="I47" s="3">
-        <v>441900</v>
+        <v>487800</v>
       </c>
       <c r="J47" s="3">
-        <v>519800</v>
+        <v>573800</v>
       </c>
       <c r="K47" s="3">
         <v>578000</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2947100</v>
+        <v>3253200</v>
       </c>
       <c r="E48" s="3">
-        <v>3063600</v>
+        <v>3381700</v>
       </c>
       <c r="F48" s="3">
-        <v>4206800</v>
+        <v>4643700</v>
       </c>
       <c r="G48" s="3">
-        <v>4308600</v>
+        <v>4756100</v>
       </c>
       <c r="H48" s="3">
-        <v>7393000</v>
+        <v>8160800</v>
       </c>
       <c r="I48" s="3">
-        <v>7216500</v>
+        <v>7966000</v>
       </c>
       <c r="J48" s="3">
-        <v>7153300</v>
+        <v>7896100</v>
       </c>
       <c r="K48" s="3">
         <v>7186800</v>
@@ -3211,25 +3211,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>566200</v>
+        <v>625000</v>
       </c>
       <c r="E49" s="3">
-        <v>600700</v>
+        <v>663100</v>
       </c>
       <c r="F49" s="3">
-        <v>630400</v>
+        <v>695900</v>
       </c>
       <c r="G49" s="3">
-        <v>660100</v>
+        <v>728700</v>
       </c>
       <c r="H49" s="3">
-        <v>626700</v>
+        <v>691800</v>
       </c>
       <c r="I49" s="3">
-        <v>650600</v>
+        <v>718100</v>
       </c>
       <c r="J49" s="3">
-        <v>681200</v>
+        <v>752000</v>
       </c>
       <c r="K49" s="3">
         <v>738400</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1504700</v>
+        <v>1660900</v>
       </c>
       <c r="E52" s="3">
-        <v>1643600</v>
+        <v>1814300</v>
       </c>
       <c r="F52" s="3">
-        <v>1673900</v>
+        <v>1847700</v>
       </c>
       <c r="G52" s="3">
-        <v>1899500</v>
+        <v>2096800</v>
       </c>
       <c r="H52" s="3">
-        <v>1377500</v>
+        <v>1520600</v>
       </c>
       <c r="I52" s="3">
-        <v>1326900</v>
+        <v>1464700</v>
       </c>
       <c r="J52" s="3">
-        <v>1390600</v>
+        <v>1535000</v>
       </c>
       <c r="K52" s="3">
         <v>1451800</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13483500</v>
+        <v>14883800</v>
       </c>
       <c r="E54" s="3">
-        <v>13370100</v>
+        <v>14758600</v>
       </c>
       <c r="F54" s="3">
-        <v>13023300</v>
+        <v>14375800</v>
       </c>
       <c r="G54" s="3">
-        <v>13181900</v>
+        <v>14550900</v>
       </c>
       <c r="H54" s="3">
-        <v>12972000</v>
+        <v>14319200</v>
       </c>
       <c r="I54" s="3">
-        <v>13059100</v>
+        <v>14415300</v>
       </c>
       <c r="J54" s="3">
-        <v>13200900</v>
+        <v>14571900</v>
       </c>
       <c r="K54" s="3">
         <v>13278400</v>
@@ -3671,25 +3671,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>633100</v>
+        <v>698800</v>
       </c>
       <c r="E57" s="3">
-        <v>697400</v>
+        <v>769800</v>
       </c>
       <c r="F57" s="3">
-        <v>697600</v>
+        <v>770100</v>
       </c>
       <c r="G57" s="3">
-        <v>584800</v>
+        <v>645600</v>
       </c>
       <c r="H57" s="3">
-        <v>836200</v>
+        <v>923000</v>
       </c>
       <c r="I57" s="3">
-        <v>774800</v>
+        <v>855300</v>
       </c>
       <c r="J57" s="3">
-        <v>884000</v>
+        <v>975800</v>
       </c>
       <c r="K57" s="3">
         <v>1033200</v>
@@ -3739,25 +3739,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>172900</v>
+        <v>190900</v>
       </c>
       <c r="E58" s="3">
-        <v>813400</v>
+        <v>897900</v>
       </c>
       <c r="F58" s="3">
-        <v>864600</v>
+        <v>954400</v>
       </c>
       <c r="G58" s="3">
-        <v>192700</v>
+        <v>212700</v>
       </c>
       <c r="H58" s="3">
-        <v>333000</v>
+        <v>367600</v>
       </c>
       <c r="I58" s="3">
-        <v>372500</v>
+        <v>411100</v>
       </c>
       <c r="J58" s="3">
-        <v>319800</v>
+        <v>353000</v>
       </c>
       <c r="K58" s="3">
         <v>339200</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3383800</v>
+        <v>3735300</v>
       </c>
       <c r="E59" s="3">
-        <v>3188100</v>
+        <v>3519200</v>
       </c>
       <c r="F59" s="3">
-        <v>2554900</v>
+        <v>2820300</v>
       </c>
       <c r="G59" s="3">
-        <v>2438100</v>
+        <v>2691400</v>
       </c>
       <c r="H59" s="3">
-        <v>997200</v>
+        <v>1100800</v>
       </c>
       <c r="I59" s="3">
-        <v>979700</v>
+        <v>1081500</v>
       </c>
       <c r="J59" s="3">
-        <v>853300</v>
+        <v>941900</v>
       </c>
       <c r="K59" s="3">
         <v>813700</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4189900</v>
+        <v>4625000</v>
       </c>
       <c r="E60" s="3">
-        <v>4699000</v>
+        <v>5187000</v>
       </c>
       <c r="F60" s="3">
-        <v>4117200</v>
+        <v>4544800</v>
       </c>
       <c r="G60" s="3">
-        <v>3215700</v>
+        <v>3549700</v>
       </c>
       <c r="H60" s="3">
-        <v>2166500</v>
+        <v>2391400</v>
       </c>
       <c r="I60" s="3">
-        <v>2127000</v>
+        <v>2347900</v>
       </c>
       <c r="J60" s="3">
-        <v>2057100</v>
+        <v>2270700</v>
       </c>
       <c r="K60" s="3">
         <v>2186100</v>
@@ -3943,25 +3943,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5981900</v>
+        <v>6603100</v>
       </c>
       <c r="E61" s="3">
-        <v>4493600</v>
+        <v>4960300</v>
       </c>
       <c r="F61" s="3">
-        <v>4693200</v>
+        <v>5180600</v>
       </c>
       <c r="G61" s="3">
-        <v>5042400</v>
+        <v>5566100</v>
       </c>
       <c r="H61" s="3">
-        <v>6025200</v>
+        <v>6650900</v>
       </c>
       <c r="I61" s="3">
-        <v>5850300</v>
+        <v>6457800</v>
       </c>
       <c r="J61" s="3">
-        <v>5614500</v>
+        <v>6197600</v>
       </c>
       <c r="K61" s="3">
         <v>4532600</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3119100</v>
+        <v>3443100</v>
       </c>
       <c r="E62" s="3">
-        <v>3128600</v>
+        <v>3453500</v>
       </c>
       <c r="F62" s="3">
-        <v>3366200</v>
+        <v>3715800</v>
       </c>
       <c r="G62" s="3">
-        <v>3536700</v>
+        <v>3904000</v>
       </c>
       <c r="H62" s="3">
-        <v>3708800</v>
+        <v>4094000</v>
       </c>
       <c r="I62" s="3">
-        <v>3624400</v>
+        <v>4000800</v>
       </c>
       <c r="J62" s="3">
-        <v>3458900</v>
+        <v>3818100</v>
       </c>
       <c r="K62" s="3">
         <v>3272700</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13293900</v>
+        <v>14674600</v>
       </c>
       <c r="E66" s="3">
-        <v>12323800</v>
+        <v>13603700</v>
       </c>
       <c r="F66" s="3">
-        <v>12179500</v>
+        <v>13444400</v>
       </c>
       <c r="G66" s="3">
-        <v>11798100</v>
+        <v>13023400</v>
       </c>
       <c r="H66" s="3">
-        <v>11904100</v>
+        <v>13140400</v>
       </c>
       <c r="I66" s="3">
-        <v>11617500</v>
+        <v>12824000</v>
       </c>
       <c r="J66" s="3">
-        <v>11161300</v>
+        <v>12320500</v>
       </c>
       <c r="K66" s="3">
         <v>10018400</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-5548000</v>
+        <v>-6124100</v>
       </c>
       <c r="E72" s="3">
-        <v>-4689300</v>
+        <v>-5176300</v>
       </c>
       <c r="F72" s="3">
-        <v>-4893700</v>
+        <v>-5402000</v>
       </c>
       <c r="G72" s="3">
-        <v>-4352800</v>
+        <v>-4804800</v>
       </c>
       <c r="H72" s="3">
-        <v>-4672100</v>
+        <v>-5157300</v>
       </c>
       <c r="I72" s="3">
-        <v>-4201600</v>
+        <v>-4638000</v>
       </c>
       <c r="J72" s="3">
-        <v>-3593500</v>
+        <v>-3966800</v>
       </c>
       <c r="K72" s="3">
         <v>-2558600</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>189600</v>
+        <v>209200</v>
       </c>
       <c r="E76" s="3">
-        <v>1046300</v>
+        <v>1155000</v>
       </c>
       <c r="F76" s="3">
-        <v>843800</v>
+        <v>931400</v>
       </c>
       <c r="G76" s="3">
-        <v>1383800</v>
+        <v>1527500</v>
       </c>
       <c r="H76" s="3">
-        <v>1067900</v>
+        <v>1178900</v>
       </c>
       <c r="I76" s="3">
-        <v>1441600</v>
+        <v>1591400</v>
       </c>
       <c r="J76" s="3">
-        <v>2039600</v>
+        <v>2251400</v>
       </c>
       <c r="K76" s="3">
         <v>3260000</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-859100</v>
+        <v>-948400</v>
       </c>
       <c r="E81" s="3">
-        <v>203300</v>
+        <v>224400</v>
       </c>
       <c r="F81" s="3">
-        <v>-542300</v>
+        <v>-598600</v>
       </c>
       <c r="G81" s="3">
-        <v>-1879800</v>
+        <v>-2075000</v>
       </c>
       <c r="H81" s="3">
-        <v>-471000</v>
+        <v>-519900</v>
       </c>
       <c r="I81" s="3">
-        <v>-608600</v>
+        <v>-671900</v>
       </c>
       <c r="J81" s="3">
-        <v>-1121100</v>
+        <v>-1237500</v>
       </c>
       <c r="K81" s="3">
         <v>-1662400</v>
@@ -5224,25 +5224,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>194100</v>
+        <v>214300</v>
       </c>
       <c r="E83" s="3">
-        <v>128500</v>
+        <v>141800</v>
       </c>
       <c r="F83" s="3">
-        <v>209200</v>
+        <v>231000</v>
       </c>
       <c r="G83" s="3">
-        <v>775100</v>
+        <v>855600</v>
       </c>
       <c r="H83" s="3">
-        <v>310600</v>
+        <v>342800</v>
       </c>
       <c r="I83" s="3">
-        <v>307900</v>
+        <v>339900</v>
       </c>
       <c r="J83" s="3">
-        <v>305500</v>
+        <v>337200</v>
       </c>
       <c r="K83" s="3">
         <v>1269600</v>
@@ -5632,25 +5632,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>142200</v>
+        <v>156900</v>
       </c>
       <c r="E89" s="3">
-        <v>-353300</v>
+        <v>-390000</v>
       </c>
       <c r="F89" s="3">
-        <v>-80200</v>
+        <v>-88500</v>
       </c>
       <c r="G89" s="3">
-        <v>786700</v>
+        <v>868400</v>
       </c>
       <c r="H89" s="3">
-        <v>342700</v>
+        <v>378200</v>
       </c>
       <c r="I89" s="3">
-        <v>234800</v>
+        <v>259200</v>
       </c>
       <c r="J89" s="3">
-        <v>93800</v>
+        <v>103500</v>
       </c>
       <c r="K89" s="3">
         <v>427000</v>
@@ -5726,25 +5726,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-203600</v>
+        <v>-224700</v>
       </c>
       <c r="E91" s="3">
-        <v>-88800</v>
+        <v>-98000</v>
       </c>
       <c r="F91" s="3">
-        <v>-118400</v>
+        <v>-130700</v>
       </c>
       <c r="G91" s="3">
-        <v>-616800</v>
+        <v>-680900</v>
       </c>
       <c r="H91" s="3">
-        <v>-42600</v>
+        <v>-47000</v>
       </c>
       <c r="I91" s="3">
-        <v>6800</v>
+        <v>7500</v>
       </c>
       <c r="J91" s="3">
-        <v>-209800</v>
+        <v>-231600</v>
       </c>
       <c r="K91" s="3">
         <v>-1371500</v>
@@ -5930,25 +5930,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-292500</v>
+        <v>-322900</v>
       </c>
       <c r="E94" s="3">
-        <v>-247500</v>
+        <v>-273200</v>
       </c>
       <c r="F94" s="3">
-        <v>-98500</v>
+        <v>-108700</v>
       </c>
       <c r="G94" s="3">
-        <v>-604400</v>
+        <v>-667100</v>
       </c>
       <c r="H94" s="3">
-        <v>-327000</v>
+        <v>-361000</v>
       </c>
       <c r="I94" s="3">
-        <v>-202400</v>
+        <v>-223400</v>
       </c>
       <c r="J94" s="3">
-        <v>253100</v>
+        <v>279300</v>
       </c>
       <c r="K94" s="3">
         <v>-1265300</v>
@@ -6296,25 +6296,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>441700</v>
+        <v>487500</v>
       </c>
       <c r="E100" s="3">
-        <v>366300</v>
+        <v>404300</v>
       </c>
       <c r="F100" s="3">
-        <v>-64600</v>
+        <v>-71400</v>
       </c>
       <c r="G100" s="3">
-        <v>142700</v>
+        <v>157600</v>
       </c>
       <c r="H100" s="3">
-        <v>-68100</v>
+        <v>-75100</v>
       </c>
       <c r="I100" s="3">
-        <v>-68200</v>
+        <v>-75300</v>
       </c>
       <c r="J100" s="3">
-        <v>347800</v>
+        <v>383900</v>
       </c>
       <c r="K100" s="3">
         <v>412900</v>
@@ -6364,25 +6364,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7500</v>
+        <v>-8300</v>
       </c>
       <c r="E101" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="F101" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G101" s="3">
-        <v>36600</v>
+        <v>40400</v>
       </c>
       <c r="H101" s="3">
-        <v>-1700</v>
+        <v>-1900</v>
       </c>
       <c r="I101" s="3">
-        <v>6200</v>
+        <v>6900</v>
       </c>
       <c r="J101" s="3">
-        <v>32100</v>
+        <v>35400</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -6432,25 +6432,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>283800</v>
+        <v>313300</v>
       </c>
       <c r="E102" s="3">
-        <v>-235400</v>
+        <v>-259900</v>
       </c>
       <c r="F102" s="3">
-        <v>-242600</v>
+        <v>-267800</v>
       </c>
       <c r="G102" s="3">
-        <v>361700</v>
+        <v>399200</v>
       </c>
       <c r="H102" s="3">
-        <v>-69200</v>
+        <v>-76400</v>
       </c>
       <c r="I102" s="3">
-        <v>-42700</v>
+        <v>-47200</v>
       </c>
       <c r="J102" s="3">
-        <v>715500</v>
+        <v>789800</v>
       </c>
       <c r="K102" s="3">
         <v>-425400</v>

--- a/AAII_Financials/Quarterly/OIBRQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OIBRQ_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>442200</v>
+        <v>437000</v>
       </c>
       <c r="E8" s="3">
-        <v>440400</v>
+        <v>435300</v>
       </c>
       <c r="F8" s="3">
-        <v>441100</v>
+        <v>436000</v>
       </c>
       <c r="G8" s="3">
-        <v>1829600</v>
+        <v>1808400</v>
       </c>
       <c r="H8" s="3">
-        <v>455400</v>
+        <v>450100</v>
       </c>
       <c r="I8" s="3">
-        <v>453500</v>
+        <v>448300</v>
       </c>
       <c r="J8" s="3">
-        <v>476000</v>
+        <v>470500</v>
       </c>
       <c r="K8" s="3">
         <v>1937900</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>360500</v>
+        <v>356300</v>
       </c>
       <c r="E9" s="3">
-        <v>280800</v>
+        <v>277500</v>
       </c>
       <c r="F9" s="3">
-        <v>371700</v>
+        <v>367400</v>
       </c>
       <c r="G9" s="3">
-        <v>1432900</v>
+        <v>1416300</v>
       </c>
       <c r="H9" s="3">
-        <v>330000</v>
+        <v>326100</v>
       </c>
       <c r="I9" s="3">
-        <v>281700</v>
+        <v>278400</v>
       </c>
       <c r="J9" s="3">
-        <v>364800</v>
+        <v>360600</v>
       </c>
       <c r="K9" s="3">
         <v>1474400</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>81700</v>
+        <v>80800</v>
       </c>
       <c r="E10" s="3">
-        <v>159600</v>
+        <v>157800</v>
       </c>
       <c r="F10" s="3">
-        <v>69400</v>
+        <v>68600</v>
       </c>
       <c r="G10" s="3">
-        <v>396700</v>
+        <v>392100</v>
       </c>
       <c r="H10" s="3">
-        <v>125400</v>
+        <v>124000</v>
       </c>
       <c r="I10" s="3">
-        <v>171800</v>
+        <v>169800</v>
       </c>
       <c r="J10" s="3">
-        <v>111100</v>
+        <v>109900</v>
       </c>
       <c r="K10" s="3">
         <v>463500</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>564500</v>
+        <v>558000</v>
       </c>
       <c r="E17" s="3">
-        <v>475300</v>
+        <v>469800</v>
       </c>
       <c r="F17" s="3">
-        <v>412900</v>
+        <v>408100</v>
       </c>
       <c r="G17" s="3">
-        <v>2186500</v>
+        <v>2161200</v>
       </c>
       <c r="H17" s="3">
-        <v>562500</v>
+        <v>556000</v>
       </c>
       <c r="I17" s="3">
-        <v>510100</v>
+        <v>504200</v>
       </c>
       <c r="J17" s="3">
-        <v>511500</v>
+        <v>505600</v>
       </c>
       <c r="K17" s="3">
         <v>2787100</v>
@@ -1360,25 +1360,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-122300</v>
+        <v>-120900</v>
       </c>
       <c r="E18" s="3">
-        <v>-34900</v>
+        <v>-34500</v>
       </c>
       <c r="F18" s="3">
-        <v>28200</v>
+        <v>27900</v>
       </c>
       <c r="G18" s="3">
-        <v>-356900</v>
+        <v>-352800</v>
       </c>
       <c r="H18" s="3">
-        <v>-107100</v>
+        <v>-105900</v>
       </c>
       <c r="I18" s="3">
-        <v>-56600</v>
+        <v>-55900</v>
       </c>
       <c r="J18" s="3">
-        <v>-35500</v>
+        <v>-35100</v>
       </c>
       <c r="K18" s="3">
         <v>-849200</v>
@@ -1454,25 +1454,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-579700</v>
+        <v>-573000</v>
       </c>
       <c r="E20" s="3">
-        <v>384600</v>
+        <v>380200</v>
       </c>
       <c r="F20" s="3">
-        <v>-479900</v>
+        <v>-474300</v>
       </c>
       <c r="G20" s="3">
-        <v>-1758100</v>
+        <v>-1737700</v>
       </c>
       <c r="H20" s="3">
-        <v>-218800</v>
+        <v>-216200</v>
       </c>
       <c r="I20" s="3">
-        <v>-360200</v>
+        <v>-356000</v>
       </c>
       <c r="J20" s="3">
-        <v>-928400</v>
+        <v>-917700</v>
       </c>
       <c r="K20" s="3">
         <v>-464400</v>
@@ -1522,25 +1522,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-487800</v>
+        <v>-482100</v>
       </c>
       <c r="E21" s="3">
-        <v>491500</v>
+        <v>485800</v>
       </c>
       <c r="F21" s="3">
-        <v>-220700</v>
+        <v>-218100</v>
       </c>
       <c r="G21" s="3">
-        <v>-1259400</v>
+        <v>-1244800</v>
       </c>
       <c r="H21" s="3">
-        <v>-146800</v>
+        <v>-145100</v>
       </c>
       <c r="I21" s="3">
-        <v>-278200</v>
+        <v>-274900</v>
       </c>
       <c r="J21" s="3">
-        <v>-749300</v>
+        <v>-740700</v>
       </c>
       <c r="K21" s="3">
         <v>-44000</v>
@@ -1590,25 +1590,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>258900</v>
+        <v>255900</v>
       </c>
       <c r="E22" s="3">
-        <v>119300</v>
+        <v>117900</v>
       </c>
       <c r="F22" s="3">
-        <v>224100</v>
+        <v>221500</v>
       </c>
       <c r="G22" s="3">
-        <v>761900</v>
+        <v>753000</v>
       </c>
       <c r="H22" s="3">
-        <v>186400</v>
+        <v>184300</v>
       </c>
       <c r="I22" s="3">
-        <v>202200</v>
+        <v>199900</v>
       </c>
       <c r="J22" s="3">
-        <v>236400</v>
+        <v>233700</v>
       </c>
       <c r="K22" s="3">
         <v>528700</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-960900</v>
+        <v>-949800</v>
       </c>
       <c r="E23" s="3">
-        <v>230300</v>
+        <v>227700</v>
       </c>
       <c r="F23" s="3">
-        <v>-675700</v>
+        <v>-667900</v>
       </c>
       <c r="G23" s="3">
-        <v>-2876800</v>
+        <v>-2843600</v>
       </c>
       <c r="H23" s="3">
-        <v>-512300</v>
+        <v>-506400</v>
       </c>
       <c r="I23" s="3">
-        <v>-619000</v>
+        <v>-611900</v>
       </c>
       <c r="J23" s="3">
-        <v>-1200400</v>
+        <v>-1186500</v>
       </c>
       <c r="K23" s="3">
         <v>-1842300</v>
@@ -1735,7 +1735,7 @@
         <v>1700</v>
       </c>
       <c r="G24" s="3">
-        <v>-699700</v>
+        <v>-691600</v>
       </c>
       <c r="H24" s="3">
         <v>-200</v>
@@ -1744,7 +1744,7 @@
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="K24" s="3">
         <v>-2400</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-961200</v>
+        <v>-950000</v>
       </c>
       <c r="E26" s="3">
-        <v>230200</v>
+        <v>227500</v>
       </c>
       <c r="F26" s="3">
-        <v>-677400</v>
+        <v>-669600</v>
       </c>
       <c r="G26" s="3">
-        <v>-2177100</v>
+        <v>-2151900</v>
       </c>
       <c r="H26" s="3">
-        <v>-512100</v>
+        <v>-506200</v>
       </c>
       <c r="I26" s="3">
-        <v>-619100</v>
+        <v>-612000</v>
       </c>
       <c r="J26" s="3">
-        <v>-1193600</v>
+        <v>-1179800</v>
       </c>
       <c r="K26" s="3">
         <v>-1839900</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-961400</v>
+        <v>-950300</v>
       </c>
       <c r="E27" s="3">
-        <v>230100</v>
+        <v>227500</v>
       </c>
       <c r="F27" s="3">
-        <v>-676600</v>
+        <v>-668800</v>
       </c>
       <c r="G27" s="3">
-        <v>-2177400</v>
+        <v>-2152200</v>
       </c>
       <c r="H27" s="3">
-        <v>-523700</v>
+        <v>-517700</v>
       </c>
       <c r="I27" s="3">
-        <v>-602600</v>
+        <v>-595600</v>
       </c>
       <c r="J27" s="3">
-        <v>-1198800</v>
+        <v>-1184900</v>
       </c>
       <c r="K27" s="3">
         <v>-1822400</v>
@@ -2066,25 +2066,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="E29" s="3">
-        <v>-5700</v>
+        <v>-5600</v>
       </c>
       <c r="F29" s="3">
-        <v>78100</v>
+        <v>77200</v>
       </c>
       <c r="G29" s="3">
-        <v>102300</v>
+        <v>101200</v>
       </c>
       <c r="H29" s="3">
         <v>3800</v>
       </c>
       <c r="I29" s="3">
-        <v>-69300</v>
+        <v>-68500</v>
       </c>
       <c r="J29" s="3">
-        <v>-38800</v>
+        <v>-38300</v>
       </c>
       <c r="K29" s="3">
         <v>160000</v>
@@ -2270,25 +2270,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>579700</v>
+        <v>573000</v>
       </c>
       <c r="E32" s="3">
-        <v>-384600</v>
+        <v>-380200</v>
       </c>
       <c r="F32" s="3">
-        <v>479900</v>
+        <v>474300</v>
       </c>
       <c r="G32" s="3">
-        <v>1758100</v>
+        <v>1737700</v>
       </c>
       <c r="H32" s="3">
-        <v>218800</v>
+        <v>216200</v>
       </c>
       <c r="I32" s="3">
-        <v>360200</v>
+        <v>356000</v>
       </c>
       <c r="J32" s="3">
-        <v>928400</v>
+        <v>917700</v>
       </c>
       <c r="K32" s="3">
         <v>464400</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-948400</v>
+        <v>-937400</v>
       </c>
       <c r="E33" s="3">
-        <v>224400</v>
+        <v>221800</v>
       </c>
       <c r="F33" s="3">
-        <v>-598600</v>
+        <v>-591700</v>
       </c>
       <c r="G33" s="3">
-        <v>-2075000</v>
+        <v>-2051000</v>
       </c>
       <c r="H33" s="3">
-        <v>-519900</v>
+        <v>-513900</v>
       </c>
       <c r="I33" s="3">
-        <v>-671900</v>
+        <v>-664100</v>
       </c>
       <c r="J33" s="3">
-        <v>-1237500</v>
+        <v>-1223200</v>
       </c>
       <c r="K33" s="3">
         <v>-1662400</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-948400</v>
+        <v>-937400</v>
       </c>
       <c r="E35" s="3">
-        <v>224400</v>
+        <v>221800</v>
       </c>
       <c r="F35" s="3">
-        <v>-598600</v>
+        <v>-591700</v>
       </c>
       <c r="G35" s="3">
-        <v>-2075000</v>
+        <v>-2051000</v>
       </c>
       <c r="H35" s="3">
-        <v>-519900</v>
+        <v>-513900</v>
       </c>
       <c r="I35" s="3">
-        <v>-671900</v>
+        <v>-664100</v>
       </c>
       <c r="J35" s="3">
-        <v>-1237500</v>
+        <v>-1223200</v>
       </c>
       <c r="K35" s="3">
         <v>-1662400</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>595200</v>
+        <v>588300</v>
       </c>
       <c r="E41" s="3">
-        <v>281800</v>
+        <v>278600</v>
       </c>
       <c r="F41" s="3">
-        <v>541700</v>
+        <v>535400</v>
       </c>
       <c r="G41" s="3">
-        <v>809500</v>
+        <v>800100</v>
       </c>
       <c r="H41" s="3">
-        <v>1076600</v>
+        <v>1064100</v>
       </c>
       <c r="I41" s="3">
-        <v>1152900</v>
+        <v>1139600</v>
       </c>
       <c r="J41" s="3">
-        <v>1200100</v>
+        <v>1186200</v>
       </c>
       <c r="K41" s="3">
         <v>384500</v>
@@ -2735,25 +2735,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>38000</v>
+      </c>
+      <c r="F42" s="3">
         <v>37800</v>
       </c>
-      <c r="E42" s="3">
-        <v>38400</v>
-      </c>
-      <c r="F42" s="3">
-        <v>38200</v>
-      </c>
       <c r="G42" s="3">
-        <v>38200</v>
+        <v>37700</v>
       </c>
       <c r="H42" s="3">
-        <v>37600</v>
+        <v>37200</v>
       </c>
       <c r="I42" s="3">
-        <v>37300</v>
+        <v>36900</v>
       </c>
       <c r="J42" s="3">
-        <v>36600</v>
+        <v>36200</v>
       </c>
       <c r="K42" s="3">
         <v>34000</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1098200</v>
+        <v>1085500</v>
       </c>
       <c r="E43" s="3">
-        <v>1069800</v>
+        <v>1057500</v>
       </c>
       <c r="F43" s="3">
-        <v>1111800</v>
+        <v>1098900</v>
       </c>
       <c r="G43" s="3">
-        <v>1213100</v>
+        <v>1199000</v>
       </c>
       <c r="H43" s="3">
-        <v>1716400</v>
+        <v>1696500</v>
       </c>
       <c r="I43" s="3">
-        <v>1686300</v>
+        <v>1666800</v>
       </c>
       <c r="J43" s="3">
-        <v>1551800</v>
+        <v>1533800</v>
       </c>
       <c r="K43" s="3">
         <v>1471400</v>
@@ -2871,25 +2871,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>83200</v>
+        <v>82200</v>
       </c>
       <c r="E44" s="3">
-        <v>84800</v>
+        <v>83800</v>
       </c>
       <c r="F44" s="3">
-        <v>82400</v>
+        <v>81500</v>
       </c>
       <c r="G44" s="3">
-        <v>74600</v>
+        <v>73700</v>
       </c>
       <c r="H44" s="3">
-        <v>60300</v>
+        <v>59600</v>
       </c>
       <c r="I44" s="3">
-        <v>61000</v>
+        <v>60200</v>
       </c>
       <c r="J44" s="3">
-        <v>66900</v>
+        <v>66200</v>
       </c>
       <c r="K44" s="3">
         <v>60400</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7307700</v>
+        <v>7223200</v>
       </c>
       <c r="E45" s="3">
-        <v>7166100</v>
+        <v>7083200</v>
       </c>
       <c r="F45" s="3">
-        <v>5098300</v>
+        <v>5039300</v>
       </c>
       <c r="G45" s="3">
-        <v>4524500</v>
+        <v>4472100</v>
       </c>
       <c r="H45" s="3">
-        <v>691500</v>
+        <v>683500</v>
       </c>
       <c r="I45" s="3">
-        <v>841200</v>
+        <v>831500</v>
       </c>
       <c r="J45" s="3">
-        <v>959500</v>
+        <v>948400</v>
       </c>
       <c r="K45" s="3">
         <v>1373000</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9122100</v>
+        <v>9016600</v>
       </c>
       <c r="E46" s="3">
-        <v>8641000</v>
+        <v>8541000</v>
       </c>
       <c r="F46" s="3">
-        <v>6872400</v>
+        <v>6792900</v>
       </c>
       <c r="G46" s="3">
-        <v>6659800</v>
+        <v>6582700</v>
       </c>
       <c r="H46" s="3">
-        <v>3582400</v>
+        <v>3540900</v>
       </c>
       <c r="I46" s="3">
-        <v>3778800</v>
+        <v>3735000</v>
       </c>
       <c r="J46" s="3">
-        <v>3814900</v>
+        <v>3770800</v>
       </c>
       <c r="K46" s="3">
         <v>3323400</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>222700</v>
+        <v>220100</v>
       </c>
       <c r="E47" s="3">
-        <v>258500</v>
+        <v>255500</v>
       </c>
       <c r="F47" s="3">
-        <v>316200</v>
+        <v>312500</v>
       </c>
       <c r="G47" s="3">
-        <v>309500</v>
+        <v>305900</v>
       </c>
       <c r="H47" s="3">
-        <v>363700</v>
+        <v>359500</v>
       </c>
       <c r="I47" s="3">
-        <v>487800</v>
+        <v>482100</v>
       </c>
       <c r="J47" s="3">
-        <v>573800</v>
+        <v>567200</v>
       </c>
       <c r="K47" s="3">
         <v>578000</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3253200</v>
+        <v>3215500</v>
       </c>
       <c r="E48" s="3">
-        <v>3381700</v>
+        <v>3342600</v>
       </c>
       <c r="F48" s="3">
-        <v>4643700</v>
+        <v>4589900</v>
       </c>
       <c r="G48" s="3">
-        <v>4756100</v>
+        <v>4701000</v>
       </c>
       <c r="H48" s="3">
-        <v>8160800</v>
+        <v>8066300</v>
       </c>
       <c r="I48" s="3">
-        <v>7966000</v>
+        <v>7873800</v>
       </c>
       <c r="J48" s="3">
-        <v>7896100</v>
+        <v>7804800</v>
       </c>
       <c r="K48" s="3">
         <v>7186800</v>
@@ -3211,25 +3211,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>625000</v>
+        <v>617700</v>
       </c>
       <c r="E49" s="3">
-        <v>663100</v>
+        <v>655500</v>
       </c>
       <c r="F49" s="3">
-        <v>695900</v>
+        <v>687800</v>
       </c>
       <c r="G49" s="3">
-        <v>728700</v>
+        <v>720300</v>
       </c>
       <c r="H49" s="3">
-        <v>691800</v>
+        <v>683800</v>
       </c>
       <c r="I49" s="3">
-        <v>718100</v>
+        <v>709800</v>
       </c>
       <c r="J49" s="3">
-        <v>752000</v>
+        <v>743300</v>
       </c>
       <c r="K49" s="3">
         <v>738400</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1660900</v>
+        <v>1641700</v>
       </c>
       <c r="E52" s="3">
-        <v>1814300</v>
+        <v>1793300</v>
       </c>
       <c r="F52" s="3">
-        <v>1847700</v>
+        <v>1826300</v>
       </c>
       <c r="G52" s="3">
-        <v>2096800</v>
+        <v>2072500</v>
       </c>
       <c r="H52" s="3">
-        <v>1520600</v>
+        <v>1503000</v>
       </c>
       <c r="I52" s="3">
-        <v>1464700</v>
+        <v>1447800</v>
       </c>
       <c r="J52" s="3">
-        <v>1535000</v>
+        <v>1517300</v>
       </c>
       <c r="K52" s="3">
         <v>1451800</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14883800</v>
+        <v>14711600</v>
       </c>
       <c r="E54" s="3">
-        <v>14758600</v>
+        <v>14587900</v>
       </c>
       <c r="F54" s="3">
-        <v>14375800</v>
+        <v>14209500</v>
       </c>
       <c r="G54" s="3">
-        <v>14550900</v>
+        <v>14382500</v>
       </c>
       <c r="H54" s="3">
-        <v>14319200</v>
+        <v>14153600</v>
       </c>
       <c r="I54" s="3">
-        <v>14415300</v>
+        <v>14248600</v>
       </c>
       <c r="J54" s="3">
-        <v>14571900</v>
+        <v>14403300</v>
       </c>
       <c r="K54" s="3">
         <v>13278400</v>
@@ -3671,25 +3671,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>698800</v>
+        <v>690800</v>
       </c>
       <c r="E57" s="3">
-        <v>769800</v>
+        <v>760900</v>
       </c>
       <c r="F57" s="3">
-        <v>770100</v>
+        <v>761200</v>
       </c>
       <c r="G57" s="3">
-        <v>645600</v>
+        <v>638100</v>
       </c>
       <c r="H57" s="3">
-        <v>923000</v>
+        <v>912400</v>
       </c>
       <c r="I57" s="3">
-        <v>855300</v>
+        <v>845400</v>
       </c>
       <c r="J57" s="3">
-        <v>975800</v>
+        <v>964500</v>
       </c>
       <c r="K57" s="3">
         <v>1033200</v>
@@ -3739,25 +3739,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>190900</v>
+        <v>188700</v>
       </c>
       <c r="E58" s="3">
-        <v>897900</v>
+        <v>887500</v>
       </c>
       <c r="F58" s="3">
-        <v>954400</v>
+        <v>943400</v>
       </c>
       <c r="G58" s="3">
-        <v>212700</v>
+        <v>210300</v>
       </c>
       <c r="H58" s="3">
-        <v>367600</v>
+        <v>363400</v>
       </c>
       <c r="I58" s="3">
-        <v>411100</v>
+        <v>406400</v>
       </c>
       <c r="J58" s="3">
-        <v>353000</v>
+        <v>348900</v>
       </c>
       <c r="K58" s="3">
         <v>339200</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3735300</v>
+        <v>3692000</v>
       </c>
       <c r="E59" s="3">
-        <v>3519200</v>
+        <v>3478500</v>
       </c>
       <c r="F59" s="3">
-        <v>2820300</v>
+        <v>2787700</v>
       </c>
       <c r="G59" s="3">
-        <v>2691400</v>
+        <v>2660200</v>
       </c>
       <c r="H59" s="3">
-        <v>1100800</v>
+        <v>1088000</v>
       </c>
       <c r="I59" s="3">
-        <v>1081500</v>
+        <v>1069000</v>
       </c>
       <c r="J59" s="3">
-        <v>941900</v>
+        <v>931000</v>
       </c>
       <c r="K59" s="3">
         <v>813700</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4625000</v>
+        <v>4571500</v>
       </c>
       <c r="E60" s="3">
-        <v>5187000</v>
+        <v>5127000</v>
       </c>
       <c r="F60" s="3">
-        <v>4544800</v>
+        <v>4492200</v>
       </c>
       <c r="G60" s="3">
-        <v>3549700</v>
+        <v>3508600</v>
       </c>
       <c r="H60" s="3">
-        <v>2391400</v>
+        <v>2363800</v>
       </c>
       <c r="I60" s="3">
-        <v>2347900</v>
+        <v>2320700</v>
       </c>
       <c r="J60" s="3">
-        <v>2270700</v>
+        <v>2244500</v>
       </c>
       <c r="K60" s="3">
         <v>2186100</v>
@@ -3943,25 +3943,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6603100</v>
+        <v>6526700</v>
       </c>
       <c r="E61" s="3">
-        <v>4960300</v>
+        <v>4902900</v>
       </c>
       <c r="F61" s="3">
-        <v>5180600</v>
+        <v>5120700</v>
       </c>
       <c r="G61" s="3">
-        <v>5566100</v>
+        <v>5501700</v>
       </c>
       <c r="H61" s="3">
-        <v>6650900</v>
+        <v>6573900</v>
       </c>
       <c r="I61" s="3">
-        <v>6457800</v>
+        <v>6383100</v>
       </c>
       <c r="J61" s="3">
-        <v>6197600</v>
+        <v>6125900</v>
       </c>
       <c r="K61" s="3">
         <v>4532600</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3443100</v>
+        <v>3403200</v>
       </c>
       <c r="E62" s="3">
-        <v>3453500</v>
+        <v>3413500</v>
       </c>
       <c r="F62" s="3">
-        <v>3715800</v>
+        <v>3672800</v>
       </c>
       <c r="G62" s="3">
-        <v>3904000</v>
+        <v>3858800</v>
       </c>
       <c r="H62" s="3">
-        <v>4094000</v>
+        <v>4046600</v>
       </c>
       <c r="I62" s="3">
-        <v>4000800</v>
+        <v>3954500</v>
       </c>
       <c r="J62" s="3">
-        <v>3818100</v>
+        <v>3774000</v>
       </c>
       <c r="K62" s="3">
         <v>3272700</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14674600</v>
+        <v>14504800</v>
       </c>
       <c r="E66" s="3">
-        <v>13603700</v>
+        <v>13446300</v>
       </c>
       <c r="F66" s="3">
-        <v>13444400</v>
+        <v>13288800</v>
       </c>
       <c r="G66" s="3">
-        <v>13023400</v>
+        <v>12872700</v>
       </c>
       <c r="H66" s="3">
-        <v>13140400</v>
+        <v>12988300</v>
       </c>
       <c r="I66" s="3">
-        <v>12824000</v>
+        <v>12675600</v>
       </c>
       <c r="J66" s="3">
-        <v>12320500</v>
+        <v>12177900</v>
       </c>
       <c r="K66" s="3">
         <v>10018400</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6124100</v>
+        <v>-6053300</v>
       </c>
       <c r="E72" s="3">
-        <v>-5176300</v>
+        <v>-5116400</v>
       </c>
       <c r="F72" s="3">
-        <v>-5402000</v>
+        <v>-5339500</v>
       </c>
       <c r="G72" s="3">
-        <v>-4804800</v>
+        <v>-4749200</v>
       </c>
       <c r="H72" s="3">
-        <v>-5157300</v>
+        <v>-5097600</v>
       </c>
       <c r="I72" s="3">
-        <v>-4638000</v>
+        <v>-4584300</v>
       </c>
       <c r="J72" s="3">
-        <v>-3966800</v>
+        <v>-3920900</v>
       </c>
       <c r="K72" s="3">
         <v>-2558600</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>209200</v>
+        <v>206800</v>
       </c>
       <c r="E76" s="3">
-        <v>1155000</v>
+        <v>1141600</v>
       </c>
       <c r="F76" s="3">
-        <v>931400</v>
+        <v>920700</v>
       </c>
       <c r="G76" s="3">
-        <v>1527500</v>
+        <v>1509800</v>
       </c>
       <c r="H76" s="3">
-        <v>1178900</v>
+        <v>1165200</v>
       </c>
       <c r="I76" s="3">
-        <v>1591400</v>
+        <v>1572900</v>
       </c>
       <c r="J76" s="3">
-        <v>2251400</v>
+        <v>2225400</v>
       </c>
       <c r="K76" s="3">
         <v>3260000</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-948400</v>
+        <v>-937400</v>
       </c>
       <c r="E81" s="3">
-        <v>224400</v>
+        <v>221800</v>
       </c>
       <c r="F81" s="3">
-        <v>-598600</v>
+        <v>-591700</v>
       </c>
       <c r="G81" s="3">
-        <v>-2075000</v>
+        <v>-2051000</v>
       </c>
       <c r="H81" s="3">
-        <v>-519900</v>
+        <v>-513900</v>
       </c>
       <c r="I81" s="3">
-        <v>-671900</v>
+        <v>-664100</v>
       </c>
       <c r="J81" s="3">
-        <v>-1237500</v>
+        <v>-1223200</v>
       </c>
       <c r="K81" s="3">
         <v>-1662400</v>
@@ -5224,25 +5224,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>214300</v>
+        <v>211800</v>
       </c>
       <c r="E83" s="3">
-        <v>141800</v>
+        <v>140200</v>
       </c>
       <c r="F83" s="3">
-        <v>231000</v>
+        <v>228300</v>
       </c>
       <c r="G83" s="3">
-        <v>855600</v>
+        <v>845700</v>
       </c>
       <c r="H83" s="3">
-        <v>342800</v>
+        <v>338900</v>
       </c>
       <c r="I83" s="3">
-        <v>339900</v>
+        <v>335900</v>
       </c>
       <c r="J83" s="3">
-        <v>337200</v>
+        <v>333300</v>
       </c>
       <c r="K83" s="3">
         <v>1269600</v>
@@ -5632,25 +5632,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>156900</v>
+        <v>155100</v>
       </c>
       <c r="E89" s="3">
-        <v>-390000</v>
+        <v>-385500</v>
       </c>
       <c r="F89" s="3">
-        <v>-88500</v>
+        <v>-87500</v>
       </c>
       <c r="G89" s="3">
-        <v>868400</v>
+        <v>858300</v>
       </c>
       <c r="H89" s="3">
-        <v>378200</v>
+        <v>373900</v>
       </c>
       <c r="I89" s="3">
-        <v>259200</v>
+        <v>256200</v>
       </c>
       <c r="J89" s="3">
-        <v>103500</v>
+        <v>102300</v>
       </c>
       <c r="K89" s="3">
         <v>427000</v>
@@ -5726,25 +5726,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-224700</v>
+        <v>-222100</v>
       </c>
       <c r="E91" s="3">
-        <v>-98000</v>
+        <v>-96900</v>
       </c>
       <c r="F91" s="3">
-        <v>-130700</v>
+        <v>-129200</v>
       </c>
       <c r="G91" s="3">
-        <v>-680900</v>
+        <v>-673000</v>
       </c>
       <c r="H91" s="3">
-        <v>-47000</v>
+        <v>-46500</v>
       </c>
       <c r="I91" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="J91" s="3">
-        <v>-231600</v>
+        <v>-228900</v>
       </c>
       <c r="K91" s="3">
         <v>-1371500</v>
@@ -5930,25 +5930,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-322900</v>
+        <v>-319100</v>
       </c>
       <c r="E94" s="3">
-        <v>-273200</v>
+        <v>-270000</v>
       </c>
       <c r="F94" s="3">
-        <v>-108700</v>
+        <v>-107500</v>
       </c>
       <c r="G94" s="3">
-        <v>-667100</v>
+        <v>-659400</v>
       </c>
       <c r="H94" s="3">
-        <v>-361000</v>
+        <v>-356800</v>
       </c>
       <c r="I94" s="3">
-        <v>-223400</v>
+        <v>-220800</v>
       </c>
       <c r="J94" s="3">
-        <v>279300</v>
+        <v>276100</v>
       </c>
       <c r="K94" s="3">
         <v>-1265300</v>
@@ -6296,25 +6296,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>487500</v>
+        <v>481900</v>
       </c>
       <c r="E100" s="3">
-        <v>404300</v>
+        <v>399700</v>
       </c>
       <c r="F100" s="3">
-        <v>-71400</v>
+        <v>-70500</v>
       </c>
       <c r="G100" s="3">
-        <v>157600</v>
+        <v>155800</v>
       </c>
       <c r="H100" s="3">
-        <v>-75100</v>
+        <v>-74300</v>
       </c>
       <c r="I100" s="3">
-        <v>-75300</v>
+        <v>-74400</v>
       </c>
       <c r="J100" s="3">
-        <v>383900</v>
+        <v>379400</v>
       </c>
       <c r="K100" s="3">
         <v>412900</v>
@@ -6364,7 +6364,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8300</v>
+        <v>-8200</v>
       </c>
       <c r="E101" s="3">
         <v>-1100</v>
@@ -6373,16 +6373,16 @@
         <v>800</v>
       </c>
       <c r="G101" s="3">
-        <v>40400</v>
+        <v>39900</v>
       </c>
       <c r="H101" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="I101" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="J101" s="3">
-        <v>35400</v>
+        <v>35000</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -6432,25 +6432,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>313300</v>
+        <v>309700</v>
       </c>
       <c r="E102" s="3">
-        <v>-259900</v>
+        <v>-256900</v>
       </c>
       <c r="F102" s="3">
-        <v>-267800</v>
+        <v>-264700</v>
       </c>
       <c r="G102" s="3">
-        <v>399200</v>
+        <v>394600</v>
       </c>
       <c r="H102" s="3">
-        <v>-76400</v>
+        <v>-75500</v>
       </c>
       <c r="I102" s="3">
-        <v>-47200</v>
+        <v>-46600</v>
       </c>
       <c r="J102" s="3">
-        <v>789800</v>
+        <v>780700</v>
       </c>
       <c r="K102" s="3">
         <v>-425400</v>

--- a/AAII_Financials/Quarterly/OIBRQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OIBRQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>OIBRQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,333 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>437000</v>
+        <v>486700</v>
       </c>
       <c r="E8" s="3">
-        <v>435300</v>
+        <v>737100</v>
       </c>
       <c r="F8" s="3">
-        <v>436000</v>
+        <v>439100</v>
       </c>
       <c r="G8" s="3">
-        <v>1808400</v>
+        <v>437400</v>
       </c>
       <c r="H8" s="3">
-        <v>450100</v>
+        <v>516100</v>
       </c>
       <c r="I8" s="3">
+        <v>763800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>452200</v>
+      </c>
+      <c r="K8" s="3">
         <v>448300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>470500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1937900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>938100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>901500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>908400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>957100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1014200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2074900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1323700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1494100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1528900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>3076100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1528100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1568600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1586300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>356300</v>
+        <v>368700</v>
       </c>
       <c r="E9" s="3">
-        <v>277500</v>
+        <v>917200</v>
       </c>
       <c r="F9" s="3">
-        <v>367400</v>
+        <v>358000</v>
       </c>
       <c r="G9" s="3">
-        <v>1416300</v>
+        <v>278800</v>
       </c>
       <c r="H9" s="3">
-        <v>326100</v>
+        <v>416700</v>
       </c>
       <c r="I9" s="3">
+        <v>568200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>327700</v>
+      </c>
+      <c r="K9" s="3">
         <v>278400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>360600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1474400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>718300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>683400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>685900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>791100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>729400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1443700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>873000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>799200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>963600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1928400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>942400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>806300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>991000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>80800</v>
+        <v>118000</v>
       </c>
       <c r="E10" s="3">
-        <v>157800</v>
+        <v>-180100</v>
       </c>
       <c r="F10" s="3">
-        <v>68600</v>
+        <v>81100</v>
       </c>
       <c r="G10" s="3">
-        <v>392100</v>
+        <v>158500</v>
       </c>
       <c r="H10" s="3">
-        <v>124000</v>
+        <v>99400</v>
       </c>
       <c r="I10" s="3">
+        <v>195600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>124500</v>
+      </c>
+      <c r="K10" s="3">
         <v>169800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>109900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>463500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>219800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>218100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>222500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>166000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>284900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>631100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>450700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>694900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>565400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1147700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>585700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>762300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>595400</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1016,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1086,14 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,38 +1160,44 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1166,22 +1205,22 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>10400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>-2055700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>-2594500</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1195,8 +1234,14 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1308,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1337,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>558000</v>
+        <v>559000</v>
       </c>
       <c r="E17" s="3">
-        <v>469800</v>
+        <v>988400</v>
       </c>
       <c r="F17" s="3">
-        <v>408100</v>
+        <v>560600</v>
       </c>
       <c r="G17" s="3">
-        <v>2161200</v>
+        <v>472100</v>
       </c>
       <c r="H17" s="3">
-        <v>556000</v>
+        <v>469700</v>
       </c>
       <c r="I17" s="3">
+        <v>816300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>558600</v>
+      </c>
+      <c r="K17" s="3">
         <v>504200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>505600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2787100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1538200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>954300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>744600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1972800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1025700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>-60700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>-1341700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2243800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1472200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2922700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1445200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1932900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1562400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-120900</v>
+        <v>-72300</v>
       </c>
       <c r="E18" s="3">
-        <v>-34500</v>
+        <v>-251300</v>
       </c>
       <c r="F18" s="3">
-        <v>27900</v>
+        <v>-121500</v>
       </c>
       <c r="G18" s="3">
-        <v>-352800</v>
+        <v>-34700</v>
       </c>
       <c r="H18" s="3">
-        <v>-105900</v>
+        <v>46400</v>
       </c>
       <c r="I18" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-106400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-55900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-35100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-849200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-600100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-52800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>163800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1015600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2135500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>2665300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-749700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>56800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>153400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>82900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-364300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1513,380 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-573000</v>
+        <v>664200</v>
       </c>
       <c r="E20" s="3">
-        <v>380200</v>
+        <v>-348700</v>
       </c>
       <c r="F20" s="3">
-        <v>-474300</v>
+        <v>-575700</v>
       </c>
       <c r="G20" s="3">
-        <v>-1737700</v>
+        <v>382000</v>
       </c>
       <c r="H20" s="3">
-        <v>-216200</v>
+        <v>-546400</v>
       </c>
       <c r="I20" s="3">
+        <v>-245800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-217300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-356000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-917700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-464400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-363700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-172200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>74800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-100500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-178800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>3920200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>4453000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>730000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>200300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-847100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>170900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>30100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-192100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-482100</v>
+        <v>784300</v>
       </c>
       <c r="E21" s="3">
-        <v>485800</v>
+        <v>-399800</v>
       </c>
       <c r="F21" s="3">
-        <v>-218100</v>
+        <v>-484400</v>
       </c>
       <c r="G21" s="3">
-        <v>-1244800</v>
+        <v>488100</v>
       </c>
       <c r="H21" s="3">
-        <v>-145100</v>
+        <v>-270600</v>
       </c>
       <c r="I21" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-145800</v>
+      </c>
+      <c r="K21" s="3">
         <v>-274900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-740700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-44000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-635100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>81200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>537700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-851000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>82000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>6583700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>7414600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>317700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>478000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>58000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>581300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-156900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>215900</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>255900</v>
+        <v>219700</v>
       </c>
       <c r="E22" s="3">
-        <v>117900</v>
+        <v>251600</v>
       </c>
       <c r="F22" s="3">
-        <v>221500</v>
+        <v>257100</v>
       </c>
       <c r="G22" s="3">
-        <v>753000</v>
+        <v>118500</v>
       </c>
       <c r="H22" s="3">
-        <v>184300</v>
+        <v>183200</v>
       </c>
       <c r="I22" s="3">
+        <v>134000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>185200</v>
+      </c>
+      <c r="K22" s="3">
         <v>199900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>233700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>528700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>81900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>71100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>110500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>63000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>80100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>613800</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>254600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>195900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>471000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>203600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>205400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-949800</v>
+        <v>372300</v>
       </c>
       <c r="E23" s="3">
-        <v>227700</v>
+        <v>-851600</v>
       </c>
       <c r="F23" s="3">
-        <v>-667900</v>
+        <v>-954300</v>
       </c>
       <c r="G23" s="3">
-        <v>-2843600</v>
+        <v>228800</v>
       </c>
       <c r="H23" s="3">
-        <v>-506400</v>
+        <v>-683200</v>
       </c>
       <c r="I23" s="3">
+        <v>-432300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-508800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-611900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1186500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1842300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1045700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-296100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>128100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1179200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-270400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>5442000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>7118400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-274300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>61200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1164700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>50100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-539700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-398200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-400600</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1700</v>
       </c>
-      <c r="G24" s="3">
-        <v>-691600</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>-688100</v>
+      </c>
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-6700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-2400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>39100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>6600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>7900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-582800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-23300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>21900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-10200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>527400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>67600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-49200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>97000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>549500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-105800</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1953,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-950000</v>
+        <v>372200</v>
       </c>
       <c r="E26" s="3">
-        <v>227500</v>
+        <v>-451100</v>
       </c>
       <c r="F26" s="3">
-        <v>-669600</v>
+        <v>-954500</v>
       </c>
       <c r="G26" s="3">
-        <v>-2151900</v>
+        <v>228600</v>
       </c>
       <c r="H26" s="3">
-        <v>-506200</v>
+        <v>-684800</v>
       </c>
       <c r="I26" s="3">
+        <v>255800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-508600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-612000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1179800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1839900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1084900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-302700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>120200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-596300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-247000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>5420100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>7128500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-801600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-6400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1115500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-46900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-1089200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-292400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-950300</v>
+        <v>371800</v>
       </c>
       <c r="E27" s="3">
-        <v>227500</v>
+        <v>-456200</v>
       </c>
       <c r="F27" s="3">
-        <v>-668800</v>
+        <v>-954800</v>
       </c>
       <c r="G27" s="3">
-        <v>-2152200</v>
+        <v>228500</v>
       </c>
       <c r="H27" s="3">
-        <v>-517700</v>
+        <v>-684100</v>
       </c>
       <c r="I27" s="3">
+        <v>255700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-520100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-595600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1184900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1822400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1078000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-276100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>100600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-599100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-247300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>5418700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>7132500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-743600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>2200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1107400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-46800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-1070600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,44 +2175,50 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="E29" s="3">
+        <v>103000</v>
+      </c>
+      <c r="F29" s="3">
         <v>12900</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>-5600</v>
       </c>
-      <c r="F29" s="3">
-        <v>77200</v>
-      </c>
-      <c r="G29" s="3">
-        <v>101200</v>
-      </c>
       <c r="H29" s="3">
+        <v>80700</v>
+      </c>
+      <c r="I29" s="3">
+        <v>96100</v>
+      </c>
+      <c r="J29" s="3">
         <v>3800</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-68500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-38300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>160000</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -2110,11 +2231,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2122,14 +2243,20 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2397,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>573000</v>
+        <v>-664200</v>
       </c>
       <c r="E32" s="3">
-        <v>-380200</v>
+        <v>348700</v>
       </c>
       <c r="F32" s="3">
-        <v>474300</v>
+        <v>575700</v>
       </c>
       <c r="G32" s="3">
-        <v>1737700</v>
+        <v>-382000</v>
       </c>
       <c r="H32" s="3">
-        <v>216200</v>
+        <v>546400</v>
       </c>
       <c r="I32" s="3">
+        <v>245800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>217300</v>
+      </c>
+      <c r="K32" s="3">
         <v>356000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>917700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>464400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>363700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>172200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-74800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>100500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>178800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-3920200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-4453000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-730000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-200300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>847100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-170900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-30100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>192100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-937400</v>
+        <v>348700</v>
       </c>
       <c r="E33" s="3">
-        <v>221800</v>
+        <v>-353200</v>
       </c>
       <c r="F33" s="3">
-        <v>-591700</v>
+        <v>-941800</v>
       </c>
       <c r="G33" s="3">
-        <v>-2051000</v>
+        <v>222900</v>
       </c>
       <c r="H33" s="3">
-        <v>-513900</v>
+        <v>-603400</v>
       </c>
       <c r="I33" s="3">
+        <v>351800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-516300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-664100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1223200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1662400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1078000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-276100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>100600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-599100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-247300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>5418700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>7132500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-743600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>2200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1107400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-46800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-1070600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-937400</v>
+        <v>348700</v>
       </c>
       <c r="E35" s="3">
-        <v>221800</v>
+        <v>-353200</v>
       </c>
       <c r="F35" s="3">
-        <v>-591700</v>
+        <v>-941800</v>
       </c>
       <c r="G35" s="3">
-        <v>-2051000</v>
+        <v>222900</v>
       </c>
       <c r="H35" s="3">
-        <v>-513900</v>
+        <v>-603400</v>
       </c>
       <c r="I35" s="3">
+        <v>351800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-516300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-664100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1223200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1662400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1078000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-276100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>100600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-599100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-247300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>5418700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>7132500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-743600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>2200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1107400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-46800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-1070600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,620 +2832,676 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>588300</v>
+        <v>302700</v>
       </c>
       <c r="E41" s="3">
-        <v>278600</v>
+        <v>570900</v>
       </c>
       <c r="F41" s="3">
-        <v>535400</v>
+        <v>591100</v>
       </c>
       <c r="G41" s="3">
-        <v>800100</v>
+        <v>279900</v>
       </c>
       <c r="H41" s="3">
-        <v>1064100</v>
+        <v>538000</v>
       </c>
       <c r="I41" s="3">
+        <v>803900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1069100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1139600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1186200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>384500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>558700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>719100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1067700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>782300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>937900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>942900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1418200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1759500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1950600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1878900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1861600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1876300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1724800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>37400</v>
+        <v>37500</v>
       </c>
       <c r="E42" s="3">
-        <v>38000</v>
+        <v>36900</v>
       </c>
       <c r="F42" s="3">
-        <v>37800</v>
+        <v>37600</v>
       </c>
       <c r="G42" s="3">
-        <v>37700</v>
+        <v>38100</v>
       </c>
       <c r="H42" s="3">
-        <v>37200</v>
+        <v>37900</v>
       </c>
       <c r="I42" s="3">
+        <v>37900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>37300</v>
+      </c>
+      <c r="K42" s="3">
         <v>36900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>36200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>34000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>33500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>34800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>35300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>36000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>5500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>7700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>8800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>5500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>5600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>4400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>4400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>28900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>26700</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1085500</v>
+        <v>1036200</v>
       </c>
       <c r="E43" s="3">
-        <v>1057500</v>
+        <v>1068400</v>
       </c>
       <c r="F43" s="3">
-        <v>1098900</v>
+        <v>1090700</v>
       </c>
       <c r="G43" s="3">
-        <v>1199000</v>
+        <v>1062500</v>
       </c>
       <c r="H43" s="3">
-        <v>1696500</v>
+        <v>1104100</v>
       </c>
       <c r="I43" s="3">
+        <v>1237400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1704500</v>
+      </c>
+      <c r="K43" s="3">
         <v>1666800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1533800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1471400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1610600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1603200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1586600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1416700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1619700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1650300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>2247600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2454200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>2684900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>2699500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>2565800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>2582900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>2995800</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>82200</v>
+        <v>62800</v>
       </c>
       <c r="E44" s="3">
-        <v>83800</v>
+        <v>61000</v>
       </c>
       <c r="F44" s="3">
-        <v>81500</v>
+        <v>82600</v>
       </c>
       <c r="G44" s="3">
-        <v>73700</v>
+        <v>84200</v>
       </c>
       <c r="H44" s="3">
+        <v>81900</v>
+      </c>
+      <c r="I44" s="3">
+        <v>74100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>59900</v>
+      </c>
+      <c r="K44" s="3">
+        <v>60200</v>
+      </c>
+      <c r="L44" s="3">
+        <v>66200</v>
+      </c>
+      <c r="M44" s="3">
+        <v>60400</v>
+      </c>
+      <c r="N44" s="3">
         <v>59600</v>
       </c>
-      <c r="I44" s="3">
-        <v>60200</v>
-      </c>
-      <c r="J44" s="3">
-        <v>66200</v>
-      </c>
-      <c r="K44" s="3">
-        <v>60400</v>
-      </c>
-      <c r="L44" s="3">
-        <v>59600</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>56500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>53000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>56600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>48400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>48000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>61200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>65000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>138700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>129300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>115300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>88100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7223200</v>
+        <v>7926900</v>
       </c>
       <c r="E45" s="3">
-        <v>7083200</v>
+        <v>7348400</v>
       </c>
       <c r="F45" s="3">
-        <v>5039300</v>
+        <v>7257300</v>
       </c>
       <c r="G45" s="3">
-        <v>4472100</v>
+        <v>7116600</v>
       </c>
       <c r="H45" s="3">
-        <v>683500</v>
+        <v>5063100</v>
       </c>
       <c r="I45" s="3">
+        <v>4404500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>686700</v>
+      </c>
+      <c r="K45" s="3">
         <v>831500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>948400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1373000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1518100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1470800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1517500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1510600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1613800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1654200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1917000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1804300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1856700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>2049900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>1864900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>1926500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>2113900</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9016600</v>
+        <v>9366100</v>
       </c>
       <c r="E46" s="3">
-        <v>8541000</v>
+        <v>9085600</v>
       </c>
       <c r="F46" s="3">
-        <v>6792900</v>
+        <v>9059200</v>
       </c>
       <c r="G46" s="3">
-        <v>6582700</v>
+        <v>8581300</v>
       </c>
       <c r="H46" s="3">
-        <v>3540900</v>
+        <v>6825000</v>
       </c>
       <c r="I46" s="3">
+        <v>6557800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3557700</v>
+      </c>
+      <c r="K46" s="3">
         <v>3735000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3770800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3323400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3780600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3884400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4260200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3802300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4225200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4303100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>5652800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>6088400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>6636400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>6762000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>6412000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>6502600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>6955700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>220100</v>
+        <v>121200</v>
       </c>
       <c r="E47" s="3">
-        <v>255500</v>
+        <v>144500</v>
       </c>
       <c r="F47" s="3">
-        <v>312500</v>
+        <v>221100</v>
       </c>
       <c r="G47" s="3">
-        <v>305900</v>
+        <v>256700</v>
       </c>
       <c r="H47" s="3">
-        <v>359500</v>
+        <v>314000</v>
       </c>
       <c r="I47" s="3">
+        <v>307600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>361200</v>
+      </c>
+      <c r="K47" s="3">
         <v>482100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>567200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>578000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>588700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>352100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>361700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>141200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>142900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>148400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>177100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>195900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>216900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>228500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>209400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>216900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>226500</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3215500</v>
+        <v>3108600</v>
       </c>
       <c r="E48" s="3">
-        <v>3342600</v>
+        <v>3168900</v>
       </c>
       <c r="F48" s="3">
-        <v>4589900</v>
+        <v>3230700</v>
       </c>
       <c r="G48" s="3">
-        <v>4701000</v>
+        <v>3358400</v>
       </c>
       <c r="H48" s="3">
-        <v>8066300</v>
+        <v>4611600</v>
       </c>
       <c r="I48" s="3">
+        <v>4744300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>8104400</v>
+      </c>
+      <c r="K48" s="3">
         <v>7873800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>7804800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>7186800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>7223000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>6688800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>6539000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>5071100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>5095300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>5027500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>6289300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>6919300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>6805600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>6753900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>6512100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>6426600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>6291400</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>617700</v>
+        <v>747200</v>
       </c>
       <c r="E49" s="3">
-        <v>655500</v>
+        <v>783900</v>
       </c>
       <c r="F49" s="3">
-        <v>687800</v>
+        <v>620700</v>
       </c>
       <c r="G49" s="3">
-        <v>720300</v>
+        <v>658600</v>
       </c>
       <c r="H49" s="3">
-        <v>683800</v>
+        <v>691100</v>
       </c>
       <c r="I49" s="3">
+        <v>723700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>687000</v>
+      </c>
+      <c r="K49" s="3">
         <v>709800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>743300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>738400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>551800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1152600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1193800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1239600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1387800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1444800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1928400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>2140900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>2740300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>2817800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>2696100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1221800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>832100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3642,88 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1641700</v>
+        <v>2057800</v>
       </c>
       <c r="E52" s="3">
-        <v>1793300</v>
+        <v>2072100</v>
       </c>
       <c r="F52" s="3">
-        <v>1826300</v>
+        <v>1649500</v>
       </c>
       <c r="G52" s="3">
-        <v>2072500</v>
+        <v>1801700</v>
       </c>
       <c r="H52" s="3">
-        <v>1503000</v>
+        <v>1835000</v>
       </c>
       <c r="I52" s="3">
+        <v>2117100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1510100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1447800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1517300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1451800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1524200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1444400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1419600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1419800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1588400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1553100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1991300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>2253000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>4740800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>4701300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>4400600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>2194100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>5617900</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3790,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14711600</v>
+        <v>15401000</v>
       </c>
       <c r="E54" s="3">
-        <v>14587900</v>
+        <v>15254900</v>
       </c>
       <c r="F54" s="3">
-        <v>14209500</v>
+        <v>14781100</v>
       </c>
       <c r="G54" s="3">
-        <v>14382500</v>
+        <v>14656800</v>
       </c>
       <c r="H54" s="3">
-        <v>14153600</v>
+        <v>14276600</v>
       </c>
       <c r="I54" s="3">
+        <v>14450400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>14220400</v>
+      </c>
+      <c r="K54" s="3">
         <v>14248600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>14403300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>13278400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>13668300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>13522300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>13774300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>11674100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>12439700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>12476900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>16038900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>17597700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>21140000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>21263500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>20230100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>16366400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>19923600</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,334 +3924,360 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>690800</v>
+        <v>775100</v>
       </c>
       <c r="E57" s="3">
-        <v>760900</v>
+        <v>788500</v>
       </c>
       <c r="F57" s="3">
-        <v>761200</v>
+        <v>694000</v>
       </c>
       <c r="G57" s="3">
-        <v>638100</v>
+        <v>764500</v>
       </c>
       <c r="H57" s="3">
-        <v>912400</v>
+        <v>764800</v>
       </c>
       <c r="I57" s="3">
+        <v>647100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>916700</v>
+      </c>
+      <c r="K57" s="3">
         <v>845400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>964500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1033200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1106800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1069200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>998800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>932300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>809500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>765900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1148900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1955500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1819400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1803900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1648700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1631900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1766800</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>188700</v>
+        <v>650600</v>
       </c>
       <c r="E58" s="3">
-        <v>887500</v>
+        <v>699900</v>
       </c>
       <c r="F58" s="3">
-        <v>943400</v>
+        <v>189600</v>
       </c>
       <c r="G58" s="3">
-        <v>210300</v>
+        <v>891700</v>
       </c>
       <c r="H58" s="3">
-        <v>363400</v>
+        <v>947800</v>
       </c>
       <c r="I58" s="3">
+        <v>211300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>365100</v>
+      </c>
+      <c r="K58" s="3">
         <v>406400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>348900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>339200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>308500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>316300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>274600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>120000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>92600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>55300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>22900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>13976600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>13260500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>13287000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>11958200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>11929200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>11962600</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3692000</v>
+        <v>4234100</v>
       </c>
       <c r="E59" s="3">
-        <v>3478500</v>
+        <v>3677400</v>
       </c>
       <c r="F59" s="3">
-        <v>2787700</v>
+        <v>3709500</v>
       </c>
       <c r="G59" s="3">
-        <v>2660200</v>
+        <v>3495000</v>
       </c>
       <c r="H59" s="3">
-        <v>1088000</v>
+        <v>2800800</v>
       </c>
       <c r="I59" s="3">
+        <v>2435300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1093200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1069000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>931000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>813700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>821200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>741200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>853600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>854700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>886300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>839200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1301300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1474000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1595900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1629500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1459300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1642600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1427200</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4571500</v>
+        <v>5659900</v>
       </c>
       <c r="E60" s="3">
-        <v>5127000</v>
+        <v>5165900</v>
       </c>
       <c r="F60" s="3">
-        <v>4492200</v>
+        <v>4593100</v>
       </c>
       <c r="G60" s="3">
-        <v>3508600</v>
+        <v>5151200</v>
       </c>
       <c r="H60" s="3">
-        <v>2363800</v>
+        <v>4513400</v>
       </c>
       <c r="I60" s="3">
+        <v>3293700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2374900</v>
+      </c>
+      <c r="K60" s="3">
         <v>2320700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2244500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2186100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2236600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2126700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2127000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1907000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1788400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1660300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2473100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>17406100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>16675800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>16720400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>15066200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>15203800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>15156600</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6526700</v>
+        <v>5883300</v>
       </c>
       <c r="E61" s="3">
-        <v>4902900</v>
+        <v>6343600</v>
       </c>
       <c r="F61" s="3">
-        <v>5120700</v>
+        <v>6557500</v>
       </c>
       <c r="G61" s="3">
-        <v>5501700</v>
+        <v>4926000</v>
       </c>
       <c r="H61" s="3">
-        <v>6573900</v>
+        <v>5144900</v>
       </c>
       <c r="I61" s="3">
+        <v>5527700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>6605000</v>
+      </c>
+      <c r="K61" s="3">
         <v>6383100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>6125900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4532600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4594200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4114400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4060300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2814600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2893200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2761000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>3137600</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4005,76 +4290,88 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3403200</v>
+        <v>3649400</v>
       </c>
       <c r="E62" s="3">
-        <v>3413500</v>
+        <v>3886900</v>
       </c>
       <c r="F62" s="3">
-        <v>3672800</v>
+        <v>3419300</v>
       </c>
       <c r="G62" s="3">
-        <v>3858800</v>
+        <v>3429600</v>
       </c>
       <c r="H62" s="3">
-        <v>4046600</v>
+        <v>3690200</v>
       </c>
       <c r="I62" s="3">
+        <v>4108500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>4065700</v>
+      </c>
+      <c r="K62" s="3">
         <v>3954500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3774000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3272700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3070700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2702200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2729900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2867900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2898700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>2944200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>3677600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>3656000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>2249900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>2291100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>2263300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>2816300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>2183300</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4586,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14504800</v>
+        <v>15198400</v>
       </c>
       <c r="E66" s="3">
-        <v>13446300</v>
+        <v>15402800</v>
       </c>
       <c r="F66" s="3">
-        <v>13288800</v>
+        <v>14573300</v>
       </c>
       <c r="G66" s="3">
-        <v>12872700</v>
+        <v>13509800</v>
       </c>
       <c r="H66" s="3">
-        <v>12988300</v>
+        <v>13351600</v>
       </c>
       <c r="I66" s="3">
+        <v>12933500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>13049700</v>
+      </c>
+      <c r="K66" s="3">
         <v>12675600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>12177900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>10018400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>9932200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8982000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8957200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>7632900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>7631300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>7417100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>9352500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>21137300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>19003400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>19099400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>17422600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>18216300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>17565100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6053300</v>
+        <v>-6083500</v>
       </c>
       <c r="E72" s="3">
-        <v>-5116400</v>
+        <v>-6434000</v>
       </c>
       <c r="F72" s="3">
-        <v>-5339500</v>
+        <v>-6081900</v>
       </c>
       <c r="G72" s="3">
-        <v>-4749200</v>
+        <v>-5140600</v>
       </c>
       <c r="H72" s="3">
-        <v>-5097600</v>
+        <v>-5364700</v>
       </c>
       <c r="I72" s="3">
+        <v>-4771600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-5121700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-4584300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-3920900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2558600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2174000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-999500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-287400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1076100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-526800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>82200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>397400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-7467000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-1821000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-1823000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-952300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-5646300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-1463600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>206800</v>
+        <v>202600</v>
       </c>
       <c r="E76" s="3">
-        <v>1141600</v>
+        <v>-147900</v>
       </c>
       <c r="F76" s="3">
-        <v>920700</v>
+        <v>207800</v>
       </c>
       <c r="G76" s="3">
-        <v>1509800</v>
+        <v>1147000</v>
       </c>
       <c r="H76" s="3">
-        <v>1165200</v>
+        <v>925000</v>
       </c>
       <c r="I76" s="3">
+        <v>1517000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1170700</v>
+      </c>
+      <c r="K76" s="3">
         <v>1572900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2225400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3260000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3736100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4540200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4817100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>4041200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4808300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>5059700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>6686400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-3539600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2136600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>2164100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>2807500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-1849900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>2358500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-937400</v>
+        <v>348700</v>
       </c>
       <c r="E81" s="3">
-        <v>221800</v>
+        <v>-353200</v>
       </c>
       <c r="F81" s="3">
-        <v>-591700</v>
+        <v>-941800</v>
       </c>
       <c r="G81" s="3">
-        <v>-2051000</v>
+        <v>222900</v>
       </c>
       <c r="H81" s="3">
-        <v>-513900</v>
+        <v>-603400</v>
       </c>
       <c r="I81" s="3">
+        <v>351800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-516300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-664100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1223200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1662400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1078000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-276100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>100600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-599100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-247300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>5418700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>7132500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-743600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>2200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1107400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-46800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-1070600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5613,84 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>211800</v>
+        <v>192400</v>
       </c>
       <c r="E83" s="3">
-        <v>140200</v>
+        <v>200200</v>
       </c>
       <c r="F83" s="3">
-        <v>228300</v>
+        <v>212800</v>
       </c>
       <c r="G83" s="3">
-        <v>845700</v>
+        <v>140800</v>
       </c>
       <c r="H83" s="3">
-        <v>338900</v>
+        <v>229400</v>
       </c>
       <c r="I83" s="3">
+        <v>-163200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>340500</v>
+      </c>
+      <c r="K83" s="3">
         <v>335900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>333300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1269600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>328700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>306200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>299200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>265200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>272300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>528000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>296200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>186400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>371800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>751700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>376900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>384100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>384100</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6053,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>155100</v>
+        <v>162200</v>
       </c>
       <c r="E89" s="3">
-        <v>-385500</v>
+        <v>297700</v>
       </c>
       <c r="F89" s="3">
-        <v>-87500</v>
+        <v>155800</v>
       </c>
       <c r="G89" s="3">
-        <v>858300</v>
+        <v>-387300</v>
       </c>
       <c r="H89" s="3">
-        <v>373900</v>
+        <v>-87900</v>
       </c>
       <c r="I89" s="3">
+        <v>142100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>375600</v>
+      </c>
+      <c r="K89" s="3">
         <v>256200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>102300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>427000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>225500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>43300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-88100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>108900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>204400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>212200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>190200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>135200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>380300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>613000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>227400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>401600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>594500</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +6159,84 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-222100</v>
+        <v>-86700</v>
       </c>
       <c r="E91" s="3">
-        <v>-96900</v>
+        <v>-234600</v>
       </c>
       <c r="F91" s="3">
-        <v>-129200</v>
+        <v>-223200</v>
       </c>
       <c r="G91" s="3">
-        <v>-673000</v>
+        <v>-97300</v>
       </c>
       <c r="H91" s="3">
-        <v>-46500</v>
+        <v>-129800</v>
       </c>
       <c r="I91" s="3">
+        <v>-406900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="K91" s="3">
         <v>7400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-228900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1371500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-371700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-313800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-264200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-242900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-204800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-513900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-353700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-257900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-311700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-544300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-497100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-437700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-103100</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6377,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-319100</v>
+        <v>-357000</v>
       </c>
       <c r="E94" s="3">
-        <v>-270000</v>
+        <v>-239000</v>
       </c>
       <c r="F94" s="3">
-        <v>-107500</v>
+        <v>-320600</v>
       </c>
       <c r="G94" s="3">
-        <v>-659400</v>
+        <v>-271300</v>
       </c>
       <c r="H94" s="3">
-        <v>-356800</v>
+        <v>-108000</v>
       </c>
       <c r="I94" s="3">
+        <v>-359500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-358500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-220800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>276100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1265300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-347200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-314200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-249400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-216600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-183500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-501700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-334300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-306200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-291300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-536100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-235400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-216200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-58500</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6483,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6045,14 +6512,14 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -6075,19 +6542,25 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-15200</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,106 +6775,118 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>481900</v>
+        <v>-101300</v>
       </c>
       <c r="E100" s="3">
-        <v>399700</v>
+        <v>-74600</v>
       </c>
       <c r="F100" s="3">
-        <v>-70500</v>
+        <v>484200</v>
       </c>
       <c r="G100" s="3">
-        <v>155800</v>
+        <v>401600</v>
       </c>
       <c r="H100" s="3">
-        <v>-74300</v>
+        <v>-70900</v>
       </c>
       <c r="I100" s="3">
+        <v>-75400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-74600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-74400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>379400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>412900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-81300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-77700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>628700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-11100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-27000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-40000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-41000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-21100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-17100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-139100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-6600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>2000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-8200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
-        <v>39900</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-1800</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K101" s="3">
         <v>6800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>35000</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -6397,101 +6894,113 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-3300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>2600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>2000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-35800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-61800</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>309700</v>
+        <v>-268200</v>
       </c>
       <c r="E102" s="3">
-        <v>-256900</v>
+        <v>-20100</v>
       </c>
       <c r="F102" s="3">
-        <v>-264700</v>
+        <v>311200</v>
       </c>
       <c r="G102" s="3">
-        <v>394600</v>
+        <v>-258100</v>
       </c>
       <c r="H102" s="3">
-        <v>-75500</v>
+        <v>-265900</v>
       </c>
       <c r="I102" s="3">
+        <v>-265200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-75800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-46600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>780700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-425400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-203000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-348600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>291200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-122000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-326900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-184300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-191200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>71700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-60200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-14700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>151500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>521000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OIBRQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OIBRQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>OIBRQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>486700</v>
+        <v>482600</v>
       </c>
       <c r="E8" s="3">
-        <v>737100</v>
+        <v>465300</v>
       </c>
       <c r="F8" s="3">
-        <v>439100</v>
+        <v>704700</v>
       </c>
       <c r="G8" s="3">
-        <v>437400</v>
+        <v>419800</v>
       </c>
       <c r="H8" s="3">
-        <v>516100</v>
+        <v>491500</v>
       </c>
       <c r="I8" s="3">
-        <v>763800</v>
+        <v>493400</v>
       </c>
       <c r="J8" s="3">
+        <v>730200</v>
+      </c>
+      <c r="K8" s="3">
         <v>452200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>448300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>470500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1937900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>938100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>901500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>908400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>957100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1014200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2074900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1323700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1494100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1528900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3076100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1528100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1568600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1586300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>368700</v>
+        <v>435400</v>
       </c>
       <c r="E9" s="3">
-        <v>917200</v>
+        <v>352500</v>
       </c>
       <c r="F9" s="3">
-        <v>358000</v>
+        <v>876900</v>
       </c>
       <c r="G9" s="3">
-        <v>278800</v>
+        <v>342200</v>
       </c>
       <c r="H9" s="3">
-        <v>416700</v>
+        <v>398900</v>
       </c>
       <c r="I9" s="3">
-        <v>568200</v>
+        <v>398300</v>
       </c>
       <c r="J9" s="3">
+        <v>543200</v>
+      </c>
+      <c r="K9" s="3">
         <v>327700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>278400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>360600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1474400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>718300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>683400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>685900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>791100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>729400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1443700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>873000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>799200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>963600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1928400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>942400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>806300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>991000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>118000</v>
+        <v>47200</v>
       </c>
       <c r="E10" s="3">
-        <v>-180100</v>
+        <v>112800</v>
       </c>
       <c r="F10" s="3">
-        <v>81100</v>
+        <v>-172200</v>
       </c>
       <c r="G10" s="3">
-        <v>158500</v>
+        <v>77600</v>
       </c>
       <c r="H10" s="3">
-        <v>99400</v>
+        <v>92600</v>
       </c>
       <c r="I10" s="3">
-        <v>195600</v>
+        <v>95000</v>
       </c>
       <c r="J10" s="3">
+        <v>187000</v>
+      </c>
+      <c r="K10" s="3">
         <v>124500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>169800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>109900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>463500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>219800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>218100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>222500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>166000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>284900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>631100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>450700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>694900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>565400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1147700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>585700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>762300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>595400</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1192,14 +1212,14 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1211,19 +1231,19 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>10400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-2055700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-2594500</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>559000</v>
+        <v>597000</v>
       </c>
       <c r="E17" s="3">
-        <v>988400</v>
+        <v>534400</v>
       </c>
       <c r="F17" s="3">
-        <v>560600</v>
+        <v>944900</v>
       </c>
       <c r="G17" s="3">
-        <v>472100</v>
+        <v>535900</v>
       </c>
       <c r="H17" s="3">
-        <v>469700</v>
+        <v>593300</v>
       </c>
       <c r="I17" s="3">
-        <v>816300</v>
+        <v>449000</v>
       </c>
       <c r="J17" s="3">
+        <v>780400</v>
+      </c>
+      <c r="K17" s="3">
         <v>558600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>504200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>505600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2787100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1538200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>954300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>744600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1972800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1025700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>-60700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>-1341700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2243800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1472200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2922700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1445200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1932900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1562400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-72300</v>
+        <v>-114400</v>
       </c>
       <c r="E18" s="3">
-        <v>-251300</v>
+        <v>-69100</v>
       </c>
       <c r="F18" s="3">
-        <v>-121500</v>
+        <v>-240200</v>
       </c>
       <c r="G18" s="3">
-        <v>-34700</v>
+        <v>-116100</v>
       </c>
       <c r="H18" s="3">
-        <v>46400</v>
+        <v>-101800</v>
       </c>
       <c r="I18" s="3">
-        <v>-52600</v>
+        <v>44400</v>
       </c>
       <c r="J18" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-106400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-55900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-35100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-849200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-52800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>163800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1015600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-11500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2135500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2665300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-749700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>56800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>153400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>82900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-364300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>664200</v>
+        <v>-371200</v>
       </c>
       <c r="E20" s="3">
-        <v>-348700</v>
+        <v>635000</v>
       </c>
       <c r="F20" s="3">
-        <v>-575700</v>
+        <v>-333400</v>
       </c>
       <c r="G20" s="3">
-        <v>382000</v>
+        <v>-550400</v>
       </c>
       <c r="H20" s="3">
-        <v>-546400</v>
+        <v>441400</v>
       </c>
       <c r="I20" s="3">
-        <v>-245800</v>
+        <v>-522300</v>
       </c>
       <c r="J20" s="3">
+        <v>-234900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-217300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-356000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-917700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-464400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-363700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-172200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>74800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-178800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3920200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4453000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>730000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>200300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-847100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>170900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>30100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-192100</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>784300</v>
+        <v>-291700</v>
       </c>
       <c r="E21" s="3">
-        <v>-399800</v>
+        <v>749800</v>
       </c>
       <c r="F21" s="3">
-        <v>-484400</v>
+        <v>-382200</v>
       </c>
       <c r="G21" s="3">
-        <v>488100</v>
+        <v>-463100</v>
       </c>
       <c r="H21" s="3">
-        <v>-270600</v>
+        <v>474200</v>
       </c>
       <c r="I21" s="3">
-        <v>-62700</v>
+        <v>-258700</v>
       </c>
       <c r="J21" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-145800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-274900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-740700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-44000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-635100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>81200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>537700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-851000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>82000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>6583700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>7414600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>317700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>478000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>58000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>581300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-156900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>215900</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>219700</v>
+        <v>187900</v>
       </c>
       <c r="E22" s="3">
-        <v>251600</v>
+        <v>210000</v>
       </c>
       <c r="F22" s="3">
-        <v>257100</v>
+        <v>240600</v>
       </c>
       <c r="G22" s="3">
-        <v>118500</v>
+        <v>245800</v>
       </c>
       <c r="H22" s="3">
-        <v>183200</v>
+        <v>162800</v>
       </c>
       <c r="I22" s="3">
-        <v>134000</v>
+        <v>175200</v>
       </c>
       <c r="J22" s="3">
+        <v>128100</v>
+      </c>
+      <c r="K22" s="3">
         <v>185200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>199900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>233700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>528700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>81900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>71100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>110500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>63000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>80100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>613800</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>254600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>195900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>471000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>203600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>205400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>372300</v>
+        <v>-673500</v>
       </c>
       <c r="E23" s="3">
-        <v>-851600</v>
+        <v>355900</v>
       </c>
       <c r="F23" s="3">
-        <v>-954300</v>
+        <v>-814200</v>
       </c>
       <c r="G23" s="3">
-        <v>228800</v>
+        <v>-912300</v>
       </c>
       <c r="H23" s="3">
-        <v>-683200</v>
+        <v>176800</v>
       </c>
       <c r="I23" s="3">
-        <v>-432300</v>
+        <v>-653100</v>
       </c>
       <c r="J23" s="3">
+        <v>-413300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-508800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-611900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1186500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1842300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1045700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-296100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>128100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1179200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-270400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5442000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7118400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-274300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>61200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1164700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>50100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-539700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-398200</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>862600</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>-400600</v>
-      </c>
       <c r="F24" s="3">
-        <v>200</v>
+        <v>-383000</v>
       </c>
       <c r="G24" s="3">
         <v>200</v>
       </c>
       <c r="H24" s="3">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="I24" s="3">
-        <v>-688100</v>
+        <v>1600</v>
       </c>
       <c r="J24" s="3">
+        <v>-657800</v>
+      </c>
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-6700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>39100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-582800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-23300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>21900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-10200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>527400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>67600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-49200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>97000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>549500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-105800</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>372200</v>
+        <v>-1536100</v>
       </c>
       <c r="E26" s="3">
-        <v>-451100</v>
+        <v>355800</v>
       </c>
       <c r="F26" s="3">
-        <v>-954500</v>
+        <v>-431200</v>
       </c>
       <c r="G26" s="3">
-        <v>228600</v>
+        <v>-912500</v>
       </c>
       <c r="H26" s="3">
-        <v>-684800</v>
+        <v>176600</v>
       </c>
       <c r="I26" s="3">
-        <v>255800</v>
+        <v>-654700</v>
       </c>
       <c r="J26" s="3">
+        <v>244500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-508600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-612000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1179800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1839900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1084900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-302700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>120200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-596300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-247000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5420100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7128500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-801600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-6400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1115500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-46900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1089200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-292400</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>371800</v>
+        <v>-1536100</v>
       </c>
       <c r="E27" s="3">
-        <v>-456200</v>
+        <v>355400</v>
       </c>
       <c r="F27" s="3">
-        <v>-954800</v>
+        <v>-436100</v>
       </c>
       <c r="G27" s="3">
-        <v>228500</v>
+        <v>-912800</v>
       </c>
       <c r="H27" s="3">
-        <v>-684100</v>
+        <v>176600</v>
       </c>
       <c r="I27" s="3">
-        <v>255700</v>
+        <v>-654000</v>
       </c>
       <c r="J27" s="3">
+        <v>244500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-520100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-595600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1184900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1822400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1078000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-276100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-599100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-247300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5418700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7132500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-743600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1107400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-46800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1070600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,47 +2239,50 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-23100</v>
+        <v>1476100</v>
       </c>
       <c r="E29" s="3">
-        <v>103000</v>
+        <v>-22100</v>
       </c>
       <c r="F29" s="3">
-        <v>12900</v>
+        <v>98400</v>
       </c>
       <c r="G29" s="3">
-        <v>-5600</v>
+        <v>12400</v>
       </c>
       <c r="H29" s="3">
-        <v>80700</v>
+        <v>28000</v>
       </c>
       <c r="I29" s="3">
-        <v>96100</v>
+        <v>77100</v>
       </c>
       <c r="J29" s="3">
+        <v>91900</v>
+      </c>
+      <c r="K29" s="3">
         <v>3800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-68500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-38300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>160000</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -2237,8 +2298,8 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2249,14 +2310,17 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-664200</v>
+        <v>371200</v>
       </c>
       <c r="E32" s="3">
-        <v>348700</v>
+        <v>-635000</v>
       </c>
       <c r="F32" s="3">
-        <v>575700</v>
+        <v>333400</v>
       </c>
       <c r="G32" s="3">
-        <v>-382000</v>
+        <v>550400</v>
       </c>
       <c r="H32" s="3">
-        <v>546400</v>
+        <v>-441400</v>
       </c>
       <c r="I32" s="3">
-        <v>245800</v>
+        <v>522300</v>
       </c>
       <c r="J32" s="3">
+        <v>234900</v>
+      </c>
+      <c r="K32" s="3">
         <v>217300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>356000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>917700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>464400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>363700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>172200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-74800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>178800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3920200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4453000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-730000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-200300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>847100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-170900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-30100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>192100</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>348700</v>
+        <v>-60000</v>
       </c>
       <c r="E33" s="3">
-        <v>-353200</v>
+        <v>333400</v>
       </c>
       <c r="F33" s="3">
-        <v>-941800</v>
+        <v>-337700</v>
       </c>
       <c r="G33" s="3">
-        <v>222900</v>
+        <v>-900400</v>
       </c>
       <c r="H33" s="3">
-        <v>-603400</v>
+        <v>204600</v>
       </c>
       <c r="I33" s="3">
-        <v>351800</v>
+        <v>-576800</v>
       </c>
       <c r="J33" s="3">
+        <v>336400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-516300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-664100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1223200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1662400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1078000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-276100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-599100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-247300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5418700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7132500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-743600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1107400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-46800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1070600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>348700</v>
+        <v>-60000</v>
       </c>
       <c r="E35" s="3">
-        <v>-353200</v>
+        <v>333400</v>
       </c>
       <c r="F35" s="3">
-        <v>-941800</v>
+        <v>-337700</v>
       </c>
       <c r="G35" s="3">
-        <v>222900</v>
+        <v>-900400</v>
       </c>
       <c r="H35" s="3">
-        <v>-603400</v>
+        <v>204600</v>
       </c>
       <c r="I35" s="3">
-        <v>351800</v>
+        <v>-576800</v>
       </c>
       <c r="J35" s="3">
+        <v>336400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-516300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-664100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1223200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1662400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1078000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-276100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-599100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-247300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5418700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7132500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-743600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1107400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-46800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1070600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,674 +2920,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>302700</v>
+        <v>902900</v>
       </c>
       <c r="E41" s="3">
-        <v>570900</v>
+        <v>289300</v>
       </c>
       <c r="F41" s="3">
-        <v>591100</v>
+        <v>545800</v>
       </c>
       <c r="G41" s="3">
-        <v>279900</v>
+        <v>565000</v>
       </c>
       <c r="H41" s="3">
-        <v>538000</v>
+        <v>267600</v>
       </c>
       <c r="I41" s="3">
-        <v>803900</v>
+        <v>514300</v>
       </c>
       <c r="J41" s="3">
+        <v>768600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1069100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1139600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1186200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>384500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>558700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>719100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1067700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>782300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>937900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>942900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1418200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1759500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1950600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1878900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1861600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1876300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1724800</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>37500</v>
+        <v>36600</v>
       </c>
       <c r="E42" s="3">
+        <v>35800</v>
+      </c>
+      <c r="F42" s="3">
+        <v>35300</v>
+      </c>
+      <c r="G42" s="3">
+        <v>35900</v>
+      </c>
+      <c r="H42" s="3">
+        <v>36500</v>
+      </c>
+      <c r="I42" s="3">
+        <v>36300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>36200</v>
+      </c>
+      <c r="K42" s="3">
+        <v>37300</v>
+      </c>
+      <c r="L42" s="3">
         <v>36900</v>
       </c>
-      <c r="F42" s="3">
-        <v>37600</v>
-      </c>
-      <c r="G42" s="3">
-        <v>38100</v>
-      </c>
-      <c r="H42" s="3">
-        <v>37900</v>
-      </c>
-      <c r="I42" s="3">
-        <v>37900</v>
-      </c>
-      <c r="J42" s="3">
-        <v>37300</v>
-      </c>
-      <c r="K42" s="3">
-        <v>36900</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>36200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>34000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>33500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>34800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>35300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>36000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>5500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>7700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>8800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>5500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>5600</v>
-      </c>
-      <c r="W42" s="3">
-        <v>4400</v>
       </c>
       <c r="X42" s="3">
         <v>4400</v>
       </c>
       <c r="Y42" s="3">
+        <v>4400</v>
+      </c>
+      <c r="Z42" s="3">
         <v>28900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>26700</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1036200</v>
+        <v>1038800</v>
       </c>
       <c r="E43" s="3">
-        <v>1068400</v>
+        <v>990600</v>
       </c>
       <c r="F43" s="3">
-        <v>1090700</v>
+        <v>1021400</v>
       </c>
       <c r="G43" s="3">
-        <v>1062500</v>
+        <v>1042700</v>
       </c>
       <c r="H43" s="3">
-        <v>1104100</v>
+        <v>1015700</v>
       </c>
       <c r="I43" s="3">
-        <v>1237400</v>
+        <v>1055500</v>
       </c>
       <c r="J43" s="3">
+        <v>1182900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1704500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1666800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1533800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1471400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1610600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1603200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1586600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1416700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1619700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1650300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2247600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2454200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2684900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2699500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2565800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2582900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2995800</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>62800</v>
+        <v>55400</v>
       </c>
       <c r="E44" s="3">
-        <v>61000</v>
+        <v>60100</v>
       </c>
       <c r="F44" s="3">
-        <v>82600</v>
+        <v>58300</v>
       </c>
       <c r="G44" s="3">
-        <v>84200</v>
+        <v>79000</v>
       </c>
       <c r="H44" s="3">
-        <v>81900</v>
+        <v>80500</v>
       </c>
       <c r="I44" s="3">
-        <v>74100</v>
+        <v>78300</v>
       </c>
       <c r="J44" s="3">
+        <v>70800</v>
+      </c>
+      <c r="K44" s="3">
         <v>59900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>60200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>66200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>60400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>59600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>56500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>53000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>56600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>48400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>48000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>61200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>65000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>138700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>129300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>115300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>88100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7926900</v>
+        <v>1037100</v>
       </c>
       <c r="E45" s="3">
-        <v>7348400</v>
+        <v>7578200</v>
       </c>
       <c r="F45" s="3">
-        <v>7257300</v>
+        <v>7025100</v>
       </c>
       <c r="G45" s="3">
-        <v>7116600</v>
+        <v>6938000</v>
       </c>
       <c r="H45" s="3">
-        <v>5063100</v>
+        <v>6803500</v>
       </c>
       <c r="I45" s="3">
-        <v>4404500</v>
+        <v>4840300</v>
       </c>
       <c r="J45" s="3">
+        <v>4210700</v>
+      </c>
+      <c r="K45" s="3">
         <v>686700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>831500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>948400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1373000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1518100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1470800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1517500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1510600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1613800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1654200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1917000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1804300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1856700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2049900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1864900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1926500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2113900</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9366100</v>
+        <v>3070800</v>
       </c>
       <c r="E46" s="3">
-        <v>9085600</v>
+        <v>8954000</v>
       </c>
       <c r="F46" s="3">
-        <v>9059200</v>
+        <v>8685900</v>
       </c>
       <c r="G46" s="3">
-        <v>8581300</v>
+        <v>8660600</v>
       </c>
       <c r="H46" s="3">
-        <v>6825000</v>
+        <v>8203800</v>
       </c>
       <c r="I46" s="3">
-        <v>6557800</v>
+        <v>6524700</v>
       </c>
       <c r="J46" s="3">
+        <v>6269300</v>
+      </c>
+      <c r="K46" s="3">
         <v>3557700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3735000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3770800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3323400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3780600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3884400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4260200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3802300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4225200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4303100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5652800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6088400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6636400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6762000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6412000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>6502600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>6955700</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>121200</v>
+        <v>1644300</v>
       </c>
       <c r="E47" s="3">
-        <v>144500</v>
+        <v>115900</v>
       </c>
       <c r="F47" s="3">
-        <v>221100</v>
+        <v>138100</v>
       </c>
       <c r="G47" s="3">
-        <v>256700</v>
+        <v>211400</v>
       </c>
       <c r="H47" s="3">
-        <v>314000</v>
+        <v>245400</v>
       </c>
       <c r="I47" s="3">
-        <v>307600</v>
+        <v>300200</v>
       </c>
       <c r="J47" s="3">
+        <v>294100</v>
+      </c>
+      <c r="K47" s="3">
         <v>361200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>482100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>567200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>578000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>588700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>352100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>361700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>141200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>142900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>148400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>177100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>195900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>216900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>228500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>209400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>216900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>226500</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3108600</v>
+        <v>2903200</v>
       </c>
       <c r="E48" s="3">
-        <v>3168900</v>
+        <v>2971900</v>
       </c>
       <c r="F48" s="3">
-        <v>3230700</v>
+        <v>3029500</v>
       </c>
       <c r="G48" s="3">
-        <v>3358400</v>
+        <v>3088600</v>
       </c>
       <c r="H48" s="3">
-        <v>4611600</v>
+        <v>3210600</v>
       </c>
       <c r="I48" s="3">
-        <v>4744300</v>
+        <v>4408700</v>
       </c>
       <c r="J48" s="3">
+        <v>4535500</v>
+      </c>
+      <c r="K48" s="3">
         <v>8104400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7873800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7804800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7186800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7223000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6688800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6539000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5071100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5095300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5027500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6289300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6919300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6805600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6753900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6512100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>6426600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>6291400</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>747200</v>
+        <v>666300</v>
       </c>
       <c r="E49" s="3">
-        <v>783900</v>
+        <v>714400</v>
       </c>
       <c r="F49" s="3">
-        <v>620700</v>
+        <v>749400</v>
       </c>
       <c r="G49" s="3">
-        <v>658600</v>
+        <v>593400</v>
       </c>
       <c r="H49" s="3">
-        <v>691100</v>
+        <v>629600</v>
       </c>
       <c r="I49" s="3">
-        <v>723700</v>
+        <v>660700</v>
       </c>
       <c r="J49" s="3">
+        <v>691800</v>
+      </c>
+      <c r="K49" s="3">
         <v>687000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>709800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>743300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>738400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>551800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1152600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1193800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1239600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1387800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1444800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1928400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2140900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2740300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2817800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2696100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1221800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>832100</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2057800</v>
+        <v>1222100</v>
       </c>
       <c r="E52" s="3">
-        <v>2072100</v>
+        <v>1967300</v>
       </c>
       <c r="F52" s="3">
-        <v>1649500</v>
+        <v>1981000</v>
       </c>
       <c r="G52" s="3">
-        <v>1801700</v>
+        <v>1576900</v>
       </c>
       <c r="H52" s="3">
-        <v>1835000</v>
+        <v>1722500</v>
       </c>
       <c r="I52" s="3">
-        <v>2117100</v>
+        <v>1754200</v>
       </c>
       <c r="J52" s="3">
+        <v>2024000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1510100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1447800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1517300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1451800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1524200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1444400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1419600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1419800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1588400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1553100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1991300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2253000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4740800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4701300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4400600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2194100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5617900</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15401000</v>
+        <v>9506900</v>
       </c>
       <c r="E54" s="3">
-        <v>15254900</v>
+        <v>14723400</v>
       </c>
       <c r="F54" s="3">
-        <v>14781100</v>
+        <v>14583800</v>
       </c>
       <c r="G54" s="3">
-        <v>14656800</v>
+        <v>14130800</v>
       </c>
       <c r="H54" s="3">
-        <v>14276600</v>
+        <v>14011900</v>
       </c>
       <c r="I54" s="3">
-        <v>14450400</v>
+        <v>13648500</v>
       </c>
       <c r="J54" s="3">
+        <v>13814700</v>
+      </c>
+      <c r="K54" s="3">
         <v>14220400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14248600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14403300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13278400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13668300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13522300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13774300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11674100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12439700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12476900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>16038900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>17597700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>21140000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>21263500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>20230100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>16366400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>19923600</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,361 +4056,374 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>775100</v>
+        <v>688800</v>
       </c>
       <c r="E57" s="3">
-        <v>788500</v>
+        <v>741000</v>
       </c>
       <c r="F57" s="3">
-        <v>694000</v>
+        <v>753800</v>
       </c>
       <c r="G57" s="3">
-        <v>764500</v>
+        <v>663500</v>
       </c>
       <c r="H57" s="3">
-        <v>764800</v>
+        <v>730900</v>
       </c>
       <c r="I57" s="3">
-        <v>647100</v>
+        <v>731100</v>
       </c>
       <c r="J57" s="3">
+        <v>618600</v>
+      </c>
+      <c r="K57" s="3">
         <v>916700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>845400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>964500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1033200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1106800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1069200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>998800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>932300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>809500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>765900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1148900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1955500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1819400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1803900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1648700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1631900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1766800</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>650600</v>
+        <v>202900</v>
       </c>
       <c r="E58" s="3">
-        <v>699900</v>
+        <v>622000</v>
       </c>
       <c r="F58" s="3">
-        <v>189600</v>
+        <v>669100</v>
       </c>
       <c r="G58" s="3">
-        <v>891700</v>
+        <v>181200</v>
       </c>
       <c r="H58" s="3">
-        <v>947800</v>
+        <v>852500</v>
       </c>
       <c r="I58" s="3">
-        <v>211300</v>
+        <v>906100</v>
       </c>
       <c r="J58" s="3">
+        <v>202000</v>
+      </c>
+      <c r="K58" s="3">
         <v>365100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>406400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>348900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>339200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>308500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>316300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>274600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>120000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>92600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>55300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>22900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>13976600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>13260500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>13287000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>11958200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>11929200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>11962600</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4234100</v>
+        <v>753000</v>
       </c>
       <c r="E59" s="3">
-        <v>3677400</v>
+        <v>4047800</v>
       </c>
       <c r="F59" s="3">
-        <v>3709500</v>
+        <v>3515700</v>
       </c>
       <c r="G59" s="3">
-        <v>3495000</v>
+        <v>3546300</v>
       </c>
       <c r="H59" s="3">
-        <v>2800800</v>
+        <v>3341200</v>
       </c>
       <c r="I59" s="3">
-        <v>2435300</v>
+        <v>2677600</v>
       </c>
       <c r="J59" s="3">
+        <v>2328100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1093200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1069000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>931000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>813700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>821200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>741200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>853600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>854700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>886300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>839200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1301300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1474000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1595900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1629500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1459300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1642600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1427200</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5659900</v>
+        <v>1644700</v>
       </c>
       <c r="E60" s="3">
-        <v>5165900</v>
+        <v>5410900</v>
       </c>
       <c r="F60" s="3">
-        <v>4593100</v>
+        <v>4938600</v>
       </c>
       <c r="G60" s="3">
-        <v>5151200</v>
+        <v>4391000</v>
       </c>
       <c r="H60" s="3">
-        <v>4513400</v>
+        <v>4924600</v>
       </c>
       <c r="I60" s="3">
-        <v>3293700</v>
+        <v>4314800</v>
       </c>
       <c r="J60" s="3">
+        <v>3148800</v>
+      </c>
+      <c r="K60" s="3">
         <v>2374900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2320700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2244500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2186100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2236600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2126700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2127000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1907000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1788400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1660300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2473100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>17406100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>16675800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>16720400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>15066200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>15203800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>15156600</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5883300</v>
+        <v>4340400</v>
       </c>
       <c r="E61" s="3">
-        <v>6343600</v>
+        <v>5624500</v>
       </c>
       <c r="F61" s="3">
-        <v>6557500</v>
+        <v>6064500</v>
       </c>
       <c r="G61" s="3">
-        <v>4926000</v>
+        <v>6269000</v>
       </c>
       <c r="H61" s="3">
-        <v>5144900</v>
+        <v>4709300</v>
       </c>
       <c r="I61" s="3">
-        <v>5527700</v>
+        <v>4918500</v>
       </c>
       <c r="J61" s="3">
+        <v>5284500</v>
+      </c>
+      <c r="K61" s="3">
         <v>6605000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6383100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6125900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4532600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4594200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4114400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4060300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2814600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2893200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2761000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3137600</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4296,82 +4439,88 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3649400</v>
+        <v>3371200</v>
       </c>
       <c r="E62" s="3">
-        <v>3886900</v>
+        <v>3488900</v>
       </c>
       <c r="F62" s="3">
-        <v>3419300</v>
+        <v>3715900</v>
       </c>
       <c r="G62" s="3">
-        <v>3429600</v>
+        <v>3268900</v>
       </c>
       <c r="H62" s="3">
-        <v>3690200</v>
+        <v>3278800</v>
       </c>
       <c r="I62" s="3">
-        <v>4108500</v>
+        <v>3527800</v>
       </c>
       <c r="J62" s="3">
+        <v>3927700</v>
+      </c>
+      <c r="K62" s="3">
         <v>4065700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3954500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3774000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3272700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3070700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2702200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2729900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2867900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2898700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2944200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3677600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3656000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2249900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2291100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2263300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2816300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2183300</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15198400</v>
+        <v>9362300</v>
       </c>
       <c r="E66" s="3">
-        <v>15402800</v>
+        <v>14529700</v>
       </c>
       <c r="F66" s="3">
-        <v>14573300</v>
+        <v>14725100</v>
       </c>
       <c r="G66" s="3">
-        <v>13509800</v>
+        <v>13932100</v>
       </c>
       <c r="H66" s="3">
-        <v>13351600</v>
+        <v>12915400</v>
       </c>
       <c r="I66" s="3">
-        <v>12933500</v>
+        <v>12764200</v>
       </c>
       <c r="J66" s="3">
+        <v>12364500</v>
+      </c>
+      <c r="K66" s="3">
         <v>13049700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12675600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12177900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10018400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9932200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8982000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8957200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7632900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7631300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7417100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9352500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>21137300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>19003400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>19099400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>17422600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>18216300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>17565100</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6083500</v>
+        <v>-5865700</v>
       </c>
       <c r="E72" s="3">
-        <v>-6434000</v>
+        <v>-5815900</v>
       </c>
       <c r="F72" s="3">
-        <v>-6081900</v>
+        <v>-6151000</v>
       </c>
       <c r="G72" s="3">
-        <v>-5140600</v>
+        <v>-5814300</v>
       </c>
       <c r="H72" s="3">
-        <v>-5364700</v>
+        <v>-4914400</v>
       </c>
       <c r="I72" s="3">
-        <v>-4771600</v>
+        <v>-5128700</v>
       </c>
       <c r="J72" s="3">
+        <v>-4561700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-5121700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4584300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3920900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2558600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2174000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-999500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-287400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1076100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-526800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>82200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>397400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-7467000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1821000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1823000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-952300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-5646300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-1463600</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>202600</v>
+        <v>144500</v>
       </c>
       <c r="E76" s="3">
-        <v>-147900</v>
+        <v>193700</v>
       </c>
       <c r="F76" s="3">
-        <v>207800</v>
+        <v>-141400</v>
       </c>
       <c r="G76" s="3">
-        <v>1147000</v>
+        <v>198700</v>
       </c>
       <c r="H76" s="3">
-        <v>925000</v>
+        <v>1096500</v>
       </c>
       <c r="I76" s="3">
-        <v>1517000</v>
+        <v>884300</v>
       </c>
       <c r="J76" s="3">
+        <v>1450200</v>
+      </c>
+      <c r="K76" s="3">
         <v>1170700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1572900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2225400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3260000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3736100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4540200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4817100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4041200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4808300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5059700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6686400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-3539600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2136600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2164100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2807500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1849900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2358500</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>348700</v>
+        <v>-60000</v>
       </c>
       <c r="E81" s="3">
-        <v>-353200</v>
+        <v>333400</v>
       </c>
       <c r="F81" s="3">
-        <v>-941800</v>
+        <v>-337700</v>
       </c>
       <c r="G81" s="3">
-        <v>222900</v>
+        <v>-900400</v>
       </c>
       <c r="H81" s="3">
-        <v>-603400</v>
+        <v>204600</v>
       </c>
       <c r="I81" s="3">
-        <v>351800</v>
+        <v>-576800</v>
       </c>
       <c r="J81" s="3">
+        <v>336400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-516300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-664100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1223200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1662400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1078000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-276100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-599100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-247300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5418700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7132500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-743600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1107400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-46800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1070600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>192400</v>
+        <v>193900</v>
       </c>
       <c r="E83" s="3">
-        <v>200200</v>
+        <v>183900</v>
       </c>
       <c r="F83" s="3">
-        <v>212800</v>
+        <v>191400</v>
       </c>
       <c r="G83" s="3">
-        <v>140800</v>
+        <v>203400</v>
       </c>
       <c r="H83" s="3">
-        <v>229400</v>
+        <v>134600</v>
       </c>
       <c r="I83" s="3">
-        <v>-163200</v>
+        <v>219300</v>
       </c>
       <c r="J83" s="3">
+        <v>-156000</v>
+      </c>
+      <c r="K83" s="3">
         <v>340500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>335900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>333300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1269600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>328700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>306200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>299200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>265200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>272300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>528000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>296200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>186400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>371800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>751700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>376900</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>384100</v>
       </c>
       <c r="Z83" s="3">
         <v>384100</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>384100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>162200</v>
+        <v>-406200</v>
       </c>
       <c r="E89" s="3">
-        <v>297700</v>
+        <v>155000</v>
       </c>
       <c r="F89" s="3">
-        <v>155800</v>
+        <v>284600</v>
       </c>
       <c r="G89" s="3">
-        <v>-387300</v>
+        <v>149000</v>
       </c>
       <c r="H89" s="3">
-        <v>-87900</v>
+        <v>-370300</v>
       </c>
       <c r="I89" s="3">
-        <v>142100</v>
+        <v>-84000</v>
       </c>
       <c r="J89" s="3">
+        <v>135900</v>
+      </c>
+      <c r="K89" s="3">
         <v>375600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>256200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>102300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>427000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>225500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>43300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-88100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>108900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>204400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>212200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>190200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>135200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>380300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>613000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>227400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>401600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>594500</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-86700</v>
+        <v>-99300</v>
       </c>
       <c r="E91" s="3">
-        <v>-234600</v>
+        <v>-82900</v>
       </c>
       <c r="F91" s="3">
-        <v>-223200</v>
+        <v>-224300</v>
       </c>
       <c r="G91" s="3">
-        <v>-97300</v>
+        <v>-213400</v>
       </c>
       <c r="H91" s="3">
-        <v>-129800</v>
+        <v>-93000</v>
       </c>
       <c r="I91" s="3">
-        <v>-406900</v>
+        <v>-124100</v>
       </c>
       <c r="J91" s="3">
+        <v>-389000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-46700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>7400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-228900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1371500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-371700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-313800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-264200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-242900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-204800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-513900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-353700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-257900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-311700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-544300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-497100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-437700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-103100</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-357000</v>
+        <v>3666100</v>
       </c>
       <c r="E94" s="3">
-        <v>-239000</v>
+        <v>-341300</v>
       </c>
       <c r="F94" s="3">
-        <v>-320600</v>
+        <v>-228500</v>
       </c>
       <c r="G94" s="3">
-        <v>-271300</v>
+        <v>-306500</v>
       </c>
       <c r="H94" s="3">
-        <v>-108000</v>
+        <v>-259300</v>
       </c>
       <c r="I94" s="3">
-        <v>-359500</v>
+        <v>-103200</v>
       </c>
       <c r="J94" s="3">
+        <v>-343700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-358500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-220800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>276100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1265300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-347200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-314200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-249400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-216600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-183500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-501700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-334300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-306200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-291300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-536100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-235400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-216200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-58500</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6518,11 +6752,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -6548,19 +6782,22 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-15200</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,115 +7024,121 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-101300</v>
+        <v>-2640600</v>
       </c>
       <c r="E100" s="3">
+        <v>-96900</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-71300</v>
+      </c>
+      <c r="G100" s="3">
+        <v>462900</v>
+      </c>
+      <c r="H100" s="3">
+        <v>383900</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-74600</v>
       </c>
-      <c r="F100" s="3">
-        <v>484200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>401600</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-70900</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-75400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-74600</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-74400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>379400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>412900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-81300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-77700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>628700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-11100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-27000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-40000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-41000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-21100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-17100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-139100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>27900</v>
+        <v>-5700</v>
       </c>
       <c r="E101" s="3">
-        <v>-4200</v>
+        <v>26700</v>
       </c>
       <c r="F101" s="3">
-        <v>-8200</v>
+        <v>-4000</v>
       </c>
       <c r="G101" s="3">
-        <v>-1100</v>
+        <v>-7900</v>
       </c>
       <c r="H101" s="3">
-        <v>800</v>
+        <v>-1000</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>35000</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -6900,107 +7149,113 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-3300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-35800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-61800</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-268200</v>
+        <v>613500</v>
       </c>
       <c r="E102" s="3">
-        <v>-20100</v>
+        <v>-256400</v>
       </c>
       <c r="F102" s="3">
-        <v>311200</v>
+        <v>-19300</v>
       </c>
       <c r="G102" s="3">
-        <v>-258100</v>
+        <v>297500</v>
       </c>
       <c r="H102" s="3">
-        <v>-265900</v>
+        <v>-246700</v>
       </c>
       <c r="I102" s="3">
-        <v>-265200</v>
+        <v>-254200</v>
       </c>
       <c r="J102" s="3">
+        <v>-253500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-75800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-46600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>780700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-425400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-203000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-348600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>291200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-122000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-326900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-184300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-191200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>71700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-60200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-14700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>151500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>521000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OIBRQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OIBRQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>OIBRQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>482600</v>
+        <v>536400</v>
       </c>
       <c r="E8" s="3">
-        <v>465300</v>
+        <v>499500</v>
       </c>
       <c r="F8" s="3">
-        <v>704700</v>
+        <v>481500</v>
       </c>
       <c r="G8" s="3">
-        <v>419800</v>
+        <v>729300</v>
       </c>
       <c r="H8" s="3">
-        <v>491500</v>
+        <v>510200</v>
       </c>
       <c r="I8" s="3">
-        <v>493400</v>
+        <v>508700</v>
       </c>
       <c r="J8" s="3">
+        <v>510600</v>
+      </c>
+      <c r="K8" s="3">
         <v>730200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>452200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>448300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>470500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1937900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>938100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>901500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>908400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>957100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1014200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2074900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1323700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1494100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1528900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3076100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1528100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1568600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1586300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>435400</v>
+        <v>582600</v>
       </c>
       <c r="E9" s="3">
-        <v>352500</v>
+        <v>450600</v>
       </c>
       <c r="F9" s="3">
-        <v>876900</v>
+        <v>364800</v>
       </c>
       <c r="G9" s="3">
-        <v>342200</v>
+        <v>907500</v>
       </c>
       <c r="H9" s="3">
-        <v>398900</v>
+        <v>427800</v>
       </c>
       <c r="I9" s="3">
-        <v>398300</v>
+        <v>412800</v>
       </c>
       <c r="J9" s="3">
+        <v>412300</v>
+      </c>
+      <c r="K9" s="3">
         <v>543200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>327700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>278400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>360600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1474400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>718300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>683400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>685900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>791100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>729400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1443700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>873000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>799200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>963600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1928400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>942400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>806300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>991000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>47200</v>
+        <v>-46200</v>
       </c>
       <c r="E10" s="3">
-        <v>112800</v>
+        <v>48900</v>
       </c>
       <c r="F10" s="3">
-        <v>-172200</v>
+        <v>116700</v>
       </c>
       <c r="G10" s="3">
-        <v>77600</v>
+        <v>-178200</v>
       </c>
       <c r="H10" s="3">
-        <v>92600</v>
+        <v>82400</v>
       </c>
       <c r="I10" s="3">
-        <v>95000</v>
+        <v>95800</v>
       </c>
       <c r="J10" s="3">
+        <v>98300</v>
+      </c>
+      <c r="K10" s="3">
         <v>187000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>124500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>169800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>109900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>463500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>219800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>218100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>222500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>166000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>284900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>631100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>450700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>694900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>565400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1147700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>585700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>762300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>595400</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1215,14 +1235,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1234,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>10400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-2055700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-2594500</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>597000</v>
+        <v>728500</v>
       </c>
       <c r="E17" s="3">
-        <v>534400</v>
+        <v>617900</v>
       </c>
       <c r="F17" s="3">
-        <v>944900</v>
+        <v>553100</v>
       </c>
       <c r="G17" s="3">
-        <v>535900</v>
+        <v>978000</v>
       </c>
       <c r="H17" s="3">
-        <v>593300</v>
+        <v>643500</v>
       </c>
       <c r="I17" s="3">
-        <v>449000</v>
+        <v>614000</v>
       </c>
       <c r="J17" s="3">
+        <v>464700</v>
+      </c>
+      <c r="K17" s="3">
         <v>780400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>558600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>504200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>505600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2787100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1538200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>954300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>744600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1972800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1025700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>-60700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>-1341700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2243800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1472200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2922700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1445200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1932900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1562400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-114400</v>
+        <v>-192200</v>
       </c>
       <c r="E18" s="3">
-        <v>-69100</v>
+        <v>-118400</v>
       </c>
       <c r="F18" s="3">
-        <v>-240200</v>
+        <v>-71500</v>
       </c>
       <c r="G18" s="3">
-        <v>-116100</v>
+        <v>-248600</v>
       </c>
       <c r="H18" s="3">
-        <v>-101800</v>
+        <v>-133300</v>
       </c>
       <c r="I18" s="3">
-        <v>44400</v>
+        <v>-105400</v>
       </c>
       <c r="J18" s="3">
+        <v>45900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-50200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-106400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-55900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-35100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-849200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-52800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>163800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1015600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-11500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2135500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2665300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-749700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>56800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>153400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>82900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-364300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-371200</v>
+        <v>-209500</v>
       </c>
       <c r="E20" s="3">
-        <v>635000</v>
+        <v>-384200</v>
       </c>
       <c r="F20" s="3">
-        <v>-333400</v>
+        <v>657200</v>
       </c>
       <c r="G20" s="3">
-        <v>-550400</v>
+        <v>-345000</v>
       </c>
       <c r="H20" s="3">
-        <v>441400</v>
+        <v>-636400</v>
       </c>
       <c r="I20" s="3">
-        <v>-522300</v>
+        <v>456800</v>
       </c>
       <c r="J20" s="3">
+        <v>-540600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-234900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-217300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-356000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-917700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-464400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-363700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-172200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>74800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-178800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3920200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4453000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>730000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>200300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-847100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>170900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>30100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-192100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-291700</v>
+        <v>-188300</v>
       </c>
       <c r="E21" s="3">
-        <v>749800</v>
+        <v>-301900</v>
       </c>
       <c r="F21" s="3">
-        <v>-382200</v>
+        <v>776000</v>
       </c>
       <c r="G21" s="3">
-        <v>-463100</v>
+        <v>-395600</v>
       </c>
       <c r="H21" s="3">
-        <v>474200</v>
+        <v>-559200</v>
       </c>
       <c r="I21" s="3">
-        <v>-258700</v>
+        <v>490800</v>
       </c>
       <c r="J21" s="3">
+        <v>-267700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-60000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-145800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-274900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-740700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-44000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-635100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>81200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>537700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-851000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>82000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>6583700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>7414600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>317700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>478000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>58000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>581300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-156900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>215900</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>187900</v>
+        <v>179900</v>
       </c>
       <c r="E22" s="3">
-        <v>210000</v>
+        <v>194500</v>
       </c>
       <c r="F22" s="3">
-        <v>240600</v>
+        <v>217300</v>
       </c>
       <c r="G22" s="3">
-        <v>245800</v>
+        <v>249000</v>
       </c>
       <c r="H22" s="3">
-        <v>162800</v>
+        <v>212800</v>
       </c>
       <c r="I22" s="3">
-        <v>175200</v>
+        <v>168500</v>
       </c>
       <c r="J22" s="3">
+        <v>181300</v>
+      </c>
+      <c r="K22" s="3">
         <v>128100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>185200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>199900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>233700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>528700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>81900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>71100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>110500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>63000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>80100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>613800</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>254600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>195900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>471000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>203600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>205400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-673500</v>
+        <v>-581500</v>
       </c>
       <c r="E23" s="3">
-        <v>355900</v>
+        <v>-697000</v>
       </c>
       <c r="F23" s="3">
-        <v>-814200</v>
+        <v>368400</v>
       </c>
       <c r="G23" s="3">
-        <v>-912300</v>
+        <v>-842600</v>
       </c>
       <c r="H23" s="3">
-        <v>176800</v>
+        <v>-982600</v>
       </c>
       <c r="I23" s="3">
-        <v>-653100</v>
+        <v>183000</v>
       </c>
       <c r="J23" s="3">
+        <v>-675900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-413300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-508800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-611900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1186500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1842300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1045700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-296100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>128100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1179200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-270400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5442000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>7118400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-274300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>61200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1164700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>50100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-539700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-398200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>862600</v>
+        <v>11600</v>
       </c>
       <c r="E24" s="3">
+        <v>892800</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>-383000</v>
-      </c>
       <c r="G24" s="3">
-        <v>200</v>
+        <v>-396300</v>
       </c>
       <c r="H24" s="3">
         <v>200</v>
       </c>
       <c r="I24" s="3">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="J24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K24" s="3">
         <v>-657800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-6700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>39100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-582800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-23300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>21900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-10200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>527400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>67600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-49200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>97000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>549500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-105800</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1536100</v>
+        <v>-593100</v>
       </c>
       <c r="E26" s="3">
-        <v>355800</v>
+        <v>-1589800</v>
       </c>
       <c r="F26" s="3">
-        <v>-431200</v>
+        <v>368300</v>
       </c>
       <c r="G26" s="3">
-        <v>-912500</v>
+        <v>-446300</v>
       </c>
       <c r="H26" s="3">
-        <v>176600</v>
+        <v>-982800</v>
       </c>
       <c r="I26" s="3">
-        <v>-654700</v>
+        <v>182800</v>
       </c>
       <c r="J26" s="3">
+        <v>-677600</v>
+      </c>
+      <c r="K26" s="3">
         <v>244500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-508600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-612000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1179800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1839900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1084900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-302700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>120200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-596300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-247000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5420100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7128500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-801600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-6400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1115500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-46900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1089200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-292400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1536100</v>
+        <v>-593300</v>
       </c>
       <c r="E27" s="3">
-        <v>355400</v>
+        <v>-1589800</v>
       </c>
       <c r="F27" s="3">
-        <v>-436100</v>
+        <v>367900</v>
       </c>
       <c r="G27" s="3">
-        <v>-912800</v>
+        <v>-451400</v>
       </c>
       <c r="H27" s="3">
-        <v>176600</v>
+        <v>-983000</v>
       </c>
       <c r="I27" s="3">
-        <v>-654000</v>
+        <v>182700</v>
       </c>
       <c r="J27" s="3">
+        <v>-676800</v>
+      </c>
+      <c r="K27" s="3">
         <v>244500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-520100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-595600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1184900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1822400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1078000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-276100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-599100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-247300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5418700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7132500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-743600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1107400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-46800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1070600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,50 +2300,53 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>1476100</v>
+        <v>100</v>
       </c>
       <c r="E29" s="3">
-        <v>-22100</v>
+        <v>1527700</v>
       </c>
       <c r="F29" s="3">
-        <v>98400</v>
+        <v>-22800</v>
       </c>
       <c r="G29" s="3">
-        <v>12400</v>
+        <v>101900</v>
       </c>
       <c r="H29" s="3">
-        <v>28000</v>
+        <v>42400</v>
       </c>
       <c r="I29" s="3">
-        <v>77100</v>
+        <v>29000</v>
       </c>
       <c r="J29" s="3">
+        <v>79800</v>
+      </c>
+      <c r="K29" s="3">
         <v>91900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>3800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-68500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-38300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>160000</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
@@ -2301,8 +2362,8 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2313,14 +2374,17 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>371200</v>
+        <v>209500</v>
       </c>
       <c r="E32" s="3">
-        <v>-635000</v>
+        <v>384200</v>
       </c>
       <c r="F32" s="3">
-        <v>333400</v>
+        <v>-657200</v>
       </c>
       <c r="G32" s="3">
-        <v>550400</v>
+        <v>345000</v>
       </c>
       <c r="H32" s="3">
-        <v>-441400</v>
+        <v>636400</v>
       </c>
       <c r="I32" s="3">
-        <v>522300</v>
+        <v>-456800</v>
       </c>
       <c r="J32" s="3">
+        <v>540600</v>
+      </c>
+      <c r="K32" s="3">
         <v>234900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>217300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>356000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>917700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>464400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>363700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>172200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-74800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>178800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3920200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4453000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-730000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-200300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>847100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-170900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-30100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>192100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-60000</v>
+        <v>-593200</v>
       </c>
       <c r="E33" s="3">
-        <v>333400</v>
+        <v>-62100</v>
       </c>
       <c r="F33" s="3">
-        <v>-337700</v>
+        <v>345000</v>
       </c>
       <c r="G33" s="3">
-        <v>-900400</v>
+        <v>-349500</v>
       </c>
       <c r="H33" s="3">
-        <v>204600</v>
+        <v>-940600</v>
       </c>
       <c r="I33" s="3">
-        <v>-576800</v>
+        <v>211800</v>
       </c>
       <c r="J33" s="3">
+        <v>-597000</v>
+      </c>
+      <c r="K33" s="3">
         <v>336400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-516300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-664100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1223200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1662400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1078000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-276100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>100600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-599100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-247300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5418700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>7132500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-743600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1107400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-46800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1070600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-60000</v>
+        <v>-593200</v>
       </c>
       <c r="E35" s="3">
-        <v>333400</v>
+        <v>-62100</v>
       </c>
       <c r="F35" s="3">
-        <v>-337700</v>
+        <v>345000</v>
       </c>
       <c r="G35" s="3">
-        <v>-900400</v>
+        <v>-349500</v>
       </c>
       <c r="H35" s="3">
-        <v>204600</v>
+        <v>-940600</v>
       </c>
       <c r="I35" s="3">
-        <v>-576800</v>
+        <v>211800</v>
       </c>
       <c r="J35" s="3">
+        <v>-597000</v>
+      </c>
+      <c r="K35" s="3">
         <v>336400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-516300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-664100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1223200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1662400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1078000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-276100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>100600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-599100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-247300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5418700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>7132500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-743600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1107400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-46800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1070600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,701 +3007,729 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>902900</v>
+        <v>654200</v>
       </c>
       <c r="E41" s="3">
-        <v>289300</v>
+        <v>934500</v>
       </c>
       <c r="F41" s="3">
-        <v>545800</v>
+        <v>299500</v>
       </c>
       <c r="G41" s="3">
-        <v>565000</v>
+        <v>564900</v>
       </c>
       <c r="H41" s="3">
-        <v>267600</v>
+        <v>584800</v>
       </c>
       <c r="I41" s="3">
-        <v>514300</v>
+        <v>276900</v>
       </c>
       <c r="J41" s="3">
+        <v>532300</v>
+      </c>
+      <c r="K41" s="3">
         <v>768600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1069100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1139600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1186200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>384500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>558700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>719100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1067700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>782300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>937900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>942900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1418200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1759500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1950600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1878900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1861600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1876300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1724800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>36600</v>
+        <v>38900</v>
       </c>
       <c r="E42" s="3">
-        <v>35800</v>
+        <v>37900</v>
       </c>
       <c r="F42" s="3">
+        <v>37100</v>
+      </c>
+      <c r="G42" s="3">
+        <v>36500</v>
+      </c>
+      <c r="H42" s="3">
+        <v>37200</v>
+      </c>
+      <c r="I42" s="3">
+        <v>37700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>37500</v>
+      </c>
+      <c r="K42" s="3">
+        <v>36200</v>
+      </c>
+      <c r="L42" s="3">
+        <v>37300</v>
+      </c>
+      <c r="M42" s="3">
+        <v>36900</v>
+      </c>
+      <c r="N42" s="3">
+        <v>36200</v>
+      </c>
+      <c r="O42" s="3">
+        <v>34000</v>
+      </c>
+      <c r="P42" s="3">
+        <v>33500</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>34800</v>
+      </c>
+      <c r="R42" s="3">
         <v>35300</v>
       </c>
-      <c r="G42" s="3">
-        <v>35900</v>
-      </c>
-      <c r="H42" s="3">
-        <v>36500</v>
-      </c>
-      <c r="I42" s="3">
-        <v>36300</v>
-      </c>
-      <c r="J42" s="3">
-        <v>36200</v>
-      </c>
-      <c r="K42" s="3">
-        <v>37300</v>
-      </c>
-      <c r="L42" s="3">
-        <v>36900</v>
-      </c>
-      <c r="M42" s="3">
-        <v>36200</v>
-      </c>
-      <c r="N42" s="3">
-        <v>34000</v>
-      </c>
-      <c r="O42" s="3">
-        <v>33500</v>
-      </c>
-      <c r="P42" s="3">
-        <v>34800</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>35300</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>36000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>5500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>7700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>8800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>5500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>5600</v>
-      </c>
-      <c r="X42" s="3">
-        <v>4400</v>
       </c>
       <c r="Y42" s="3">
         <v>4400</v>
       </c>
       <c r="Z42" s="3">
+        <v>4400</v>
+      </c>
+      <c r="AA42" s="3">
         <v>28900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>26700</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1038800</v>
+        <v>1046700</v>
       </c>
       <c r="E43" s="3">
-        <v>990600</v>
+        <v>1075100</v>
       </c>
       <c r="F43" s="3">
-        <v>1021400</v>
+        <v>1025200</v>
       </c>
       <c r="G43" s="3">
-        <v>1042700</v>
+        <v>1057100</v>
       </c>
       <c r="H43" s="3">
-        <v>1015700</v>
+        <v>1079100</v>
       </c>
       <c r="I43" s="3">
-        <v>1055500</v>
+        <v>1051200</v>
       </c>
       <c r="J43" s="3">
+        <v>1092400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1182900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1704500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1666800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1533800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1471400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1610600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1603200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1586600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1416700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1619700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1650300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2247600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2454200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2684900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2699500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2565800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2582900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2995800</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>55400</v>
+        <v>55800</v>
       </c>
       <c r="E44" s="3">
-        <v>60100</v>
+        <v>57400</v>
       </c>
       <c r="F44" s="3">
-        <v>58300</v>
+        <v>62200</v>
       </c>
       <c r="G44" s="3">
-        <v>79000</v>
+        <v>60300</v>
       </c>
       <c r="H44" s="3">
-        <v>80500</v>
+        <v>81700</v>
       </c>
       <c r="I44" s="3">
-        <v>78300</v>
+        <v>83300</v>
       </c>
       <c r="J44" s="3">
+        <v>81000</v>
+      </c>
+      <c r="K44" s="3">
         <v>70800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>59900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>60200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>66200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>60400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>59600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>56500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>53000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>56600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>48400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>48000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>61200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>65000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>138700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>129300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>115300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>88100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1037100</v>
+        <v>839300</v>
       </c>
       <c r="E45" s="3">
-        <v>7578200</v>
+        <v>1073300</v>
       </c>
       <c r="F45" s="3">
-        <v>7025100</v>
+        <v>7843100</v>
       </c>
       <c r="G45" s="3">
-        <v>6938000</v>
+        <v>7270700</v>
       </c>
       <c r="H45" s="3">
-        <v>6803500</v>
+        <v>7180500</v>
       </c>
       <c r="I45" s="3">
-        <v>4840300</v>
+        <v>7041400</v>
       </c>
       <c r="J45" s="3">
+        <v>5009500</v>
+      </c>
+      <c r="K45" s="3">
         <v>4210700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>686700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>831500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>948400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1373000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1518100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1470800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1517500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1510600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1613800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1654200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1917000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1804300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1856700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2049900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1864900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1926500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2113900</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3070800</v>
+        <v>2635000</v>
       </c>
       <c r="E46" s="3">
-        <v>8954000</v>
+        <v>3178200</v>
       </c>
       <c r="F46" s="3">
-        <v>8685900</v>
+        <v>9267000</v>
       </c>
       <c r="G46" s="3">
-        <v>8660600</v>
+        <v>8989500</v>
       </c>
       <c r="H46" s="3">
-        <v>8203800</v>
+        <v>8963300</v>
       </c>
       <c r="I46" s="3">
-        <v>6524700</v>
+        <v>8490600</v>
       </c>
       <c r="J46" s="3">
+        <v>6752800</v>
+      </c>
+      <c r="K46" s="3">
         <v>6269300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3557700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3735000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3770800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3323400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3780600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3884400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4260200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3802300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4225200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4303100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5652800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6088400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6636400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6762000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>6412000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>6502600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>6955700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1644300</v>
+        <v>1619400</v>
       </c>
       <c r="E47" s="3">
-        <v>115900</v>
+        <v>1701800</v>
       </c>
       <c r="F47" s="3">
-        <v>138100</v>
+        <v>119900</v>
       </c>
       <c r="G47" s="3">
-        <v>211400</v>
+        <v>142900</v>
       </c>
       <c r="H47" s="3">
-        <v>245400</v>
+        <v>218800</v>
       </c>
       <c r="I47" s="3">
-        <v>300200</v>
+        <v>254000</v>
       </c>
       <c r="J47" s="3">
+        <v>310700</v>
+      </c>
+      <c r="K47" s="3">
         <v>294100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>361200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>482100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>567200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>578000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>588700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>352100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>361700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>141200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>142900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>148400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>177100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>195900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>216900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>228500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>209400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>216900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>226500</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2903200</v>
+        <v>3241900</v>
       </c>
       <c r="E48" s="3">
-        <v>2971900</v>
+        <v>3004700</v>
       </c>
       <c r="F48" s="3">
-        <v>3029500</v>
+        <v>3075700</v>
       </c>
       <c r="G48" s="3">
-        <v>3088600</v>
+        <v>3135400</v>
       </c>
       <c r="H48" s="3">
-        <v>3210600</v>
+        <v>3196500</v>
       </c>
       <c r="I48" s="3">
-        <v>4408700</v>
+        <v>3322900</v>
       </c>
       <c r="J48" s="3">
+        <v>4562800</v>
+      </c>
+      <c r="K48" s="3">
         <v>4535500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8104400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7873800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7804800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7186800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7223000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6688800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6539000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5071100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5095300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5027500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6289300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6919300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6805600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6753900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>6512100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>6426600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>6291400</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>666300</v>
+        <v>649800</v>
       </c>
       <c r="E49" s="3">
-        <v>714400</v>
+        <v>689600</v>
       </c>
       <c r="F49" s="3">
-        <v>749400</v>
+        <v>739300</v>
       </c>
       <c r="G49" s="3">
-        <v>593400</v>
+        <v>775600</v>
       </c>
       <c r="H49" s="3">
-        <v>629600</v>
+        <v>614100</v>
       </c>
       <c r="I49" s="3">
-        <v>660700</v>
+        <v>651600</v>
       </c>
       <c r="J49" s="3">
+        <v>683800</v>
+      </c>
+      <c r="K49" s="3">
         <v>691800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>687000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>709800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>743300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>738400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>551800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1152600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1193800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1239600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1387800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1444800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1928400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2140900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2740300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2817800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2696100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1221800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>832100</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1222100</v>
+        <v>1308900</v>
       </c>
       <c r="E52" s="3">
-        <v>1967300</v>
+        <v>1264800</v>
       </c>
       <c r="F52" s="3">
-        <v>1981000</v>
+        <v>2036000</v>
       </c>
       <c r="G52" s="3">
-        <v>1576900</v>
+        <v>2050200</v>
       </c>
       <c r="H52" s="3">
-        <v>1722500</v>
+        <v>1632000</v>
       </c>
       <c r="I52" s="3">
-        <v>1754200</v>
+        <v>1782700</v>
       </c>
       <c r="J52" s="3">
+        <v>1815600</v>
+      </c>
+      <c r="K52" s="3">
         <v>2024000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1510100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1447800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1517300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1451800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1524200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1444400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1419600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1419800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1588400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1553100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1991300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2253000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4740800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4701300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4400600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2194100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>5617900</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9506900</v>
+        <v>9455000</v>
       </c>
       <c r="E54" s="3">
-        <v>14723400</v>
+        <v>9839200</v>
       </c>
       <c r="F54" s="3">
-        <v>14583800</v>
+        <v>15238100</v>
       </c>
       <c r="G54" s="3">
-        <v>14130800</v>
+        <v>15093600</v>
       </c>
       <c r="H54" s="3">
-        <v>14011900</v>
+        <v>14624700</v>
       </c>
       <c r="I54" s="3">
-        <v>13648500</v>
+        <v>14501700</v>
       </c>
       <c r="J54" s="3">
+        <v>14125600</v>
+      </c>
+      <c r="K54" s="3">
         <v>13814700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14220400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14248600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14403300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13278400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13668300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13522300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13774300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11674100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12439700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12476900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>16038900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>17597700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>21140000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>21263500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>20230100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>16366400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>19923600</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,376 +4187,389 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>688800</v>
+        <v>798400</v>
       </c>
       <c r="E57" s="3">
-        <v>741000</v>
+        <v>712900</v>
       </c>
       <c r="F57" s="3">
-        <v>753800</v>
+        <v>766900</v>
       </c>
       <c r="G57" s="3">
-        <v>663500</v>
+        <v>780200</v>
       </c>
       <c r="H57" s="3">
-        <v>730900</v>
+        <v>686700</v>
       </c>
       <c r="I57" s="3">
-        <v>731100</v>
+        <v>756400</v>
       </c>
       <c r="J57" s="3">
+        <v>756700</v>
+      </c>
+      <c r="K57" s="3">
         <v>618600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>916700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>845400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>964500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1033200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1106800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1069200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>998800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>932300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>809500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>765900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1148900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1955500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1819400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1803900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1648700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1631900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1766800</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>202900</v>
+        <v>362300</v>
       </c>
       <c r="E58" s="3">
-        <v>622000</v>
+        <v>210000</v>
       </c>
       <c r="F58" s="3">
-        <v>669100</v>
+        <v>643700</v>
       </c>
       <c r="G58" s="3">
-        <v>181200</v>
+        <v>692500</v>
       </c>
       <c r="H58" s="3">
-        <v>852500</v>
+        <v>187600</v>
       </c>
       <c r="I58" s="3">
-        <v>906100</v>
+        <v>882300</v>
       </c>
       <c r="J58" s="3">
+        <v>937800</v>
+      </c>
+      <c r="K58" s="3">
         <v>202000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>365100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>406400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>348900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>339200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>308500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>316300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>274600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>120000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>92600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>55300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>22900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>13976600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>13260500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>13287000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>11958200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>11929200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>11962600</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>753000</v>
+        <v>765300</v>
       </c>
       <c r="E59" s="3">
-        <v>4047800</v>
+        <v>779300</v>
       </c>
       <c r="F59" s="3">
-        <v>3515700</v>
+        <v>4189300</v>
       </c>
       <c r="G59" s="3">
-        <v>3546300</v>
+        <v>3638500</v>
       </c>
       <c r="H59" s="3">
-        <v>3341200</v>
+        <v>3670200</v>
       </c>
       <c r="I59" s="3">
-        <v>2677600</v>
+        <v>3458000</v>
       </c>
       <c r="J59" s="3">
+        <v>2771200</v>
+      </c>
+      <c r="K59" s="3">
         <v>2328100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1093200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1069000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>931000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>813700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>821200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>741200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>853600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>854700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>886300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>839200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1301300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1474000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1595900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1629500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1459300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1642600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1427200</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1644700</v>
+        <v>1926000</v>
       </c>
       <c r="E60" s="3">
-        <v>5410900</v>
+        <v>1702200</v>
       </c>
       <c r="F60" s="3">
-        <v>4938600</v>
+        <v>5600000</v>
       </c>
       <c r="G60" s="3">
-        <v>4391000</v>
+        <v>5111300</v>
       </c>
       <c r="H60" s="3">
-        <v>4924600</v>
+        <v>4544500</v>
       </c>
       <c r="I60" s="3">
-        <v>4314800</v>
+        <v>5096700</v>
       </c>
       <c r="J60" s="3">
+        <v>4465700</v>
+      </c>
+      <c r="K60" s="3">
         <v>3148800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2374900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2320700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2244500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2186100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2236600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2126700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2127000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1907000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1788400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1660300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2473100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>17406100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>16675800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>16720400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>15066200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>15203800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>15156600</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4340400</v>
+        <v>4483500</v>
       </c>
       <c r="E61" s="3">
-        <v>5624500</v>
+        <v>4492200</v>
       </c>
       <c r="F61" s="3">
-        <v>6064500</v>
+        <v>5821100</v>
       </c>
       <c r="G61" s="3">
-        <v>6269000</v>
+        <v>6276500</v>
       </c>
       <c r="H61" s="3">
-        <v>4709300</v>
+        <v>6488200</v>
       </c>
       <c r="I61" s="3">
-        <v>4918500</v>
+        <v>4873900</v>
       </c>
       <c r="J61" s="3">
+        <v>5090400</v>
+      </c>
+      <c r="K61" s="3">
         <v>5284500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6605000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6383100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6125900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4532600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4594200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4114400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4060300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2814600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2893200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2761000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3137600</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4442,85 +4585,91 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3371200</v>
+        <v>3481400</v>
       </c>
       <c r="E62" s="3">
-        <v>3488900</v>
+        <v>3489000</v>
       </c>
       <c r="F62" s="3">
-        <v>3715900</v>
+        <v>3610800</v>
       </c>
       <c r="G62" s="3">
-        <v>3268900</v>
+        <v>3845800</v>
       </c>
       <c r="H62" s="3">
-        <v>3278800</v>
+        <v>3383100</v>
       </c>
       <c r="I62" s="3">
-        <v>3527800</v>
+        <v>3393400</v>
       </c>
       <c r="J62" s="3">
+        <v>3651100</v>
+      </c>
+      <c r="K62" s="3">
         <v>3927700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4065700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3954500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3774000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3272700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3070700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2702200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2729900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2867900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2898700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2944200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3677600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3656000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2249900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2291100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2263300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2816300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2183300</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9362300</v>
+        <v>9897200</v>
       </c>
       <c r="E66" s="3">
-        <v>14529700</v>
+        <v>9689600</v>
       </c>
       <c r="F66" s="3">
-        <v>14725100</v>
+        <v>15037600</v>
       </c>
       <c r="G66" s="3">
-        <v>13932100</v>
+        <v>15239900</v>
       </c>
       <c r="H66" s="3">
-        <v>12915400</v>
+        <v>14419100</v>
       </c>
       <c r="I66" s="3">
-        <v>12764200</v>
+        <v>13366900</v>
       </c>
       <c r="J66" s="3">
+        <v>13210400</v>
+      </c>
+      <c r="K66" s="3">
         <v>12364500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13049700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12675600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12177900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10018400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9932200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8982000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8957200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7632900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7631300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7417100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9352500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>21137300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>19003400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>19099400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>17422600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>18216300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>17565100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-5865700</v>
+        <v>-6662700</v>
       </c>
       <c r="E72" s="3">
-        <v>-5815900</v>
+        <v>-6070700</v>
       </c>
       <c r="F72" s="3">
-        <v>-6151000</v>
+        <v>-6019200</v>
       </c>
       <c r="G72" s="3">
-        <v>-5814300</v>
+        <v>-6366000</v>
       </c>
       <c r="H72" s="3">
-        <v>-4914400</v>
+        <v>-6017500</v>
       </c>
       <c r="I72" s="3">
-        <v>-5128700</v>
+        <v>-5086200</v>
       </c>
       <c r="J72" s="3">
+        <v>-5307900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-4561700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5121700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4584300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3920900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2558600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2174000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-999500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-287400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1076100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-526800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>82200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>397400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-7467000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1821000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1823000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-952300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-5646300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-1463600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>144500</v>
+        <v>-442200</v>
       </c>
       <c r="E76" s="3">
-        <v>193700</v>
+        <v>149600</v>
       </c>
       <c r="F76" s="3">
-        <v>-141400</v>
+        <v>200400</v>
       </c>
       <c r="G76" s="3">
-        <v>198700</v>
+        <v>-146300</v>
       </c>
       <c r="H76" s="3">
-        <v>1096500</v>
+        <v>205600</v>
       </c>
       <c r="I76" s="3">
-        <v>884300</v>
+        <v>1134900</v>
       </c>
       <c r="J76" s="3">
+        <v>915200</v>
+      </c>
+      <c r="K76" s="3">
         <v>1450200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1170700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1572900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2225400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3260000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3736100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4540200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4817100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4041200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4808300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5059700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6686400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-3539600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2136600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2164100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2807500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1849900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2358500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-60000</v>
+        <v>-593200</v>
       </c>
       <c r="E81" s="3">
-        <v>333400</v>
+        <v>-62100</v>
       </c>
       <c r="F81" s="3">
-        <v>-337700</v>
+        <v>345000</v>
       </c>
       <c r="G81" s="3">
-        <v>-900400</v>
+        <v>-349500</v>
       </c>
       <c r="H81" s="3">
-        <v>204600</v>
+        <v>-940600</v>
       </c>
       <c r="I81" s="3">
-        <v>-576800</v>
+        <v>211800</v>
       </c>
       <c r="J81" s="3">
+        <v>-597000</v>
+      </c>
+      <c r="K81" s="3">
         <v>336400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-516300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-664100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1223200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1662400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1078000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-276100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>100600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-599100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-247300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5418700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>7132500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-743600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1107400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-46800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1070600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>193900</v>
+        <v>213300</v>
       </c>
       <c r="E83" s="3">
-        <v>183900</v>
+        <v>200600</v>
       </c>
       <c r="F83" s="3">
-        <v>191400</v>
+        <v>190300</v>
       </c>
       <c r="G83" s="3">
-        <v>203400</v>
+        <v>198100</v>
       </c>
       <c r="H83" s="3">
-        <v>134600</v>
+        <v>210500</v>
       </c>
       <c r="I83" s="3">
-        <v>219300</v>
+        <v>139300</v>
       </c>
       <c r="J83" s="3">
+        <v>226900</v>
+      </c>
+      <c r="K83" s="3">
         <v>-156000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>340500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>335900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>333300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1269600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>328700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>306200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>299200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>265200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>272300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>528000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>296200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>186400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>371800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>751700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>376900</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>384100</v>
       </c>
       <c r="AA83" s="3">
         <v>384100</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>384100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-406200</v>
+        <v>-230300</v>
       </c>
       <c r="E89" s="3">
-        <v>155000</v>
+        <v>-420400</v>
       </c>
       <c r="F89" s="3">
-        <v>284600</v>
+        <v>160500</v>
       </c>
       <c r="G89" s="3">
-        <v>149000</v>
+        <v>294500</v>
       </c>
       <c r="H89" s="3">
-        <v>-370300</v>
+        <v>154200</v>
       </c>
       <c r="I89" s="3">
-        <v>-84000</v>
+        <v>-383200</v>
       </c>
       <c r="J89" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="K89" s="3">
         <v>135900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>375600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>256200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>102300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>427000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>225500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>43300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-88100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>108900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>204400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>212200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>190200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>135200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>380300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>613000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>227400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>401600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>594500</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-99300</v>
+        <v>-28800</v>
       </c>
       <c r="E91" s="3">
-        <v>-82900</v>
+        <v>-102800</v>
       </c>
       <c r="F91" s="3">
-        <v>-224300</v>
+        <v>-85800</v>
       </c>
       <c r="G91" s="3">
-        <v>-213400</v>
+        <v>-232100</v>
       </c>
       <c r="H91" s="3">
-        <v>-93000</v>
+        <v>-220800</v>
       </c>
       <c r="I91" s="3">
-        <v>-124100</v>
+        <v>-96300</v>
       </c>
       <c r="J91" s="3">
+        <v>-128400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-389000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-46700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>7400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-228900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1371500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-371700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-313800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-264200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-242900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-204800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-513900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-353700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-257900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-311700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-544300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-497100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-437700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-103100</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>3666100</v>
+        <v>-21300</v>
       </c>
       <c r="E94" s="3">
-        <v>-341300</v>
+        <v>3794200</v>
       </c>
       <c r="F94" s="3">
-        <v>-228500</v>
+        <v>-353200</v>
       </c>
       <c r="G94" s="3">
-        <v>-306500</v>
+        <v>-236500</v>
       </c>
       <c r="H94" s="3">
-        <v>-259300</v>
+        <v>-317200</v>
       </c>
       <c r="I94" s="3">
-        <v>-103200</v>
+        <v>-268400</v>
       </c>
       <c r="J94" s="3">
+        <v>-106800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-343700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-358500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-220800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>276100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1265300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-347200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-314200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-249400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-216600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-183500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-501700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-334300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-306200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-291300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-536100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-235400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-216200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-58500</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6755,11 +6989,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -6785,19 +7019,22 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-15200</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2640600</v>
+        <v>-31700</v>
       </c>
       <c r="E100" s="3">
-        <v>-96900</v>
+        <v>-2732900</v>
       </c>
       <c r="F100" s="3">
-        <v>-71300</v>
+        <v>-100300</v>
       </c>
       <c r="G100" s="3">
-        <v>462900</v>
+        <v>-73800</v>
       </c>
       <c r="H100" s="3">
-        <v>383900</v>
+        <v>479100</v>
       </c>
       <c r="I100" s="3">
-        <v>-67700</v>
+        <v>397300</v>
       </c>
       <c r="J100" s="3">
+        <v>-70100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-72000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-74600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-74400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>379400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>412900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-81300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-77700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>628700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-11100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-27000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-40000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-41000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-21100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-17100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-139100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-6600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5700</v>
+        <v>3100</v>
       </c>
       <c r="E101" s="3">
-        <v>26700</v>
+        <v>-5900</v>
       </c>
       <c r="F101" s="3">
-        <v>-4000</v>
+        <v>27600</v>
       </c>
       <c r="G101" s="3">
-        <v>-7900</v>
+        <v>-4200</v>
       </c>
       <c r="H101" s="3">
-        <v>-1000</v>
+        <v>-8100</v>
       </c>
       <c r="I101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>800</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="M101" s="3">
+        <v>6800</v>
+      </c>
+      <c r="N101" s="3">
+        <v>35000</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="T101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U101" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="L101" s="3">
-        <v>6800</v>
-      </c>
-      <c r="M101" s="3">
-        <v>35000</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="S101" s="3">
-        <v>1100</v>
-      </c>
-      <c r="T101" s="3">
-        <v>2600</v>
-      </c>
-      <c r="U101" s="3">
-        <v>700</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-35800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-61800</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>613500</v>
+        <v>-280200</v>
       </c>
       <c r="E102" s="3">
-        <v>-256400</v>
+        <v>635000</v>
       </c>
       <c r="F102" s="3">
-        <v>-19300</v>
+        <v>-265400</v>
       </c>
       <c r="G102" s="3">
-        <v>297500</v>
+        <v>-19900</v>
       </c>
       <c r="H102" s="3">
-        <v>-246700</v>
+        <v>307900</v>
       </c>
       <c r="I102" s="3">
-        <v>-254200</v>
+        <v>-255400</v>
       </c>
       <c r="J102" s="3">
+        <v>-263100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-253500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-75800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-46600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>780700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-425400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-203000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-348600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>291200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-122000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-326900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-184300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-191200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>71700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-60200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-14700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>151500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>521000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OIBRQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OIBRQ_QTR_FIN.xlsx
@@ -666,7 +666,7 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -782,25 +782,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>536400</v>
+        <v>557900</v>
       </c>
       <c r="E8" s="3">
-        <v>499500</v>
+        <v>519500</v>
       </c>
       <c r="F8" s="3">
-        <v>481500</v>
+        <v>500900</v>
       </c>
       <c r="G8" s="3">
-        <v>729300</v>
+        <v>758600</v>
       </c>
       <c r="H8" s="3">
-        <v>510200</v>
+        <v>530700</v>
       </c>
       <c r="I8" s="3">
-        <v>508700</v>
+        <v>529100</v>
       </c>
       <c r="J8" s="3">
-        <v>510600</v>
+        <v>531100</v>
       </c>
       <c r="K8" s="3">
         <v>730200</v>
@@ -862,25 +862,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>582600</v>
+        <v>606000</v>
       </c>
       <c r="E9" s="3">
-        <v>450600</v>
+        <v>468700</v>
       </c>
       <c r="F9" s="3">
-        <v>364800</v>
+        <v>379400</v>
       </c>
       <c r="G9" s="3">
-        <v>907500</v>
+        <v>943900</v>
       </c>
       <c r="H9" s="3">
-        <v>427800</v>
+        <v>445000</v>
       </c>
       <c r="I9" s="3">
-        <v>412800</v>
+        <v>429400</v>
       </c>
       <c r="J9" s="3">
-        <v>412300</v>
+        <v>428800</v>
       </c>
       <c r="K9" s="3">
         <v>543200</v>
@@ -942,25 +942,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-46200</v>
+        <v>-48100</v>
       </c>
       <c r="E10" s="3">
-        <v>48900</v>
+        <v>50900</v>
       </c>
       <c r="F10" s="3">
-        <v>116700</v>
+        <v>121400</v>
       </c>
       <c r="G10" s="3">
-        <v>-178200</v>
+        <v>-185300</v>
       </c>
       <c r="H10" s="3">
-        <v>82400</v>
+        <v>85700</v>
       </c>
       <c r="I10" s="3">
-        <v>95800</v>
+        <v>99700</v>
       </c>
       <c r="J10" s="3">
-        <v>98300</v>
+        <v>102300</v>
       </c>
       <c r="K10" s="3">
         <v>187000</v>
@@ -1399,25 +1399,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>728500</v>
+        <v>757800</v>
       </c>
       <c r="E17" s="3">
-        <v>617900</v>
+        <v>642700</v>
       </c>
       <c r="F17" s="3">
-        <v>553100</v>
+        <v>575300</v>
       </c>
       <c r="G17" s="3">
-        <v>978000</v>
+        <v>1017200</v>
       </c>
       <c r="H17" s="3">
-        <v>643500</v>
+        <v>669400</v>
       </c>
       <c r="I17" s="3">
-        <v>614000</v>
+        <v>638700</v>
       </c>
       <c r="J17" s="3">
-        <v>464700</v>
+        <v>483300</v>
       </c>
       <c r="K17" s="3">
         <v>780400</v>
@@ -1479,25 +1479,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-192200</v>
+        <v>-199900</v>
       </c>
       <c r="E18" s="3">
-        <v>-118400</v>
+        <v>-123100</v>
       </c>
       <c r="F18" s="3">
-        <v>-71500</v>
+        <v>-74400</v>
       </c>
       <c r="G18" s="3">
-        <v>-248600</v>
+        <v>-258600</v>
       </c>
       <c r="H18" s="3">
-        <v>-133300</v>
+        <v>-138700</v>
       </c>
       <c r="I18" s="3">
-        <v>-105400</v>
+        <v>-109600</v>
       </c>
       <c r="J18" s="3">
-        <v>45900</v>
+        <v>47800</v>
       </c>
       <c r="K18" s="3">
         <v>-50200</v>
@@ -1589,25 +1589,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-209500</v>
+        <v>-217900</v>
       </c>
       <c r="E20" s="3">
-        <v>-384200</v>
+        <v>-399600</v>
       </c>
       <c r="F20" s="3">
-        <v>657200</v>
+        <v>683600</v>
       </c>
       <c r="G20" s="3">
-        <v>-345000</v>
+        <v>-358900</v>
       </c>
       <c r="H20" s="3">
-        <v>-636400</v>
+        <v>-661900</v>
       </c>
       <c r="I20" s="3">
-        <v>456800</v>
+        <v>475200</v>
       </c>
       <c r="J20" s="3">
-        <v>-540600</v>
+        <v>-562300</v>
       </c>
       <c r="K20" s="3">
         <v>-234900</v>
@@ -1669,25 +1669,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-188300</v>
+        <v>-195900</v>
       </c>
       <c r="E21" s="3">
-        <v>-301900</v>
+        <v>-314000</v>
       </c>
       <c r="F21" s="3">
-        <v>776000</v>
+        <v>807100</v>
       </c>
       <c r="G21" s="3">
-        <v>-395600</v>
+        <v>-411400</v>
       </c>
       <c r="H21" s="3">
-        <v>-559200</v>
+        <v>-581600</v>
       </c>
       <c r="I21" s="3">
-        <v>490800</v>
+        <v>510500</v>
       </c>
       <c r="J21" s="3">
-        <v>-267700</v>
+        <v>-278500</v>
       </c>
       <c r="K21" s="3">
         <v>-60000</v>
@@ -1749,25 +1749,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>179900</v>
+        <v>187100</v>
       </c>
       <c r="E22" s="3">
-        <v>194500</v>
+        <v>202300</v>
       </c>
       <c r="F22" s="3">
-        <v>217300</v>
+        <v>226100</v>
       </c>
       <c r="G22" s="3">
-        <v>249000</v>
+        <v>259000</v>
       </c>
       <c r="H22" s="3">
-        <v>212800</v>
+        <v>221400</v>
       </c>
       <c r="I22" s="3">
-        <v>168500</v>
+        <v>175300</v>
       </c>
       <c r="J22" s="3">
-        <v>181300</v>
+        <v>188600</v>
       </c>
       <c r="K22" s="3">
         <v>128100</v>
@@ -1829,25 +1829,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-581500</v>
+        <v>-604800</v>
       </c>
       <c r="E23" s="3">
-        <v>-697000</v>
+        <v>-725000</v>
       </c>
       <c r="F23" s="3">
-        <v>368400</v>
+        <v>383100</v>
       </c>
       <c r="G23" s="3">
-        <v>-842600</v>
+        <v>-876400</v>
       </c>
       <c r="H23" s="3">
-        <v>-982600</v>
+        <v>-1022000</v>
       </c>
       <c r="I23" s="3">
-        <v>183000</v>
+        <v>190300</v>
       </c>
       <c r="J23" s="3">
-        <v>-675900</v>
+        <v>-703100</v>
       </c>
       <c r="K23" s="3">
         <v>-413300</v>
@@ -1909,19 +1909,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11600</v>
+        <v>12000</v>
       </c>
       <c r="E24" s="3">
-        <v>892800</v>
+        <v>928600</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>-396300</v>
+        <v>-412200</v>
       </c>
       <c r="H24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I24" s="3">
         <v>200</v>
@@ -2069,25 +2069,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-593100</v>
+        <v>-616900</v>
       </c>
       <c r="E26" s="3">
-        <v>-1589800</v>
+        <v>-1653600</v>
       </c>
       <c r="F26" s="3">
-        <v>368300</v>
+        <v>383000</v>
       </c>
       <c r="G26" s="3">
-        <v>-446300</v>
+        <v>-464200</v>
       </c>
       <c r="H26" s="3">
-        <v>-982800</v>
+        <v>-1022200</v>
       </c>
       <c r="I26" s="3">
-        <v>182800</v>
+        <v>190100</v>
       </c>
       <c r="J26" s="3">
-        <v>-677600</v>
+        <v>-704800</v>
       </c>
       <c r="K26" s="3">
         <v>244500</v>
@@ -2149,25 +2149,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-593300</v>
+        <v>-617100</v>
       </c>
       <c r="E27" s="3">
-        <v>-1589800</v>
+        <v>-1653600</v>
       </c>
       <c r="F27" s="3">
-        <v>367900</v>
+        <v>382600</v>
       </c>
       <c r="G27" s="3">
-        <v>-451400</v>
+        <v>-469500</v>
       </c>
       <c r="H27" s="3">
-        <v>-983000</v>
+        <v>-1022500</v>
       </c>
       <c r="I27" s="3">
-        <v>182700</v>
+        <v>190100</v>
       </c>
       <c r="J27" s="3">
-        <v>-676800</v>
+        <v>-704000</v>
       </c>
       <c r="K27" s="3">
         <v>244500</v>
@@ -2312,22 +2312,22 @@
         <v>100</v>
       </c>
       <c r="E29" s="3">
-        <v>1527700</v>
+        <v>1589000</v>
       </c>
       <c r="F29" s="3">
-        <v>-22800</v>
+        <v>-23700</v>
       </c>
       <c r="G29" s="3">
-        <v>101900</v>
+        <v>106000</v>
       </c>
       <c r="H29" s="3">
-        <v>42400</v>
+        <v>44100</v>
       </c>
       <c r="I29" s="3">
-        <v>29000</v>
+        <v>30200</v>
       </c>
       <c r="J29" s="3">
-        <v>79800</v>
+        <v>83000</v>
       </c>
       <c r="K29" s="3">
         <v>91900</v>
@@ -2549,25 +2549,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>209500</v>
+        <v>217900</v>
       </c>
       <c r="E32" s="3">
-        <v>384200</v>
+        <v>399600</v>
       </c>
       <c r="F32" s="3">
-        <v>-657200</v>
+        <v>-683600</v>
       </c>
       <c r="G32" s="3">
-        <v>345000</v>
+        <v>358900</v>
       </c>
       <c r="H32" s="3">
-        <v>636400</v>
+        <v>661900</v>
       </c>
       <c r="I32" s="3">
-        <v>-456800</v>
+        <v>-475200</v>
       </c>
       <c r="J32" s="3">
-        <v>540600</v>
+        <v>562300</v>
       </c>
       <c r="K32" s="3">
         <v>234900</v>
@@ -2629,25 +2629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-593200</v>
+        <v>-617000</v>
       </c>
       <c r="E33" s="3">
-        <v>-62100</v>
+        <v>-64600</v>
       </c>
       <c r="F33" s="3">
-        <v>345000</v>
+        <v>358900</v>
       </c>
       <c r="G33" s="3">
-        <v>-349500</v>
+        <v>-363500</v>
       </c>
       <c r="H33" s="3">
-        <v>-940600</v>
+        <v>-978400</v>
       </c>
       <c r="I33" s="3">
-        <v>211800</v>
+        <v>220300</v>
       </c>
       <c r="J33" s="3">
-        <v>-597000</v>
+        <v>-621000</v>
       </c>
       <c r="K33" s="3">
         <v>336400</v>
@@ -2789,25 +2789,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-593200</v>
+        <v>-617000</v>
       </c>
       <c r="E35" s="3">
-        <v>-62100</v>
+        <v>-64600</v>
       </c>
       <c r="F35" s="3">
-        <v>345000</v>
+        <v>358900</v>
       </c>
       <c r="G35" s="3">
-        <v>-349500</v>
+        <v>-363500</v>
       </c>
       <c r="H35" s="3">
-        <v>-940600</v>
+        <v>-978400</v>
       </c>
       <c r="I35" s="3">
-        <v>211800</v>
+        <v>220300</v>
       </c>
       <c r="J35" s="3">
-        <v>-597000</v>
+        <v>-621000</v>
       </c>
       <c r="K35" s="3">
         <v>336400</v>
@@ -3014,25 +3014,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>654200</v>
+        <v>680500</v>
       </c>
       <c r="E41" s="3">
-        <v>934500</v>
+        <v>971900</v>
       </c>
       <c r="F41" s="3">
-        <v>299500</v>
+        <v>311500</v>
       </c>
       <c r="G41" s="3">
-        <v>564900</v>
+        <v>587500</v>
       </c>
       <c r="H41" s="3">
-        <v>584800</v>
+        <v>608300</v>
       </c>
       <c r="I41" s="3">
-        <v>276900</v>
+        <v>288000</v>
       </c>
       <c r="J41" s="3">
-        <v>532300</v>
+        <v>553600</v>
       </c>
       <c r="K41" s="3">
         <v>768600</v>
@@ -3094,25 +3094,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>38900</v>
+        <v>40500</v>
       </c>
       <c r="E42" s="3">
-        <v>37900</v>
+        <v>39400</v>
       </c>
       <c r="F42" s="3">
-        <v>37100</v>
+        <v>38600</v>
       </c>
       <c r="G42" s="3">
-        <v>36500</v>
+        <v>38000</v>
       </c>
       <c r="H42" s="3">
-        <v>37200</v>
+        <v>38700</v>
       </c>
       <c r="I42" s="3">
-        <v>37700</v>
+        <v>39300</v>
       </c>
       <c r="J42" s="3">
-        <v>37500</v>
+        <v>39000</v>
       </c>
       <c r="K42" s="3">
         <v>36200</v>
@@ -3174,25 +3174,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1046700</v>
+        <v>1088700</v>
       </c>
       <c r="E43" s="3">
-        <v>1075100</v>
+        <v>1118300</v>
       </c>
       <c r="F43" s="3">
-        <v>1025200</v>
+        <v>1066300</v>
       </c>
       <c r="G43" s="3">
-        <v>1057100</v>
+        <v>1099500</v>
       </c>
       <c r="H43" s="3">
-        <v>1079100</v>
+        <v>1122400</v>
       </c>
       <c r="I43" s="3">
-        <v>1051200</v>
+        <v>1093400</v>
       </c>
       <c r="J43" s="3">
-        <v>1092400</v>
+        <v>1136200</v>
       </c>
       <c r="K43" s="3">
         <v>1182900</v>
@@ -3254,25 +3254,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>55800</v>
+        <v>58100</v>
       </c>
       <c r="E44" s="3">
-        <v>57400</v>
+        <v>59700</v>
       </c>
       <c r="F44" s="3">
-        <v>62200</v>
+        <v>64700</v>
       </c>
       <c r="G44" s="3">
-        <v>60300</v>
+        <v>62800</v>
       </c>
       <c r="H44" s="3">
-        <v>81700</v>
+        <v>85000</v>
       </c>
       <c r="I44" s="3">
-        <v>83300</v>
+        <v>86600</v>
       </c>
       <c r="J44" s="3">
-        <v>81000</v>
+        <v>84300</v>
       </c>
       <c r="K44" s="3">
         <v>70800</v>
@@ -3334,25 +3334,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>839300</v>
+        <v>873000</v>
       </c>
       <c r="E45" s="3">
-        <v>1073300</v>
+        <v>1116400</v>
       </c>
       <c r="F45" s="3">
-        <v>7843100</v>
+        <v>8157800</v>
       </c>
       <c r="G45" s="3">
-        <v>7270700</v>
+        <v>7562400</v>
       </c>
       <c r="H45" s="3">
-        <v>7180500</v>
+        <v>7468700</v>
       </c>
       <c r="I45" s="3">
-        <v>7041400</v>
+        <v>7323900</v>
       </c>
       <c r="J45" s="3">
-        <v>5009500</v>
+        <v>5210600</v>
       </c>
       <c r="K45" s="3">
         <v>4210700</v>
@@ -3414,25 +3414,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2635000</v>
+        <v>2740700</v>
       </c>
       <c r="E46" s="3">
-        <v>3178200</v>
+        <v>3305700</v>
       </c>
       <c r="F46" s="3">
-        <v>9267000</v>
+        <v>9638900</v>
       </c>
       <c r="G46" s="3">
-        <v>8989500</v>
+        <v>9350200</v>
       </c>
       <c r="H46" s="3">
-        <v>8963300</v>
+        <v>9323000</v>
       </c>
       <c r="I46" s="3">
-        <v>8490600</v>
+        <v>8831300</v>
       </c>
       <c r="J46" s="3">
-        <v>6752800</v>
+        <v>7023800</v>
       </c>
       <c r="K46" s="3">
         <v>6269300</v>
@@ -3494,25 +3494,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1619400</v>
+        <v>1684400</v>
       </c>
       <c r="E47" s="3">
-        <v>1701800</v>
+        <v>1770100</v>
       </c>
       <c r="F47" s="3">
-        <v>119900</v>
+        <v>124800</v>
       </c>
       <c r="G47" s="3">
-        <v>142900</v>
+        <v>148700</v>
       </c>
       <c r="H47" s="3">
-        <v>218800</v>
+        <v>227600</v>
       </c>
       <c r="I47" s="3">
-        <v>254000</v>
+        <v>264200</v>
       </c>
       <c r="J47" s="3">
-        <v>310700</v>
+        <v>323200</v>
       </c>
       <c r="K47" s="3">
         <v>294100</v>
@@ -3574,25 +3574,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3241900</v>
+        <v>3372000</v>
       </c>
       <c r="E48" s="3">
-        <v>3004700</v>
+        <v>3125300</v>
       </c>
       <c r="F48" s="3">
-        <v>3075700</v>
+        <v>3199200</v>
       </c>
       <c r="G48" s="3">
-        <v>3135400</v>
+        <v>3261200</v>
       </c>
       <c r="H48" s="3">
-        <v>3196500</v>
+        <v>3324800</v>
       </c>
       <c r="I48" s="3">
-        <v>3322900</v>
+        <v>3456200</v>
       </c>
       <c r="J48" s="3">
-        <v>4562800</v>
+        <v>4745900</v>
       </c>
       <c r="K48" s="3">
         <v>4535500</v>
@@ -3654,25 +3654,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>649800</v>
+        <v>675900</v>
       </c>
       <c r="E49" s="3">
-        <v>689600</v>
+        <v>717300</v>
       </c>
       <c r="F49" s="3">
-        <v>739300</v>
+        <v>769000</v>
       </c>
       <c r="G49" s="3">
-        <v>775600</v>
+        <v>806700</v>
       </c>
       <c r="H49" s="3">
-        <v>614100</v>
+        <v>638700</v>
       </c>
       <c r="I49" s="3">
-        <v>651600</v>
+        <v>677700</v>
       </c>
       <c r="J49" s="3">
-        <v>683800</v>
+        <v>711200</v>
       </c>
       <c r="K49" s="3">
         <v>691800</v>
@@ -3894,25 +3894,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1308900</v>
+        <v>1361400</v>
       </c>
       <c r="E52" s="3">
-        <v>1264800</v>
+        <v>1315600</v>
       </c>
       <c r="F52" s="3">
-        <v>2036000</v>
+        <v>2117800</v>
       </c>
       <c r="G52" s="3">
-        <v>2050200</v>
+        <v>2132500</v>
       </c>
       <c r="H52" s="3">
-        <v>1632000</v>
+        <v>1697500</v>
       </c>
       <c r="I52" s="3">
-        <v>1782700</v>
+        <v>1854200</v>
       </c>
       <c r="J52" s="3">
-        <v>1815600</v>
+        <v>1888400</v>
       </c>
       <c r="K52" s="3">
         <v>2024000</v>
@@ -4054,25 +4054,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9455000</v>
+        <v>9834400</v>
       </c>
       <c r="E54" s="3">
-        <v>9839200</v>
+        <v>10234000</v>
       </c>
       <c r="F54" s="3">
-        <v>15238100</v>
+        <v>15849500</v>
       </c>
       <c r="G54" s="3">
-        <v>15093600</v>
+        <v>15699200</v>
       </c>
       <c r="H54" s="3">
-        <v>14624700</v>
+        <v>15211600</v>
       </c>
       <c r="I54" s="3">
-        <v>14501700</v>
+        <v>15083700</v>
       </c>
       <c r="J54" s="3">
-        <v>14125600</v>
+        <v>14692400</v>
       </c>
       <c r="K54" s="3">
         <v>13814700</v>
@@ -4194,25 +4194,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>798400</v>
+        <v>830500</v>
       </c>
       <c r="E57" s="3">
-        <v>712900</v>
+        <v>741500</v>
       </c>
       <c r="F57" s="3">
-        <v>766900</v>
+        <v>797700</v>
       </c>
       <c r="G57" s="3">
-        <v>780200</v>
+        <v>811500</v>
       </c>
       <c r="H57" s="3">
-        <v>686700</v>
+        <v>714200</v>
       </c>
       <c r="I57" s="3">
-        <v>756400</v>
+        <v>786800</v>
       </c>
       <c r="J57" s="3">
-        <v>756700</v>
+        <v>787000</v>
       </c>
       <c r="K57" s="3">
         <v>618600</v>
@@ -4274,25 +4274,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>362300</v>
+        <v>376800</v>
       </c>
       <c r="E58" s="3">
-        <v>210000</v>
+        <v>218400</v>
       </c>
       <c r="F58" s="3">
-        <v>643700</v>
+        <v>669600</v>
       </c>
       <c r="G58" s="3">
-        <v>692500</v>
+        <v>720300</v>
       </c>
       <c r="H58" s="3">
-        <v>187600</v>
+        <v>195100</v>
       </c>
       <c r="I58" s="3">
-        <v>882300</v>
+        <v>917700</v>
       </c>
       <c r="J58" s="3">
-        <v>937800</v>
+        <v>975400</v>
       </c>
       <c r="K58" s="3">
         <v>202000</v>
@@ -4354,25 +4354,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>765300</v>
+        <v>796000</v>
       </c>
       <c r="E59" s="3">
-        <v>779300</v>
+        <v>810600</v>
       </c>
       <c r="F59" s="3">
-        <v>4189300</v>
+        <v>4357500</v>
       </c>
       <c r="G59" s="3">
-        <v>3638500</v>
+        <v>3784600</v>
       </c>
       <c r="H59" s="3">
-        <v>3670200</v>
+        <v>3817500</v>
       </c>
       <c r="I59" s="3">
-        <v>3458000</v>
+        <v>3596800</v>
       </c>
       <c r="J59" s="3">
-        <v>2771200</v>
+        <v>2882400</v>
       </c>
       <c r="K59" s="3">
         <v>2328100</v>
@@ -4434,25 +4434,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1926000</v>
+        <v>2003300</v>
       </c>
       <c r="E60" s="3">
-        <v>1702200</v>
+        <v>1770500</v>
       </c>
       <c r="F60" s="3">
-        <v>5600000</v>
+        <v>5824700</v>
       </c>
       <c r="G60" s="3">
-        <v>5111300</v>
+        <v>5316400</v>
       </c>
       <c r="H60" s="3">
-        <v>4544500</v>
+        <v>4726900</v>
       </c>
       <c r="I60" s="3">
-        <v>5096700</v>
+        <v>5301200</v>
       </c>
       <c r="J60" s="3">
-        <v>4465700</v>
+        <v>4644800</v>
       </c>
       <c r="K60" s="3">
         <v>3148800</v>
@@ -4514,25 +4514,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4483500</v>
+        <v>4663400</v>
       </c>
       <c r="E61" s="3">
-        <v>4492200</v>
+        <v>4672400</v>
       </c>
       <c r="F61" s="3">
-        <v>5821100</v>
+        <v>6054700</v>
       </c>
       <c r="G61" s="3">
-        <v>6276500</v>
+        <v>6528300</v>
       </c>
       <c r="H61" s="3">
-        <v>6488200</v>
+        <v>6748500</v>
       </c>
       <c r="I61" s="3">
-        <v>4873900</v>
+        <v>5069500</v>
       </c>
       <c r="J61" s="3">
-        <v>5090400</v>
+        <v>5294700</v>
       </c>
       <c r="K61" s="3">
         <v>5284500</v>
@@ -4594,25 +4594,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3481400</v>
+        <v>3621100</v>
       </c>
       <c r="E62" s="3">
-        <v>3489000</v>
+        <v>3629000</v>
       </c>
       <c r="F62" s="3">
-        <v>3610800</v>
+        <v>3755700</v>
       </c>
       <c r="G62" s="3">
-        <v>3845800</v>
+        <v>4000100</v>
       </c>
       <c r="H62" s="3">
-        <v>3383100</v>
+        <v>3518900</v>
       </c>
       <c r="I62" s="3">
-        <v>3393400</v>
+        <v>3529500</v>
       </c>
       <c r="J62" s="3">
-        <v>3651100</v>
+        <v>3797600</v>
       </c>
       <c r="K62" s="3">
         <v>3927700</v>
@@ -4914,25 +4914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9897200</v>
+        <v>10294400</v>
       </c>
       <c r="E66" s="3">
-        <v>9689600</v>
+        <v>10078400</v>
       </c>
       <c r="F66" s="3">
-        <v>15037600</v>
+        <v>15641000</v>
       </c>
       <c r="G66" s="3">
-        <v>15239900</v>
+        <v>15851400</v>
       </c>
       <c r="H66" s="3">
-        <v>14419100</v>
+        <v>14997800</v>
       </c>
       <c r="I66" s="3">
-        <v>13366900</v>
+        <v>13903300</v>
       </c>
       <c r="J66" s="3">
-        <v>13210400</v>
+        <v>13740500</v>
       </c>
       <c r="K66" s="3">
         <v>12364500</v>
@@ -5344,25 +5344,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6662700</v>
+        <v>-6930100</v>
       </c>
       <c r="E72" s="3">
-        <v>-6070700</v>
+        <v>-6314400</v>
       </c>
       <c r="F72" s="3">
-        <v>-6019200</v>
+        <v>-6260700</v>
       </c>
       <c r="G72" s="3">
-        <v>-6366000</v>
+        <v>-6621400</v>
       </c>
       <c r="H72" s="3">
-        <v>-6017500</v>
+        <v>-6259000</v>
       </c>
       <c r="I72" s="3">
-        <v>-5086200</v>
+        <v>-5290300</v>
       </c>
       <c r="J72" s="3">
-        <v>-5307900</v>
+        <v>-5520900</v>
       </c>
       <c r="K72" s="3">
         <v>-4561700</v>
@@ -5664,25 +5664,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-442200</v>
+        <v>-459900</v>
       </c>
       <c r="E76" s="3">
-        <v>149600</v>
+        <v>155600</v>
       </c>
       <c r="F76" s="3">
-        <v>200400</v>
+        <v>208500</v>
       </c>
       <c r="G76" s="3">
-        <v>-146300</v>
+        <v>-152200</v>
       </c>
       <c r="H76" s="3">
-        <v>205600</v>
+        <v>213800</v>
       </c>
       <c r="I76" s="3">
-        <v>1134900</v>
+        <v>1180400</v>
       </c>
       <c r="J76" s="3">
-        <v>915200</v>
+        <v>952000</v>
       </c>
       <c r="K76" s="3">
         <v>1450200</v>
@@ -5909,25 +5909,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-593200</v>
+        <v>-617000</v>
       </c>
       <c r="E81" s="3">
-        <v>-62100</v>
+        <v>-64600</v>
       </c>
       <c r="F81" s="3">
-        <v>345000</v>
+        <v>358900</v>
       </c>
       <c r="G81" s="3">
-        <v>-349500</v>
+        <v>-363500</v>
       </c>
       <c r="H81" s="3">
-        <v>-940600</v>
+        <v>-978400</v>
       </c>
       <c r="I81" s="3">
-        <v>211800</v>
+        <v>220300</v>
       </c>
       <c r="J81" s="3">
-        <v>-597000</v>
+        <v>-621000</v>
       </c>
       <c r="K81" s="3">
         <v>336400</v>
@@ -6019,25 +6019,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>213300</v>
+        <v>221900</v>
       </c>
       <c r="E83" s="3">
-        <v>200600</v>
+        <v>208700</v>
       </c>
       <c r="F83" s="3">
-        <v>190300</v>
+        <v>198000</v>
       </c>
       <c r="G83" s="3">
-        <v>198100</v>
+        <v>206000</v>
       </c>
       <c r="H83" s="3">
-        <v>210500</v>
+        <v>219000</v>
       </c>
       <c r="I83" s="3">
-        <v>139300</v>
+        <v>144900</v>
       </c>
       <c r="J83" s="3">
-        <v>226900</v>
+        <v>236000</v>
       </c>
       <c r="K83" s="3">
         <v>-156000</v>
@@ -6499,25 +6499,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-230300</v>
+        <v>-239600</v>
       </c>
       <c r="E89" s="3">
-        <v>-420400</v>
+        <v>-437300</v>
       </c>
       <c r="F89" s="3">
-        <v>160500</v>
+        <v>166900</v>
       </c>
       <c r="G89" s="3">
-        <v>294500</v>
+        <v>306400</v>
       </c>
       <c r="H89" s="3">
-        <v>154200</v>
+        <v>160400</v>
       </c>
       <c r="I89" s="3">
-        <v>-383200</v>
+        <v>-398600</v>
       </c>
       <c r="J89" s="3">
-        <v>-87000</v>
+        <v>-90400</v>
       </c>
       <c r="K89" s="3">
         <v>135900</v>
@@ -6609,25 +6609,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-28800</v>
+        <v>-148500</v>
       </c>
       <c r="E91" s="3">
-        <v>-102800</v>
+        <v>-530800</v>
       </c>
       <c r="F91" s="3">
-        <v>-85800</v>
+        <v>-443000</v>
       </c>
       <c r="G91" s="3">
-        <v>-232100</v>
+        <v>-1198700</v>
       </c>
       <c r="H91" s="3">
-        <v>-220800</v>
+        <v>-1140500</v>
       </c>
       <c r="I91" s="3">
-        <v>-96300</v>
+        <v>-497300</v>
       </c>
       <c r="J91" s="3">
-        <v>-128400</v>
+        <v>-663300</v>
       </c>
       <c r="K91" s="3">
         <v>-389000</v>
@@ -6849,25 +6849,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21300</v>
+        <v>-22200</v>
       </c>
       <c r="E94" s="3">
-        <v>3794200</v>
+        <v>3946500</v>
       </c>
       <c r="F94" s="3">
-        <v>-353200</v>
+        <v>-367400</v>
       </c>
       <c r="G94" s="3">
-        <v>-236500</v>
+        <v>-246000</v>
       </c>
       <c r="H94" s="3">
-        <v>-317200</v>
+        <v>-330000</v>
       </c>
       <c r="I94" s="3">
-        <v>-268400</v>
+        <v>-279200</v>
       </c>
       <c r="J94" s="3">
-        <v>-106800</v>
+        <v>-111100</v>
       </c>
       <c r="K94" s="3">
         <v>-343700</v>
@@ -7279,25 +7279,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-31700</v>
+        <v>-32900</v>
       </c>
       <c r="E100" s="3">
-        <v>-2732900</v>
+        <v>-2842600</v>
       </c>
       <c r="F100" s="3">
-        <v>-100300</v>
+        <v>-104300</v>
       </c>
       <c r="G100" s="3">
-        <v>-73800</v>
+        <v>-76800</v>
       </c>
       <c r="H100" s="3">
-        <v>479100</v>
+        <v>498300</v>
       </c>
       <c r="I100" s="3">
-        <v>397300</v>
+        <v>413300</v>
       </c>
       <c r="J100" s="3">
-        <v>-70100</v>
+        <v>-72900</v>
       </c>
       <c r="K100" s="3">
         <v>-72000</v>
@@ -7359,19 +7359,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="E101" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="F101" s="3">
-        <v>27600</v>
+        <v>28700</v>
       </c>
       <c r="G101" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="H101" s="3">
-        <v>-8100</v>
+        <v>-8500</v>
       </c>
       <c r="I101" s="3">
         <v>-1100</v>
@@ -7439,25 +7439,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-280200</v>
+        <v>-291500</v>
       </c>
       <c r="E102" s="3">
-        <v>635000</v>
+        <v>660500</v>
       </c>
       <c r="F102" s="3">
-        <v>-265400</v>
+        <v>-276100</v>
       </c>
       <c r="G102" s="3">
-        <v>-19900</v>
+        <v>-20700</v>
       </c>
       <c r="H102" s="3">
-        <v>307900</v>
+        <v>320200</v>
       </c>
       <c r="I102" s="3">
-        <v>-255400</v>
+        <v>-265600</v>
       </c>
       <c r="J102" s="3">
-        <v>-263100</v>
+        <v>-273700</v>
       </c>
       <c r="K102" s="3">
         <v>-253500</v>

--- a/AAII_Financials/Quarterly/OIBRQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OIBRQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>OIBRQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,396 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>557900</v>
+        <v>495400</v>
       </c>
       <c r="E8" s="3">
-        <v>519500</v>
+        <v>511800</v>
       </c>
       <c r="F8" s="3">
-        <v>500900</v>
+        <v>534600</v>
       </c>
       <c r="G8" s="3">
-        <v>758600</v>
+        <v>559100</v>
       </c>
       <c r="H8" s="3">
+        <v>520600</v>
+      </c>
+      <c r="I8" s="3">
+        <v>502000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>521600</v>
+      </c>
+      <c r="K8" s="3">
         <v>530700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>529100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>531100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>730200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>452200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>448300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>470500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="3">
         <v>1937900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="3">
         <v>938100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="3">
         <v>901500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="U8" s="3">
         <v>908400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="V8" s="3">
         <v>957100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="W8" s="3">
         <v>1014200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="X8" s="3">
         <v>2074900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="Y8" s="3">
         <v>1323700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Z8" s="3">
         <v>1494100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="AA8" s="3">
         <v>1528900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AB8" s="3">
         <v>3076100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AC8" s="3">
         <v>1528100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AD8" s="3">
         <v>1568600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AE8" s="3">
         <v>1586300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>606000</v>
+        <v>450300</v>
       </c>
       <c r="E9" s="3">
-        <v>468700</v>
+        <v>429000</v>
       </c>
       <c r="F9" s="3">
-        <v>379400</v>
+        <v>699100</v>
       </c>
       <c r="G9" s="3">
-        <v>943900</v>
+        <v>607300</v>
       </c>
       <c r="H9" s="3">
+        <v>469700</v>
+      </c>
+      <c r="I9" s="3">
+        <v>380300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>697100</v>
+      </c>
+      <c r="K9" s="3">
         <v>445000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>429400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>428800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>543200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>327700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>278400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="Q9" s="3">
         <v>360600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="R9" s="3">
         <v>1474400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="S9" s="3">
         <v>718300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="T9" s="3">
         <v>683400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="U9" s="3">
         <v>685900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="V9" s="3">
         <v>791100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="W9" s="3">
         <v>729400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="X9" s="3">
         <v>1443700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="Y9" s="3">
         <v>873000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Z9" s="3">
         <v>799200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="AA9" s="3">
         <v>963600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AB9" s="3">
         <v>1928400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AC9" s="3">
         <v>942400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AD9" s="3">
         <v>806300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AE9" s="3">
         <v>991000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-48100</v>
+        <v>45100</v>
       </c>
       <c r="E10" s="3">
-        <v>50900</v>
+        <v>82800</v>
       </c>
       <c r="F10" s="3">
-        <v>121400</v>
+        <v>-164500</v>
       </c>
       <c r="G10" s="3">
-        <v>-185300</v>
+        <v>-48200</v>
       </c>
       <c r="H10" s="3">
+        <v>51000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>121700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-175500</v>
+      </c>
+      <c r="K10" s="3">
         <v>85700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>99700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>102300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>187000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>124500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>169800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="Q10" s="3">
         <v>109900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="R10" s="3">
         <v>463500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="S10" s="3">
         <v>219800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="T10" s="3">
         <v>218100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="U10" s="3">
         <v>222500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="V10" s="3">
         <v>166000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="W10" s="3">
         <v>284900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="X10" s="3">
         <v>631100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="Y10" s="3">
         <v>450700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Z10" s="3">
         <v>694900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="AA10" s="3">
         <v>565400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AB10" s="3">
         <v>1147700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AC10" s="3">
         <v>585700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AD10" s="3">
         <v>762300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AE10" s="3">
         <v>595400</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1083,11 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1166,17 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,31 +1255,40 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>2876000</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1238,44 +1296,44 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="W14" s="3">
         <v>10400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="X14" s="3">
         <v>-2055700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="Y14" s="3">
         <v>-2594500</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
@@ -1286,8 +1344,17 @@
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1433,17 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1469,189 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>757800</v>
+        <v>549100</v>
       </c>
       <c r="E17" s="3">
-        <v>642700</v>
+        <v>532500</v>
       </c>
       <c r="F17" s="3">
-        <v>575300</v>
+        <v>3822900</v>
       </c>
       <c r="G17" s="3">
-        <v>1017200</v>
+        <v>759400</v>
       </c>
       <c r="H17" s="3">
+        <v>644100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>576500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>731900</v>
+      </c>
+      <c r="K17" s="3">
         <v>669400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>638700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>483300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>780400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>558600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>504200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>505600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>2787100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>1538200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>954300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>744600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="V17" s="3">
         <v>1972800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="W17" s="3">
         <v>1025700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="X17" s="3">
         <v>-60700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="Y17" s="3">
         <v>-1341700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Z17" s="3">
         <v>2243800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="AA17" s="3">
         <v>1472200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AB17" s="3">
         <v>2922700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AC17" s="3">
         <v>1445200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AD17" s="3">
         <v>1932900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AE17" s="3">
         <v>1562400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-199900</v>
+        <v>-53700</v>
       </c>
       <c r="E18" s="3">
-        <v>-123100</v>
+        <v>-20700</v>
       </c>
       <c r="F18" s="3">
-        <v>-74400</v>
+        <v>-3288300</v>
       </c>
       <c r="G18" s="3">
-        <v>-258600</v>
+        <v>-200300</v>
       </c>
       <c r="H18" s="3">
+        <v>-123400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-74600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-210300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-138700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-109600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>47800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>-50200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>-106400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>-55900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-35100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>-849200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>-600100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>-52800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U18" s="3">
         <v>163800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V18" s="3">
         <v>-1015600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="W18" s="3">
         <v>-11500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="X18" s="3">
         <v>2135500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="Y18" s="3">
         <v>2665300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Z18" s="3">
         <v>-749700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="AA18" s="3">
         <v>56800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AB18" s="3">
         <v>153400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AC18" s="3">
         <v>82900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AD18" s="3">
         <v>-364300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AE18" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,408 +1680,456 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-217900</v>
+        <v>-112900</v>
       </c>
       <c r="E20" s="3">
-        <v>-399600</v>
+        <v>-48000</v>
       </c>
       <c r="F20" s="3">
-        <v>683600</v>
+        <v>57600</v>
       </c>
       <c r="G20" s="3">
-        <v>-358900</v>
+        <v>-218400</v>
       </c>
       <c r="H20" s="3">
+        <v>-400500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>685100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-313000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-661900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>475200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>-562300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>-234900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>-217300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-356000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="Q20" s="3">
         <v>-917700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="R20" s="3">
         <v>-464400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="S20" s="3">
         <v>-363700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="T20" s="3">
         <v>-172200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="U20" s="3">
         <v>74800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="V20" s="3">
         <v>-100500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="W20" s="3">
         <v>-178800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="X20" s="3">
         <v>3920200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="Y20" s="3">
         <v>4453000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Z20" s="3">
         <v>730000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="AA20" s="3">
         <v>200300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AB20" s="3">
         <v>-847100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AC20" s="3">
         <v>170900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AD20" s="3">
         <v>30100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AE20" s="3">
         <v>-192100</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-195900</v>
+        <v>-104400</v>
       </c>
       <c r="E21" s="3">
-        <v>-314000</v>
+        <v>-4300</v>
       </c>
       <c r="F21" s="3">
-        <v>807100</v>
+        <v>-3008200</v>
       </c>
       <c r="G21" s="3">
-        <v>-411400</v>
+        <v>-196300</v>
       </c>
       <c r="H21" s="3">
+        <v>-314700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>808900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-316700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-581600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>510500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>-278500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>-60000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>-145800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>-274900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>-740700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>-44000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>-635100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
         <v>81200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="U21" s="3">
         <v>537700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="V21" s="3">
         <v>-851000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="W21" s="3">
         <v>82000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="X21" s="3">
         <v>6583700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="Y21" s="3">
         <v>7414600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Z21" s="3">
         <v>317700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="AA21" s="3">
         <v>478000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AB21" s="3">
         <v>58000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AC21" s="3">
         <v>581300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AD21" s="3">
         <v>-156900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AE21" s="3">
         <v>215900</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>187100</v>
+        <v>1200</v>
       </c>
       <c r="E22" s="3">
-        <v>202300</v>
+        <v>183800</v>
       </c>
       <c r="F22" s="3">
-        <v>226100</v>
+        <v>185000</v>
       </c>
       <c r="G22" s="3">
-        <v>259000</v>
+        <v>187500</v>
       </c>
       <c r="H22" s="3">
+        <v>202700</v>
+      </c>
+      <c r="I22" s="3">
+        <v>226500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>278200</v>
+      </c>
+      <c r="K22" s="3">
         <v>221400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>175300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>188600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>128100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>185200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>199900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="Q22" s="3">
         <v>233700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="R22" s="3">
         <v>528700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="S22" s="3">
         <v>81900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="T22" s="3">
         <v>71100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="U22" s="3">
         <v>110500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="V22" s="3">
         <v>63000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="W22" s="3">
         <v>80100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="X22" s="3">
         <v>613800</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="Y22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Z22" s="3">
         <v>254600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="AA22" s="3">
         <v>195900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AB22" s="3">
         <v>471000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AC22" s="3">
         <v>203600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AD22" s="3">
         <v>205400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AE22" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-604800</v>
+        <v>-167700</v>
       </c>
       <c r="E23" s="3">
-        <v>-725000</v>
+        <v>-252400</v>
       </c>
       <c r="F23" s="3">
-        <v>383100</v>
+        <v>-3415700</v>
       </c>
       <c r="G23" s="3">
-        <v>-876400</v>
+        <v>-606200</v>
       </c>
       <c r="H23" s="3">
+        <v>-726600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>384000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-801400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1022000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>190300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-703100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-413300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-508800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-611900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-1186500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>-1842300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>-1045700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>-296100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
         <v>128100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="V23" s="3">
         <v>-1179200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="W23" s="3">
         <v>-270400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="X23" s="3">
         <v>5442000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="Y23" s="3">
         <v>7118400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Z23" s="3">
         <v>-274300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="AA23" s="3">
         <v>61200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AB23" s="3">
         <v>-1164700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AC23" s="3">
         <v>50100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AD23" s="3">
         <v>-539700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AE23" s="3">
         <v>-398200</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-417800</v>
+      </c>
+      <c r="G24" s="3">
         <v>12000</v>
       </c>
-      <c r="E24" s="3">
-        <v>928600</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
+        <v>930600</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>-412200</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
+        <v>-413100</v>
+      </c>
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>1700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>-657800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="Q24" s="3">
         <v>-6700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="R24" s="3">
         <v>-2400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="S24" s="3">
         <v>39100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="T24" s="3">
         <v>6600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="U24" s="3">
         <v>7900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="V24" s="3">
         <v>-582800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="W24" s="3">
         <v>-23300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="X24" s="3">
         <v>21900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="Y24" s="3">
         <v>-10200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Z24" s="3">
         <v>527400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="AA24" s="3">
         <v>67600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AB24" s="3">
         <v>-49200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AC24" s="3">
         <v>97000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AD24" s="3">
         <v>549500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AE24" s="3">
         <v>-105800</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2208,195 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-616900</v>
+        <v>-170500</v>
       </c>
       <c r="E26" s="3">
-        <v>-1653600</v>
+        <v>-255700</v>
       </c>
       <c r="F26" s="3">
-        <v>383000</v>
+        <v>-2997900</v>
       </c>
       <c r="G26" s="3">
-        <v>-464200</v>
+        <v>-618200</v>
       </c>
       <c r="H26" s="3">
+        <v>-1657200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>383900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-388300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1022200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>190100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-704800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>244500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-508600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-612000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-1179800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-1839900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>-1084900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>-302700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>120200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
         <v>-596300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="W26" s="3">
         <v>-247000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="X26" s="3">
         <v>5420100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="Y26" s="3">
         <v>7128500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Z26" s="3">
         <v>-801600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="AA26" s="3">
         <v>-6400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AB26" s="3">
         <v>-1115500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AC26" s="3">
         <v>-46900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AD26" s="3">
         <v>-1089200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AE26" s="3">
         <v>-292400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-617100</v>
+        <v>-170500</v>
       </c>
       <c r="E27" s="3">
-        <v>-1653600</v>
+        <v>-255800</v>
       </c>
       <c r="F27" s="3">
-        <v>382600</v>
+        <v>-2997700</v>
       </c>
       <c r="G27" s="3">
-        <v>-469500</v>
+        <v>-618500</v>
       </c>
       <c r="H27" s="3">
+        <v>-1657300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>383500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-393600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1022500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>190100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-704000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>244500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-520100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-595600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-1184900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-1822400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-1078000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>-276100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="U27" s="3">
         <v>100600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="V27" s="3">
         <v>-599100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="W27" s="3">
         <v>-247300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="X27" s="3">
         <v>5418700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="Y27" s="3">
         <v>7132500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Z27" s="3">
         <v>-743600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="AA27" s="3">
         <v>2200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AB27" s="3">
         <v>-1107400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AC27" s="3">
         <v>-46800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AD27" s="3">
         <v>-1070600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AE27" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,59 +2475,68 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-567900</v>
+      </c>
+      <c r="G29" s="3">
         <v>100</v>
       </c>
-      <c r="E29" s="3">
-        <v>1589000</v>
-      </c>
-      <c r="F29" s="3">
-        <v>-23700</v>
-      </c>
-      <c r="G29" s="3">
-        <v>106000</v>
-      </c>
       <c r="H29" s="3">
+        <v>1592500</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="J29" s="3">
+        <v>56800</v>
+      </c>
+      <c r="K29" s="3">
         <v>44100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="L29" s="3">
         <v>30200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="M29" s="3">
         <v>83000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="N29" s="3">
         <v>91900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="O29" s="3">
         <v>3800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="P29" s="3">
         <v>-68500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="Q29" s="3">
         <v>-38300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="R29" s="3">
         <v>160000</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
@@ -2365,26 +2546,35 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2653,17 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2742,195 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>217900</v>
+        <v>112900</v>
       </c>
       <c r="E32" s="3">
-        <v>399600</v>
+        <v>48000</v>
       </c>
       <c r="F32" s="3">
-        <v>-683600</v>
+        <v>-57600</v>
       </c>
       <c r="G32" s="3">
-        <v>358900</v>
+        <v>218400</v>
       </c>
       <c r="H32" s="3">
+        <v>400500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-685100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>313000</v>
+      </c>
+      <c r="K32" s="3">
         <v>661900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-475200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>562300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>234900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>217300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>356000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="Q32" s="3">
         <v>917700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="R32" s="3">
         <v>464400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="S32" s="3">
         <v>363700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="T32" s="3">
         <v>172200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="U32" s="3">
         <v>-74800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="V32" s="3">
         <v>100500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="W32" s="3">
         <v>178800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="X32" s="3">
         <v>-3920200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="Y32" s="3">
         <v>-4453000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Z32" s="3">
         <v>-730000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="AA32" s="3">
         <v>-200300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AB32" s="3">
         <v>847100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AC32" s="3">
         <v>-170900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AD32" s="3">
         <v>-30100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AE32" s="3">
         <v>192100</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-617000</v>
+        <v>-170500</v>
       </c>
       <c r="E33" s="3">
-        <v>-64600</v>
+        <v>-255800</v>
       </c>
       <c r="F33" s="3">
-        <v>358900</v>
+        <v>-3565700</v>
       </c>
       <c r="G33" s="3">
-        <v>-363500</v>
+        <v>-618400</v>
       </c>
       <c r="H33" s="3">
+        <v>-64800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>359700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-336800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-978400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>220300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-621000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>336400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-516300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-664100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-1223200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-1662400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-1078000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>-276100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>100600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="V33" s="3">
         <v>-599100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="W33" s="3">
         <v>-247300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="X33" s="3">
         <v>5418700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="Y33" s="3">
         <v>7132500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Z33" s="3">
         <v>-743600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="AA33" s="3">
         <v>2200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AB33" s="3">
         <v>-1107400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AC33" s="3">
         <v>-46800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AD33" s="3">
         <v>-1070600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AE33" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +3009,200 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-617000</v>
+        <v>-170500</v>
       </c>
       <c r="E35" s="3">
-        <v>-64600</v>
+        <v>-255800</v>
       </c>
       <c r="F35" s="3">
-        <v>358900</v>
+        <v>-3565700</v>
       </c>
       <c r="G35" s="3">
-        <v>-363500</v>
+        <v>-618400</v>
       </c>
       <c r="H35" s="3">
+        <v>-64800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>359700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-336800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-978400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>220300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-621000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>336400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-516300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-664100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-1223200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-1662400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-1078000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>-276100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>100600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="V35" s="3">
         <v>-599100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="W35" s="3">
         <v>-247300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="X35" s="3">
         <v>5418700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="Y35" s="3">
         <v>7132500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Z35" s="3">
         <v>-743600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="AA35" s="3">
         <v>2200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AB35" s="3">
         <v>-1107400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AC35" s="3">
         <v>-46800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AD35" s="3">
         <v>-1070600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AE35" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3231,11 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,728 +3264,812 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>680500</v>
+        <v>464300</v>
       </c>
       <c r="E41" s="3">
-        <v>971900</v>
+        <v>320900</v>
       </c>
       <c r="F41" s="3">
-        <v>311500</v>
+        <v>606700</v>
       </c>
       <c r="G41" s="3">
-        <v>587500</v>
+        <v>682000</v>
       </c>
       <c r="H41" s="3">
+        <v>974100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>312200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>588800</v>
+      </c>
+      <c r="K41" s="3">
         <v>608300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>288000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>553600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>768600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>1069100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>1139600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>1186200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="R41" s="3">
         <v>384500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="S41" s="3">
         <v>558700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="T41" s="3">
         <v>719100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="U41" s="3">
         <v>1067700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="V41" s="3">
         <v>782300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="W41" s="3">
         <v>937900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="X41" s="3">
         <v>942900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="Y41" s="3">
         <v>1418200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Z41" s="3">
         <v>1759500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="AA41" s="3">
         <v>1950600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AB41" s="3">
         <v>1878900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AC41" s="3">
         <v>1861600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AD41" s="3">
         <v>1876300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AE41" s="3">
         <v>1724800</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>40500</v>
+        <v>43000</v>
       </c>
       <c r="E42" s="3">
-        <v>39400</v>
+        <v>41100</v>
       </c>
       <c r="F42" s="3">
-        <v>38600</v>
+        <v>41800</v>
       </c>
       <c r="G42" s="3">
-        <v>38000</v>
+        <v>40600</v>
       </c>
       <c r="H42" s="3">
+        <v>39500</v>
+      </c>
+      <c r="I42" s="3">
         <v>38700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
+        <v>38100</v>
+      </c>
+      <c r="K42" s="3">
+        <v>38700</v>
+      </c>
+      <c r="L42" s="3">
         <v>39300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>39000</v>
-      </c>
-      <c r="K42" s="3">
-        <v>36200</v>
-      </c>
-      <c r="L42" s="3">
-        <v>37300</v>
-      </c>
-      <c r="M42" s="3">
-        <v>36900</v>
       </c>
       <c r="N42" s="3">
         <v>36200</v>
       </c>
       <c r="O42" s="3">
+        <v>37300</v>
+      </c>
+      <c r="P42" s="3">
+        <v>36900</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>36200</v>
+      </c>
+      <c r="R42" s="3">
         <v>34000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="S42" s="3">
         <v>33500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="T42" s="3">
         <v>34800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="U42" s="3">
         <v>35300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="V42" s="3">
         <v>36000</v>
-      </c>
-      <c r="T42" s="3">
-        <v>5500</v>
-      </c>
-      <c r="U42" s="3">
-        <v>7700</v>
-      </c>
-      <c r="V42" s="3">
-        <v>8800</v>
       </c>
       <c r="W42" s="3">
         <v>5500</v>
       </c>
       <c r="X42" s="3">
+        <v>7700</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>8800</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>5500</v>
+      </c>
+      <c r="AA42" s="3">
         <v>5600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AB42" s="3">
         <v>4400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AC42" s="3">
         <v>4400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AD42" s="3">
         <v>28900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AE42" s="3">
         <v>26700</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1088700</v>
+        <v>563900</v>
       </c>
       <c r="E43" s="3">
-        <v>1118300</v>
+        <v>546100</v>
       </c>
       <c r="F43" s="3">
-        <v>1066300</v>
+        <v>539600</v>
       </c>
       <c r="G43" s="3">
-        <v>1099500</v>
+        <v>1091100</v>
       </c>
       <c r="H43" s="3">
+        <v>1120700</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1068700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1101900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1122400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>1093400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>1136200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>1182900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>1704500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>1666800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="Q43" s="3">
         <v>1533800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="R43" s="3">
         <v>1471400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="S43" s="3">
         <v>1610600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="T43" s="3">
         <v>1603200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="U43" s="3">
         <v>1586600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="V43" s="3">
         <v>1416700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="W43" s="3">
         <v>1619700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="X43" s="3">
         <v>1650300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="Y43" s="3">
         <v>2247600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Z43" s="3">
         <v>2454200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="AA43" s="3">
         <v>2684900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AB43" s="3">
         <v>2699500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AC43" s="3">
         <v>2565800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AD43" s="3">
         <v>2582900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AE43" s="3">
         <v>2995800</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>58100</v>
+        <v>50400</v>
       </c>
       <c r="E44" s="3">
-        <v>59700</v>
+        <v>54000</v>
       </c>
       <c r="F44" s="3">
-        <v>64700</v>
+        <v>59300</v>
       </c>
       <c r="G44" s="3">
-        <v>62800</v>
+        <v>58200</v>
       </c>
       <c r="H44" s="3">
+        <v>59800</v>
+      </c>
+      <c r="I44" s="3">
+        <v>64800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>62900</v>
+      </c>
+      <c r="K44" s="3">
         <v>85000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>86600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>84300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>70800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>59900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>60200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="Q44" s="3">
         <v>66200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="R44" s="3">
         <v>60400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="S44" s="3">
         <v>59600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="T44" s="3">
         <v>56500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="U44" s="3">
         <v>53000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="V44" s="3">
         <v>56600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="W44" s="3">
         <v>48400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="X44" s="3">
         <v>48000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="Y44" s="3">
         <v>61200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Z44" s="3">
         <v>65000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="AA44" s="3">
         <v>138700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AB44" s="3">
         <v>129300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AC44" s="3">
         <v>115300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AD44" s="3">
         <v>88100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AE44" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>873000</v>
+        <v>758200</v>
       </c>
       <c r="E45" s="3">
-        <v>1116400</v>
+        <v>742000</v>
       </c>
       <c r="F45" s="3">
-        <v>8157800</v>
+        <v>680300</v>
       </c>
       <c r="G45" s="3">
-        <v>7562400</v>
+        <v>874900</v>
       </c>
       <c r="H45" s="3">
+        <v>1118900</v>
+      </c>
+      <c r="I45" s="3">
+        <v>8175600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>7579000</v>
+      </c>
+      <c r="K45" s="3">
         <v>7468700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>7323900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>5210600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>4210700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>686700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>831500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="Q45" s="3">
         <v>948400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="R45" s="3">
         <v>1373000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="S45" s="3">
         <v>1518100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="T45" s="3">
         <v>1470800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="U45" s="3">
         <v>1517500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="V45" s="3">
         <v>1510600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="W45" s="3">
         <v>1613800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="X45" s="3">
         <v>1654200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="Y45" s="3">
         <v>1917000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Z45" s="3">
         <v>1804300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="AA45" s="3">
         <v>1856700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AB45" s="3">
         <v>2049900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AC45" s="3">
         <v>1864900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AD45" s="3">
         <v>1926500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AE45" s="3">
         <v>2113900</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2740700</v>
+        <v>1879700</v>
       </c>
       <c r="E46" s="3">
-        <v>3305700</v>
+        <v>1704000</v>
       </c>
       <c r="F46" s="3">
-        <v>9638900</v>
+        <v>1927700</v>
       </c>
       <c r="G46" s="3">
-        <v>9350200</v>
+        <v>2746700</v>
       </c>
       <c r="H46" s="3">
+        <v>3312900</v>
+      </c>
+      <c r="I46" s="3">
+        <v>9659900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>9370600</v>
+      </c>
+      <c r="K46" s="3">
         <v>9323000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>8831300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>7023800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>6269300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>3557700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>3735000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>3770800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>3323400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>3780600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="T46" s="3">
         <v>3884400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="U46" s="3">
         <v>4260200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="V46" s="3">
         <v>3802300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="W46" s="3">
         <v>4225200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="X46" s="3">
         <v>4303100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="Y46" s="3">
         <v>5652800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Z46" s="3">
         <v>6088400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="AA46" s="3">
         <v>6636400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AB46" s="3">
         <v>6762000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AC46" s="3">
         <v>6412000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AD46" s="3">
         <v>6502600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AE46" s="3">
         <v>6955700</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1684400</v>
+        <v>1702200</v>
       </c>
       <c r="E47" s="3">
-        <v>1770100</v>
+        <v>1720200</v>
       </c>
       <c r="F47" s="3">
-        <v>124800</v>
+        <v>1732200</v>
       </c>
       <c r="G47" s="3">
-        <v>148700</v>
+        <v>1688100</v>
       </c>
       <c r="H47" s="3">
+        <v>1774000</v>
+      </c>
+      <c r="I47" s="3">
+        <v>125000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>149000</v>
+      </c>
+      <c r="K47" s="3">
         <v>227600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>264200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>323200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>294100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>361200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>482100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="Q47" s="3">
         <v>567200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="R47" s="3">
         <v>578000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="S47" s="3">
         <v>588700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="T47" s="3">
         <v>352100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="U47" s="3">
         <v>361700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="V47" s="3">
         <v>141200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="W47" s="3">
         <v>142900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="X47" s="3">
         <v>148400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="Y47" s="3">
         <v>177100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Z47" s="3">
         <v>195900</v>
-      </c>
-      <c r="X47" s="3">
-        <v>216900</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>228500</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>209400</v>
       </c>
       <c r="AA47" s="3">
         <v>216900</v>
       </c>
       <c r="AB47" s="3">
+        <v>228500</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>209400</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>216900</v>
+      </c>
+      <c r="AE47" s="3">
         <v>226500</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3372000</v>
+        <v>1043900</v>
       </c>
       <c r="E48" s="3">
-        <v>3125300</v>
+        <v>1047500</v>
       </c>
       <c r="F48" s="3">
-        <v>3199200</v>
+        <v>1023700</v>
       </c>
       <c r="G48" s="3">
-        <v>3261200</v>
+        <v>3379400</v>
       </c>
       <c r="H48" s="3">
+        <v>3132100</v>
+      </c>
+      <c r="I48" s="3">
+        <v>3206200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>3268300</v>
+      </c>
+      <c r="K48" s="3">
         <v>3324800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>3456200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>4745900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>4535500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>8104400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>7873800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="Q48" s="3">
         <v>7804800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="R48" s="3">
         <v>7186800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="S48" s="3">
         <v>7223000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="T48" s="3">
         <v>6688800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="U48" s="3">
         <v>6539000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="V48" s="3">
         <v>5071100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="W48" s="3">
         <v>5095300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="X48" s="3">
         <v>5027500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="Y48" s="3">
         <v>6289300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Z48" s="3">
         <v>6919300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="AA48" s="3">
         <v>6805600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AB48" s="3">
         <v>6753900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AC48" s="3">
         <v>6512100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AD48" s="3">
         <v>6426600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AE48" s="3">
         <v>6291400</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>675900</v>
+        <v>91600</v>
       </c>
       <c r="E49" s="3">
-        <v>717300</v>
+        <v>85200</v>
       </c>
       <c r="F49" s="3">
-        <v>769000</v>
+        <v>88400</v>
       </c>
       <c r="G49" s="3">
-        <v>806700</v>
+        <v>677400</v>
       </c>
       <c r="H49" s="3">
+        <v>718900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>770700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>808400</v>
+      </c>
+      <c r="K49" s="3">
         <v>638700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>677700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>711200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>691800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>687000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>709800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="Q49" s="3">
         <v>743300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="R49" s="3">
         <v>738400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="S49" s="3">
         <v>551800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="T49" s="3">
         <v>1152600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="U49" s="3">
         <v>1193800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="V49" s="3">
         <v>1239600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="W49" s="3">
         <v>1387800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="X49" s="3">
         <v>1444800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="Y49" s="3">
         <v>1928400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Z49" s="3">
         <v>2140900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="AA49" s="3">
         <v>2740300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AB49" s="3">
         <v>2817800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AC49" s="3">
         <v>2696100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AD49" s="3">
         <v>1221800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AE49" s="3">
         <v>832100</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4148,17 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4237,106 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1361400</v>
+        <v>1224100</v>
       </c>
       <c r="E52" s="3">
-        <v>1315600</v>
+        <v>1188000</v>
       </c>
       <c r="F52" s="3">
-        <v>2117800</v>
+        <v>1205800</v>
       </c>
       <c r="G52" s="3">
-        <v>2132500</v>
+        <v>1364400</v>
       </c>
       <c r="H52" s="3">
+        <v>1318500</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2122400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2137100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1697500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>1854200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>1888400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>2024000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>1510100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>1447800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="Q52" s="3">
         <v>1517300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="R52" s="3">
         <v>1451800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="S52" s="3">
         <v>1524200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="T52" s="3">
         <v>1444400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="U52" s="3">
         <v>1419600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="V52" s="3">
         <v>1419800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="W52" s="3">
         <v>1588400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="X52" s="3">
         <v>1553100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="Y52" s="3">
         <v>1991300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Z52" s="3">
         <v>2253000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="AA52" s="3">
         <v>4740800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AB52" s="3">
         <v>4701300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AC52" s="3">
         <v>4400600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AD52" s="3">
         <v>2194100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AE52" s="3">
         <v>5617900</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4415,106 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9834400</v>
+        <v>5941700</v>
       </c>
       <c r="E54" s="3">
-        <v>10234000</v>
+        <v>5744900</v>
       </c>
       <c r="F54" s="3">
-        <v>15849500</v>
+        <v>5977700</v>
       </c>
       <c r="G54" s="3">
-        <v>15699200</v>
+        <v>9855900</v>
       </c>
       <c r="H54" s="3">
+        <v>10256400</v>
+      </c>
+      <c r="I54" s="3">
+        <v>15884200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>15733500</v>
+      </c>
+      <c r="K54" s="3">
         <v>15211600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>15083700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>14692400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>13814700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>14220400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>14248600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>14403300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>13278400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>13668300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>13522300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>13774300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="V54" s="3">
         <v>11674100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="W54" s="3">
         <v>12439700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="X54" s="3">
         <v>12476900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="Y54" s="3">
         <v>16038900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Z54" s="3">
         <v>17597700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="AA54" s="3">
         <v>21140000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AB54" s="3">
         <v>21263500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AC54" s="3">
         <v>20230100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AD54" s="3">
         <v>16366400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AE54" s="3">
         <v>19923600</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4543,11 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,397 +4576,436 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>830500</v>
+        <v>891700</v>
       </c>
       <c r="E57" s="3">
-        <v>741500</v>
+        <v>709500</v>
       </c>
       <c r="F57" s="3">
-        <v>797700</v>
+        <v>752400</v>
       </c>
       <c r="G57" s="3">
-        <v>811500</v>
+        <v>832300</v>
       </c>
       <c r="H57" s="3">
+        <v>743100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>799500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>813300</v>
+      </c>
+      <c r="K57" s="3">
         <v>714200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>786800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>787000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>618600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>916700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>845400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>964500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="R57" s="3">
         <v>1033200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="S57" s="3">
         <v>1106800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="T57" s="3">
         <v>1069200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="U57" s="3">
         <v>998800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="V57" s="3">
         <v>932300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="W57" s="3">
         <v>809500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="X57" s="3">
         <v>765900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="Y57" s="3">
         <v>1148900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Z57" s="3">
         <v>1955500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="AA57" s="3">
         <v>1819400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AB57" s="3">
         <v>1803900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AC57" s="3">
         <v>1648700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AD57" s="3">
         <v>1631900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AE57" s="3">
         <v>1766800</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>376800</v>
+        <v>553000</v>
       </c>
       <c r="E58" s="3">
-        <v>218400</v>
+        <v>456200</v>
       </c>
       <c r="F58" s="3">
-        <v>669600</v>
+        <v>457500</v>
       </c>
       <c r="G58" s="3">
-        <v>720300</v>
+        <v>377700</v>
       </c>
       <c r="H58" s="3">
+        <v>218900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>671000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>721900</v>
+      </c>
+      <c r="K58" s="3">
         <v>195100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>917700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>975400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>202000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>365100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>406400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>348900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>339200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="S58" s="3">
         <v>308500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="T58" s="3">
         <v>316300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="U58" s="3">
         <v>274600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="V58" s="3">
         <v>120000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="W58" s="3">
         <v>92600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="X58" s="3">
         <v>55300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="Y58" s="3">
         <v>22900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Z58" s="3">
         <v>13976600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="AA58" s="3">
         <v>13260500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AB58" s="3">
         <v>13287000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AC58" s="3">
         <v>11958200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AD58" s="3">
         <v>11929200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AE58" s="3">
         <v>11962600</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>796000</v>
+        <v>829900</v>
       </c>
       <c r="E59" s="3">
-        <v>810600</v>
+        <v>833800</v>
       </c>
       <c r="F59" s="3">
-        <v>4357500</v>
+        <v>845800</v>
       </c>
       <c r="G59" s="3">
-        <v>3784600</v>
+        <v>797700</v>
       </c>
       <c r="H59" s="3">
+        <v>812300</v>
+      </c>
+      <c r="I59" s="3">
+        <v>4367000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3792800</v>
+      </c>
+      <c r="K59" s="3">
         <v>3817500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>3596800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>2882400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>2328100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>1093200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>1069000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>931000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>813700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>821200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>741200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="U59" s="3">
         <v>853600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="V59" s="3">
         <v>854700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="W59" s="3">
         <v>886300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="X59" s="3">
         <v>839200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="Y59" s="3">
         <v>1301300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Z59" s="3">
         <v>1474000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="AA59" s="3">
         <v>1595900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AB59" s="3">
         <v>1629500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AC59" s="3">
         <v>1459300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AD59" s="3">
         <v>1642600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AE59" s="3">
         <v>1427200</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2003300</v>
+        <v>2274600</v>
       </c>
       <c r="E60" s="3">
-        <v>1770500</v>
+        <v>1999600</v>
       </c>
       <c r="F60" s="3">
-        <v>5824700</v>
+        <v>2055700</v>
       </c>
       <c r="G60" s="3">
-        <v>5316400</v>
+        <v>2007700</v>
       </c>
       <c r="H60" s="3">
+        <v>1774400</v>
+      </c>
+      <c r="I60" s="3">
+        <v>5837500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>5328000</v>
+      </c>
+      <c r="K60" s="3">
         <v>4726900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>5301200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>4644800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>3148800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>2374900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>2320700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>2244500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>2186100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>2236600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>2126700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>2127000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>1907000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="W60" s="3">
         <v>1788400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="X60" s="3">
         <v>1660300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="Y60" s="3">
         <v>2473100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Z60" s="3">
         <v>17406100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="AA60" s="3">
         <v>16675800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AB60" s="3">
         <v>16720400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AC60" s="3">
         <v>15066200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AD60" s="3">
         <v>15203800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AE60" s="3">
         <v>15156600</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4663400</v>
+        <v>4878600</v>
       </c>
       <c r="E61" s="3">
-        <v>4672400</v>
+        <v>4779300</v>
       </c>
       <c r="F61" s="3">
-        <v>6054700</v>
+        <v>4676200</v>
       </c>
       <c r="G61" s="3">
-        <v>6528300</v>
+        <v>4673600</v>
       </c>
       <c r="H61" s="3">
+        <v>4682600</v>
+      </c>
+      <c r="I61" s="3">
+        <v>6067900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>6542600</v>
+      </c>
+      <c r="K61" s="3">
         <v>6748500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>5069500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>5294700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>5284500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>6605000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>6383100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="Q61" s="3">
         <v>6125900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="R61" s="3">
         <v>4532600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="S61" s="3">
         <v>4594200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="T61" s="3">
         <v>4114400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="U61" s="3">
         <v>4060300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="V61" s="3">
         <v>2814600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="W61" s="3">
         <v>2893200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="X61" s="3">
         <v>2761000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="Y61" s="3">
         <v>3137600</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
@@ -4588,88 +5015,106 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3621100</v>
+        <v>3624600</v>
       </c>
       <c r="E62" s="3">
+        <v>3630900</v>
+      </c>
+      <c r="F62" s="3">
+        <v>3655100</v>
+      </c>
+      <c r="G62" s="3">
         <v>3629000</v>
       </c>
-      <c r="F62" s="3">
-        <v>3755700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>4000100</v>
-      </c>
       <c r="H62" s="3">
+        <v>3637000</v>
+      </c>
+      <c r="I62" s="3">
+        <v>3763900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>4008900</v>
+      </c>
+      <c r="K62" s="3">
         <v>3518900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>3529500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>3797600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>3927700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>4065700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>3954500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="Q62" s="3">
         <v>3774000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="R62" s="3">
         <v>3272700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="S62" s="3">
         <v>3070700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="T62" s="3">
         <v>2702200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="U62" s="3">
         <v>2729900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="V62" s="3">
         <v>2867900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="W62" s="3">
         <v>2898700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="X62" s="3">
         <v>2944200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="Y62" s="3">
         <v>3677600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Z62" s="3">
         <v>3656000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="AA62" s="3">
         <v>2249900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AB62" s="3">
         <v>2291100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AC62" s="3">
         <v>2263300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AD62" s="3">
         <v>2816300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AE62" s="3">
         <v>2183300</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5193,17 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5282,17 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5371,106 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10294400</v>
+        <v>10784400</v>
       </c>
       <c r="E66" s="3">
-        <v>10078400</v>
+        <v>10416400</v>
       </c>
       <c r="F66" s="3">
-        <v>15641000</v>
+        <v>10393700</v>
       </c>
       <c r="G66" s="3">
-        <v>15851400</v>
+        <v>10316900</v>
       </c>
       <c r="H66" s="3">
+        <v>10100500</v>
+      </c>
+      <c r="I66" s="3">
+        <v>15675200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>15886000</v>
+      </c>
+      <c r="K66" s="3">
         <v>14997800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>13903300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>13740500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>12364500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>13049700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>12675600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>12177900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>10018400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>9932200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>8982000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>8957200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>7632900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>7631300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="X66" s="3">
         <v>7417100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="Y66" s="3">
         <v>9352500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Z66" s="3">
         <v>21137300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="AA66" s="3">
         <v>19003400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AB66" s="3">
         <v>19099400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AC66" s="3">
         <v>17422600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AD66" s="3">
         <v>18216300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AE66" s="3">
         <v>17565100</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5499,11 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5582,17 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5671,17 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5760,17 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5849,106 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6930100</v>
+        <v>-11323100</v>
       </c>
       <c r="E72" s="3">
-        <v>-6314400</v>
+        <v>-11151900</v>
       </c>
       <c r="F72" s="3">
-        <v>-6260700</v>
+        <v>-10896400</v>
       </c>
       <c r="G72" s="3">
-        <v>-6621400</v>
+        <v>-6945200</v>
       </c>
       <c r="H72" s="3">
+        <v>-6328100</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-6274400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-6635900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-6259000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-5290300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-5520900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-4561700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-5121700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-4584300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-3920900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-2558600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-2174000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-999500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-287400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-1076100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>-526800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="X72" s="3">
         <v>82200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="Y72" s="3">
         <v>397400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Z72" s="3">
         <v>-7467000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="AA72" s="3">
         <v>-1821000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AB72" s="3">
         <v>-1823000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AC72" s="3">
         <v>-952300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AD72" s="3">
         <v>-5646300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AE72" s="3">
         <v>-1463600</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +6027,17 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +6116,17 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6205,106 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-459900</v>
+        <v>-4842800</v>
       </c>
       <c r="E76" s="3">
-        <v>155600</v>
+        <v>-4671500</v>
       </c>
       <c r="F76" s="3">
-        <v>208500</v>
+        <v>-4416000</v>
       </c>
       <c r="G76" s="3">
-        <v>-152200</v>
+        <v>-460900</v>
       </c>
       <c r="H76" s="3">
+        <v>155900</v>
+      </c>
+      <c r="I76" s="3">
+        <v>208900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-152500</v>
+      </c>
+      <c r="K76" s="3">
         <v>213800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>1180400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>952000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>1450200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>1170700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>1572900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>2225400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>3260000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>3736100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>4540200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>4817100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>4041200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>4808300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="X76" s="3">
         <v>5059700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="Y76" s="3">
         <v>6686400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Z76" s="3">
         <v>-3539600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="AA76" s="3">
         <v>2136600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AB76" s="3">
         <v>2164100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AC76" s="3">
         <v>2807500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AD76" s="3">
         <v>-1849900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AE76" s="3">
         <v>2358500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6383,200 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-617000</v>
+        <v>-170500</v>
       </c>
       <c r="E81" s="3">
-        <v>-64600</v>
+        <v>-255800</v>
       </c>
       <c r="F81" s="3">
-        <v>358900</v>
+        <v>-3565700</v>
       </c>
       <c r="G81" s="3">
-        <v>-363500</v>
+        <v>-618400</v>
       </c>
       <c r="H81" s="3">
+        <v>-64800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>359700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-336800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-978400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>220300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-621000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>336400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-516300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-664100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-1223200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-1662400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-1078000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>-276100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="U81" s="3">
         <v>100600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="V81" s="3">
         <v>-599100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="W81" s="3">
         <v>-247300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="X81" s="3">
         <v>5418700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="Y81" s="3">
         <v>7132500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Z81" s="3">
         <v>-743600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="AA81" s="3">
         <v>2200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AB81" s="3">
         <v>-1107400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AC81" s="3">
         <v>-46800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AD81" s="3">
         <v>-1070600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AE81" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6605,100 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>221900</v>
+        <v>62200</v>
       </c>
       <c r="E83" s="3">
-        <v>208700</v>
+        <v>64400</v>
       </c>
       <c r="F83" s="3">
-        <v>198000</v>
+        <v>222500</v>
       </c>
       <c r="G83" s="3">
-        <v>206000</v>
+        <v>222400</v>
       </c>
       <c r="H83" s="3">
+        <v>209100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>198400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>206500</v>
+      </c>
+      <c r="K83" s="3">
         <v>219000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>144900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>236000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>-156000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>340500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>335900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="Q83" s="3">
         <v>333300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="R83" s="3">
         <v>1269600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="S83" s="3">
         <v>328700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="T83" s="3">
         <v>306200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="U83" s="3">
         <v>299200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="V83" s="3">
         <v>265200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="W83" s="3">
         <v>272300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="X83" s="3">
         <v>528000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="Y83" s="3">
         <v>296200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Z83" s="3">
         <v>186400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="AA83" s="3">
         <v>371800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AB83" s="3">
         <v>751700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AC83" s="3">
         <v>376900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AD83" s="3">
         <v>384100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AE83" s="3">
         <v>384100</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6777,17 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6866,17 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6955,17 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +7044,17 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +7133,106 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-239600</v>
+        <v>-9900</v>
       </c>
       <c r="E89" s="3">
-        <v>-437300</v>
+        <v>-185600</v>
       </c>
       <c r="F89" s="3">
-        <v>166900</v>
+        <v>-11400</v>
       </c>
       <c r="G89" s="3">
-        <v>306400</v>
+        <v>-240100</v>
       </c>
       <c r="H89" s="3">
+        <v>-438200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>167300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>307000</v>
+      </c>
+      <c r="K89" s="3">
         <v>160400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>-398600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>-90400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>135900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>375600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>256200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>102300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>427000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>225500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="T89" s="3">
         <v>43300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="U89" s="3">
         <v>-88100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="V89" s="3">
         <v>108900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="W89" s="3">
         <v>204400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="X89" s="3">
         <v>212200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="Y89" s="3">
         <v>190200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Z89" s="3">
         <v>135200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="AA89" s="3">
         <v>380300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AB89" s="3">
         <v>613000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AC89" s="3">
         <v>227400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AD89" s="3">
         <v>401600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AE89" s="3">
         <v>594500</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +7261,100 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-78100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-315400</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-315200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-148500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="H91" s="3">
         <v>-530800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="I91" s="3">
         <v>-443000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="J91" s="3">
         <v>-1198700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="K91" s="3">
         <v>-1140500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-497300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-663300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-389000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-46700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>7400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="Q91" s="3">
         <v>-228900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="R91" s="3">
         <v>-1371500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="S91" s="3">
         <v>-371700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="T91" s="3">
         <v>-313800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="U91" s="3">
         <v>-264200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="V91" s="3">
         <v>-242900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="W91" s="3">
         <v>-204800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="X91" s="3">
         <v>-513900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="Y91" s="3">
         <v>-353700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Z91" s="3">
         <v>-257900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="AA91" s="3">
         <v>-311700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AB91" s="3">
         <v>-544300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AC91" s="3">
         <v>-497100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AD91" s="3">
         <v>-437700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AE91" s="3">
         <v>-103100</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7433,17 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7522,106 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-22200</v>
+        <v>-16100</v>
       </c>
       <c r="E94" s="3">
-        <v>3946500</v>
+        <v>-70600</v>
       </c>
       <c r="F94" s="3">
-        <v>-367400</v>
+        <v>-48900</v>
       </c>
       <c r="G94" s="3">
-        <v>-246000</v>
+        <v>-22300</v>
       </c>
       <c r="H94" s="3">
+        <v>3955100</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-368200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-246500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-330000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-279200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-111100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-343700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-358500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-220800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="Q94" s="3">
         <v>276100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="R94" s="3">
         <v>-1265300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="S94" s="3">
         <v>-347200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="T94" s="3">
         <v>-314200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="U94" s="3">
         <v>-249400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="V94" s="3">
         <v>-216600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="W94" s="3">
         <v>-183500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="X94" s="3">
         <v>-501700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="Y94" s="3">
         <v>-334300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Z94" s="3">
         <v>-306200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="AA94" s="3">
         <v>-291300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AB94" s="3">
         <v>-536100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AC94" s="3">
         <v>-235400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AD94" s="3">
         <v>-216200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AE94" s="3">
         <v>-58500</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7650,11 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6992,17 +7692,17 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -7022,19 +7722,28 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-15200</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7822,17 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7911,17 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +8000,280 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-32900</v>
+        <v>168000</v>
       </c>
       <c r="E100" s="3">
-        <v>-2842600</v>
+        <v>-30900</v>
       </c>
       <c r="F100" s="3">
-        <v>-104300</v>
+        <v>-12000</v>
       </c>
       <c r="G100" s="3">
-        <v>-76800</v>
+        <v>-33000</v>
       </c>
       <c r="H100" s="3">
+        <v>-2848800</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-104500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="K100" s="3">
         <v>498300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>413300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>-72900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>-72000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-74600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>-74400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="Q100" s="3">
         <v>379400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="R100" s="3">
         <v>412900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="S100" s="3">
         <v>-81300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="T100" s="3">
         <v>-77700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="U100" s="3">
         <v>628700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="V100" s="3">
         <v>-11100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="W100" s="3">
         <v>-27000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="X100" s="3">
         <v>-40000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="Y100" s="3">
         <v>-41000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Z100" s="3">
         <v>-21100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="AA100" s="3">
         <v>-17100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AB100" s="3">
         <v>-139100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AC100" s="3">
         <v>-6600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AD100" s="3">
         <v>2000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AE100" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3200</v>
+        <v>1500</v>
       </c>
       <c r="E101" s="3">
-        <v>-6100</v>
+        <v>1400</v>
       </c>
       <c r="F101" s="3">
-        <v>28700</v>
+        <v>-3000</v>
       </c>
       <c r="G101" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="I101" s="3">
+        <v>28800</v>
+      </c>
+      <c r="J101" s="3">
         <v>-4300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="K101" s="3">
         <v>-8500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="L101" s="3">
         <v>-1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-1900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="P101" s="3">
         <v>6800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="Q101" s="3">
         <v>35000</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-3300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="W101" s="3">
         <v>1100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="X101" s="3">
         <v>2600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="Y101" s="3">
         <v>700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Z101" s="3">
         <v>1000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="AA101" s="3">
         <v>-200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AB101" s="3">
         <v>2000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AC101" s="3">
         <v>-100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AD101" s="3">
         <v>-35800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AE101" s="3">
         <v>-61800</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-291500</v>
+        <v>143500</v>
       </c>
       <c r="E102" s="3">
-        <v>660500</v>
+        <v>-285800</v>
       </c>
       <c r="F102" s="3">
-        <v>-276100</v>
+        <v>-75300</v>
       </c>
       <c r="G102" s="3">
-        <v>-20700</v>
+        <v>-292100</v>
       </c>
       <c r="H102" s="3">
+        <v>661900</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-276700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="K102" s="3">
         <v>320200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>-265600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>-273700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>-253500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>-75800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>-46600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="Q102" s="3">
         <v>780700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="R102" s="3">
         <v>-425400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="S102" s="3">
         <v>-203000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="T102" s="3">
         <v>-348600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="U102" s="3">
         <v>291200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="V102" s="3">
         <v>-122000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="W102" s="3">
         <v>-5000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="X102" s="3">
         <v>-326900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="Y102" s="3">
         <v>-184300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Z102" s="3">
         <v>-191200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="AA102" s="3">
         <v>71700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AB102" s="3">
         <v>-60200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AC102" s="3">
         <v>-14700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AD102" s="3">
         <v>151500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AE102" s="3">
         <v>521000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OIBRQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OIBRQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>OIBRQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,396 +665,408 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>495400</v>
+        <v>498000</v>
       </c>
       <c r="E8" s="3">
-        <v>511800</v>
+        <v>504700</v>
       </c>
       <c r="F8" s="3">
-        <v>534600</v>
+        <v>521400</v>
       </c>
       <c r="G8" s="3">
-        <v>559100</v>
+        <v>544700</v>
       </c>
       <c r="H8" s="3">
-        <v>520600</v>
+        <v>569600</v>
       </c>
       <c r="I8" s="3">
-        <v>502000</v>
+        <v>530400</v>
       </c>
       <c r="J8" s="3">
+        <v>511400</v>
+      </c>
+      <c r="K8" s="3">
         <v>521600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>530700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>529100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>531100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>730200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>452200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>448300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>470500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1937900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>938100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>901500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>908400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>957100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1014200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2074900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1323700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1494100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1528900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3076100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1528100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1568600</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>1586300</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>450300</v>
+        <v>538100</v>
       </c>
       <c r="E9" s="3">
-        <v>429000</v>
+        <v>458700</v>
       </c>
       <c r="F9" s="3">
-        <v>699100</v>
+        <v>437100</v>
       </c>
       <c r="G9" s="3">
-        <v>607300</v>
+        <v>712200</v>
       </c>
       <c r="H9" s="3">
-        <v>469700</v>
+        <v>618700</v>
       </c>
       <c r="I9" s="3">
-        <v>380300</v>
+        <v>478500</v>
       </c>
       <c r="J9" s="3">
+        <v>387400</v>
+      </c>
+      <c r="K9" s="3">
         <v>697100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>445000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>429400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>428800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>543200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>327700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>278400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>360600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1474400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>718300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>683400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>685900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>791100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>729400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1443700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>873000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>799200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>963600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1928400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>942400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>806300</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>991000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>45100</v>
+        <v>-40100</v>
       </c>
       <c r="E10" s="3">
-        <v>82800</v>
+        <v>45900</v>
       </c>
       <c r="F10" s="3">
-        <v>-164500</v>
+        <v>84300</v>
       </c>
       <c r="G10" s="3">
-        <v>-48200</v>
+        <v>-167600</v>
       </c>
       <c r="H10" s="3">
-        <v>51000</v>
+        <v>-49100</v>
       </c>
       <c r="I10" s="3">
-        <v>121700</v>
+        <v>51900</v>
       </c>
       <c r="J10" s="3">
+        <v>124000</v>
+      </c>
+      <c r="K10" s="3">
         <v>-175500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>85700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>99700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>102300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>187000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>124500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>169800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>109900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>463500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>219800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>218100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>222500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>166000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>284900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>631100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>450700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>694900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>565400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1147700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>585700</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>762300</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>595400</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1086,8 +1098,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1175,8 +1188,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1264,8 +1280,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1275,11 +1294,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>2876000</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2930000</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1290,8 +1309,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1305,14 +1324,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1324,19 +1343,19 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>-100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>10400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-2055700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-2594500</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
@@ -1353,8 +1372,11 @@
       <c r="AE14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1442,8 +1464,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1472,186 +1497,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>549100</v>
+        <v>663300</v>
       </c>
       <c r="E17" s="3">
-        <v>532500</v>
+        <v>559400</v>
       </c>
       <c r="F17" s="3">
-        <v>3822900</v>
+        <v>542500</v>
       </c>
       <c r="G17" s="3">
-        <v>759400</v>
+        <v>3894700</v>
       </c>
       <c r="H17" s="3">
-        <v>644100</v>
+        <v>773700</v>
       </c>
       <c r="I17" s="3">
-        <v>576500</v>
+        <v>656100</v>
       </c>
       <c r="J17" s="3">
+        <v>587300</v>
+      </c>
+      <c r="K17" s="3">
         <v>731900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>669400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>638700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>483300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>780400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>558600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>504200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>505600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2787100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1538200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>954300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>744600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1972800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1025700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>-60700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>-1341700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2243800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1472200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2922700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1445200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1932900</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>1562400</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-53700</v>
+        <v>-165300</v>
       </c>
       <c r="E18" s="3">
-        <v>-20700</v>
+        <v>-54700</v>
       </c>
       <c r="F18" s="3">
-        <v>-3288300</v>
+        <v>-21100</v>
       </c>
       <c r="G18" s="3">
-        <v>-200300</v>
+        <v>-3350100</v>
       </c>
       <c r="H18" s="3">
-        <v>-123400</v>
+        <v>-204100</v>
       </c>
       <c r="I18" s="3">
-        <v>-74600</v>
+        <v>-125700</v>
       </c>
       <c r="J18" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-210300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-138700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-109600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>47800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-50200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-106400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-55900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-35100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-849200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-52800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>163800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1015600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-11500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2135500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2665300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-749700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>56800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>153400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>82900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-364300</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1683,453 +1715,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-112900</v>
+        <v>-112700</v>
       </c>
       <c r="E20" s="3">
-        <v>-48000</v>
+        <v>-115000</v>
       </c>
       <c r="F20" s="3">
-        <v>57600</v>
+        <v>-48900</v>
       </c>
       <c r="G20" s="3">
-        <v>-218400</v>
+        <v>58700</v>
       </c>
       <c r="H20" s="3">
-        <v>-400500</v>
+        <v>-222500</v>
       </c>
       <c r="I20" s="3">
-        <v>685100</v>
+        <v>-408000</v>
       </c>
       <c r="J20" s="3">
+        <v>697900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-313000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-661900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>475200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-562300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-234900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-217300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-356000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-917700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-464400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-363700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-172200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>74800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-100500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-178800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3920200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>4453000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>730000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>200300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-847100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>170900</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>30100</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-192100</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-104400</v>
+        <v>-203100</v>
       </c>
       <c r="E21" s="3">
-        <v>-4300</v>
+        <v>-106400</v>
       </c>
       <c r="F21" s="3">
-        <v>-3008200</v>
+        <v>-4400</v>
       </c>
       <c r="G21" s="3">
-        <v>-196300</v>
+        <v>-3064700</v>
       </c>
       <c r="H21" s="3">
-        <v>-314700</v>
+        <v>-200000</v>
       </c>
       <c r="I21" s="3">
-        <v>808900</v>
+        <v>-320600</v>
       </c>
       <c r="J21" s="3">
+        <v>824100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-316700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-581600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>510500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-278500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-60000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-145800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-274900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-740700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-44000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-635100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>81200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>537700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-851000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>82000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>6583700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>7414600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>317700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>478000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>58000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>581300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-156900</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>215900</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>397300</v>
+      </c>
+      <c r="E22" s="3">
         <v>1200</v>
       </c>
-      <c r="E22" s="3">
-        <v>183800</v>
-      </c>
       <c r="F22" s="3">
-        <v>185000</v>
+        <v>187200</v>
       </c>
       <c r="G22" s="3">
-        <v>187500</v>
+        <v>188500</v>
       </c>
       <c r="H22" s="3">
-        <v>202700</v>
+        <v>191000</v>
       </c>
       <c r="I22" s="3">
-        <v>226500</v>
+        <v>206500</v>
       </c>
       <c r="J22" s="3">
+        <v>230800</v>
+      </c>
+      <c r="K22" s="3">
         <v>278200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>221400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>175300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>188600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>128100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>185200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>199900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>233700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>528700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>81900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>71100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>110500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>63000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>80100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>613800</v>
       </c>
-      <c r="Y22" s="3" t="s">
+      <c r="Z22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>254600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>195900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>471000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>203600</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>205400</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-167700</v>
+        <v>-675300</v>
       </c>
       <c r="E23" s="3">
-        <v>-252400</v>
+        <v>-170900</v>
       </c>
       <c r="F23" s="3">
-        <v>-3415700</v>
+        <v>-257200</v>
       </c>
       <c r="G23" s="3">
-        <v>-606200</v>
+        <v>-3479900</v>
       </c>
       <c r="H23" s="3">
-        <v>-726600</v>
+        <v>-617500</v>
       </c>
       <c r="I23" s="3">
-        <v>384000</v>
+        <v>-740200</v>
       </c>
       <c r="J23" s="3">
+        <v>391200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-801400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1022000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>190300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-703100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-413300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-508800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-611900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1186500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1842300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1045700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-296100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>128100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1179200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-270400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>5442000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>7118400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-274300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>61200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1164700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>50100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-539700</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-398200</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2700</v>
+        <v>18200</v>
       </c>
       <c r="E24" s="3">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="F24" s="3">
-        <v>-417800</v>
+        <v>3400</v>
       </c>
       <c r="G24" s="3">
-        <v>12000</v>
+        <v>-425700</v>
       </c>
       <c r="H24" s="3">
-        <v>930600</v>
+        <v>12300</v>
       </c>
       <c r="I24" s="3">
+        <v>948100</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-413100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-657800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-6700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-2400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>39100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>7900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-582800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-23300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>21900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-10200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>527400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>67600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-49200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>97000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>549500</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>-105800</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2217,186 +2265,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-170500</v>
+        <v>-693500</v>
       </c>
       <c r="E26" s="3">
-        <v>-255700</v>
+        <v>-173700</v>
       </c>
       <c r="F26" s="3">
-        <v>-2997900</v>
+        <v>-260600</v>
       </c>
       <c r="G26" s="3">
-        <v>-618200</v>
+        <v>-3054200</v>
       </c>
       <c r="H26" s="3">
-        <v>-1657200</v>
+        <v>-629800</v>
       </c>
       <c r="I26" s="3">
-        <v>383900</v>
+        <v>-1688300</v>
       </c>
       <c r="J26" s="3">
+        <v>391100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-388300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1022200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>190100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-704800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>244500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-508600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-612000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1179800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1839900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1084900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-302700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>120200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-596300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-247000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>5420100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>7128500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-801600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-6400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1115500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-46900</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-1089200</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-292400</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-170500</v>
+        <v>-693600</v>
       </c>
       <c r="E27" s="3">
-        <v>-255800</v>
+        <v>-173700</v>
       </c>
       <c r="F27" s="3">
-        <v>-2997700</v>
+        <v>-260600</v>
       </c>
       <c r="G27" s="3">
-        <v>-618500</v>
+        <v>-3054000</v>
       </c>
       <c r="H27" s="3">
-        <v>-1657300</v>
+        <v>-630100</v>
       </c>
       <c r="I27" s="3">
-        <v>383500</v>
+        <v>-1688400</v>
       </c>
       <c r="J27" s="3">
+        <v>390700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-393600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1022500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>190100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-704000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>244500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-520100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-595600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1184900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1822400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1078000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-276100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>100600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-599100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-247300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>5418700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>7132500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-743600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1107400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-46800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-1070600</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2484,62 +2541,65 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>111500</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-567900</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>-578600</v>
+      </c>
+      <c r="H29" s="3">
         <v>100</v>
       </c>
-      <c r="H29" s="3">
-        <v>1592500</v>
-      </c>
       <c r="I29" s="3">
-        <v>-23800</v>
+        <v>1622400</v>
       </c>
       <c r="J29" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="K29" s="3">
         <v>56800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>44100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>30200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>83000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>91900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>3800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-68500</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-38300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>160000</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
@@ -2555,8 +2615,8 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
+      <c r="Z29" s="3">
+        <v>0</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2567,14 +2627,17 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD29" s="3">
-        <v>0</v>
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2662,8 +2725,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2751,186 +2817,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>112900</v>
+        <v>112700</v>
       </c>
       <c r="E32" s="3">
-        <v>48000</v>
+        <v>115000</v>
       </c>
       <c r="F32" s="3">
-        <v>-57600</v>
+        <v>48900</v>
       </c>
       <c r="G32" s="3">
-        <v>218400</v>
+        <v>-58700</v>
       </c>
       <c r="H32" s="3">
-        <v>400500</v>
+        <v>222500</v>
       </c>
       <c r="I32" s="3">
-        <v>-685100</v>
+        <v>408000</v>
       </c>
       <c r="J32" s="3">
+        <v>-697900</v>
+      </c>
+      <c r="K32" s="3">
         <v>313000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>661900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-475200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>562300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>234900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>217300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>356000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>917700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>464400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>363700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>172200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-74800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>100500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>178800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3920200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-4453000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-730000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-200300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>847100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-170900</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-30100</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>192100</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-170500</v>
+        <v>-582100</v>
       </c>
       <c r="E33" s="3">
-        <v>-255800</v>
+        <v>-173700</v>
       </c>
       <c r="F33" s="3">
-        <v>-3565700</v>
+        <v>-260600</v>
       </c>
       <c r="G33" s="3">
-        <v>-618400</v>
+        <v>-3632600</v>
       </c>
       <c r="H33" s="3">
-        <v>-64800</v>
+        <v>-630000</v>
       </c>
       <c r="I33" s="3">
-        <v>359700</v>
+        <v>-66000</v>
       </c>
       <c r="J33" s="3">
+        <v>366400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-336800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-978400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>220300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-621000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>336400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-516300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-664100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1223200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1662400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1078000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-276100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>100600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-599100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-247300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>5418700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>7132500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-743600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1107400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-46800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-1070600</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3018,191 +3093,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-170500</v>
+        <v>-582100</v>
       </c>
       <c r="E35" s="3">
-        <v>-255800</v>
+        <v>-173700</v>
       </c>
       <c r="F35" s="3">
-        <v>-3565700</v>
+        <v>-260600</v>
       </c>
       <c r="G35" s="3">
-        <v>-618400</v>
+        <v>-3632600</v>
       </c>
       <c r="H35" s="3">
-        <v>-64800</v>
+        <v>-630000</v>
       </c>
       <c r="I35" s="3">
-        <v>359700</v>
+        <v>-66000</v>
       </c>
       <c r="J35" s="3">
+        <v>366400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-336800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-978400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>220300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-621000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>336400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-516300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-664100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1223200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1662400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1078000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-276100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>100600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-599100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-247300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>5418700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>7132500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-743600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1107400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-46800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-1070600</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3234,8 +3318,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3267,809 +3352,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>464300</v>
+        <v>465500</v>
       </c>
       <c r="E41" s="3">
-        <v>320900</v>
+        <v>473100</v>
       </c>
       <c r="F41" s="3">
-        <v>606700</v>
+        <v>326900</v>
       </c>
       <c r="G41" s="3">
-        <v>682000</v>
+        <v>618100</v>
       </c>
       <c r="H41" s="3">
-        <v>974100</v>
+        <v>694800</v>
       </c>
       <c r="I41" s="3">
-        <v>312200</v>
+        <v>992400</v>
       </c>
       <c r="J41" s="3">
+        <v>318000</v>
+      </c>
+      <c r="K41" s="3">
         <v>588800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>608300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>288000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>553600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>768600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1069100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1139600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1186200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>384500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>558700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>719100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1067700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>782300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>937900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>942900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1418200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1759500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1950600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1878900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1861600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1876300</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>1724800</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>43000</v>
+        <v>45100</v>
       </c>
       <c r="E42" s="3">
-        <v>41100</v>
+        <v>43800</v>
       </c>
       <c r="F42" s="3">
         <v>41800</v>
       </c>
       <c r="G42" s="3">
-        <v>40600</v>
+        <v>42600</v>
       </c>
       <c r="H42" s="3">
-        <v>39500</v>
+        <v>41400</v>
       </c>
       <c r="I42" s="3">
+        <v>40200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>39400</v>
+      </c>
+      <c r="K42" s="3">
+        <v>38100</v>
+      </c>
+      <c r="L42" s="3">
         <v>38700</v>
       </c>
-      <c r="J42" s="3">
-        <v>38100</v>
-      </c>
-      <c r="K42" s="3">
-        <v>38700</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>39300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>39000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>36200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>37300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>36900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>36200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>34000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>33500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>34800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>35300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>36000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>5500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>7700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>8800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>5500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>5600</v>
-      </c>
-      <c r="AB42" s="3">
-        <v>4400</v>
       </c>
       <c r="AC42" s="3">
         <v>4400</v>
       </c>
       <c r="AD42" s="3">
+        <v>4400</v>
+      </c>
+      <c r="AE42" s="3">
         <v>28900</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>26700</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>563900</v>
+        <v>602200</v>
       </c>
       <c r="E43" s="3">
-        <v>546100</v>
+        <v>574400</v>
       </c>
       <c r="F43" s="3">
-        <v>539600</v>
+        <v>556400</v>
       </c>
       <c r="G43" s="3">
-        <v>1091100</v>
+        <v>549700</v>
       </c>
       <c r="H43" s="3">
-        <v>1120700</v>
+        <v>1111500</v>
       </c>
       <c r="I43" s="3">
-        <v>1068700</v>
+        <v>1141800</v>
       </c>
       <c r="J43" s="3">
+        <v>1088700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1101900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1122400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1093400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1136200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1182900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1704500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1666800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1533800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1471400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1610600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1603200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1586600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1416700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1619700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1650300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2247600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2454200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2684900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2699500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>2565800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>2582900</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>2995800</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>50400</v>
+        <v>48500</v>
       </c>
       <c r="E44" s="3">
-        <v>54000</v>
+        <v>51300</v>
       </c>
       <c r="F44" s="3">
+        <v>55000</v>
+      </c>
+      <c r="G44" s="3">
+        <v>60400</v>
+      </c>
+      <c r="H44" s="3">
         <v>59300</v>
       </c>
-      <c r="G44" s="3">
-        <v>58200</v>
-      </c>
-      <c r="H44" s="3">
-        <v>59800</v>
-      </c>
       <c r="I44" s="3">
-        <v>64800</v>
+        <v>60900</v>
       </c>
       <c r="J44" s="3">
+        <v>66000</v>
+      </c>
+      <c r="K44" s="3">
         <v>62900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>85000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>86600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>84300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>70800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>59900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>60200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>66200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>60400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>59600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>56500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>53000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>56600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>48400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>48000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>61200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>65000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>138700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>129300</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>115300</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>88100</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>758200</v>
+        <v>913200</v>
       </c>
       <c r="E45" s="3">
-        <v>742000</v>
+        <v>772400</v>
       </c>
       <c r="F45" s="3">
-        <v>680300</v>
+        <v>755900</v>
       </c>
       <c r="G45" s="3">
-        <v>874900</v>
+        <v>693100</v>
       </c>
       <c r="H45" s="3">
-        <v>1118900</v>
+        <v>891300</v>
       </c>
       <c r="I45" s="3">
-        <v>8175600</v>
+        <v>1139900</v>
       </c>
       <c r="J45" s="3">
+        <v>8329200</v>
+      </c>
+      <c r="K45" s="3">
         <v>7579000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7468700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7323900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5210600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4210700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>686700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>831500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>948400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1373000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1518100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1470800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1517500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1510600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1613800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1654200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1917000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1804300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1856700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2049900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1864900</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1926500</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>2113900</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1879700</v>
+        <v>2074500</v>
       </c>
       <c r="E46" s="3">
-        <v>1704000</v>
+        <v>1915000</v>
       </c>
       <c r="F46" s="3">
-        <v>1927700</v>
+        <v>1736000</v>
       </c>
       <c r="G46" s="3">
-        <v>2746700</v>
+        <v>1963900</v>
       </c>
       <c r="H46" s="3">
-        <v>3312900</v>
+        <v>2798300</v>
       </c>
       <c r="I46" s="3">
-        <v>9659900</v>
+        <v>3375100</v>
       </c>
       <c r="J46" s="3">
+        <v>9841300</v>
+      </c>
+      <c r="K46" s="3">
         <v>9370600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9323000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8831300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7023800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6269300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3557700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3735000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3770800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3323400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3780600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3884400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4260200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3802300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4225200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4303100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5652800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>6088400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>6636400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>6762000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>6412000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>6502600</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>6955700</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1702200</v>
+        <v>1567200</v>
       </c>
       <c r="E47" s="3">
-        <v>1720200</v>
+        <v>1734200</v>
       </c>
       <c r="F47" s="3">
-        <v>1732200</v>
+        <v>1752500</v>
       </c>
       <c r="G47" s="3">
-        <v>1688100</v>
+        <v>1764700</v>
       </c>
       <c r="H47" s="3">
-        <v>1774000</v>
+        <v>1719800</v>
       </c>
       <c r="I47" s="3">
-        <v>125000</v>
+        <v>1807300</v>
       </c>
       <c r="J47" s="3">
+        <v>127400</v>
+      </c>
+      <c r="K47" s="3">
         <v>149000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>227600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>264200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>323200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>294100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>361200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>482100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>567200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>578000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>588700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>352100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>361700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>141200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>142900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>148400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>177100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>195900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>216900</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>228500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>209400</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>216900</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>226500</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1043900</v>
+        <v>1203800</v>
       </c>
       <c r="E48" s="3">
-        <v>1047500</v>
+        <v>1063500</v>
       </c>
       <c r="F48" s="3">
-        <v>1023700</v>
+        <v>1067200</v>
       </c>
       <c r="G48" s="3">
-        <v>3379400</v>
+        <v>1042900</v>
       </c>
       <c r="H48" s="3">
-        <v>3132100</v>
+        <v>3442800</v>
       </c>
       <c r="I48" s="3">
-        <v>3206200</v>
+        <v>3190900</v>
       </c>
       <c r="J48" s="3">
+        <v>3266400</v>
+      </c>
+      <c r="K48" s="3">
         <v>3268300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3324800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3456200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4745900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4535500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8104400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7873800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7804800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7186800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7223000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6688800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6539000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5071100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5095300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5027500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>6289300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>6919300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>6805600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>6753900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>6512100</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>6426600</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>6291400</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>91600</v>
+        <v>91900</v>
       </c>
       <c r="E49" s="3">
-        <v>85200</v>
+        <v>93400</v>
       </c>
       <c r="F49" s="3">
-        <v>88400</v>
+        <v>86800</v>
       </c>
       <c r="G49" s="3">
-        <v>677400</v>
+        <v>90100</v>
       </c>
       <c r="H49" s="3">
-        <v>718900</v>
+        <v>690100</v>
       </c>
       <c r="I49" s="3">
-        <v>770700</v>
+        <v>732400</v>
       </c>
       <c r="J49" s="3">
+        <v>785100</v>
+      </c>
+      <c r="K49" s="3">
         <v>808400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>638700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>677700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>711200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>691800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>687000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>709800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>743300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>738400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>551800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1152600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1193800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1239600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1387800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1444800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1928400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2140900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2740300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2817800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2696100</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>1221800</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>832100</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4157,8 +4270,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4246,97 +4362,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1224100</v>
+        <v>1175000</v>
       </c>
       <c r="E52" s="3">
-        <v>1188000</v>
+        <v>1247100</v>
       </c>
       <c r="F52" s="3">
-        <v>1205800</v>
+        <v>1210300</v>
       </c>
       <c r="G52" s="3">
-        <v>1364400</v>
+        <v>1228400</v>
       </c>
       <c r="H52" s="3">
-        <v>1318500</v>
+        <v>1390000</v>
       </c>
       <c r="I52" s="3">
-        <v>2122400</v>
+        <v>1343200</v>
       </c>
       <c r="J52" s="3">
+        <v>2162200</v>
+      </c>
+      <c r="K52" s="3">
         <v>2137100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1697500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1854200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1888400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2024000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1510100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1447800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1517300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1451800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1524200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1444400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1419600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1419800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1588400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1553100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1991300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2253000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>4740800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>4701300</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>4400600</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>2194100</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>5617900</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4424,97 +4546,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5941700</v>
+        <v>6112500</v>
       </c>
       <c r="E54" s="3">
-        <v>5744900</v>
+        <v>6053200</v>
       </c>
       <c r="F54" s="3">
-        <v>5977700</v>
+        <v>5852800</v>
       </c>
       <c r="G54" s="3">
-        <v>9855900</v>
+        <v>6090000</v>
       </c>
       <c r="H54" s="3">
-        <v>10256400</v>
+        <v>10041000</v>
       </c>
       <c r="I54" s="3">
-        <v>15884200</v>
+        <v>10449000</v>
       </c>
       <c r="J54" s="3">
+        <v>16182400</v>
+      </c>
+      <c r="K54" s="3">
         <v>15733500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15211600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15083700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14692400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13814700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14220400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14248600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14403300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13278400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13668300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>13522300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>13774300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11674100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12439700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12476900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>16038900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>17597700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>21140000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>21263500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>20230100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>16366400</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>19923600</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4546,8 +4674,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4579,436 +4708,449 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>891700</v>
+        <v>1019700</v>
       </c>
       <c r="E57" s="3">
-        <v>709500</v>
+        <v>908400</v>
       </c>
       <c r="F57" s="3">
-        <v>752400</v>
+        <v>722900</v>
       </c>
       <c r="G57" s="3">
-        <v>832300</v>
+        <v>766600</v>
       </c>
       <c r="H57" s="3">
-        <v>743100</v>
+        <v>847900</v>
       </c>
       <c r="I57" s="3">
-        <v>799500</v>
+        <v>757100</v>
       </c>
       <c r="J57" s="3">
+        <v>814500</v>
+      </c>
+      <c r="K57" s="3">
         <v>813300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>714200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>786800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>787000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>618600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>916700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>845400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>964500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1033200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1106800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1069200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>998800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>932300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>809500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>765900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1148900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1955500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1819400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1803900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1648700</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1631900</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>1766800</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>553000</v>
+        <v>1057600</v>
       </c>
       <c r="E58" s="3">
-        <v>456200</v>
+        <v>563400</v>
       </c>
       <c r="F58" s="3">
-        <v>457500</v>
+        <v>464800</v>
       </c>
       <c r="G58" s="3">
-        <v>377700</v>
+        <v>466100</v>
       </c>
       <c r="H58" s="3">
-        <v>218900</v>
+        <v>384800</v>
       </c>
       <c r="I58" s="3">
-        <v>671000</v>
+        <v>223000</v>
       </c>
       <c r="J58" s="3">
+        <v>683600</v>
+      </c>
+      <c r="K58" s="3">
         <v>721900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>195100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>917700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>975400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>202000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>365100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>406400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>348900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>339200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>308500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>316300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>274600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>120000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>92600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>55300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>22900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>13976600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>13260500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>13287000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>11958200</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>11929200</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>11962600</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>829900</v>
+        <v>809100</v>
       </c>
       <c r="E59" s="3">
-        <v>833800</v>
+        <v>845400</v>
       </c>
       <c r="F59" s="3">
-        <v>845800</v>
+        <v>849500</v>
       </c>
       <c r="G59" s="3">
-        <v>797700</v>
+        <v>861700</v>
       </c>
       <c r="H59" s="3">
-        <v>812300</v>
+        <v>812700</v>
       </c>
       <c r="I59" s="3">
-        <v>4367000</v>
+        <v>827600</v>
       </c>
       <c r="J59" s="3">
+        <v>4449000</v>
+      </c>
+      <c r="K59" s="3">
         <v>3792800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3817500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3596800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2882400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2328100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1093200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1069000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>931000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>813700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>821200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>741200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>853600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>854700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>886300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>839200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1301300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1474000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1595900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1629500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1459300</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1642600</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>1427200</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2274600</v>
+        <v>2886400</v>
       </c>
       <c r="E60" s="3">
-        <v>1999600</v>
+        <v>2317300</v>
       </c>
       <c r="F60" s="3">
-        <v>2055700</v>
+        <v>2037200</v>
       </c>
       <c r="G60" s="3">
-        <v>2007700</v>
+        <v>2094300</v>
       </c>
       <c r="H60" s="3">
-        <v>1774400</v>
+        <v>2045400</v>
       </c>
       <c r="I60" s="3">
-        <v>5837500</v>
+        <v>1807700</v>
       </c>
       <c r="J60" s="3">
+        <v>5947100</v>
+      </c>
+      <c r="K60" s="3">
         <v>5328000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4726900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5301200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4644800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3148800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2374900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2320700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2244500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2186100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2236600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2126700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2127000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1907000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1788400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1660300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2473100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>17406100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>16675800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>16720400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>15066200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>15203800</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>15156600</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4878600</v>
+        <v>4918500</v>
       </c>
       <c r="E61" s="3">
-        <v>4779300</v>
+        <v>4970200</v>
       </c>
       <c r="F61" s="3">
-        <v>4676200</v>
+        <v>4869000</v>
       </c>
       <c r="G61" s="3">
-        <v>4673600</v>
+        <v>4764100</v>
       </c>
       <c r="H61" s="3">
-        <v>4682600</v>
+        <v>4761300</v>
       </c>
       <c r="I61" s="3">
-        <v>6067900</v>
+        <v>4770600</v>
       </c>
       <c r="J61" s="3">
+        <v>6181900</v>
+      </c>
+      <c r="K61" s="3">
         <v>6542600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6748500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5069500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5294700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5284500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6605000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6383100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6125900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4532600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4594200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4114400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4060300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2814600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2893200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2761000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3137600</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
@@ -5024,97 +5166,103 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3624600</v>
+        <v>3816400</v>
       </c>
       <c r="E62" s="3">
-        <v>3630900</v>
+        <v>3692600</v>
       </c>
       <c r="F62" s="3">
-        <v>3655100</v>
+        <v>3699100</v>
       </c>
       <c r="G62" s="3">
-        <v>3629000</v>
+        <v>3723700</v>
       </c>
       <c r="H62" s="3">
-        <v>3637000</v>
+        <v>3697200</v>
       </c>
       <c r="I62" s="3">
-        <v>3763900</v>
+        <v>3705300</v>
       </c>
       <c r="J62" s="3">
+        <v>3834600</v>
+      </c>
+      <c r="K62" s="3">
         <v>4008900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3518900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3529500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3797600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3927700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4065700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3954500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3774000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3272700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3070700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2702200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2729900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2867900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2898700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2944200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3677600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3656000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2249900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>2291100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>2263300</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>2816300</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>2183300</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5202,8 +5350,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5291,8 +5442,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5380,97 +5534,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10784400</v>
+        <v>11628100</v>
       </c>
       <c r="E66" s="3">
-        <v>10416400</v>
+        <v>10986900</v>
       </c>
       <c r="F66" s="3">
-        <v>10393700</v>
+        <v>10612000</v>
       </c>
       <c r="G66" s="3">
-        <v>10316900</v>
+        <v>10588900</v>
       </c>
       <c r="H66" s="3">
-        <v>10100500</v>
+        <v>10510600</v>
       </c>
       <c r="I66" s="3">
-        <v>15675200</v>
+        <v>10290100</v>
       </c>
       <c r="J66" s="3">
+        <v>15969600</v>
+      </c>
+      <c r="K66" s="3">
         <v>15886000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14997800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13903300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13740500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12364500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13049700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12675600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12177900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10018400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9932200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8982000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8957200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7632900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7631300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7417100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>9352500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>21137300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>19003400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>19099400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>17422600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>18216300</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>17565100</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5502,8 +5662,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5591,8 +5752,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5680,8 +5844,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5769,8 +5936,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5858,97 +6028,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-11323100</v>
+        <v>-12117800</v>
       </c>
       <c r="E72" s="3">
-        <v>-11151900</v>
+        <v>-11535700</v>
       </c>
       <c r="F72" s="3">
-        <v>-10896400</v>
+        <v>-11361300</v>
       </c>
       <c r="G72" s="3">
-        <v>-6945200</v>
+        <v>-11101000</v>
       </c>
       <c r="H72" s="3">
-        <v>-6328100</v>
+        <v>-7075700</v>
       </c>
       <c r="I72" s="3">
-        <v>-6274400</v>
+        <v>-6447000</v>
       </c>
       <c r="J72" s="3">
+        <v>-6392200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-6635900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6259000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5290300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5520900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4561700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5121700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4584300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3920900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2558600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2174000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-999500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-287400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1076100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-526800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>82200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>397400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-7467000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-1821000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-1823000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-952300</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-5646300</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-1463600</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6036,8 +6212,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6125,8 +6304,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6214,97 +6396,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-4842800</v>
+        <v>-5515600</v>
       </c>
       <c r="E76" s="3">
-        <v>-4671500</v>
+        <v>-4933700</v>
       </c>
       <c r="F76" s="3">
-        <v>-4416000</v>
+        <v>-4759200</v>
       </c>
       <c r="G76" s="3">
-        <v>-460900</v>
+        <v>-4498900</v>
       </c>
       <c r="H76" s="3">
-        <v>155900</v>
+        <v>-469600</v>
       </c>
       <c r="I76" s="3">
-        <v>208900</v>
+        <v>158900</v>
       </c>
       <c r="J76" s="3">
+        <v>212900</v>
+      </c>
+      <c r="K76" s="3">
         <v>-152500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>213800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1180400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>952000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1450200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1170700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1572900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2225400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3260000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3736100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4540200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4817100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4041200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4808300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5059700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6686400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-3539600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2136600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2164100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2807500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-1849900</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>2358500</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6392,191 +6580,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-170500</v>
+        <v>-582100</v>
       </c>
       <c r="E81" s="3">
-        <v>-255800</v>
+        <v>-173700</v>
       </c>
       <c r="F81" s="3">
-        <v>-3565700</v>
+        <v>-260600</v>
       </c>
       <c r="G81" s="3">
-        <v>-618400</v>
+        <v>-3632600</v>
       </c>
       <c r="H81" s="3">
-        <v>-64800</v>
+        <v>-630000</v>
       </c>
       <c r="I81" s="3">
-        <v>359700</v>
+        <v>-66000</v>
       </c>
       <c r="J81" s="3">
+        <v>366400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-336800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-978400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>220300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-621000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>336400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-516300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-664100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1223200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1662400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1078000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-276100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>100600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-599100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-247300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>5418700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>7132500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-743600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1107400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-46800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-1070600</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-301300</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6608,97 +6805,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>62200</v>
+        <v>74800</v>
       </c>
       <c r="E83" s="3">
-        <v>64400</v>
+        <v>63300</v>
       </c>
       <c r="F83" s="3">
-        <v>222500</v>
+        <v>65600</v>
       </c>
       <c r="G83" s="3">
-        <v>222400</v>
+        <v>226600</v>
       </c>
       <c r="H83" s="3">
-        <v>209100</v>
+        <v>226500</v>
       </c>
       <c r="I83" s="3">
-        <v>198400</v>
+        <v>213100</v>
       </c>
       <c r="J83" s="3">
+        <v>202100</v>
+      </c>
+      <c r="K83" s="3">
         <v>206500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>219000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>144900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>236000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>-156000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>340500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>335900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>333300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1269600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>328700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>306200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>299200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>265200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>272300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>528000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>296200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>186400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>371800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>751700</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>376900</v>
-      </c>
-      <c r="AD83" s="3">
-        <v>384100</v>
       </c>
       <c r="AE83" s="3">
         <v>384100</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>384100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6786,8 +6987,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6875,8 +7079,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6964,8 +7171,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7053,8 +7263,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7142,97 +7355,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-9900</v>
+        <v>-112400</v>
       </c>
       <c r="E89" s="3">
-        <v>-185600</v>
+        <v>-10100</v>
       </c>
       <c r="F89" s="3">
-        <v>-11400</v>
+        <v>-189100</v>
       </c>
       <c r="G89" s="3">
-        <v>-240100</v>
+        <v>-11600</v>
       </c>
       <c r="H89" s="3">
-        <v>-438200</v>
+        <v>-244600</v>
       </c>
       <c r="I89" s="3">
-        <v>167300</v>
+        <v>-446400</v>
       </c>
       <c r="J89" s="3">
+        <v>170400</v>
+      </c>
+      <c r="K89" s="3">
         <v>307000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>160400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-398600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-90400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>135900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>375600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>256200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>102300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>427000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>225500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>43300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-88100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>108900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>204400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>212200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>190200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>135200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>380300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>613000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>227400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>401600</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>594500</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7264,97 +7483,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-160200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-78100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-315400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-315200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-148500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-530800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-443000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1198700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1140500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-497300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-663300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-389000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-46700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>7400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-228900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1371500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-371700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-313800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-264200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-242900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-204800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-513900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-353700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-257900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-311700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-544300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-497100</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-437700</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-103100</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7442,8 +7665,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7531,97 +7757,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-16100</v>
+        <v>144600</v>
       </c>
       <c r="E94" s="3">
-        <v>-70600</v>
+        <v>-16400</v>
       </c>
       <c r="F94" s="3">
-        <v>-48900</v>
+        <v>-72000</v>
       </c>
       <c r="G94" s="3">
-        <v>-22300</v>
+        <v>-49800</v>
       </c>
       <c r="H94" s="3">
-        <v>3955100</v>
+        <v>-22700</v>
       </c>
       <c r="I94" s="3">
-        <v>-368200</v>
+        <v>4029400</v>
       </c>
       <c r="J94" s="3">
+        <v>-375100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-246500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-330000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-279200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-111100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-343700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-358500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-220800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>276100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1265300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-347200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-314200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-249400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-216600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-183500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-501700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-334300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-306200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-291300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-536100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-235400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-216200</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-58500</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7653,8 +7885,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7701,11 +7934,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-100</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -7731,19 +7964,22 @@
         <v>0</v>
       </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-15200</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
         <v>0</v>
       </c>
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7831,8 +8067,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7920,8 +8159,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8009,145 +8251,151 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>168000</v>
+        <v>-41000</v>
       </c>
       <c r="E100" s="3">
-        <v>-30900</v>
+        <v>171200</v>
       </c>
       <c r="F100" s="3">
-        <v>-12000</v>
+        <v>-31500</v>
       </c>
       <c r="G100" s="3">
-        <v>-33000</v>
+        <v>-12200</v>
       </c>
       <c r="H100" s="3">
-        <v>-2848800</v>
+        <v>-33600</v>
       </c>
       <c r="I100" s="3">
-        <v>-104500</v>
+        <v>-2902300</v>
       </c>
       <c r="J100" s="3">
+        <v>-106500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-77000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>498300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>413300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-72900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-72000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-74600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-74400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>379400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>412900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-81300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-77700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>628700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-11100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-27000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-40000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-41000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-21100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-17100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-139100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-6600</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>2000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E101" s="3">
         <v>1500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1400</v>
       </c>
-      <c r="F101" s="3">
-        <v>-3000</v>
-      </c>
       <c r="G101" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H101" s="3">
         <v>3300</v>
       </c>
-      <c r="H101" s="3">
-        <v>-6200</v>
-      </c>
       <c r="I101" s="3">
-        <v>28800</v>
+        <v>-6300</v>
       </c>
       <c r="J101" s="3">
+        <v>29300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-4300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-1900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>6800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>35000</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
@@ -8158,122 +8406,128 @@
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-3300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-200</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>2000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-100</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-35800</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-61800</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>143500</v>
+        <v>-7500</v>
       </c>
       <c r="E102" s="3">
-        <v>-285800</v>
+        <v>146200</v>
       </c>
       <c r="F102" s="3">
-        <v>-75300</v>
+        <v>-291200</v>
       </c>
       <c r="G102" s="3">
-        <v>-292100</v>
+        <v>-76700</v>
       </c>
       <c r="H102" s="3">
-        <v>661900</v>
+        <v>-297600</v>
       </c>
       <c r="I102" s="3">
-        <v>-276700</v>
+        <v>674300</v>
       </c>
       <c r="J102" s="3">
+        <v>-281900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-20800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>320200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-265600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-273700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-253500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-75800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-46600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>780700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-425400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-203000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-348600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>291200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-122000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-5000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-326900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-184300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-191200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>71700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-60200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-14700</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>151500</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>521000</v>
       </c>
     </row>
